--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="226">
   <si>
     <t>Register Number</t>
   </si>
@@ -687,6 +687,15 @@
   <si>
     <t>16 bit unsigned number</t>
   </si>
+  <si>
+    <t>TIMING_WR_STRB</t>
+  </si>
+  <si>
+    <t>Timing registers for WR_STRB lower bits are leading, upper bits are trailing</t>
+  </si>
+  <si>
+    <t>see reg 365</t>
+  </si>
 </sst>
 </file>
 
@@ -756,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -797,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,9 +1113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E366" sqref="E366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10607,218 +10619,458 @@
         <f t="shared" si="6"/>
         <v>016B</v>
       </c>
-      <c r="C365" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D365" s="5" t="s">
-        <v>5</v>
+      <c r="C365" s="5">
+        <v>0</v>
+      </c>
+      <c r="D365" s="5">
+        <v>0</v>
       </c>
       <c r="E365" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="5">
         <v>364</v>
       </c>
-      <c r="B366" s="4" t="str">
+      <c r="B366" s="7" t="str">
         <f t="shared" si="6"/>
         <v>016C</v>
       </c>
-      <c r="F366" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="C366" s="5">
+        <v>0</v>
+      </c>
+      <c r="D366" s="5">
+        <v>1</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="5">
         <v>365</v>
       </c>
-      <c r="B367" s="4" t="str">
+      <c r="B367" s="7" t="str">
         <f t="shared" si="6"/>
         <v>016D</v>
       </c>
-      <c r="F367" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="C367" s="5">
+        <v>0</v>
+      </c>
+      <c r="D367" s="5">
+        <v>2</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="5">
         <v>366</v>
       </c>
-      <c r="B368" s="4" t="str">
+      <c r="B368" s="7" t="str">
         <f t="shared" si="6"/>
         <v>016E</v>
       </c>
-      <c r="F368" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="C368" s="5">
+        <v>0</v>
+      </c>
+      <c r="D368" s="5">
+        <v>3</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="5">
         <v>367</v>
       </c>
-      <c r="B369" s="4" t="str">
+      <c r="B369" s="7" t="str">
         <f t="shared" si="6"/>
         <v>016F</v>
       </c>
-      <c r="F369" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="C369" s="5">
+        <v>1</v>
+      </c>
+      <c r="D369" s="5">
+        <v>0</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H369" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="5">
         <v>368</v>
       </c>
-      <c r="B370" s="4" t="str">
+      <c r="B370" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0170</v>
       </c>
-      <c r="F370" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="C370" s="5">
+        <v>1</v>
+      </c>
+      <c r="D370" s="5">
+        <v>1</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="5">
         <v>369</v>
       </c>
-      <c r="B371" s="4" t="str">
+      <c r="B371" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0171</v>
       </c>
-      <c r="F371" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="C371" s="5">
+        <v>1</v>
+      </c>
+      <c r="D371" s="5">
+        <v>2</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H371" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="5">
         <v>370</v>
       </c>
-      <c r="B372" s="4" t="str">
+      <c r="B372" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0172</v>
       </c>
-      <c r="F372" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="C372" s="5">
+        <v>1</v>
+      </c>
+      <c r="D372" s="5">
+        <v>3</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="5">
         <v>371</v>
       </c>
-      <c r="B373" s="4" t="str">
+      <c r="B373" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0173</v>
       </c>
-      <c r="F373" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="C373" s="5">
+        <v>2</v>
+      </c>
+      <c r="D373" s="5">
+        <v>0</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H373" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="5">
         <v>372</v>
       </c>
-      <c r="B374" s="4" t="str">
+      <c r="B374" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0174</v>
       </c>
-      <c r="F374" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="C374" s="5">
+        <v>2</v>
+      </c>
+      <c r="D374" s="5">
+        <v>1</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="5">
         <v>373</v>
       </c>
-      <c r="B375" s="4" t="str">
+      <c r="B375" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0175</v>
       </c>
-      <c r="F375" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="C375" s="5">
+        <v>2</v>
+      </c>
+      <c r="D375" s="5">
+        <v>2</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H375" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="5">
         <v>374</v>
       </c>
-      <c r="B376" s="4" t="str">
+      <c r="B376" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0176</v>
       </c>
-      <c r="F376" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="C376" s="5">
+        <v>2</v>
+      </c>
+      <c r="D376" s="5">
+        <v>3</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="5">
         <v>375</v>
       </c>
-      <c r="B377" s="4" t="str">
+      <c r="B377" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0177</v>
       </c>
-      <c r="F377" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="C377" s="5">
+        <v>3</v>
+      </c>
+      <c r="D377" s="5">
+        <v>0</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H377" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="5">
         <v>376</v>
       </c>
-      <c r="B378" s="4" t="str">
+      <c r="B378" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0178</v>
       </c>
-      <c r="F378" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="C378" s="5">
+        <v>3</v>
+      </c>
+      <c r="D378" s="5">
+        <v>1</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="5">
         <v>377</v>
       </c>
-      <c r="B379" s="4" t="str">
+      <c r="B379" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0179</v>
       </c>
-      <c r="F379" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="C379" s="5">
+        <v>3</v>
+      </c>
+      <c r="D379" s="5">
+        <v>2</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="5">
         <v>378</v>
       </c>
-      <c r="B380" s="4" t="str">
+      <c r="B380" s="7" t="str">
         <f t="shared" si="6"/>
         <v>017A</v>
       </c>
-      <c r="F380" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="C380" s="5">
+        <v>3</v>
+      </c>
+      <c r="D380" s="5">
+        <v>3</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="5">
         <v>379</v>
       </c>
-      <c r="B381" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="B381" s="7" t="str">
+        <f t="shared" ref="B381" si="7">DEC2HEX(A381,4)</f>
         <v>017B</v>
       </c>
-      <c r="F381" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C381" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10830,7 +11082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10842,7 +11094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10895,7 +11147,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="4" t="str">
-        <f t="shared" ref="B388:B451" si="7">DEC2HEX(A388,4)</f>
+        <f t="shared" ref="B388:B451" si="8">DEC2HEX(A388,4)</f>
         <v>0182</v>
       </c>
       <c r="F388" t="s">
@@ -10907,7 +11159,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0183</v>
       </c>
       <c r="F389" t="s">
@@ -10919,7 +11171,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0184</v>
       </c>
       <c r="F390" t="s">
@@ -10931,7 +11183,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0185</v>
       </c>
       <c r="F391" t="s">
@@ -10943,7 +11195,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0186</v>
       </c>
       <c r="F392" t="s">
@@ -10955,7 +11207,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0187</v>
       </c>
       <c r="F393" t="s">
@@ -10967,7 +11219,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0188</v>
       </c>
       <c r="F394" t="s">
@@ -10979,7 +11231,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0189</v>
       </c>
       <c r="F395" t="s">
@@ -10991,7 +11243,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>018A</v>
       </c>
       <c r="F396" t="s">
@@ -11003,7 +11255,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>018B</v>
       </c>
       <c r="F397" t="s">
@@ -11015,7 +11267,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>018C</v>
       </c>
       <c r="F398" t="s">
@@ -11027,7 +11279,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>018D</v>
       </c>
       <c r="F399" t="s">
@@ -11039,7 +11291,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>018E</v>
       </c>
       <c r="F400" t="s">
@@ -11051,7 +11303,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>018F</v>
       </c>
       <c r="F401" t="s">
@@ -11063,7 +11315,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0190</v>
       </c>
       <c r="F402" t="s">
@@ -11075,7 +11327,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0191</v>
       </c>
       <c r="F403" t="s">
@@ -11087,7 +11339,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0192</v>
       </c>
       <c r="F404" t="s">
@@ -11099,7 +11351,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0193</v>
       </c>
       <c r="F405" t="s">
@@ -11111,7 +11363,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0194</v>
       </c>
       <c r="F406" t="s">
@@ -11123,7 +11375,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0195</v>
       </c>
       <c r="F407" t="s">
@@ -11135,7 +11387,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0196</v>
       </c>
       <c r="F408" t="s">
@@ -11147,7 +11399,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0197</v>
       </c>
       <c r="F409" t="s">
@@ -11159,7 +11411,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0198</v>
       </c>
       <c r="F410" t="s">
@@ -11171,7 +11423,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0199</v>
       </c>
       <c r="F411" t="s">
@@ -11183,7 +11435,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>019A</v>
       </c>
       <c r="F412" t="s">
@@ -11195,7 +11447,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>019B</v>
       </c>
       <c r="F413" t="s">
@@ -11207,7 +11459,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>019C</v>
       </c>
       <c r="F414" t="s">
@@ -11219,7 +11471,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>019D</v>
       </c>
       <c r="F415" t="s">
@@ -11231,7 +11483,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>019E</v>
       </c>
       <c r="F416" t="s">
@@ -11243,7 +11495,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>019F</v>
       </c>
       <c r="F417" t="s">
@@ -11255,7 +11507,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A0</v>
       </c>
       <c r="F418" t="s">
@@ -11267,7 +11519,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A1</v>
       </c>
       <c r="F419" t="s">
@@ -11279,7 +11531,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A2</v>
       </c>
       <c r="F420" t="s">
@@ -11291,7 +11543,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A3</v>
       </c>
       <c r="F421" t="s">
@@ -11303,7 +11555,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A4</v>
       </c>
       <c r="F422" t="s">
@@ -11315,7 +11567,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A5</v>
       </c>
       <c r="F423" t="s">
@@ -11327,7 +11579,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A6</v>
       </c>
       <c r="F424" t="s">
@@ -11339,7 +11591,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A7</v>
       </c>
       <c r="F425" t="s">
@@ -11351,7 +11603,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A8</v>
       </c>
       <c r="F426" t="s">
@@ -11363,7 +11615,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01A9</v>
       </c>
       <c r="F427" t="s">
@@ -11375,7 +11627,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01AA</v>
       </c>
       <c r="F428" t="s">
@@ -11387,7 +11639,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01AB</v>
       </c>
       <c r="F429" t="s">
@@ -11399,7 +11651,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01AC</v>
       </c>
       <c r="F430" t="s">
@@ -11411,7 +11663,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01AD</v>
       </c>
       <c r="F431" t="s">
@@ -11423,7 +11675,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01AE</v>
       </c>
       <c r="F432" t="s">
@@ -11435,7 +11687,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01AF</v>
       </c>
       <c r="F433" t="s">
@@ -11447,7 +11699,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B0</v>
       </c>
       <c r="F434" t="s">
@@ -11459,7 +11711,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B1</v>
       </c>
       <c r="F435" t="s">
@@ -11471,7 +11723,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B2</v>
       </c>
       <c r="F436" t="s">
@@ -11483,7 +11735,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B3</v>
       </c>
       <c r="F437" t="s">
@@ -11495,7 +11747,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B4</v>
       </c>
       <c r="F438" t="s">
@@ -11507,7 +11759,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B5</v>
       </c>
       <c r="F439" t="s">
@@ -11519,7 +11771,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B6</v>
       </c>
       <c r="F440" t="s">
@@ -11531,7 +11783,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B7</v>
       </c>
       <c r="F441" t="s">
@@ -11543,7 +11795,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B8</v>
       </c>
       <c r="F442" t="s">
@@ -11555,7 +11807,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01B9</v>
       </c>
       <c r="F443" t="s">
@@ -11567,7 +11819,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01BA</v>
       </c>
       <c r="F444" t="s">
@@ -11579,7 +11831,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01BB</v>
       </c>
       <c r="F445" t="s">
@@ -11591,7 +11843,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01BC</v>
       </c>
       <c r="F446" t="s">
@@ -11603,7 +11855,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01BD</v>
       </c>
       <c r="F447" t="s">
@@ -11615,7 +11867,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01BE</v>
       </c>
       <c r="F448" t="s">
@@ -11627,7 +11879,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01BF</v>
       </c>
       <c r="F449" t="s">
@@ -11639,7 +11891,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01C0</v>
       </c>
       <c r="F450" t="s">
@@ -11651,7 +11903,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>01C1</v>
       </c>
       <c r="F451" t="s">
@@ -11663,7 +11915,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="4" t="str">
-        <f t="shared" ref="B452:B513" si="8">DEC2HEX(A452,4)</f>
+        <f t="shared" ref="B452:B513" si="9">DEC2HEX(A452,4)</f>
         <v>01C2</v>
       </c>
       <c r="F452" t="s">
@@ -11675,7 +11927,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01C3</v>
       </c>
       <c r="F453" t="s">
@@ -11687,7 +11939,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01C4</v>
       </c>
       <c r="F454" t="s">
@@ -11699,7 +11951,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01C5</v>
       </c>
       <c r="F455" t="s">
@@ -11711,7 +11963,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01C6</v>
       </c>
       <c r="F456" t="s">
@@ -11723,7 +11975,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01C7</v>
       </c>
       <c r="F457" t="s">
@@ -11735,7 +11987,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01C8</v>
       </c>
       <c r="F458" t="s">
@@ -11747,7 +11999,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01C9</v>
       </c>
       <c r="F459" t="s">
@@ -11759,7 +12011,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01CA</v>
       </c>
       <c r="F460" t="s">
@@ -11771,7 +12023,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01CB</v>
       </c>
       <c r="F461" t="s">
@@ -11783,7 +12035,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01CC</v>
       </c>
       <c r="F462" t="s">
@@ -11795,7 +12047,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01CD</v>
       </c>
       <c r="F463" t="s">
@@ -11807,7 +12059,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01CE</v>
       </c>
       <c r="F464" t="s">
@@ -11819,7 +12071,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01CF</v>
       </c>
       <c r="F465" t="s">
@@ -11831,7 +12083,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D0</v>
       </c>
       <c r="F466" t="s">
@@ -11843,7 +12095,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D1</v>
       </c>
       <c r="F467" t="s">
@@ -11855,7 +12107,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D2</v>
       </c>
       <c r="F468" t="s">
@@ -11867,7 +12119,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D3</v>
       </c>
       <c r="F469" t="s">
@@ -11879,7 +12131,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D4</v>
       </c>
       <c r="F470" t="s">
@@ -11891,7 +12143,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D5</v>
       </c>
       <c r="F471" t="s">
@@ -11903,7 +12155,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D6</v>
       </c>
       <c r="F472" t="s">
@@ -11915,7 +12167,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D7</v>
       </c>
       <c r="F473" t="s">
@@ -11927,7 +12179,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D8</v>
       </c>
       <c r="F474" t="s">
@@ -11939,7 +12191,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01D9</v>
       </c>
       <c r="F475" t="s">
@@ -11951,7 +12203,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01DA</v>
       </c>
       <c r="F476" t="s">
@@ -11963,7 +12215,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01DB</v>
       </c>
       <c r="F477" t="s">
@@ -11975,7 +12227,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01DC</v>
       </c>
       <c r="F478" t="s">
@@ -11987,7 +12239,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01DD</v>
       </c>
       <c r="F479" t="s">
@@ -11999,7 +12251,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01DE</v>
       </c>
       <c r="F480" t="s">
@@ -12011,7 +12263,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01DF</v>
       </c>
       <c r="F481" t="s">
@@ -12023,7 +12275,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E0</v>
       </c>
       <c r="F482" t="s">
@@ -12035,7 +12287,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E1</v>
       </c>
       <c r="F483" t="s">
@@ -12047,7 +12299,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E2</v>
       </c>
       <c r="F484" t="s">
@@ -12059,7 +12311,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E3</v>
       </c>
       <c r="F485" t="s">
@@ -12071,7 +12323,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E4</v>
       </c>
       <c r="F486" t="s">
@@ -12083,7 +12335,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E5</v>
       </c>
       <c r="F487" t="s">
@@ -12095,7 +12347,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E6</v>
       </c>
       <c r="F488" t="s">
@@ -12107,7 +12359,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E7</v>
       </c>
       <c r="F489" t="s">
@@ -12119,7 +12371,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E8</v>
       </c>
       <c r="F490" t="s">
@@ -12131,7 +12383,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01E9</v>
       </c>
       <c r="F491" t="s">
@@ -12143,7 +12395,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01EA</v>
       </c>
       <c r="F492" t="s">
@@ -12155,7 +12407,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01EB</v>
       </c>
       <c r="F493" t="s">
@@ -12167,7 +12419,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01EC</v>
       </c>
       <c r="F494" t="s">
@@ -12179,7 +12431,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01ED</v>
       </c>
       <c r="F495" t="s">
@@ -12191,7 +12443,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01EE</v>
       </c>
       <c r="F496" t="s">
@@ -12203,7 +12455,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01EF</v>
       </c>
       <c r="F497" t="s">
@@ -12215,7 +12467,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F0</v>
       </c>
       <c r="F498" t="s">
@@ -12227,7 +12479,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F1</v>
       </c>
       <c r="F499" t="s">
@@ -12239,7 +12491,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F2</v>
       </c>
       <c r="F500" t="s">
@@ -12251,7 +12503,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F3</v>
       </c>
       <c r="F501" t="s">
@@ -12263,7 +12515,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F4</v>
       </c>
       <c r="C502" s="5" t="s">
@@ -12290,7 +12542,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F5</v>
       </c>
       <c r="C503" s="5" t="s">
@@ -12317,7 +12569,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F6</v>
       </c>
       <c r="C504" s="5" t="s">
@@ -12344,7 +12596,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F7</v>
       </c>
       <c r="C505" s="5" t="s">
@@ -12371,7 +12623,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F8</v>
       </c>
       <c r="C506" s="5" t="s">
@@ -12398,7 +12650,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01F9</v>
       </c>
       <c r="F507" t="s">
@@ -12410,7 +12662,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01FA</v>
       </c>
       <c r="F508" t="s">
@@ -12422,7 +12674,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01FB</v>
       </c>
       <c r="F509" t="s">
@@ -12434,7 +12686,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01FC</v>
       </c>
       <c r="F510" t="s">
@@ -12446,7 +12698,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01FD</v>
       </c>
       <c r="F511" t="s">
@@ -12458,7 +12710,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01FE</v>
       </c>
       <c r="F512" t="s">
@@ -12470,7 +12722,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>01FF</v>
       </c>
       <c r="F513" t="s">
@@ -12486,9 +12738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H627"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A522" sqref="A521:XFD522"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12525,4778 +12777,4778 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="str">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="str">
         <f>DEC2HEX(A2,4)</f>
         <v>0000</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="8" t="str">
         <f>'SCROD Write Registers'!C2</f>
         <v>N/A</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="8" t="str">
         <f>'SCROD Write Registers'!D2</f>
         <v>N/A</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="8" t="str">
         <f>'SCROD Write Registers'!E2</f>
         <v>N/A</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="8" t="str">
         <f>'SCROD Write Registers'!F2</f>
         <v>LEDS</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="8" t="str">
         <f>'SCROD Write Registers'!G2</f>
         <v>LEDs.  Display SCROD ID on startup.  FET must be installed properly.  LED switch must be active.</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="8" t="str">
         <f>'SCROD Write Registers'!H2</f>
         <v>One bit per LED</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="str">
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="str">
         <f t="shared" ref="B3:B66" si="0">DEC2HEX(A3,4)</f>
         <v>0001</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="8" t="str">
         <f>'SCROD Write Registers'!C3</f>
         <v>N/A</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="8" t="str">
         <f>'SCROD Write Registers'!D3</f>
         <v>N/A</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="8" t="str">
         <f>'SCROD Write Registers'!E3</f>
         <v>N/A</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="8" t="str">
         <f>'SCROD Write Registers'!F3</f>
         <v>I2C_BUS[0]_Write</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="8" t="str">
         <f>'SCROD Write Registers'!G3</f>
         <v>I2C write for SCROD EEPROM and temperature sensor on SCROD</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="8" t="str">
         <f>'SCROD Write Registers'!H3</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="str">
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0002</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="8" t="str">
         <f>'SCROD Write Registers'!C4</f>
         <v>N/A</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="8" t="str">
         <f>'SCROD Write Registers'!D4</f>
         <v>N/A</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="8" t="str">
         <f>'SCROD Write Registers'!E4</f>
         <v>N/A</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="8" t="str">
         <f>'SCROD Write Registers'!F4</f>
         <v>I2C_BUS[1]_Write</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="8" t="str">
         <f>'SCROD Write Registers'!G4</f>
         <v>I2C write for SCROD fiber transceiver 0</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="8" t="str">
         <f>'SCROD Write Registers'!H4</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="str">
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0003</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="8" t="str">
         <f>'SCROD Write Registers'!C5</f>
         <v>N/A</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="8" t="str">
         <f>'SCROD Write Registers'!D5</f>
         <v>N/A</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="8" t="str">
         <f>'SCROD Write Registers'!E5</f>
         <v>N/A</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="8" t="str">
         <f>'SCROD Write Registers'!F5</f>
         <v>I2C_BUS[2]_Write</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="8" t="str">
         <f>'SCROD Write Registers'!G5</f>
         <v>I2C write for SCROD fiber transceiver 1</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="8" t="str">
         <f>'SCROD Write Registers'!H5</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0004</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="8" t="str">
         <f>'SCROD Write Registers'!C6</f>
         <v>N/A</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="8" t="str">
         <f>'SCROD Write Registers'!D6</f>
         <v>N/A</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="8" t="str">
         <f>'SCROD Write Registers'!E6</f>
         <v>N/A</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="8" t="str">
         <f>'SCROD Write Registers'!F6</f>
         <v>Trigger interfaces</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="8" t="str">
         <f>'SCROD Write Registers'!G6</f>
         <v>Trigger polarity, set column/row for scaler monitoring</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="8" t="str">
         <f>'SCROD Write Registers'!H6</f>
         <v xml:space="preserve">Bit 15: trigger polarity (1 for rising edge, 0 for falling), Bits 14:4: unused, Bits 3:2: col select, Bits 1:0: row select (col/row selects choose which trigger scalers to read) </v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0005</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="8" t="str">
         <f>'SCROD Write Registers'!C7</f>
         <v>G</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="8" t="str">
         <f>'SCROD Write Registers'!D7</f>
         <v>G</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="8" t="str">
         <f>'SCROD Write Registers'!E7</f>
         <v>G</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="8" t="str">
         <f>'SCROD Write Registers'!F7</f>
         <v>TRGBIAS</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="8" t="str">
         <f>'SCROD Write Registers'!G7</f>
         <v>Internal ASIC trigger comparator bias, shared for all ASICs</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="8" t="str">
         <f>'SCROD Write Registers'!H7</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0006</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="8" t="str">
         <f>'SCROD Write Registers'!C8</f>
         <v>G</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="8" t="str">
         <f>'SCROD Write Registers'!D8</f>
         <v>G</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="8" t="str">
         <f>'SCROD Write Registers'!E8</f>
         <v>G</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="8" t="str">
         <f>'SCROD Write Registers'!F8</f>
         <v>TRGBIAS2</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="8" t="str">
         <f>'SCROD Write Registers'!G8</f>
         <v>Internal ASIC trigger comparator bias for reference channel, shared for all ASICs</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="8" t="str">
         <f>'SCROD Write Registers'!H8</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0007</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="8" t="str">
         <f>'SCROD Write Registers'!C9</f>
         <v>G</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="8" t="str">
         <f>'SCROD Write Registers'!D9</f>
         <v>G</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="8" t="str">
         <f>'SCROD Write Registers'!E9</f>
         <v>G</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="8" t="str">
         <f>'SCROD Write Registers'!F9</f>
         <v>TRGTHREF</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="8" t="str">
         <f>'SCROD Write Registers'!G9</f>
         <v>Internal ASIC trigger threshold voltage for reference channel, shared for all ASICs</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="8" t="str">
         <f>'SCROD Write Registers'!H9</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0008</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="8" t="str">
         <f>'SCROD Write Registers'!C10</f>
         <v>G</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="8" t="str">
         <f>'SCROD Write Registers'!D10</f>
         <v>G</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="8" t="str">
         <f>'SCROD Write Registers'!E10</f>
         <v>G</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="8" t="str">
         <f>'SCROD Write Registers'!F10</f>
         <v>ISEL</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="8" t="str">
         <f>'SCROD Write Registers'!G10</f>
         <v>Internal ASIC wilkinson ramp current source bias, shared for all ASICs</v>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="8" t="str">
         <f>'SCROD Write Registers'!H10</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0009</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="8" t="str">
         <f>'SCROD Write Registers'!C11</f>
         <v>G</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="8" t="str">
         <f>'SCROD Write Registers'!D11</f>
         <v>G</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="8" t="str">
         <f>'SCROD Write Registers'!E11</f>
         <v>G</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="8" t="str">
         <f>'SCROD Write Registers'!F11</f>
         <v>SBBIAS</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="8" t="str">
         <f>'SCROD Write Registers'!G11</f>
         <v>Internal ASIC bias for the buffers that distribute the Wilkinson ramp, shared for all ASICs</v>
       </c>
-      <c r="H11" s="5" t="str">
+      <c r="H11" s="8" t="str">
         <f>'SCROD Write Registers'!H11</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>000A</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="8" t="str">
         <f>'SCROD Write Registers'!C12</f>
         <v>G</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="8" t="str">
         <f>'SCROD Write Registers'!D12</f>
         <v>G</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="8" t="str">
         <f>'SCROD Write Registers'!E12</f>
         <v>G</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="8" t="str">
         <f>'SCROD Write Registers'!F12</f>
         <v>PUBIAS</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="8" t="str">
         <f>'SCROD Write Registers'!G12</f>
         <v>Internal ASIC bias for pullup in wilkinson comparators, shared for all ASICs</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="8" t="str">
         <f>'SCROD Write Registers'!H12</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>000B</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="8" t="str">
         <f>'SCROD Write Registers'!C13</f>
         <v>G</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="8" t="str">
         <f>'SCROD Write Registers'!D13</f>
         <v>G</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="8" t="str">
         <f>'SCROD Write Registers'!E13</f>
         <v>G</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="8" t="str">
         <f>'SCROD Write Registers'!F13</f>
         <v>CMPBIAS</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="8" t="str">
         <f>'SCROD Write Registers'!G13</f>
         <v>Internal ASIC bias for wilkinson comparators, shared for all ASICs</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="8" t="str">
         <f>'SCROD Write Registers'!H13</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>000C</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="8" t="str">
         <f>'SCROD Write Registers'!C14</f>
         <v>G</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="8" t="str">
         <f>'SCROD Write Registers'!D14</f>
         <v>G</v>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="8" t="str">
         <f>'SCROD Write Registers'!E14</f>
         <v>G</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="8" t="str">
         <f>'SCROD Write Registers'!G14</f>
         <v>Internal ASIC biases for VBDbias, WBDbias, TCBbias, THDbias, Tbbias, TRGDbias, PDDbias, PUDbias, SBDbias, VDDbias, shared for all ASICs</v>
       </c>
-      <c r="H14" s="5" t="str">
+      <c r="H14" s="8" t="str">
         <f>'SCROD Write Registers'!H14</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>000D</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <f>'SCROD Write Registers'!C15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <f>'SCROD Write Registers'!D15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <f>'SCROD Write Registers'!E15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="8" t="str">
         <f>'SCROD Write Registers'!F15</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="8" t="str">
         <f>'SCROD Write Registers'!G15</f>
         <v>Internal ASIC channel trigger thresholds - unique channel-to-channel</v>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="8" t="str">
         <f>'SCROD Write Registers'!H15</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>000E</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <f>'SCROD Write Registers'!C16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <f>'SCROD Write Registers'!D16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <f>'SCROD Write Registers'!E16</f>
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="8" t="str">
         <f>'SCROD Write Registers'!F16</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="8" t="str">
         <f>'SCROD Write Registers'!G16</f>
         <v>See reg 13</v>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="H16" s="8" t="str">
         <f>'SCROD Write Registers'!H16</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>000F</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <f>'SCROD Write Registers'!C17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <f>'SCROD Write Registers'!D17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <f>'SCROD Write Registers'!E17</f>
         <v>2</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="8" t="str">
         <f>'SCROD Write Registers'!F17</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="8" t="str">
         <f>'SCROD Write Registers'!G17</f>
         <v>See reg 13</v>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="H17" s="8" t="str">
         <f>'SCROD Write Registers'!H17</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0010</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <f>'SCROD Write Registers'!C18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <f>'SCROD Write Registers'!D18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <f>'SCROD Write Registers'!E18</f>
         <v>3</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="8" t="str">
         <f>'SCROD Write Registers'!F18</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="8" t="str">
         <f>'SCROD Write Registers'!G18</f>
         <v>See reg 13</v>
       </c>
-      <c r="H18" s="5" t="str">
+      <c r="H18" s="8" t="str">
         <f>'SCROD Write Registers'!H18</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0011</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <f>'SCROD Write Registers'!C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <f>'SCROD Write Registers'!D19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <f>'SCROD Write Registers'!E19</f>
         <v>4</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="8" t="str">
         <f>'SCROD Write Registers'!F19</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="8" t="str">
         <f>'SCROD Write Registers'!G19</f>
         <v>See reg 13</v>
       </c>
-      <c r="H19" s="5" t="str">
+      <c r="H19" s="8" t="str">
         <f>'SCROD Write Registers'!H19</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0012</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <f>'SCROD Write Registers'!C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <f>'SCROD Write Registers'!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <f>'SCROD Write Registers'!E20</f>
         <v>5</v>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="8" t="str">
         <f>'SCROD Write Registers'!F20</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="8" t="str">
         <f>'SCROD Write Registers'!G20</f>
         <v>See reg 13</v>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="H20" s="8" t="str">
         <f>'SCROD Write Registers'!H20</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0013</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <f>'SCROD Write Registers'!C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <f>'SCROD Write Registers'!D21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <f>'SCROD Write Registers'!E21</f>
         <v>6</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="8" t="str">
         <f>'SCROD Write Registers'!F21</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="8" t="str">
         <f>'SCROD Write Registers'!G21</f>
         <v>See reg 13</v>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="H21" s="8" t="str">
         <f>'SCROD Write Registers'!H21</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0014</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <f>'SCROD Write Registers'!C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <f>'SCROD Write Registers'!D22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <f>'SCROD Write Registers'!E22</f>
         <v>7</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="8" t="str">
         <f>'SCROD Write Registers'!F22</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="8" t="str">
         <f>'SCROD Write Registers'!G22</f>
         <v>See reg 13</v>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="8" t="str">
         <f>'SCROD Write Registers'!H22</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0015</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <f>'SCROD Write Registers'!C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <f>'SCROD Write Registers'!D23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <f>'SCROD Write Registers'!E23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="8" t="str">
         <f>'SCROD Write Registers'!F23</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="8" t="str">
         <f>'SCROD Write Registers'!G23</f>
         <v>See reg 13</v>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="8" t="str">
         <f>'SCROD Write Registers'!H23</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0016</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <f>'SCROD Write Registers'!C24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <f>'SCROD Write Registers'!D24</f>
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <f>'SCROD Write Registers'!E24</f>
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="8" t="str">
         <f>'SCROD Write Registers'!F24</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="8" t="str">
         <f>'SCROD Write Registers'!G24</f>
         <v>See reg 13</v>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="8" t="str">
         <f>'SCROD Write Registers'!H24</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0017</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <f>'SCROD Write Registers'!C25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <f>'SCROD Write Registers'!D25</f>
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <f>'SCROD Write Registers'!E25</f>
         <v>2</v>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="8" t="str">
         <f>'SCROD Write Registers'!F25</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="8" t="str">
         <f>'SCROD Write Registers'!G25</f>
         <v>See reg 13</v>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="H25" s="8" t="str">
         <f>'SCROD Write Registers'!H25</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0018</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <f>'SCROD Write Registers'!C26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <f>'SCROD Write Registers'!D26</f>
         <v>1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <f>'SCROD Write Registers'!E26</f>
         <v>3</v>
       </c>
-      <c r="F26" s="5" t="str">
+      <c r="F26" s="8" t="str">
         <f>'SCROD Write Registers'!F26</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G26" s="8" t="str">
         <f>'SCROD Write Registers'!G26</f>
         <v>See reg 13</v>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="8" t="str">
         <f>'SCROD Write Registers'!H26</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B27" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0019</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <f>'SCROD Write Registers'!C27</f>
         <v>0</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
         <f>'SCROD Write Registers'!D27</f>
         <v>1</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <f>'SCROD Write Registers'!E27</f>
         <v>4</v>
       </c>
-      <c r="F27" s="5" t="str">
+      <c r="F27" s="8" t="str">
         <f>'SCROD Write Registers'!F27</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G27" s="5" t="str">
+      <c r="G27" s="8" t="str">
         <f>'SCROD Write Registers'!G27</f>
         <v>See reg 13</v>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="H27" s="8" t="str">
         <f>'SCROD Write Registers'!H27</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="str">
+      <c r="B28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>001A</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <f>'SCROD Write Registers'!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="8">
         <f>'SCROD Write Registers'!D28</f>
         <v>1</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
         <f>'SCROD Write Registers'!E28</f>
         <v>5</v>
       </c>
-      <c r="F28" s="5" t="str">
+      <c r="F28" s="8" t="str">
         <f>'SCROD Write Registers'!F28</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G28" s="5" t="str">
+      <c r="G28" s="8" t="str">
         <f>'SCROD Write Registers'!G28</f>
         <v>See reg 13</v>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="H28" s="8" t="str">
         <f>'SCROD Write Registers'!H28</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="str">
+      <c r="B29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>001B</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <f>'SCROD Write Registers'!C29</f>
         <v>0</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="8">
         <f>'SCROD Write Registers'!D29</f>
         <v>1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <f>'SCROD Write Registers'!E29</f>
         <v>6</v>
       </c>
-      <c r="F29" s="5" t="str">
+      <c r="F29" s="8" t="str">
         <f>'SCROD Write Registers'!F29</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G29" s="5" t="str">
+      <c r="G29" s="8" t="str">
         <f>'SCROD Write Registers'!G29</f>
         <v>See reg 13</v>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="H29" s="8" t="str">
         <f>'SCROD Write Registers'!H29</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="str">
+      <c r="B30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>001C</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <f>'SCROD Write Registers'!C30</f>
         <v>0</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="8">
         <f>'SCROD Write Registers'!D30</f>
         <v>1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <f>'SCROD Write Registers'!E30</f>
         <v>7</v>
       </c>
-      <c r="F30" s="5" t="str">
+      <c r="F30" s="8" t="str">
         <f>'SCROD Write Registers'!F30</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="G30" s="8" t="str">
         <f>'SCROD Write Registers'!G30</f>
         <v>See reg 13</v>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="H30" s="8" t="str">
         <f>'SCROD Write Registers'!H30</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="str">
+      <c r="B31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>001D</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <f>'SCROD Write Registers'!C31</f>
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="8">
         <f>'SCROD Write Registers'!D31</f>
         <v>2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <f>'SCROD Write Registers'!E31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="5" t="str">
+      <c r="F31" s="8" t="str">
         <f>'SCROD Write Registers'!F31</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="8" t="str">
         <f>'SCROD Write Registers'!G31</f>
         <v>See reg 13</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H31" s="8" t="str">
         <f>'SCROD Write Registers'!H31</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="str">
+      <c r="B32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>001E</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <f>'SCROD Write Registers'!C32</f>
         <v>0</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="8">
         <f>'SCROD Write Registers'!D32</f>
         <v>2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <f>'SCROD Write Registers'!E32</f>
         <v>1</v>
       </c>
-      <c r="F32" s="5" t="str">
+      <c r="F32" s="8" t="str">
         <f>'SCROD Write Registers'!F32</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G32" s="5" t="str">
+      <c r="G32" s="8" t="str">
         <f>'SCROD Write Registers'!G32</f>
         <v>See reg 13</v>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="H32" s="8" t="str">
         <f>'SCROD Write Registers'!H32</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="str">
+      <c r="B33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>001F</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <f>'SCROD Write Registers'!C33</f>
         <v>0</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <f>'SCROD Write Registers'!D33</f>
         <v>2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="8">
         <f>'SCROD Write Registers'!E33</f>
         <v>2</v>
       </c>
-      <c r="F33" s="5" t="str">
+      <c r="F33" s="8" t="str">
         <f>'SCROD Write Registers'!F33</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G33" s="5" t="str">
+      <c r="G33" s="8" t="str">
         <f>'SCROD Write Registers'!G33</f>
         <v>See reg 13</v>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="H33" s="8" t="str">
         <f>'SCROD Write Registers'!H33</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="str">
+      <c r="B34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0020</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
         <f>'SCROD Write Registers'!C34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="8">
         <f>'SCROD Write Registers'!D34</f>
         <v>2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <f>'SCROD Write Registers'!E34</f>
         <v>3</v>
       </c>
-      <c r="F34" s="5" t="str">
+      <c r="F34" s="8" t="str">
         <f>'SCROD Write Registers'!F34</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G34" s="5" t="str">
+      <c r="G34" s="8" t="str">
         <f>'SCROD Write Registers'!G34</f>
         <v>See reg 13</v>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="H34" s="8" t="str">
         <f>'SCROD Write Registers'!H34</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="B35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0021</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="8">
         <f>'SCROD Write Registers'!C35</f>
         <v>0</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="8">
         <f>'SCROD Write Registers'!D35</f>
         <v>2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="8">
         <f>'SCROD Write Registers'!E35</f>
         <v>4</v>
       </c>
-      <c r="F35" s="5" t="str">
+      <c r="F35" s="8" t="str">
         <f>'SCROD Write Registers'!F35</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G35" s="5" t="str">
+      <c r="G35" s="8" t="str">
         <f>'SCROD Write Registers'!G35</f>
         <v>See reg 13</v>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="H35" s="8" t="str">
         <f>'SCROD Write Registers'!H35</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0022</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <f>'SCROD Write Registers'!C36</f>
         <v>0</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="8">
         <f>'SCROD Write Registers'!D36</f>
         <v>2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <f>'SCROD Write Registers'!E36</f>
         <v>5</v>
       </c>
-      <c r="F36" s="5" t="str">
+      <c r="F36" s="8" t="str">
         <f>'SCROD Write Registers'!F36</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G36" s="5" t="str">
+      <c r="G36" s="8" t="str">
         <f>'SCROD Write Registers'!G36</f>
         <v>See reg 13</v>
       </c>
-      <c r="H36" s="5" t="str">
+      <c r="H36" s="8" t="str">
         <f>'SCROD Write Registers'!H36</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B37" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0023</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="8">
         <f>'SCROD Write Registers'!C37</f>
         <v>0</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="8">
         <f>'SCROD Write Registers'!D37</f>
         <v>2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="8">
         <f>'SCROD Write Registers'!E37</f>
         <v>6</v>
       </c>
-      <c r="F37" s="5" t="str">
+      <c r="F37" s="8" t="str">
         <f>'SCROD Write Registers'!F37</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G37" s="5" t="str">
+      <c r="G37" s="8" t="str">
         <f>'SCROD Write Registers'!G37</f>
         <v>See reg 13</v>
       </c>
-      <c r="H37" s="5" t="str">
+      <c r="H37" s="8" t="str">
         <f>'SCROD Write Registers'!H37</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="str">
+      <c r="B38" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0024</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <f>'SCROD Write Registers'!C38</f>
         <v>0</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="8">
         <f>'SCROD Write Registers'!D38</f>
         <v>2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="8">
         <f>'SCROD Write Registers'!E38</f>
         <v>7</v>
       </c>
-      <c r="F38" s="5" t="str">
+      <c r="F38" s="8" t="str">
         <f>'SCROD Write Registers'!F38</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G38" s="5" t="str">
+      <c r="G38" s="8" t="str">
         <f>'SCROD Write Registers'!G38</f>
         <v>See reg 13</v>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="H38" s="8" t="str">
         <f>'SCROD Write Registers'!H38</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="str">
+      <c r="B39" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0025</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="8">
         <f>'SCROD Write Registers'!C39</f>
         <v>0</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="8">
         <f>'SCROD Write Registers'!D39</f>
         <v>3</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="8">
         <f>'SCROD Write Registers'!E39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="5" t="str">
+      <c r="F39" s="8" t="str">
         <f>'SCROD Write Registers'!F39</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G39" s="5" t="str">
+      <c r="G39" s="8" t="str">
         <f>'SCROD Write Registers'!G39</f>
         <v>See reg 13</v>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="H39" s="8" t="str">
         <f>'SCROD Write Registers'!H39</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="str">
+      <c r="B40" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0026</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="8">
         <f>'SCROD Write Registers'!C40</f>
         <v>0</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="8">
         <f>'SCROD Write Registers'!D40</f>
         <v>3</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="8">
         <f>'SCROD Write Registers'!E40</f>
         <v>1</v>
       </c>
-      <c r="F40" s="5" t="str">
+      <c r="F40" s="8" t="str">
         <f>'SCROD Write Registers'!F40</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G40" s="5" t="str">
+      <c r="G40" s="8" t="str">
         <f>'SCROD Write Registers'!G40</f>
         <v>See reg 13</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H40" s="8" t="str">
         <f>'SCROD Write Registers'!H40</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="str">
+      <c r="B41" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0027</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="8">
         <f>'SCROD Write Registers'!C41</f>
         <v>0</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="8">
         <f>'SCROD Write Registers'!D41</f>
         <v>3</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="8">
         <f>'SCROD Write Registers'!E41</f>
         <v>2</v>
       </c>
-      <c r="F41" s="5" t="str">
+      <c r="F41" s="8" t="str">
         <f>'SCROD Write Registers'!F41</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G41" s="5" t="str">
+      <c r="G41" s="8" t="str">
         <f>'SCROD Write Registers'!G41</f>
         <v>See reg 13</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H41" s="8" t="str">
         <f>'SCROD Write Registers'!H41</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B42" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0028</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="8">
         <f>'SCROD Write Registers'!C42</f>
         <v>0</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="8">
         <f>'SCROD Write Registers'!D42</f>
         <v>3</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <f>'SCROD Write Registers'!E42</f>
         <v>3</v>
       </c>
-      <c r="F42" s="5" t="str">
+      <c r="F42" s="8" t="str">
         <f>'SCROD Write Registers'!F42</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G42" s="5" t="str">
+      <c r="G42" s="8" t="str">
         <f>'SCROD Write Registers'!G42</f>
         <v>See reg 13</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H42" s="8" t="str">
         <f>'SCROD Write Registers'!H42</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="str">
+      <c r="B43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0029</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="8">
         <f>'SCROD Write Registers'!C43</f>
         <v>0</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="8">
         <f>'SCROD Write Registers'!D43</f>
         <v>3</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="8">
         <f>'SCROD Write Registers'!E43</f>
         <v>4</v>
       </c>
-      <c r="F43" s="5" t="str">
+      <c r="F43" s="8" t="str">
         <f>'SCROD Write Registers'!F43</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G43" s="5" t="str">
+      <c r="G43" s="8" t="str">
         <f>'SCROD Write Registers'!G43</f>
         <v>See reg 13</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H43" s="8" t="str">
         <f>'SCROD Write Registers'!H43</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="str">
+      <c r="B44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>002A</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="8">
         <f>'SCROD Write Registers'!C44</f>
         <v>0</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="8">
         <f>'SCROD Write Registers'!D44</f>
         <v>3</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="8">
         <f>'SCROD Write Registers'!E44</f>
         <v>5</v>
       </c>
-      <c r="F44" s="5" t="str">
+      <c r="F44" s="8" t="str">
         <f>'SCROD Write Registers'!F44</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G44" s="5" t="str">
+      <c r="G44" s="8" t="str">
         <f>'SCROD Write Registers'!G44</f>
         <v>See reg 13</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H44" s="8" t="str">
         <f>'SCROD Write Registers'!H44</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>002B</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="8">
         <f>'SCROD Write Registers'!C45</f>
         <v>0</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="8">
         <f>'SCROD Write Registers'!D45</f>
         <v>3</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="8">
         <f>'SCROD Write Registers'!E45</f>
         <v>6</v>
       </c>
-      <c r="F45" s="5" t="str">
+      <c r="F45" s="8" t="str">
         <f>'SCROD Write Registers'!F45</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G45" s="5" t="str">
+      <c r="G45" s="8" t="str">
         <f>'SCROD Write Registers'!G45</f>
         <v>See reg 13</v>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H45" s="8" t="str">
         <f>'SCROD Write Registers'!H45</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="str">
+      <c r="B46" s="19" t="str">
         <f t="shared" si="0"/>
         <v>002C</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="8">
         <f>'SCROD Write Registers'!C46</f>
         <v>0</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="8">
         <f>'SCROD Write Registers'!D46</f>
         <v>3</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="8">
         <f>'SCROD Write Registers'!E46</f>
         <v>7</v>
       </c>
-      <c r="F46" s="5" t="str">
+      <c r="F46" s="8" t="str">
         <f>'SCROD Write Registers'!F46</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G46" s="5" t="str">
+      <c r="G46" s="8" t="str">
         <f>'SCROD Write Registers'!G46</f>
         <v>See reg 13</v>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="H46" s="8" t="str">
         <f>'SCROD Write Registers'!H46</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+    <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="str">
+      <c r="B47" s="19" t="str">
         <f t="shared" si="0"/>
         <v>002D</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="8">
         <f>'SCROD Write Registers'!C47</f>
         <v>1</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="8">
         <f>'SCROD Write Registers'!D47</f>
         <v>0</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="8">
         <f>'SCROD Write Registers'!E47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="5" t="str">
+      <c r="F47" s="8" t="str">
         <f>'SCROD Write Registers'!F47</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G47" s="5" t="str">
+      <c r="G47" s="8" t="str">
         <f>'SCROD Write Registers'!G47</f>
         <v>See reg 13</v>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="H47" s="8" t="str">
         <f>'SCROD Write Registers'!H47</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="str">
+      <c r="B48" s="19" t="str">
         <f t="shared" si="0"/>
         <v>002E</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="8">
         <f>'SCROD Write Registers'!C48</f>
         <v>1</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="8">
         <f>'SCROD Write Registers'!D48</f>
         <v>0</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="8">
         <f>'SCROD Write Registers'!E48</f>
         <v>1</v>
       </c>
-      <c r="F48" s="5" t="str">
+      <c r="F48" s="8" t="str">
         <f>'SCROD Write Registers'!F48</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G48" s="5" t="str">
+      <c r="G48" s="8" t="str">
         <f>'SCROD Write Registers'!G48</f>
         <v>See reg 13</v>
       </c>
-      <c r="H48" s="5" t="str">
+      <c r="H48" s="8" t="str">
         <f>'SCROD Write Registers'!H48</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+    <row r="49" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="6" t="str">
+      <c r="B49" s="19" t="str">
         <f t="shared" si="0"/>
         <v>002F</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="8">
         <f>'SCROD Write Registers'!C49</f>
         <v>1</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="8">
         <f>'SCROD Write Registers'!D49</f>
         <v>0</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="8">
         <f>'SCROD Write Registers'!E49</f>
         <v>2</v>
       </c>
-      <c r="F49" s="5" t="str">
+      <c r="F49" s="8" t="str">
         <f>'SCROD Write Registers'!F49</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G49" s="5" t="str">
+      <c r="G49" s="8" t="str">
         <f>'SCROD Write Registers'!G49</f>
         <v>See reg 13</v>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="H49" s="8" t="str">
         <f>'SCROD Write Registers'!H49</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+    <row r="50" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="str">
+      <c r="B50" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0030</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="8">
         <f>'SCROD Write Registers'!C50</f>
         <v>1</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="8">
         <f>'SCROD Write Registers'!D50</f>
         <v>0</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="8">
         <f>'SCROD Write Registers'!E50</f>
         <v>3</v>
       </c>
-      <c r="F50" s="5" t="str">
+      <c r="F50" s="8" t="str">
         <f>'SCROD Write Registers'!F50</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G50" s="5" t="str">
+      <c r="G50" s="8" t="str">
         <f>'SCROD Write Registers'!G50</f>
         <v>See reg 13</v>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="H50" s="8" t="str">
         <f>'SCROD Write Registers'!H50</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+    <row r="51" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="6" t="str">
+      <c r="B51" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0031</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="8">
         <f>'SCROD Write Registers'!C51</f>
         <v>1</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="8">
         <f>'SCROD Write Registers'!D51</f>
         <v>0</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="8">
         <f>'SCROD Write Registers'!E51</f>
         <v>4</v>
       </c>
-      <c r="F51" s="5" t="str">
+      <c r="F51" s="8" t="str">
         <f>'SCROD Write Registers'!F51</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G51" s="5" t="str">
+      <c r="G51" s="8" t="str">
         <f>'SCROD Write Registers'!G51</f>
         <v>See reg 13</v>
       </c>
-      <c r="H51" s="5" t="str">
+      <c r="H51" s="8" t="str">
         <f>'SCROD Write Registers'!H51</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+    <row r="52" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="str">
+      <c r="B52" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0032</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="8">
         <f>'SCROD Write Registers'!C52</f>
         <v>1</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="8">
         <f>'SCROD Write Registers'!D52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="8">
         <f>'SCROD Write Registers'!E52</f>
         <v>5</v>
       </c>
-      <c r="F52" s="5" t="str">
+      <c r="F52" s="8" t="str">
         <f>'SCROD Write Registers'!F52</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G52" s="5" t="str">
+      <c r="G52" s="8" t="str">
         <f>'SCROD Write Registers'!G52</f>
         <v>See reg 13</v>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="H52" s="8" t="str">
         <f>'SCROD Write Registers'!H52</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+    <row r="53" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="str">
+      <c r="B53" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0033</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="8">
         <f>'SCROD Write Registers'!C53</f>
         <v>1</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="8">
         <f>'SCROD Write Registers'!D53</f>
         <v>0</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="8">
         <f>'SCROD Write Registers'!E53</f>
         <v>6</v>
       </c>
-      <c r="F53" s="5" t="str">
+      <c r="F53" s="8" t="str">
         <f>'SCROD Write Registers'!F53</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G53" s="5" t="str">
+      <c r="G53" s="8" t="str">
         <f>'SCROD Write Registers'!G53</f>
         <v>See reg 13</v>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="H53" s="8" t="str">
         <f>'SCROD Write Registers'!H53</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+    <row r="54" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="6" t="str">
+      <c r="B54" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0034</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="8">
         <f>'SCROD Write Registers'!C54</f>
         <v>1</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="8">
         <f>'SCROD Write Registers'!D54</f>
         <v>0</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="8">
         <f>'SCROD Write Registers'!E54</f>
         <v>7</v>
       </c>
-      <c r="F54" s="5" t="str">
+      <c r="F54" s="8" t="str">
         <f>'SCROD Write Registers'!F54</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G54" s="5" t="str">
+      <c r="G54" s="8" t="str">
         <f>'SCROD Write Registers'!G54</f>
         <v>See reg 13</v>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="H54" s="8" t="str">
         <f>'SCROD Write Registers'!H54</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="str">
+      <c r="B55" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0035</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="8">
         <f>'SCROD Write Registers'!C55</f>
         <v>1</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="8">
         <f>'SCROD Write Registers'!D55</f>
         <v>1</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="8">
         <f>'SCROD Write Registers'!E55</f>
         <v>0</v>
       </c>
-      <c r="F55" s="5" t="str">
+      <c r="F55" s="8" t="str">
         <f>'SCROD Write Registers'!F55</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G55" s="5" t="str">
+      <c r="G55" s="8" t="str">
         <f>'SCROD Write Registers'!G55</f>
         <v>See reg 13</v>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="H55" s="8" t="str">
         <f>'SCROD Write Registers'!H55</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+    <row r="56" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="str">
+      <c r="B56" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0036</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="8">
         <f>'SCROD Write Registers'!C56</f>
         <v>1</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <f>'SCROD Write Registers'!D56</f>
         <v>1</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="8">
         <f>'SCROD Write Registers'!E56</f>
         <v>1</v>
       </c>
-      <c r="F56" s="5" t="str">
+      <c r="F56" s="8" t="str">
         <f>'SCROD Write Registers'!F56</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G56" s="5" t="str">
+      <c r="G56" s="8" t="str">
         <f>'SCROD Write Registers'!G56</f>
         <v>See reg 13</v>
       </c>
-      <c r="H56" s="5" t="str">
+      <c r="H56" s="8" t="str">
         <f>'SCROD Write Registers'!H56</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+    <row r="57" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="str">
+      <c r="B57" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0037</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="8">
         <f>'SCROD Write Registers'!C57</f>
         <v>1</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="8">
         <f>'SCROD Write Registers'!D57</f>
         <v>1</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="8">
         <f>'SCROD Write Registers'!E57</f>
         <v>2</v>
       </c>
-      <c r="F57" s="5" t="str">
+      <c r="F57" s="8" t="str">
         <f>'SCROD Write Registers'!F57</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G57" s="5" t="str">
+      <c r="G57" s="8" t="str">
         <f>'SCROD Write Registers'!G57</f>
         <v>See reg 13</v>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H57" s="8" t="str">
         <f>'SCROD Write Registers'!H57</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+    <row r="58" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="str">
+      <c r="B58" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0038</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="8">
         <f>'SCROD Write Registers'!C58</f>
         <v>1</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="8">
         <f>'SCROD Write Registers'!D58</f>
         <v>1</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="8">
         <f>'SCROD Write Registers'!E58</f>
         <v>3</v>
       </c>
-      <c r="F58" s="5" t="str">
+      <c r="F58" s="8" t="str">
         <f>'SCROD Write Registers'!F58</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G58" s="5" t="str">
+      <c r="G58" s="8" t="str">
         <f>'SCROD Write Registers'!G58</f>
         <v>See reg 13</v>
       </c>
-      <c r="H58" s="5" t="str">
+      <c r="H58" s="8" t="str">
         <f>'SCROD Write Registers'!H58</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="6" t="str">
+      <c r="B59" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0039</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="8">
         <f>'SCROD Write Registers'!C59</f>
         <v>1</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="8">
         <f>'SCROD Write Registers'!D59</f>
         <v>1</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="8">
         <f>'SCROD Write Registers'!E59</f>
         <v>4</v>
       </c>
-      <c r="F59" s="5" t="str">
+      <c r="F59" s="8" t="str">
         <f>'SCROD Write Registers'!F59</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G59" s="5" t="str">
+      <c r="G59" s="8" t="str">
         <f>'SCROD Write Registers'!G59</f>
         <v>See reg 13</v>
       </c>
-      <c r="H59" s="5" t="str">
+      <c r="H59" s="8" t="str">
         <f>'SCROD Write Registers'!H59</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="6" t="str">
+      <c r="B60" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003A</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="8">
         <f>'SCROD Write Registers'!C60</f>
         <v>1</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="8">
         <f>'SCROD Write Registers'!D60</f>
         <v>1</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="8">
         <f>'SCROD Write Registers'!E60</f>
         <v>5</v>
       </c>
-      <c r="F60" s="5" t="str">
+      <c r="F60" s="8" t="str">
         <f>'SCROD Write Registers'!F60</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G60" s="5" t="str">
+      <c r="G60" s="8" t="str">
         <f>'SCROD Write Registers'!G60</f>
         <v>See reg 13</v>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H60" s="8" t="str">
         <f>'SCROD Write Registers'!H60</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="6" t="str">
+      <c r="B61" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003B</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="8">
         <f>'SCROD Write Registers'!C61</f>
         <v>1</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="8">
         <f>'SCROD Write Registers'!D61</f>
         <v>1</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="8">
         <f>'SCROD Write Registers'!E61</f>
         <v>6</v>
       </c>
-      <c r="F61" s="5" t="str">
+      <c r="F61" s="8" t="str">
         <f>'SCROD Write Registers'!F61</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G61" s="5" t="str">
+      <c r="G61" s="8" t="str">
         <f>'SCROD Write Registers'!G61</f>
         <v>See reg 13</v>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H61" s="8" t="str">
         <f>'SCROD Write Registers'!H61</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="6" t="str">
+      <c r="B62" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003C</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="8">
         <f>'SCROD Write Registers'!C62</f>
         <v>1</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="8">
         <f>'SCROD Write Registers'!D62</f>
         <v>1</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="8">
         <f>'SCROD Write Registers'!E62</f>
         <v>7</v>
       </c>
-      <c r="F62" s="5" t="str">
+      <c r="F62" s="8" t="str">
         <f>'SCROD Write Registers'!F62</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G62" s="5" t="str">
+      <c r="G62" s="8" t="str">
         <f>'SCROD Write Registers'!G62</f>
         <v>See reg 13</v>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="H62" s="8" t="str">
         <f>'SCROD Write Registers'!H62</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="6" t="str">
+      <c r="B63" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003D</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="8">
         <f>'SCROD Write Registers'!C63</f>
         <v>1</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="8">
         <f>'SCROD Write Registers'!D63</f>
         <v>2</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="8">
         <f>'SCROD Write Registers'!E63</f>
         <v>0</v>
       </c>
-      <c r="F63" s="5" t="str">
+      <c r="F63" s="8" t="str">
         <f>'SCROD Write Registers'!F63</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G63" s="5" t="str">
+      <c r="G63" s="8" t="str">
         <f>'SCROD Write Registers'!G63</f>
         <v>See reg 13</v>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H63" s="8" t="str">
         <f>'SCROD Write Registers'!H63</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>62</v>
       </c>
-      <c r="B64" s="6" t="str">
+      <c r="B64" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003E</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="8">
         <f>'SCROD Write Registers'!C64</f>
         <v>1</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="8">
         <f>'SCROD Write Registers'!D64</f>
         <v>2</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="8">
         <f>'SCROD Write Registers'!E64</f>
         <v>1</v>
       </c>
-      <c r="F64" s="5" t="str">
+      <c r="F64" s="8" t="str">
         <f>'SCROD Write Registers'!F64</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G64" s="5" t="str">
+      <c r="G64" s="8" t="str">
         <f>'SCROD Write Registers'!G64</f>
         <v>See reg 13</v>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="H64" s="8" t="str">
         <f>'SCROD Write Registers'!H64</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="6" t="str">
+      <c r="B65" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003F</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="8">
         <f>'SCROD Write Registers'!C65</f>
         <v>1</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="8">
         <f>'SCROD Write Registers'!D65</f>
         <v>2</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="8">
         <f>'SCROD Write Registers'!E65</f>
         <v>2</v>
       </c>
-      <c r="F65" s="5" t="str">
+      <c r="F65" s="8" t="str">
         <f>'SCROD Write Registers'!F65</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G65" s="5" t="str">
+      <c r="G65" s="8" t="str">
         <f>'SCROD Write Registers'!G65</f>
         <v>See reg 13</v>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="H65" s="8" t="str">
         <f>'SCROD Write Registers'!H65</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="6" t="str">
+      <c r="B66" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="8">
         <f>'SCROD Write Registers'!C66</f>
         <v>1</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="8">
         <f>'SCROD Write Registers'!D66</f>
         <v>2</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="8">
         <f>'SCROD Write Registers'!E66</f>
         <v>3</v>
       </c>
-      <c r="F66" s="5" t="str">
+      <c r="F66" s="8" t="str">
         <f>'SCROD Write Registers'!F66</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G66" s="5" t="str">
+      <c r="G66" s="8" t="str">
         <f>'SCROD Write Registers'!G66</f>
         <v>See reg 13</v>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="H66" s="8" t="str">
         <f>'SCROD Write Registers'!H66</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="6" t="str">
+      <c r="B67" s="19" t="str">
         <f t="shared" ref="B67:B130" si="1">DEC2HEX(A67,4)</f>
         <v>0041</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="8">
         <f>'SCROD Write Registers'!C67</f>
         <v>1</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="8">
         <f>'SCROD Write Registers'!D67</f>
         <v>2</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="8">
         <f>'SCROD Write Registers'!E67</f>
         <v>4</v>
       </c>
-      <c r="F67" s="5" t="str">
+      <c r="F67" s="8" t="str">
         <f>'SCROD Write Registers'!F67</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G67" s="5" t="str">
+      <c r="G67" s="8" t="str">
         <f>'SCROD Write Registers'!G67</f>
         <v>See reg 13</v>
       </c>
-      <c r="H67" s="5" t="str">
+      <c r="H67" s="8" t="str">
         <f>'SCROD Write Registers'!H67</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="6" t="str">
+      <c r="B68" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0042</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="8">
         <f>'SCROD Write Registers'!C68</f>
         <v>1</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="8">
         <f>'SCROD Write Registers'!D68</f>
         <v>2</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="8">
         <f>'SCROD Write Registers'!E68</f>
         <v>5</v>
       </c>
-      <c r="F68" s="5" t="str">
+      <c r="F68" s="8" t="str">
         <f>'SCROD Write Registers'!F68</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G68" s="5" t="str">
+      <c r="G68" s="8" t="str">
         <f>'SCROD Write Registers'!G68</f>
         <v>See reg 13</v>
       </c>
-      <c r="H68" s="5" t="str">
+      <c r="H68" s="8" t="str">
         <f>'SCROD Write Registers'!H68</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0043</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="8">
         <f>'SCROD Write Registers'!C69</f>
         <v>1</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="8">
         <f>'SCROD Write Registers'!D69</f>
         <v>2</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="8">
         <f>'SCROD Write Registers'!E69</f>
         <v>6</v>
       </c>
-      <c r="F69" s="5" t="str">
+      <c r="F69" s="8" t="str">
         <f>'SCROD Write Registers'!F69</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G69" s="5" t="str">
+      <c r="G69" s="8" t="str">
         <f>'SCROD Write Registers'!G69</f>
         <v>See reg 13</v>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="H69" s="8" t="str">
         <f>'SCROD Write Registers'!H69</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="6" t="str">
+      <c r="B70" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0044</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="8">
         <f>'SCROD Write Registers'!C70</f>
         <v>1</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="8">
         <f>'SCROD Write Registers'!D70</f>
         <v>2</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="8">
         <f>'SCROD Write Registers'!E70</f>
         <v>7</v>
       </c>
-      <c r="F70" s="5" t="str">
+      <c r="F70" s="8" t="str">
         <f>'SCROD Write Registers'!F70</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G70" s="5" t="str">
+      <c r="G70" s="8" t="str">
         <f>'SCROD Write Registers'!G70</f>
         <v>See reg 13</v>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="H70" s="8" t="str">
         <f>'SCROD Write Registers'!H70</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="6" t="str">
+      <c r="B71" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0045</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="8">
         <f>'SCROD Write Registers'!C71</f>
         <v>1</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="8">
         <f>'SCROD Write Registers'!D71</f>
         <v>3</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="8">
         <f>'SCROD Write Registers'!E71</f>
         <v>0</v>
       </c>
-      <c r="F71" s="5" t="str">
+      <c r="F71" s="8" t="str">
         <f>'SCROD Write Registers'!F71</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G71" s="5" t="str">
+      <c r="G71" s="8" t="str">
         <f>'SCROD Write Registers'!G71</f>
         <v>See reg 13</v>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="H71" s="8" t="str">
         <f>'SCROD Write Registers'!H71</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="6" t="str">
+      <c r="B72" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0046</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="8">
         <f>'SCROD Write Registers'!C72</f>
         <v>1</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="8">
         <f>'SCROD Write Registers'!D72</f>
         <v>3</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="8">
         <f>'SCROD Write Registers'!E72</f>
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="str">
+      <c r="F72" s="8" t="str">
         <f>'SCROD Write Registers'!F72</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G72" s="5" t="str">
+      <c r="G72" s="8" t="str">
         <f>'SCROD Write Registers'!G72</f>
         <v>See reg 13</v>
       </c>
-      <c r="H72" s="5" t="str">
+      <c r="H72" s="8" t="str">
         <f>'SCROD Write Registers'!H72</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="6" t="str">
+      <c r="B73" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0047</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="8">
         <f>'SCROD Write Registers'!C73</f>
         <v>1</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="8">
         <f>'SCROD Write Registers'!D73</f>
         <v>3</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="8">
         <f>'SCROD Write Registers'!E73</f>
         <v>2</v>
       </c>
-      <c r="F73" s="5" t="str">
+      <c r="F73" s="8" t="str">
         <f>'SCROD Write Registers'!F73</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G73" s="5" t="str">
+      <c r="G73" s="8" t="str">
         <f>'SCROD Write Registers'!G73</f>
         <v>See reg 13</v>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H73" s="8" t="str">
         <f>'SCROD Write Registers'!H73</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="6" t="str">
+      <c r="B74" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0048</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="8">
         <f>'SCROD Write Registers'!C74</f>
         <v>1</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="8">
         <f>'SCROD Write Registers'!D74</f>
         <v>3</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="8">
         <f>'SCROD Write Registers'!E74</f>
         <v>3</v>
       </c>
-      <c r="F74" s="5" t="str">
+      <c r="F74" s="8" t="str">
         <f>'SCROD Write Registers'!F74</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G74" s="5" t="str">
+      <c r="G74" s="8" t="str">
         <f>'SCROD Write Registers'!G74</f>
         <v>See reg 13</v>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H74" s="8" t="str">
         <f>'SCROD Write Registers'!H74</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="6" t="str">
+      <c r="B75" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0049</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="8">
         <f>'SCROD Write Registers'!C75</f>
         <v>1</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="8">
         <f>'SCROD Write Registers'!D75</f>
         <v>3</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="8">
         <f>'SCROD Write Registers'!E75</f>
         <v>4</v>
       </c>
-      <c r="F75" s="5" t="str">
+      <c r="F75" s="8" t="str">
         <f>'SCROD Write Registers'!F75</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G75" s="5" t="str">
+      <c r="G75" s="8" t="str">
         <f>'SCROD Write Registers'!G75</f>
         <v>See reg 13</v>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H75" s="8" t="str">
         <f>'SCROD Write Registers'!H75</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="6" t="str">
+      <c r="B76" s="19" t="str">
         <f t="shared" si="1"/>
         <v>004A</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="8">
         <f>'SCROD Write Registers'!C76</f>
         <v>1</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="8">
         <f>'SCROD Write Registers'!D76</f>
         <v>3</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="8">
         <f>'SCROD Write Registers'!E76</f>
         <v>5</v>
       </c>
-      <c r="F76" s="5" t="str">
+      <c r="F76" s="8" t="str">
         <f>'SCROD Write Registers'!F76</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G76" s="5" t="str">
+      <c r="G76" s="8" t="str">
         <f>'SCROD Write Registers'!G76</f>
         <v>See reg 13</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H76" s="8" t="str">
         <f>'SCROD Write Registers'!H76</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="6" t="str">
+      <c r="B77" s="19" t="str">
         <f t="shared" si="1"/>
         <v>004B</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="8">
         <f>'SCROD Write Registers'!C77</f>
         <v>1</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="8">
         <f>'SCROD Write Registers'!D77</f>
         <v>3</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="8">
         <f>'SCROD Write Registers'!E77</f>
         <v>6</v>
       </c>
-      <c r="F77" s="5" t="str">
+      <c r="F77" s="8" t="str">
         <f>'SCROD Write Registers'!F77</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G77" s="5" t="str">
+      <c r="G77" s="8" t="str">
         <f>'SCROD Write Registers'!G77</f>
         <v>See reg 13</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H77" s="8" t="str">
         <f>'SCROD Write Registers'!H77</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="6" t="str">
+      <c r="B78" s="19" t="str">
         <f t="shared" si="1"/>
         <v>004C</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="8">
         <f>'SCROD Write Registers'!C78</f>
         <v>1</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="8">
         <f>'SCROD Write Registers'!D78</f>
         <v>3</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="8">
         <f>'SCROD Write Registers'!E78</f>
         <v>7</v>
       </c>
-      <c r="F78" s="5" t="str">
+      <c r="F78" s="8" t="str">
         <f>'SCROD Write Registers'!F78</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G78" s="5" t="str">
+      <c r="G78" s="8" t="str">
         <f>'SCROD Write Registers'!G78</f>
         <v>See reg 13</v>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H78" s="8" t="str">
         <f>'SCROD Write Registers'!H78</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="6" t="str">
+      <c r="B79" s="19" t="str">
         <f t="shared" si="1"/>
         <v>004D</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="8">
         <f>'SCROD Write Registers'!C79</f>
         <v>2</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="8">
         <f>'SCROD Write Registers'!D79</f>
         <v>0</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="8">
         <f>'SCROD Write Registers'!E79</f>
         <v>0</v>
       </c>
-      <c r="F79" s="5" t="str">
+      <c r="F79" s="8" t="str">
         <f>'SCROD Write Registers'!F79</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G79" s="5" t="str">
+      <c r="G79" s="8" t="str">
         <f>'SCROD Write Registers'!G79</f>
         <v>See reg 13</v>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H79" s="8" t="str">
         <f>'SCROD Write Registers'!H79</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="6" t="str">
+      <c r="B80" s="19" t="str">
         <f t="shared" si="1"/>
         <v>004E</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="8">
         <f>'SCROD Write Registers'!C80</f>
         <v>2</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="8">
         <f>'SCROD Write Registers'!D80</f>
         <v>0</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="8">
         <f>'SCROD Write Registers'!E80</f>
         <v>1</v>
       </c>
-      <c r="F80" s="5" t="str">
+      <c r="F80" s="8" t="str">
         <f>'SCROD Write Registers'!F80</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G80" s="5" t="str">
+      <c r="G80" s="8" t="str">
         <f>'SCROD Write Registers'!G80</f>
         <v>See reg 13</v>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H80" s="8" t="str">
         <f>'SCROD Write Registers'!H80</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="6" t="str">
+      <c r="B81" s="19" t="str">
         <f t="shared" si="1"/>
         <v>004F</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="8">
         <f>'SCROD Write Registers'!C81</f>
         <v>2</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="8">
         <f>'SCROD Write Registers'!D81</f>
         <v>0</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="8">
         <f>'SCROD Write Registers'!E81</f>
         <v>2</v>
       </c>
-      <c r="F81" s="5" t="str">
+      <c r="F81" s="8" t="str">
         <f>'SCROD Write Registers'!F81</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G81" s="5" t="str">
+      <c r="G81" s="8" t="str">
         <f>'SCROD Write Registers'!G81</f>
         <v>See reg 13</v>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H81" s="8" t="str">
         <f>'SCROD Write Registers'!H81</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="6" t="str">
+      <c r="B82" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0050</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="8">
         <f>'SCROD Write Registers'!C82</f>
         <v>2</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="8">
         <f>'SCROD Write Registers'!D82</f>
         <v>0</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="8">
         <f>'SCROD Write Registers'!E82</f>
         <v>3</v>
       </c>
-      <c r="F82" s="5" t="str">
+      <c r="F82" s="8" t="str">
         <f>'SCROD Write Registers'!F82</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G82" s="5" t="str">
+      <c r="G82" s="8" t="str">
         <f>'SCROD Write Registers'!G82</f>
         <v>See reg 13</v>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H82" s="8" t="str">
         <f>'SCROD Write Registers'!H82</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="6" t="str">
+      <c r="B83" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0051</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="8">
         <f>'SCROD Write Registers'!C83</f>
         <v>2</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="8">
         <f>'SCROD Write Registers'!D83</f>
         <v>0</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="8">
         <f>'SCROD Write Registers'!E83</f>
         <v>4</v>
       </c>
-      <c r="F83" s="5" t="str">
+      <c r="F83" s="8" t="str">
         <f>'SCROD Write Registers'!F83</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G83" s="5" t="str">
+      <c r="G83" s="8" t="str">
         <f>'SCROD Write Registers'!G83</f>
         <v>See reg 13</v>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H83" s="8" t="str">
         <f>'SCROD Write Registers'!H83</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>82</v>
       </c>
-      <c r="B84" s="6" t="str">
+      <c r="B84" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0052</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="8">
         <f>'SCROD Write Registers'!C84</f>
         <v>2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="8">
         <f>'SCROD Write Registers'!D84</f>
         <v>0</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="8">
         <f>'SCROD Write Registers'!E84</f>
         <v>5</v>
       </c>
-      <c r="F84" s="5" t="str">
+      <c r="F84" s="8" t="str">
         <f>'SCROD Write Registers'!F84</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G84" s="5" t="str">
+      <c r="G84" s="8" t="str">
         <f>'SCROD Write Registers'!G84</f>
         <v>See reg 13</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H84" s="8" t="str">
         <f>'SCROD Write Registers'!H84</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="6" t="str">
+      <c r="B85" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0053</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="8">
         <f>'SCROD Write Registers'!C85</f>
         <v>2</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="8">
         <f>'SCROD Write Registers'!D85</f>
         <v>0</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="8">
         <f>'SCROD Write Registers'!E85</f>
         <v>6</v>
       </c>
-      <c r="F85" s="5" t="str">
+      <c r="F85" s="8" t="str">
         <f>'SCROD Write Registers'!F85</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G85" s="5" t="str">
+      <c r="G85" s="8" t="str">
         <f>'SCROD Write Registers'!G85</f>
         <v>See reg 13</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H85" s="8" t="str">
         <f>'SCROD Write Registers'!H85</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="6" t="str">
+      <c r="B86" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0054</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="8">
         <f>'SCROD Write Registers'!C86</f>
         <v>2</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="8">
         <f>'SCROD Write Registers'!D86</f>
         <v>0</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="8">
         <f>'SCROD Write Registers'!E86</f>
         <v>7</v>
       </c>
-      <c r="F86" s="5" t="str">
+      <c r="F86" s="8" t="str">
         <f>'SCROD Write Registers'!F86</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G86" s="5" t="str">
+      <c r="G86" s="8" t="str">
         <f>'SCROD Write Registers'!G86</f>
         <v>See reg 13</v>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H86" s="8" t="str">
         <f>'SCROD Write Registers'!H86</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="6" t="str">
+      <c r="B87" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0055</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="8">
         <f>'SCROD Write Registers'!C87</f>
         <v>2</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="8">
         <f>'SCROD Write Registers'!D87</f>
         <v>1</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="8">
         <f>'SCROD Write Registers'!E87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="5" t="str">
+      <c r="F87" s="8" t="str">
         <f>'SCROD Write Registers'!F87</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G87" s="5" t="str">
+      <c r="G87" s="8" t="str">
         <f>'SCROD Write Registers'!G87</f>
         <v>See reg 13</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H87" s="8" t="str">
         <f>'SCROD Write Registers'!H87</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="6" t="str">
+      <c r="B88" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0056</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="8">
         <f>'SCROD Write Registers'!C88</f>
         <v>2</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="8">
         <f>'SCROD Write Registers'!D88</f>
         <v>1</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="8">
         <f>'SCROD Write Registers'!E88</f>
         <v>1</v>
       </c>
-      <c r="F88" s="5" t="str">
+      <c r="F88" s="8" t="str">
         <f>'SCROD Write Registers'!F88</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G88" s="5" t="str">
+      <c r="G88" s="8" t="str">
         <f>'SCROD Write Registers'!G88</f>
         <v>See reg 13</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H88" s="8" t="str">
         <f>'SCROD Write Registers'!H88</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="6" t="str">
+      <c r="B89" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0057</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="8">
         <f>'SCROD Write Registers'!C89</f>
         <v>2</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="8">
         <f>'SCROD Write Registers'!D89</f>
         <v>1</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="8">
         <f>'SCROD Write Registers'!E89</f>
         <v>2</v>
       </c>
-      <c r="F89" s="5" t="str">
+      <c r="F89" s="8" t="str">
         <f>'SCROD Write Registers'!F89</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G89" s="5" t="str">
+      <c r="G89" s="8" t="str">
         <f>'SCROD Write Registers'!G89</f>
         <v>See reg 13</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H89" s="8" t="str">
         <f>'SCROD Write Registers'!H89</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="6" t="str">
+      <c r="B90" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0058</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="8">
         <f>'SCROD Write Registers'!C90</f>
         <v>2</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="8">
         <f>'SCROD Write Registers'!D90</f>
         <v>1</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="8">
         <f>'SCROD Write Registers'!E90</f>
         <v>3</v>
       </c>
-      <c r="F90" s="5" t="str">
+      <c r="F90" s="8" t="str">
         <f>'SCROD Write Registers'!F90</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G90" s="5" t="str">
+      <c r="G90" s="8" t="str">
         <f>'SCROD Write Registers'!G90</f>
         <v>See reg 13</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H90" s="8" t="str">
         <f>'SCROD Write Registers'!H90</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="6" t="str">
+      <c r="B91" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0059</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="8">
         <f>'SCROD Write Registers'!C91</f>
         <v>2</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="8">
         <f>'SCROD Write Registers'!D91</f>
         <v>1</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="8">
         <f>'SCROD Write Registers'!E91</f>
         <v>4</v>
       </c>
-      <c r="F91" s="5" t="str">
+      <c r="F91" s="8" t="str">
         <f>'SCROD Write Registers'!F91</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G91" s="5" t="str">
+      <c r="G91" s="8" t="str">
         <f>'SCROD Write Registers'!G91</f>
         <v>See reg 13</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H91" s="8" t="str">
         <f>'SCROD Write Registers'!H91</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="6" t="str">
+      <c r="B92" s="19" t="str">
         <f t="shared" si="1"/>
         <v>005A</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="8">
         <f>'SCROD Write Registers'!C92</f>
         <v>2</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="8">
         <f>'SCROD Write Registers'!D92</f>
         <v>1</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="8">
         <f>'SCROD Write Registers'!E92</f>
         <v>5</v>
       </c>
-      <c r="F92" s="5" t="str">
+      <c r="F92" s="8" t="str">
         <f>'SCROD Write Registers'!F92</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G92" s="5" t="str">
+      <c r="G92" s="8" t="str">
         <f>'SCROD Write Registers'!G92</f>
         <v>See reg 13</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H92" s="8" t="str">
         <f>'SCROD Write Registers'!H92</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="6" t="str">
+      <c r="B93" s="19" t="str">
         <f t="shared" si="1"/>
         <v>005B</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="8">
         <f>'SCROD Write Registers'!C93</f>
         <v>2</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="8">
         <f>'SCROD Write Registers'!D93</f>
         <v>1</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="8">
         <f>'SCROD Write Registers'!E93</f>
         <v>6</v>
       </c>
-      <c r="F93" s="5" t="str">
+      <c r="F93" s="8" t="str">
         <f>'SCROD Write Registers'!F93</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G93" s="5" t="str">
+      <c r="G93" s="8" t="str">
         <f>'SCROD Write Registers'!G93</f>
         <v>See reg 13</v>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H93" s="8" t="str">
         <f>'SCROD Write Registers'!H93</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="6" t="str">
+      <c r="B94" s="19" t="str">
         <f t="shared" si="1"/>
         <v>005C</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="8">
         <f>'SCROD Write Registers'!C94</f>
         <v>2</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="8">
         <f>'SCROD Write Registers'!D94</f>
         <v>1</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="8">
         <f>'SCROD Write Registers'!E94</f>
         <v>7</v>
       </c>
-      <c r="F94" s="5" t="str">
+      <c r="F94" s="8" t="str">
         <f>'SCROD Write Registers'!F94</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G94" s="5" t="str">
+      <c r="G94" s="8" t="str">
         <f>'SCROD Write Registers'!G94</f>
         <v>See reg 13</v>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H94" s="8" t="str">
         <f>'SCROD Write Registers'!H94</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="6" t="str">
+      <c r="B95" s="19" t="str">
         <f t="shared" si="1"/>
         <v>005D</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="8">
         <f>'SCROD Write Registers'!C95</f>
         <v>2</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="8">
         <f>'SCROD Write Registers'!D95</f>
         <v>2</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="8">
         <f>'SCROD Write Registers'!E95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="5" t="str">
+      <c r="F95" s="8" t="str">
         <f>'SCROD Write Registers'!F95</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G95" s="5" t="str">
+      <c r="G95" s="8" t="str">
         <f>'SCROD Write Registers'!G95</f>
         <v>See reg 13</v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H95" s="8" t="str">
         <f>'SCROD Write Registers'!H95</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="6" t="str">
+      <c r="B96" s="19" t="str">
         <f t="shared" si="1"/>
         <v>005E</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="8">
         <f>'SCROD Write Registers'!C96</f>
         <v>2</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="8">
         <f>'SCROD Write Registers'!D96</f>
         <v>2</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="8">
         <f>'SCROD Write Registers'!E96</f>
         <v>1</v>
       </c>
-      <c r="F96" s="5" t="str">
+      <c r="F96" s="8" t="str">
         <f>'SCROD Write Registers'!F96</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G96" s="5" t="str">
+      <c r="G96" s="8" t="str">
         <f>'SCROD Write Registers'!G96</f>
         <v>See reg 13</v>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H96" s="8" t="str">
         <f>'SCROD Write Registers'!H96</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="6" t="str">
+      <c r="B97" s="19" t="str">
         <f t="shared" si="1"/>
         <v>005F</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="8">
         <f>'SCROD Write Registers'!C97</f>
         <v>2</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="8">
         <f>'SCROD Write Registers'!D97</f>
         <v>2</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="8">
         <f>'SCROD Write Registers'!E97</f>
         <v>2</v>
       </c>
-      <c r="F97" s="5" t="str">
+      <c r="F97" s="8" t="str">
         <f>'SCROD Write Registers'!F97</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G97" s="5" t="str">
+      <c r="G97" s="8" t="str">
         <f>'SCROD Write Registers'!G97</f>
         <v>See reg 13</v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H97" s="8" t="str">
         <f>'SCROD Write Registers'!H97</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="6" t="str">
+      <c r="B98" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0060</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="8">
         <f>'SCROD Write Registers'!C98</f>
         <v>2</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="8">
         <f>'SCROD Write Registers'!D98</f>
         <v>2</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="8">
         <f>'SCROD Write Registers'!E98</f>
         <v>3</v>
       </c>
-      <c r="F98" s="5" t="str">
+      <c r="F98" s="8" t="str">
         <f>'SCROD Write Registers'!F98</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G98" s="5" t="str">
+      <c r="G98" s="8" t="str">
         <f>'SCROD Write Registers'!G98</f>
         <v>See reg 13</v>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H98" s="8" t="str">
         <f>'SCROD Write Registers'!H98</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="6" t="str">
+      <c r="B99" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0061</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="8">
         <f>'SCROD Write Registers'!C99</f>
         <v>2</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="8">
         <f>'SCROD Write Registers'!D99</f>
         <v>2</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="8">
         <f>'SCROD Write Registers'!E99</f>
         <v>4</v>
       </c>
-      <c r="F99" s="5" t="str">
+      <c r="F99" s="8" t="str">
         <f>'SCROD Write Registers'!F99</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G99" s="5" t="str">
+      <c r="G99" s="8" t="str">
         <f>'SCROD Write Registers'!G99</f>
         <v>See reg 13</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H99" s="8" t="str">
         <f>'SCROD Write Registers'!H99</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
         <v>98</v>
       </c>
-      <c r="B100" s="6" t="str">
+      <c r="B100" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0062</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="8">
         <f>'SCROD Write Registers'!C100</f>
         <v>2</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="8">
         <f>'SCROD Write Registers'!D100</f>
         <v>2</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="8">
         <f>'SCROD Write Registers'!E100</f>
         <v>5</v>
       </c>
-      <c r="F100" s="5" t="str">
+      <c r="F100" s="8" t="str">
         <f>'SCROD Write Registers'!F100</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G100" s="5" t="str">
+      <c r="G100" s="8" t="str">
         <f>'SCROD Write Registers'!G100</f>
         <v>See reg 13</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H100" s="8" t="str">
         <f>'SCROD Write Registers'!H100</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="6" t="str">
+      <c r="B101" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0063</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="8">
         <f>'SCROD Write Registers'!C101</f>
         <v>2</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="8">
         <f>'SCROD Write Registers'!D101</f>
         <v>2</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="8">
         <f>'SCROD Write Registers'!E101</f>
         <v>6</v>
       </c>
-      <c r="F101" s="5" t="str">
+      <c r="F101" s="8" t="str">
         <f>'SCROD Write Registers'!F101</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G101" s="5" t="str">
+      <c r="G101" s="8" t="str">
         <f>'SCROD Write Registers'!G101</f>
         <v>See reg 13</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H101" s="8" t="str">
         <f>'SCROD Write Registers'!H101</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
         <v>100</v>
       </c>
-      <c r="B102" s="6" t="str">
+      <c r="B102" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0064</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="8">
         <f>'SCROD Write Registers'!C102</f>
         <v>2</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="8">
         <f>'SCROD Write Registers'!D102</f>
         <v>2</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="8">
         <f>'SCROD Write Registers'!E102</f>
         <v>7</v>
       </c>
-      <c r="F102" s="5" t="str">
+      <c r="F102" s="8" t="str">
         <f>'SCROD Write Registers'!F102</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G102" s="5" t="str">
+      <c r="G102" s="8" t="str">
         <f>'SCROD Write Registers'!G102</f>
         <v>See reg 13</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H102" s="8" t="str">
         <f>'SCROD Write Registers'!H102</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="6" t="str">
+      <c r="B103" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0065</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="8">
         <f>'SCROD Write Registers'!C103</f>
         <v>2</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="8">
         <f>'SCROD Write Registers'!D103</f>
         <v>3</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="8">
         <f>'SCROD Write Registers'!E103</f>
         <v>0</v>
       </c>
-      <c r="F103" s="5" t="str">
+      <c r="F103" s="8" t="str">
         <f>'SCROD Write Registers'!F103</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G103" s="5" t="str">
+      <c r="G103" s="8" t="str">
         <f>'SCROD Write Registers'!G103</f>
         <v>See reg 13</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H103" s="8" t="str">
         <f>'SCROD Write Registers'!H103</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
         <v>102</v>
       </c>
-      <c r="B104" s="6" t="str">
+      <c r="B104" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0066</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="8">
         <f>'SCROD Write Registers'!C104</f>
         <v>2</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="8">
         <f>'SCROD Write Registers'!D104</f>
         <v>3</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="8">
         <f>'SCROD Write Registers'!E104</f>
         <v>1</v>
       </c>
-      <c r="F104" s="5" t="str">
+      <c r="F104" s="8" t="str">
         <f>'SCROD Write Registers'!F104</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G104" s="5" t="str">
+      <c r="G104" s="8" t="str">
         <f>'SCROD Write Registers'!G104</f>
         <v>See reg 13</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H104" s="8" t="str">
         <f>'SCROD Write Registers'!H104</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="6" t="str">
+      <c r="B105" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0067</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="8">
         <f>'SCROD Write Registers'!C105</f>
         <v>2</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="8">
         <f>'SCROD Write Registers'!D105</f>
         <v>3</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="8">
         <f>'SCROD Write Registers'!E105</f>
         <v>2</v>
       </c>
-      <c r="F105" s="5" t="str">
+      <c r="F105" s="8" t="str">
         <f>'SCROD Write Registers'!F105</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G105" s="5" t="str">
+      <c r="G105" s="8" t="str">
         <f>'SCROD Write Registers'!G105</f>
         <v>See reg 13</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H105" s="8" t="str">
         <f>'SCROD Write Registers'!H105</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
         <v>104</v>
       </c>
-      <c r="B106" s="6" t="str">
+      <c r="B106" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0068</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="8">
         <f>'SCROD Write Registers'!C106</f>
         <v>2</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="8">
         <f>'SCROD Write Registers'!D106</f>
         <v>3</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="8">
         <f>'SCROD Write Registers'!E106</f>
         <v>3</v>
       </c>
-      <c r="F106" s="5" t="str">
+      <c r="F106" s="8" t="str">
         <f>'SCROD Write Registers'!F106</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G106" s="5" t="str">
+      <c r="G106" s="8" t="str">
         <f>'SCROD Write Registers'!G106</f>
         <v>See reg 13</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H106" s="8" t="str">
         <f>'SCROD Write Registers'!H106</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="6" t="str">
+      <c r="B107" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0069</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="8">
         <f>'SCROD Write Registers'!C107</f>
         <v>2</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="8">
         <f>'SCROD Write Registers'!D107</f>
         <v>3</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="8">
         <f>'SCROD Write Registers'!E107</f>
         <v>4</v>
       </c>
-      <c r="F107" s="5" t="str">
+      <c r="F107" s="8" t="str">
         <f>'SCROD Write Registers'!F107</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G107" s="5" t="str">
+      <c r="G107" s="8" t="str">
         <f>'SCROD Write Registers'!G107</f>
         <v>See reg 13</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H107" s="8" t="str">
         <f>'SCROD Write Registers'!H107</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+    <row r="108" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
         <v>106</v>
       </c>
-      <c r="B108" s="6" t="str">
+      <c r="B108" s="19" t="str">
         <f t="shared" si="1"/>
         <v>006A</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="8">
         <f>'SCROD Write Registers'!C108</f>
         <v>2</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="8">
         <f>'SCROD Write Registers'!D108</f>
         <v>3</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="8">
         <f>'SCROD Write Registers'!E108</f>
         <v>5</v>
       </c>
-      <c r="F108" s="5" t="str">
+      <c r="F108" s="8" t="str">
         <f>'SCROD Write Registers'!F108</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G108" s="5" t="str">
+      <c r="G108" s="8" t="str">
         <f>'SCROD Write Registers'!G108</f>
         <v>See reg 13</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H108" s="8" t="str">
         <f>'SCROD Write Registers'!H108</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+    <row r="109" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="6" t="str">
+      <c r="B109" s="19" t="str">
         <f t="shared" si="1"/>
         <v>006B</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="8">
         <f>'SCROD Write Registers'!C109</f>
         <v>2</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="8">
         <f>'SCROD Write Registers'!D109</f>
         <v>3</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="8">
         <f>'SCROD Write Registers'!E109</f>
         <v>6</v>
       </c>
-      <c r="F109" s="5" t="str">
+      <c r="F109" s="8" t="str">
         <f>'SCROD Write Registers'!F109</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G109" s="5" t="str">
+      <c r="G109" s="8" t="str">
         <f>'SCROD Write Registers'!G109</f>
         <v>See reg 13</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H109" s="8" t="str">
         <f>'SCROD Write Registers'!H109</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+    <row r="110" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
         <v>108</v>
       </c>
-      <c r="B110" s="6" t="str">
+      <c r="B110" s="19" t="str">
         <f t="shared" si="1"/>
         <v>006C</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="8">
         <f>'SCROD Write Registers'!C110</f>
         <v>2</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="8">
         <f>'SCROD Write Registers'!D110</f>
         <v>3</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="8">
         <f>'SCROD Write Registers'!E110</f>
         <v>7</v>
       </c>
-      <c r="F110" s="5" t="str">
+      <c r="F110" s="8" t="str">
         <f>'SCROD Write Registers'!F110</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G110" s="5" t="str">
+      <c r="G110" s="8" t="str">
         <f>'SCROD Write Registers'!G110</f>
         <v>See reg 13</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H110" s="8" t="str">
         <f>'SCROD Write Registers'!H110</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+    <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="6" t="str">
+      <c r="B111" s="19" t="str">
         <f t="shared" si="1"/>
         <v>006D</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="8">
         <f>'SCROD Write Registers'!C111</f>
         <v>3</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="8">
         <f>'SCROD Write Registers'!D111</f>
         <v>0</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="8">
         <f>'SCROD Write Registers'!E111</f>
         <v>0</v>
       </c>
-      <c r="F111" s="5" t="str">
+      <c r="F111" s="8" t="str">
         <f>'SCROD Write Registers'!F111</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G111" s="5" t="str">
+      <c r="G111" s="8" t="str">
         <f>'SCROD Write Registers'!G111</f>
         <v>See reg 13</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H111" s="8" t="str">
         <f>'SCROD Write Registers'!H111</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+    <row r="112" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
         <v>110</v>
       </c>
-      <c r="B112" s="6" t="str">
+      <c r="B112" s="19" t="str">
         <f t="shared" si="1"/>
         <v>006E</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="8">
         <f>'SCROD Write Registers'!C112</f>
         <v>3</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="8">
         <f>'SCROD Write Registers'!D112</f>
         <v>0</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="8">
         <f>'SCROD Write Registers'!E112</f>
         <v>1</v>
       </c>
-      <c r="F112" s="5" t="str">
+      <c r="F112" s="8" t="str">
         <f>'SCROD Write Registers'!F112</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G112" s="5" t="str">
+      <c r="G112" s="8" t="str">
         <f>'SCROD Write Registers'!G112</f>
         <v>See reg 13</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H112" s="8" t="str">
         <f>'SCROD Write Registers'!H112</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+    <row r="113" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="6" t="str">
+      <c r="B113" s="19" t="str">
         <f t="shared" si="1"/>
         <v>006F</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="8">
         <f>'SCROD Write Registers'!C113</f>
         <v>3</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="8">
         <f>'SCROD Write Registers'!D113</f>
         <v>0</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="8">
         <f>'SCROD Write Registers'!E113</f>
         <v>2</v>
       </c>
-      <c r="F113" s="5" t="str">
+      <c r="F113" s="8" t="str">
         <f>'SCROD Write Registers'!F113</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G113" s="5" t="str">
+      <c r="G113" s="8" t="str">
         <f>'SCROD Write Registers'!G113</f>
         <v>See reg 13</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H113" s="8" t="str">
         <f>'SCROD Write Registers'!H113</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
+    <row r="114" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
         <v>112</v>
       </c>
-      <c r="B114" s="6" t="str">
+      <c r="B114" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0070</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="8">
         <f>'SCROD Write Registers'!C114</f>
         <v>3</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="8">
         <f>'SCROD Write Registers'!D114</f>
         <v>0</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="8">
         <f>'SCROD Write Registers'!E114</f>
         <v>3</v>
       </c>
-      <c r="F114" s="5" t="str">
+      <c r="F114" s="8" t="str">
         <f>'SCROD Write Registers'!F114</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G114" s="5" t="str">
+      <c r="G114" s="8" t="str">
         <f>'SCROD Write Registers'!G114</f>
         <v>See reg 13</v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H114" s="8" t="str">
         <f>'SCROD Write Registers'!H114</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+    <row r="115" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="6" t="str">
+      <c r="B115" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0071</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="8">
         <f>'SCROD Write Registers'!C115</f>
         <v>3</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="8">
         <f>'SCROD Write Registers'!D115</f>
         <v>0</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="8">
         <f>'SCROD Write Registers'!E115</f>
         <v>4</v>
       </c>
-      <c r="F115" s="5" t="str">
+      <c r="F115" s="8" t="str">
         <f>'SCROD Write Registers'!F115</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G115" s="5" t="str">
+      <c r="G115" s="8" t="str">
         <f>'SCROD Write Registers'!G115</f>
         <v>See reg 13</v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H115" s="8" t="str">
         <f>'SCROD Write Registers'!H115</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
+    <row r="116" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
         <v>114</v>
       </c>
-      <c r="B116" s="6" t="str">
+      <c r="B116" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0072</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="8">
         <f>'SCROD Write Registers'!C116</f>
         <v>3</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="8">
         <f>'SCROD Write Registers'!D116</f>
         <v>0</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="8">
         <f>'SCROD Write Registers'!E116</f>
         <v>5</v>
       </c>
-      <c r="F116" s="5" t="str">
+      <c r="F116" s="8" t="str">
         <f>'SCROD Write Registers'!F116</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G116" s="5" t="str">
+      <c r="G116" s="8" t="str">
         <f>'SCROD Write Registers'!G116</f>
         <v>See reg 13</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H116" s="8" t="str">
         <f>'SCROD Write Registers'!H116</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+    <row r="117" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="6" t="str">
+      <c r="B117" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0073</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="8">
         <f>'SCROD Write Registers'!C117</f>
         <v>3</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="8">
         <f>'SCROD Write Registers'!D117</f>
         <v>0</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="8">
         <f>'SCROD Write Registers'!E117</f>
         <v>6</v>
       </c>
-      <c r="F117" s="5" t="str">
+      <c r="F117" s="8" t="str">
         <f>'SCROD Write Registers'!F117</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G117" s="5" t="str">
+      <c r="G117" s="8" t="str">
         <f>'SCROD Write Registers'!G117</f>
         <v>See reg 13</v>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="H117" s="8" t="str">
         <f>'SCROD Write Registers'!H117</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+    <row r="118" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
         <v>116</v>
       </c>
-      <c r="B118" s="6" t="str">
+      <c r="B118" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0074</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="8">
         <f>'SCROD Write Registers'!C118</f>
         <v>3</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="8">
         <f>'SCROD Write Registers'!D118</f>
         <v>0</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="8">
         <f>'SCROD Write Registers'!E118</f>
         <v>7</v>
       </c>
-      <c r="F118" s="5" t="str">
+      <c r="F118" s="8" t="str">
         <f>'SCROD Write Registers'!F118</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G118" s="5" t="str">
+      <c r="G118" s="8" t="str">
         <f>'SCROD Write Registers'!G118</f>
         <v>See reg 13</v>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="H118" s="8" t="str">
         <f>'SCROD Write Registers'!H118</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+    <row r="119" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="6" t="str">
+      <c r="B119" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0075</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="8">
         <f>'SCROD Write Registers'!C119</f>
         <v>3</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="8">
         <f>'SCROD Write Registers'!D119</f>
         <v>1</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="8">
         <f>'SCROD Write Registers'!E119</f>
         <v>0</v>
       </c>
-      <c r="F119" s="5" t="str">
+      <c r="F119" s="8" t="str">
         <f>'SCROD Write Registers'!F119</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G119" s="5" t="str">
+      <c r="G119" s="8" t="str">
         <f>'SCROD Write Registers'!G119</f>
         <v>See reg 13</v>
       </c>
-      <c r="H119" s="5" t="str">
+      <c r="H119" s="8" t="str">
         <f>'SCROD Write Registers'!H119</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+    <row r="120" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
         <v>118</v>
       </c>
-      <c r="B120" s="6" t="str">
+      <c r="B120" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0076</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="8">
         <f>'SCROD Write Registers'!C120</f>
         <v>3</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="8">
         <f>'SCROD Write Registers'!D120</f>
         <v>1</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="8">
         <f>'SCROD Write Registers'!E120</f>
         <v>1</v>
       </c>
-      <c r="F120" s="5" t="str">
+      <c r="F120" s="8" t="str">
         <f>'SCROD Write Registers'!F120</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G120" s="5" t="str">
+      <c r="G120" s="8" t="str">
         <f>'SCROD Write Registers'!G120</f>
         <v>See reg 13</v>
       </c>
-      <c r="H120" s="5" t="str">
+      <c r="H120" s="8" t="str">
         <f>'SCROD Write Registers'!H120</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+    <row r="121" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="6" t="str">
+      <c r="B121" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0077</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="8">
         <f>'SCROD Write Registers'!C121</f>
         <v>3</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="8">
         <f>'SCROD Write Registers'!D121</f>
         <v>1</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="8">
         <f>'SCROD Write Registers'!E121</f>
         <v>2</v>
       </c>
-      <c r="F121" s="5" t="str">
+      <c r="F121" s="8" t="str">
         <f>'SCROD Write Registers'!F121</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G121" s="5" t="str">
+      <c r="G121" s="8" t="str">
         <f>'SCROD Write Registers'!G121</f>
         <v>See reg 13</v>
       </c>
-      <c r="H121" s="5" t="str">
+      <c r="H121" s="8" t="str">
         <f>'SCROD Write Registers'!H121</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+    <row r="122" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
         <v>120</v>
       </c>
-      <c r="B122" s="6" t="str">
+      <c r="B122" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0078</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="8">
         <f>'SCROD Write Registers'!C122</f>
         <v>3</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="8">
         <f>'SCROD Write Registers'!D122</f>
         <v>1</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="8">
         <f>'SCROD Write Registers'!E122</f>
         <v>3</v>
       </c>
-      <c r="F122" s="5" t="str">
+      <c r="F122" s="8" t="str">
         <f>'SCROD Write Registers'!F122</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G122" s="5" t="str">
+      <c r="G122" s="8" t="str">
         <f>'SCROD Write Registers'!G122</f>
         <v>See reg 13</v>
       </c>
-      <c r="H122" s="5" t="str">
+      <c r="H122" s="8" t="str">
         <f>'SCROD Write Registers'!H122</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+    <row r="123" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="6" t="str">
+      <c r="B123" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0079</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="8">
         <f>'SCROD Write Registers'!C123</f>
         <v>3</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="8">
         <f>'SCROD Write Registers'!D123</f>
         <v>1</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="8">
         <f>'SCROD Write Registers'!E123</f>
         <v>4</v>
       </c>
-      <c r="F123" s="5" t="str">
+      <c r="F123" s="8" t="str">
         <f>'SCROD Write Registers'!F123</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G123" s="5" t="str">
+      <c r="G123" s="8" t="str">
         <f>'SCROD Write Registers'!G123</f>
         <v>See reg 13</v>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="H123" s="8" t="str">
         <f>'SCROD Write Registers'!H123</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+    <row r="124" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
         <v>122</v>
       </c>
-      <c r="B124" s="6" t="str">
+      <c r="B124" s="19" t="str">
         <f t="shared" si="1"/>
         <v>007A</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="8">
         <f>'SCROD Write Registers'!C124</f>
         <v>3</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="8">
         <f>'SCROD Write Registers'!D124</f>
         <v>1</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="8">
         <f>'SCROD Write Registers'!E124</f>
         <v>5</v>
       </c>
-      <c r="F124" s="5" t="str">
+      <c r="F124" s="8" t="str">
         <f>'SCROD Write Registers'!F124</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G124" s="5" t="str">
+      <c r="G124" s="8" t="str">
         <f>'SCROD Write Registers'!G124</f>
         <v>See reg 13</v>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H124" s="8" t="str">
         <f>'SCROD Write Registers'!H124</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+    <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="6" t="str">
+      <c r="B125" s="19" t="str">
         <f t="shared" si="1"/>
         <v>007B</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="8">
         <f>'SCROD Write Registers'!C125</f>
         <v>3</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="8">
         <f>'SCROD Write Registers'!D125</f>
         <v>1</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="8">
         <f>'SCROD Write Registers'!E125</f>
         <v>6</v>
       </c>
-      <c r="F125" s="5" t="str">
+      <c r="F125" s="8" t="str">
         <f>'SCROD Write Registers'!F125</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G125" s="5" t="str">
+      <c r="G125" s="8" t="str">
         <f>'SCROD Write Registers'!G125</f>
         <v>See reg 13</v>
       </c>
-      <c r="H125" s="5" t="str">
+      <c r="H125" s="8" t="str">
         <f>'SCROD Write Registers'!H125</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
+    <row r="126" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
         <v>124</v>
       </c>
-      <c r="B126" s="6" t="str">
+      <c r="B126" s="19" t="str">
         <f t="shared" si="1"/>
         <v>007C</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="8">
         <f>'SCROD Write Registers'!C126</f>
         <v>3</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="8">
         <f>'SCROD Write Registers'!D126</f>
         <v>1</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="8">
         <f>'SCROD Write Registers'!E126</f>
         <v>7</v>
       </c>
-      <c r="F126" s="5" t="str">
+      <c r="F126" s="8" t="str">
         <f>'SCROD Write Registers'!F126</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G126" s="5" t="str">
+      <c r="G126" s="8" t="str">
         <f>'SCROD Write Registers'!G126</f>
         <v>See reg 13</v>
       </c>
-      <c r="H126" s="5" t="str">
+      <c r="H126" s="8" t="str">
         <f>'SCROD Write Registers'!H126</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+    <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="6" t="str">
+      <c r="B127" s="19" t="str">
         <f t="shared" si="1"/>
         <v>007D</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="8">
         <f>'SCROD Write Registers'!C127</f>
         <v>3</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="8">
         <f>'SCROD Write Registers'!D127</f>
         <v>2</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="8">
         <f>'SCROD Write Registers'!E127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="5" t="str">
+      <c r="F127" s="8" t="str">
         <f>'SCROD Write Registers'!F127</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G127" s="5" t="str">
+      <c r="G127" s="8" t="str">
         <f>'SCROD Write Registers'!G127</f>
         <v>See reg 13</v>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="H127" s="8" t="str">
         <f>'SCROD Write Registers'!H127</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
+    <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
         <v>126</v>
       </c>
-      <c r="B128" s="6" t="str">
+      <c r="B128" s="19" t="str">
         <f t="shared" si="1"/>
         <v>007E</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="8">
         <f>'SCROD Write Registers'!C128</f>
         <v>3</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="8">
         <f>'SCROD Write Registers'!D128</f>
         <v>2</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="8">
         <f>'SCROD Write Registers'!E128</f>
         <v>1</v>
       </c>
-      <c r="F128" s="5" t="str">
+      <c r="F128" s="8" t="str">
         <f>'SCROD Write Registers'!F128</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G128" s="5" t="str">
+      <c r="G128" s="8" t="str">
         <f>'SCROD Write Registers'!G128</f>
         <v>See reg 13</v>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H128" s="8" t="str">
         <f>'SCROD Write Registers'!H128</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+    <row r="129" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="6" t="str">
+      <c r="B129" s="19" t="str">
         <f t="shared" si="1"/>
         <v>007F</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="8">
         <f>'SCROD Write Registers'!C129</f>
         <v>3</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="8">
         <f>'SCROD Write Registers'!D129</f>
         <v>2</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="8">
         <f>'SCROD Write Registers'!E129</f>
         <v>2</v>
       </c>
-      <c r="F129" s="5" t="str">
+      <c r="F129" s="8" t="str">
         <f>'SCROD Write Registers'!F129</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G129" s="5" t="str">
+      <c r="G129" s="8" t="str">
         <f>'SCROD Write Registers'!G129</f>
         <v>See reg 13</v>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H129" s="8" t="str">
         <f>'SCROD Write Registers'!H129</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+    <row r="130" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
         <v>128</v>
       </c>
-      <c r="B130" s="6" t="str">
+      <c r="B130" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0080</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="8">
         <f>'SCROD Write Registers'!C130</f>
         <v>3</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="8">
         <f>'SCROD Write Registers'!D130</f>
         <v>2</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="8">
         <f>'SCROD Write Registers'!E130</f>
         <v>3</v>
       </c>
-      <c r="F130" s="5" t="str">
+      <c r="F130" s="8" t="str">
         <f>'SCROD Write Registers'!F130</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G130" s="5" t="str">
+      <c r="G130" s="8" t="str">
         <f>'SCROD Write Registers'!G130</f>
         <v>See reg 13</v>
       </c>
-      <c r="H130" s="5" t="str">
+      <c r="H130" s="8" t="str">
         <f>'SCROD Write Registers'!H130</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+    <row r="131" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="6" t="str">
+      <c r="B131" s="19" t="str">
         <f t="shared" ref="B131:B194" si="2">DEC2HEX(A131,4)</f>
         <v>0081</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="8">
         <f>'SCROD Write Registers'!C131</f>
         <v>3</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="8">
         <f>'SCROD Write Registers'!D131</f>
         <v>2</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="8">
         <f>'SCROD Write Registers'!E131</f>
         <v>4</v>
       </c>
-      <c r="F131" s="5" t="str">
+      <c r="F131" s="8" t="str">
         <f>'SCROD Write Registers'!F131</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G131" s="5" t="str">
+      <c r="G131" s="8" t="str">
         <f>'SCROD Write Registers'!G131</f>
         <v>See reg 13</v>
       </c>
-      <c r="H131" s="5" t="str">
+      <c r="H131" s="8" t="str">
         <f>'SCROD Write Registers'!H131</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
+    <row r="132" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8">
         <v>130</v>
       </c>
-      <c r="B132" s="6" t="str">
+      <c r="B132" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0082</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="8">
         <f>'SCROD Write Registers'!C132</f>
         <v>3</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="8">
         <f>'SCROD Write Registers'!D132</f>
         <v>2</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="8">
         <f>'SCROD Write Registers'!E132</f>
         <v>5</v>
       </c>
-      <c r="F132" s="5" t="str">
+      <c r="F132" s="8" t="str">
         <f>'SCROD Write Registers'!F132</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G132" s="5" t="str">
+      <c r="G132" s="8" t="str">
         <f>'SCROD Write Registers'!G132</f>
         <v>See reg 13</v>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="H132" s="8" t="str">
         <f>'SCROD Write Registers'!H132</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+    <row r="133" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="6" t="str">
+      <c r="B133" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0083</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="8">
         <f>'SCROD Write Registers'!C133</f>
         <v>3</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="8">
         <f>'SCROD Write Registers'!D133</f>
         <v>2</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="8">
         <f>'SCROD Write Registers'!E133</f>
         <v>6</v>
       </c>
-      <c r="F133" s="5" t="str">
+      <c r="F133" s="8" t="str">
         <f>'SCROD Write Registers'!F133</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G133" s="5" t="str">
+      <c r="G133" s="8" t="str">
         <f>'SCROD Write Registers'!G133</f>
         <v>See reg 13</v>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H133" s="8" t="str">
         <f>'SCROD Write Registers'!H133</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+    <row r="134" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
         <v>132</v>
       </c>
-      <c r="B134" s="6" t="str">
+      <c r="B134" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0084</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="8">
         <f>'SCROD Write Registers'!C134</f>
         <v>3</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <f>'SCROD Write Registers'!D134</f>
         <v>2</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="8">
         <f>'SCROD Write Registers'!E134</f>
         <v>7</v>
       </c>
-      <c r="F134" s="5" t="str">
+      <c r="F134" s="8" t="str">
         <f>'SCROD Write Registers'!F134</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G134" s="5" t="str">
+      <c r="G134" s="8" t="str">
         <f>'SCROD Write Registers'!G134</f>
         <v>See reg 13</v>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="H134" s="8" t="str">
         <f>'SCROD Write Registers'!H134</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+    <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="6" t="str">
+      <c r="B135" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0085</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="8">
         <f>'SCROD Write Registers'!C135</f>
         <v>3</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="8">
         <f>'SCROD Write Registers'!D135</f>
         <v>3</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="8">
         <f>'SCROD Write Registers'!E135</f>
         <v>0</v>
       </c>
-      <c r="F135" s="5" t="str">
+      <c r="F135" s="8" t="str">
         <f>'SCROD Write Registers'!F135</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G135" s="5" t="str">
+      <c r="G135" s="8" t="str">
         <f>'SCROD Write Registers'!G135</f>
         <v>See reg 13</v>
       </c>
-      <c r="H135" s="5" t="str">
+      <c r="H135" s="8" t="str">
         <f>'SCROD Write Registers'!H135</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+    <row r="136" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
         <v>134</v>
       </c>
-      <c r="B136" s="6" t="str">
+      <c r="B136" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0086</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="8">
         <f>'SCROD Write Registers'!C136</f>
         <v>3</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="8">
         <f>'SCROD Write Registers'!D136</f>
         <v>3</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="8">
         <f>'SCROD Write Registers'!E136</f>
         <v>1</v>
       </c>
-      <c r="F136" s="5" t="str">
+      <c r="F136" s="8" t="str">
         <f>'SCROD Write Registers'!F136</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G136" s="5" t="str">
+      <c r="G136" s="8" t="str">
         <f>'SCROD Write Registers'!G136</f>
         <v>See reg 13</v>
       </c>
-      <c r="H136" s="5" t="str">
+      <c r="H136" s="8" t="str">
         <f>'SCROD Write Registers'!H136</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+    <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="6" t="str">
+      <c r="B137" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0087</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="8">
         <f>'SCROD Write Registers'!C137</f>
         <v>3</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="8">
         <f>'SCROD Write Registers'!D137</f>
         <v>3</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="8">
         <f>'SCROD Write Registers'!E137</f>
         <v>2</v>
       </c>
-      <c r="F137" s="5" t="str">
+      <c r="F137" s="8" t="str">
         <f>'SCROD Write Registers'!F137</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G137" s="5" t="str">
+      <c r="G137" s="8" t="str">
         <f>'SCROD Write Registers'!G137</f>
         <v>See reg 13</v>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="H137" s="8" t="str">
         <f>'SCROD Write Registers'!H137</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
+    <row r="138" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
         <v>136</v>
       </c>
-      <c r="B138" s="6" t="str">
+      <c r="B138" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0088</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="8">
         <f>'SCROD Write Registers'!C138</f>
         <v>3</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="8">
         <f>'SCROD Write Registers'!D138</f>
         <v>3</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="8">
         <f>'SCROD Write Registers'!E138</f>
         <v>3</v>
       </c>
-      <c r="F138" s="5" t="str">
+      <c r="F138" s="8" t="str">
         <f>'SCROD Write Registers'!F138</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G138" s="5" t="str">
+      <c r="G138" s="8" t="str">
         <f>'SCROD Write Registers'!G138</f>
         <v>See reg 13</v>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="H138" s="8" t="str">
         <f>'SCROD Write Registers'!H138</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+    <row r="139" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="6" t="str">
+      <c r="B139" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0089</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="8">
         <f>'SCROD Write Registers'!C139</f>
         <v>3</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="8">
         <f>'SCROD Write Registers'!D139</f>
         <v>3</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="8">
         <f>'SCROD Write Registers'!E139</f>
         <v>4</v>
       </c>
-      <c r="F139" s="5" t="str">
+      <c r="F139" s="8" t="str">
         <f>'SCROD Write Registers'!F139</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G139" s="5" t="str">
+      <c r="G139" s="8" t="str">
         <f>'SCROD Write Registers'!G139</f>
         <v>See reg 13</v>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="H139" s="8" t="str">
         <f>'SCROD Write Registers'!H139</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
+    <row r="140" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
         <v>138</v>
       </c>
-      <c r="B140" s="6" t="str">
+      <c r="B140" s="19" t="str">
         <f t="shared" si="2"/>
         <v>008A</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="8">
         <f>'SCROD Write Registers'!C140</f>
         <v>3</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="8">
         <f>'SCROD Write Registers'!D140</f>
         <v>3</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="8">
         <f>'SCROD Write Registers'!E140</f>
         <v>5</v>
       </c>
-      <c r="F140" s="5" t="str">
+      <c r="F140" s="8" t="str">
         <f>'SCROD Write Registers'!F140</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G140" s="5" t="str">
+      <c r="G140" s="8" t="str">
         <f>'SCROD Write Registers'!G140</f>
         <v>See reg 13</v>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="H140" s="8" t="str">
         <f>'SCROD Write Registers'!H140</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+    <row r="141" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="6" t="str">
+      <c r="B141" s="19" t="str">
         <f t="shared" si="2"/>
         <v>008B</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="8">
         <f>'SCROD Write Registers'!C141</f>
         <v>3</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="8">
         <f>'SCROD Write Registers'!D141</f>
         <v>3</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="8">
         <f>'SCROD Write Registers'!E141</f>
         <v>6</v>
       </c>
-      <c r="F141" s="5" t="str">
+      <c r="F141" s="8" t="str">
         <f>'SCROD Write Registers'!F141</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G141" s="5" t="str">
+      <c r="G141" s="8" t="str">
         <f>'SCROD Write Registers'!G141</f>
         <v>See reg 13</v>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="H141" s="8" t="str">
         <f>'SCROD Write Registers'!H141</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+    <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
         <v>140</v>
       </c>
-      <c r="B142" s="6" t="str">
+      <c r="B142" s="19" t="str">
         <f t="shared" si="2"/>
         <v>008C</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="8">
         <f>'SCROD Write Registers'!C142</f>
         <v>3</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="8">
         <f>'SCROD Write Registers'!D142</f>
         <v>3</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="8">
         <f>'SCROD Write Registers'!E142</f>
         <v>7</v>
       </c>
-      <c r="F142" s="5" t="str">
+      <c r="F142" s="8" t="str">
         <f>'SCROD Write Registers'!F142</f>
         <v>TRG_THRESH</v>
       </c>
-      <c r="G142" s="5" t="str">
+      <c r="G142" s="8" t="str">
         <f>'SCROD Write Registers'!G142</f>
         <v>See reg 13</v>
       </c>
-      <c r="H142" s="5" t="str">
+      <c r="H142" s="8" t="str">
         <f>'SCROD Write Registers'!H142</f>
         <v>Bits 15:12 unused, Bits 11:0 DAC value</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+    <row r="143" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="6" t="str">
+      <c r="B143" s="19" t="str">
         <f t="shared" si="2"/>
         <v>008D</v>
       </c>
-      <c r="C143" s="5" t="str">
+      <c r="C143" s="8" t="str">
         <f>'SCROD Write Registers'!C143</f>
         <v>N/A</v>
       </c>
-      <c r="D143" s="5" t="str">
+      <c r="D143" s="8" t="str">
         <f>'SCROD Write Registers'!D143</f>
         <v>N/A</v>
       </c>
-      <c r="E143" s="5" t="str">
+      <c r="E143" s="8" t="str">
         <f>'SCROD Write Registers'!E143</f>
         <v>N/A</v>
       </c>
-      <c r="F143" s="5" t="str">
+      <c r="F143" s="8" t="str">
         <f>'SCROD Write Registers'!F143</f>
         <v>Wilkinson rate feedback enables</v>
       </c>
-      <c r="G143" s="5" t="str">
+      <c r="G143" s="8" t="str">
         <f>'SCROD Write Registers'!G143</f>
         <v>Each bit turns on one ASIC's feedback enale for servoing VDLY</v>
       </c>
-      <c r="H143" s="5" t="str">
+      <c r="H143" s="8" t="str">
         <f>'SCROD Write Registers'!H143</f>
         <v>Bit 0: col 0, row 0 enable, Bit 1: col 0, row 1 enable, etc.</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
+    <row r="144" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
         <v>142</v>
       </c>
-      <c r="B144" s="6" t="str">
+      <c r="B144" s="19" t="str">
         <f t="shared" si="2"/>
         <v>008E</v>
       </c>
-      <c r="C144" s="5" t="str">
+      <c r="C144" s="8" t="str">
         <f>'SCROD Write Registers'!C144</f>
         <v>N/A</v>
       </c>
-      <c r="D144" s="5" t="str">
+      <c r="D144" s="8" t="str">
         <f>'SCROD Write Registers'!D144</f>
         <v>N/A</v>
       </c>
-      <c r="E144" s="5" t="str">
+      <c r="E144" s="8" t="str">
         <f>'SCROD Write Registers'!E144</f>
         <v>N/A</v>
       </c>
-      <c r="F144" s="5" t="str">
+      <c r="F144" s="8" t="str">
         <f>'SCROD Write Registers'!F144</f>
         <v>Sampling rate feedback enables</v>
       </c>
-      <c r="G144" s="5" t="str">
+      <c r="G144" s="8" t="str">
         <f>'SCROD Write Registers'!G144</f>
         <v>Each bit turns on one ASIC's feedback enale for servoing VADJP/VADJN</v>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="H144" s="8" t="str">
         <f>'SCROD Write Registers'!H144</f>
         <v>Bit 0: col 0, row 0 enable, Bit 1: col 0, row 1 enable, etc.</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+    <row r="145" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="6" t="str">
+      <c r="B145" s="19" t="str">
         <f t="shared" si="2"/>
         <v>008F</v>
       </c>
-      <c r="C145" s="5" t="str">
+      <c r="C145" s="8" t="str">
         <f>'SCROD Write Registers'!C145</f>
         <v>N/A</v>
       </c>
-      <c r="D145" s="5" t="str">
+      <c r="D145" s="8" t="str">
         <f>'SCROD Write Registers'!D145</f>
         <v>N/A</v>
       </c>
-      <c r="E145" s="5" t="str">
+      <c r="E145" s="8" t="str">
         <f>'SCROD Write Registers'!E145</f>
         <v>N/A</v>
       </c>
-      <c r="F145" s="5" t="str">
+      <c r="F145" s="8" t="str">
         <f>'SCROD Write Registers'!F145</f>
         <v>Trigger width feedback enables</v>
       </c>
-      <c r="G145" s="5" t="str">
+      <c r="G145" s="8" t="str">
         <f>'SCROD Write Registers'!G145</f>
         <v>Each bit turns on one ASIC's feedback enale for servoing WBIAS</v>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="H145" s="8" t="str">
         <f>'SCROD Write Registers'!H145</f>
         <v>Bit 0: col 0, row 0 enable, Bit 1: col 0, row 1 enable, etc.</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
         <v>144</v>
       </c>
-      <c r="B146" s="3" t="str">
+      <c r="B146" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0090</v>
       </c>
-      <c r="C146" t="str">
+      <c r="C146" s="8" t="str">
         <f>'SCROD Write Registers'!C146</f>
         <v>N/A</v>
       </c>
-      <c r="D146" t="str">
+      <c r="D146" s="8" t="str">
         <f>'SCROD Write Registers'!D146</f>
         <v>N/A</v>
       </c>
-      <c r="E146" t="str">
+      <c r="E146" s="8" t="str">
         <f>'SCROD Write Registers'!E146</f>
         <v>N/A</v>
       </c>
-      <c r="F146" t="str">
+      <c r="F146" s="8" t="str">
         <f>'SCROD Write Registers'!F146</f>
         <v>Wilkinson monitor counter auxiliary controls</v>
       </c>
@@ -17309,27 +17561,27 @@
         <v>Bit 0: start Wilkinson monitor counter (edge sensitive), Bit 1: clear Wilkinson monitor counter (level sensitive).  The bit 0 "start" edge can occur while vdly is off and still should work.</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="3" t="str">
+      <c r="B147" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0091</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="8">
         <f>'SCROD Write Registers'!C147</f>
         <v>0</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="8">
         <f>'SCROD Write Registers'!D147</f>
         <v>0</v>
       </c>
-      <c r="E147" t="str">
+      <c r="E147" s="8" t="str">
         <f>'SCROD Write Registers'!E147</f>
         <v>N/A</v>
       </c>
-      <c r="F147" t="str">
+      <c r="F147" s="8" t="str">
         <f>'SCROD Write Registers'!F147</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17342,27 +17594,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
         <v>146</v>
       </c>
-      <c r="B148" s="3" t="str">
+      <c r="B148" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0092</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="8">
         <f>'SCROD Write Registers'!C148</f>
         <v>0</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="8">
         <f>'SCROD Write Registers'!D148</f>
         <v>1</v>
       </c>
-      <c r="E148" t="str">
+      <c r="E148" s="8" t="str">
         <f>'SCROD Write Registers'!E148</f>
         <v>N/A</v>
       </c>
-      <c r="F148" t="str">
+      <c r="F148" s="8" t="str">
         <f>'SCROD Write Registers'!F148</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17375,27 +17627,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
         <v>147</v>
       </c>
-      <c r="B149" s="3" t="str">
+      <c r="B149" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0093</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="8">
         <f>'SCROD Write Registers'!C149</f>
         <v>0</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="8">
         <f>'SCROD Write Registers'!D149</f>
         <v>2</v>
       </c>
-      <c r="E149" t="str">
+      <c r="E149" s="8" t="str">
         <f>'SCROD Write Registers'!E149</f>
         <v>N/A</v>
       </c>
-      <c r="F149" t="str">
+      <c r="F149" s="8" t="str">
         <f>'SCROD Write Registers'!F149</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17408,27 +17660,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
         <v>148</v>
       </c>
-      <c r="B150" s="3" t="str">
+      <c r="B150" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0094</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="8">
         <f>'SCROD Write Registers'!C150</f>
         <v>0</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="8">
         <f>'SCROD Write Registers'!D150</f>
         <v>3</v>
       </c>
-      <c r="E150" t="str">
+      <c r="E150" s="8" t="str">
         <f>'SCROD Write Registers'!E150</f>
         <v>N/A</v>
       </c>
-      <c r="F150" t="str">
+      <c r="F150" s="8" t="str">
         <f>'SCROD Write Registers'!F150</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17441,27 +17693,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
         <v>149</v>
       </c>
-      <c r="B151" s="3" t="str">
+      <c r="B151" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0095</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="8">
         <f>'SCROD Write Registers'!C151</f>
         <v>1</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="8">
         <f>'SCROD Write Registers'!D151</f>
         <v>0</v>
       </c>
-      <c r="E151" t="str">
+      <c r="E151" s="8" t="str">
         <f>'SCROD Write Registers'!E151</f>
         <v>N/A</v>
       </c>
-      <c r="F151" t="str">
+      <c r="F151" s="8" t="str">
         <f>'SCROD Write Registers'!F151</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17474,27 +17726,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8">
         <v>150</v>
       </c>
-      <c r="B152" s="3" t="str">
+      <c r="B152" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0096</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="8">
         <f>'SCROD Write Registers'!C152</f>
         <v>1</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="8">
         <f>'SCROD Write Registers'!D152</f>
         <v>1</v>
       </c>
-      <c r="E152" t="str">
+      <c r="E152" s="8" t="str">
         <f>'SCROD Write Registers'!E152</f>
         <v>N/A</v>
       </c>
-      <c r="F152" t="str">
+      <c r="F152" s="8" t="str">
         <f>'SCROD Write Registers'!F152</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17507,27 +17759,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
         <v>151</v>
       </c>
-      <c r="B153" s="3" t="str">
+      <c r="B153" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0097</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="8">
         <f>'SCROD Write Registers'!C153</f>
         <v>1</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="8">
         <f>'SCROD Write Registers'!D153</f>
         <v>2</v>
       </c>
-      <c r="E153" t="str">
+      <c r="E153" s="8" t="str">
         <f>'SCROD Write Registers'!E153</f>
         <v>N/A</v>
       </c>
-      <c r="F153" t="str">
+      <c r="F153" s="8" t="str">
         <f>'SCROD Write Registers'!F153</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17540,27 +17792,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
         <v>152</v>
       </c>
-      <c r="B154" s="3" t="str">
+      <c r="B154" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0098</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="8">
         <f>'SCROD Write Registers'!C154</f>
         <v>1</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="8">
         <f>'SCROD Write Registers'!D154</f>
         <v>3</v>
       </c>
-      <c r="E154" t="str">
+      <c r="E154" s="8" t="str">
         <f>'SCROD Write Registers'!E154</f>
         <v>N/A</v>
       </c>
-      <c r="F154" t="str">
+      <c r="F154" s="8" t="str">
         <f>'SCROD Write Registers'!F154</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17573,27 +17825,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8">
         <v>153</v>
       </c>
-      <c r="B155" s="3" t="str">
+      <c r="B155" s="19" t="str">
         <f t="shared" si="2"/>
         <v>0099</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="8">
         <f>'SCROD Write Registers'!C155</f>
         <v>2</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="8">
         <f>'SCROD Write Registers'!D155</f>
         <v>0</v>
       </c>
-      <c r="E155" t="str">
+      <c r="E155" s="8" t="str">
         <f>'SCROD Write Registers'!E155</f>
         <v>N/A</v>
       </c>
-      <c r="F155" t="str">
+      <c r="F155" s="8" t="str">
         <f>'SCROD Write Registers'!F155</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17606,27 +17858,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8">
         <v>154</v>
       </c>
-      <c r="B156" s="3" t="str">
+      <c r="B156" s="19" t="str">
         <f t="shared" si="2"/>
         <v>009A</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="8">
         <f>'SCROD Write Registers'!C156</f>
         <v>2</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="8">
         <f>'SCROD Write Registers'!D156</f>
         <v>1</v>
       </c>
-      <c r="E156" t="str">
+      <c r="E156" s="8" t="str">
         <f>'SCROD Write Registers'!E156</f>
         <v>N/A</v>
       </c>
-      <c r="F156" t="str">
+      <c r="F156" s="8" t="str">
         <f>'SCROD Write Registers'!F156</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17639,27 +17891,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8">
         <v>155</v>
       </c>
-      <c r="B157" s="3" t="str">
+      <c r="B157" s="19" t="str">
         <f t="shared" si="2"/>
         <v>009B</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="8">
         <f>'SCROD Write Registers'!C157</f>
         <v>2</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="8">
         <f>'SCROD Write Registers'!D157</f>
         <v>2</v>
       </c>
-      <c r="E157" t="str">
+      <c r="E157" s="8" t="str">
         <f>'SCROD Write Registers'!E157</f>
         <v>N/A</v>
       </c>
-      <c r="F157" t="str">
+      <c r="F157" s="8" t="str">
         <f>'SCROD Write Registers'!F157</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17672,27 +17924,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
         <v>156</v>
       </c>
-      <c r="B158" s="3" t="str">
+      <c r="B158" s="19" t="str">
         <f t="shared" si="2"/>
         <v>009C</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="8">
         <f>'SCROD Write Registers'!C158</f>
         <v>2</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="8">
         <f>'SCROD Write Registers'!D158</f>
         <v>3</v>
       </c>
-      <c r="E158" t="str">
+      <c r="E158" s="8" t="str">
         <f>'SCROD Write Registers'!E158</f>
         <v>N/A</v>
       </c>
-      <c r="F158" t="str">
+      <c r="F158" s="8" t="str">
         <f>'SCROD Write Registers'!F158</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17705,27 +17957,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8">
         <v>157</v>
       </c>
-      <c r="B159" s="3" t="str">
+      <c r="B159" s="19" t="str">
         <f t="shared" si="2"/>
         <v>009D</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="8">
         <f>'SCROD Write Registers'!C159</f>
         <v>3</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="8">
         <f>'SCROD Write Registers'!D159</f>
         <v>0</v>
       </c>
-      <c r="E159" t="str">
+      <c r="E159" s="8" t="str">
         <f>'SCROD Write Registers'!E159</f>
         <v>N/A</v>
       </c>
-      <c r="F159" t="str">
+      <c r="F159" s="8" t="str">
         <f>'SCROD Write Registers'!F159</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17738,27 +17990,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8">
         <v>158</v>
       </c>
-      <c r="B160" s="3" t="str">
+      <c r="B160" s="19" t="str">
         <f t="shared" si="2"/>
         <v>009E</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="8">
         <f>'SCROD Write Registers'!C160</f>
         <v>3</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="8">
         <f>'SCROD Write Registers'!D160</f>
         <v>1</v>
       </c>
-      <c r="E160" t="str">
+      <c r="E160" s="8" t="str">
         <f>'SCROD Write Registers'!E160</f>
         <v>N/A</v>
       </c>
-      <c r="F160" t="str">
+      <c r="F160" s="8" t="str">
         <f>'SCROD Write Registers'!F160</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17771,27 +18023,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8">
         <v>159</v>
       </c>
-      <c r="B161" s="3" t="str">
+      <c r="B161" s="19" t="str">
         <f t="shared" si="2"/>
         <v>009F</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="8">
         <f>'SCROD Write Registers'!C161</f>
         <v>3</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="8">
         <f>'SCROD Write Registers'!D161</f>
         <v>2</v>
       </c>
-      <c r="E161" t="str">
+      <c r="E161" s="8" t="str">
         <f>'SCROD Write Registers'!E161</f>
         <v>N/A</v>
       </c>
-      <c r="F161" t="str">
+      <c r="F161" s="8" t="str">
         <f>'SCROD Write Registers'!F161</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17804,27 +18056,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8">
         <v>160</v>
       </c>
-      <c r="B162" s="3" t="str">
+      <c r="B162" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A0</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="8">
         <f>'SCROD Write Registers'!C162</f>
         <v>3</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="8">
         <f>'SCROD Write Registers'!D162</f>
         <v>3</v>
       </c>
-      <c r="E162" t="str">
+      <c r="E162" s="8" t="str">
         <f>'SCROD Write Registers'!E162</f>
         <v>N/A</v>
       </c>
-      <c r="F162" t="str">
+      <c r="F162" s="8" t="str">
         <f>'SCROD Write Registers'!F162</f>
         <v>Wilkinson rate counter target values</v>
       </c>
@@ -17837,27 +18089,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8">
         <v>161</v>
       </c>
-      <c r="B163" s="3" t="str">
+      <c r="B163" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A1</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C163" s="8" t="str">
         <f>'SCROD Write Registers'!C163</f>
         <v>G</v>
       </c>
-      <c r="D163" t="str">
+      <c r="D163" s="8" t="str">
         <f>'SCROD Write Registers'!D163</f>
         <v>G</v>
       </c>
-      <c r="E163" t="str">
+      <c r="E163" s="8" t="str">
         <f>'SCROD Write Registers'!E163</f>
         <v>G</v>
       </c>
-      <c r="F163" t="str">
+      <c r="F163" s="8" t="str">
         <f>'SCROD Write Registers'!F163</f>
         <v>First allowed analog storage window</v>
       </c>
@@ -17870,27 +18122,27 @@
         <v>Bits 8:0 store value, bits 16:9 unused</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8">
         <v>162</v>
       </c>
-      <c r="B164" s="3" t="str">
+      <c r="B164" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A2</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C164" s="8" t="str">
         <f>'SCROD Write Registers'!C164</f>
         <v>G</v>
       </c>
-      <c r="D164" t="str">
+      <c r="D164" s="8" t="str">
         <f>'SCROD Write Registers'!D164</f>
         <v>G</v>
       </c>
-      <c r="E164" t="str">
+      <c r="E164" s="8" t="str">
         <f>'SCROD Write Registers'!E164</f>
         <v>G</v>
       </c>
-      <c r="F164" t="str">
+      <c r="F164" s="8" t="str">
         <f>'SCROD Write Registers'!F164</f>
         <v>Last allowed analog storage window</v>
       </c>
@@ -17903,27 +18155,27 @@
         <v>Bits 8:0 store value, bits 16:9 unused</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8">
         <v>163</v>
       </c>
-      <c r="B165" s="3" t="str">
+      <c r="B165" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A3</v>
       </c>
-      <c r="C165" t="str">
+      <c r="C165" s="8" t="str">
         <f>'SCROD Write Registers'!C165</f>
         <v>G</v>
       </c>
-      <c r="D165" t="str">
+      <c r="D165" s="8" t="str">
         <f>'SCROD Write Registers'!D165</f>
         <v>G</v>
       </c>
-      <c r="E165" t="str">
+      <c r="E165" s="8" t="str">
         <f>'SCROD Write Registers'!E165</f>
         <v>G</v>
       </c>
-      <c r="F165" t="str">
+      <c r="F165" s="8" t="str">
         <f>'SCROD Write Registers'!F165</f>
         <v>Maximum number of windows to look back</v>
       </c>
@@ -17936,27 +18188,27 @@
         <v>Bits 8:0 store value, bits 16:9 unused</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8">
         <v>164</v>
       </c>
-      <c r="B166" s="3" t="str">
+      <c r="B166" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A4</v>
       </c>
-      <c r="C166" t="str">
+      <c r="C166" s="8" t="str">
         <f>'SCROD Write Registers'!C166</f>
         <v>G</v>
       </c>
-      <c r="D166" t="str">
+      <c r="D166" s="8" t="str">
         <f>'SCROD Write Registers'!D166</f>
         <v>G</v>
       </c>
-      <c r="E166" t="str">
+      <c r="E166" s="8" t="str">
         <f>'SCROD Write Registers'!E166</f>
         <v>G</v>
       </c>
-      <c r="F166" t="str">
+      <c r="F166" s="8" t="str">
         <f>'SCROD Write Registers'!F166</f>
         <v>Minimum number of windows to look back</v>
       </c>
@@ -17969,27 +18221,27 @@
         <v>Bits 8:0 store value, bits 16:9 unused</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8">
         <v>165</v>
       </c>
-      <c r="B167" s="3" t="str">
+      <c r="B167" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A5</v>
       </c>
-      <c r="C167" t="str">
+      <c r="C167" s="8" t="str">
         <f>'SCROD Write Registers'!C167</f>
         <v>G</v>
       </c>
-      <c r="D167" t="str">
+      <c r="D167" s="8" t="str">
         <f>'SCROD Write Registers'!D167</f>
         <v>G</v>
       </c>
-      <c r="E167" t="str">
+      <c r="E167" s="8" t="str">
         <f>'SCROD Write Registers'!E167</f>
         <v>G</v>
       </c>
-      <c r="F167" t="str">
+      <c r="F167" s="8" t="str">
         <f>'SCROD Write Registers'!F167</f>
         <v>Software trigger and pedestal mode flags</v>
       </c>
@@ -18002,93 +18254,93 @@
         <v>Bits 8:0 - window to read out in pedestal mode, Bits 11:8 - unused, Bit 12: veto hardware triggers, Bit 13: veto software triggers, Bit 14: software trigger, Bit 15: flag to operate in pedestal mode</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+    <row r="168" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8">
         <v>166</v>
       </c>
-      <c r="B168" s="6" t="str">
+      <c r="B168" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A6</v>
       </c>
-      <c r="C168" s="5" t="str">
+      <c r="C168" s="8" t="str">
         <f>'SCROD Write Registers'!C168</f>
         <v>N/A</v>
       </c>
-      <c r="D168" s="5" t="str">
+      <c r="D168" s="8" t="str">
         <f>'SCROD Write Registers'!D168</f>
         <v>N/A</v>
       </c>
-      <c r="E168" s="5" t="str">
+      <c r="E168" s="8" t="str">
         <f>'SCROD Write Registers'!E168</f>
         <v>N/A</v>
       </c>
-      <c r="F168" s="5" t="str">
+      <c r="F168" s="8" t="str">
         <f>'SCROD Write Registers'!F168</f>
         <v>Copy of the SCROD ID</v>
       </c>
-      <c r="G168" s="5" t="str">
+      <c r="G168" s="8" t="str">
         <f>'SCROD Write Registers'!G168</f>
         <v>Copy of the SCROD ID (read from EEPROM at startup, written here so the event builder can see it)</v>
       </c>
-      <c r="H168" s="5" t="str">
+      <c r="H168" s="8" t="str">
         <f>'SCROD Write Registers'!H168</f>
         <v>Bits 15:0, copy of SCROD ID - should be the decimal ID that the SCROD is labeled with</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+    <row r="169" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8">
         <v>167</v>
       </c>
-      <c r="B169" s="6" t="str">
+      <c r="B169" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A7</v>
       </c>
-      <c r="C169" s="5" t="str">
+      <c r="C169" s="8" t="str">
         <f>'SCROD Write Registers'!C169</f>
         <v>N/A</v>
       </c>
-      <c r="D169" s="5" t="str">
+      <c r="D169" s="8" t="str">
         <f>'SCROD Write Registers'!D169</f>
         <v>N/A</v>
       </c>
-      <c r="E169" s="5" t="str">
+      <c r="E169" s="8" t="str">
         <f>'SCROD Write Registers'!E169</f>
         <v>N/A</v>
       </c>
-      <c r="F169" s="5" t="str">
+      <c r="F169" s="8" t="str">
         <f>'SCROD Write Registers'!F169</f>
         <v>Copy of the SCROD revision</v>
       </c>
-      <c r="G169" s="5" t="str">
+      <c r="G169" s="8" t="str">
         <f>'SCROD Write Registers'!G169</f>
         <v>Copy of the SCROD rev (read from EEPROM at startup, written here so the event builder can see it)</v>
       </c>
-      <c r="H169" s="5" t="str">
+      <c r="H169" s="8" t="str">
         <f>'SCROD Write Registers'!H169</f>
         <v>Bits 7:0, copy of the SCROD revision, Bits 15:8 reserved (e.g., SCROD revA2 should be 0x00A2)</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="8">
         <v>168</v>
       </c>
-      <c r="B170" s="3" t="str">
+      <c r="B170" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A8</v>
       </c>
-      <c r="C170" t="str">
+      <c r="C170" s="8" t="str">
         <f>'SCROD Write Registers'!C170</f>
         <v>N/A</v>
       </c>
-      <c r="D170" t="str">
+      <c r="D170" s="8" t="str">
         <f>'SCROD Write Registers'!D170</f>
         <v>N/A</v>
       </c>
-      <c r="E170" t="str">
+      <c r="E170" s="8" t="str">
         <f>'SCROD Write Registers'!E170</f>
         <v>N/A</v>
       </c>
-      <c r="F170" t="str">
+      <c r="F170" s="8" t="str">
         <f>'SCROD Write Registers'!F170</f>
         <v>Event number to set [15:0]</v>
       </c>
@@ -18101,27 +18353,27 @@
         <v>LSB of event number to be set when set event register bit is toggled high</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="8">
         <v>169</v>
       </c>
-      <c r="B171" s="3" t="str">
+      <c r="B171" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00A9</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C171" s="8" t="str">
         <f>'SCROD Write Registers'!C171</f>
         <v>N/A</v>
       </c>
-      <c r="D171" t="str">
+      <c r="D171" s="8" t="str">
         <f>'SCROD Write Registers'!D171</f>
         <v>N/A</v>
       </c>
-      <c r="E171" t="str">
+      <c r="E171" s="8" t="str">
         <f>'SCROD Write Registers'!E171</f>
         <v>N/A</v>
       </c>
-      <c r="F171" t="str">
+      <c r="F171" s="8" t="str">
         <f>'SCROD Write Registers'!F171</f>
         <v>Event number to set [31:16]</v>
       </c>
@@ -18134,27 +18386,27 @@
         <v xml:space="preserve">MSB of event number to be set when set event register bit is toggled high </v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="8">
         <v>170</v>
       </c>
-      <c r="B172" s="3" t="str">
+      <c r="B172" s="19" t="str">
         <f t="shared" si="2"/>
         <v>00AA</v>
       </c>
-      <c r="C172" t="str">
+      <c r="C172" s="8" t="str">
         <f>'SCROD Write Registers'!C172</f>
         <v>N/A</v>
       </c>
-      <c r="D172" t="str">
+      <c r="D172" s="8" t="str">
         <f>'SCROD Write Registers'!D172</f>
         <v>N/A</v>
       </c>
-      <c r="E172" t="str">
+      <c r="E172" s="8" t="str">
         <f>'SCROD Write Registers'!E172</f>
         <v>N/A</v>
       </c>
-      <c r="F172" t="str">
+      <c r="F172" s="8" t="str">
         <f>'SCROD Write Registers'!F172</f>
         <v>Set event number</v>
       </c>
@@ -24511,13 +24763,13 @@
         <f t="shared" si="5"/>
         <v>016B</v>
       </c>
-      <c r="C365" t="str">
+      <c r="C365">
         <f>'SCROD Write Registers'!C365</f>
-        <v>G</v>
-      </c>
-      <c r="D365" t="str">
+        <v>0</v>
+      </c>
+      <c r="D365">
         <f>'SCROD Write Registers'!D365</f>
-        <v>G</v>
+        <v>0</v>
       </c>
       <c r="E365" t="str">
         <f>'SCROD Write Registers'!E365</f>
@@ -24525,15 +24777,15 @@
       </c>
       <c r="F365" t="str">
         <f>'SCROD Write Registers'!F365</f>
-        <v>TIMING_REG</v>
+        <v>TIMING_WR_STRB</v>
       </c>
       <c r="G365" s="8" t="str">
         <f>'SCROD Write Registers'!G365</f>
-        <v>Register for internal ASIC timing signals (see sheet "IRS3B_TIMING_REGISTER")</v>
+        <v>Timing registers for WR_STRB lower bits are leading, upper bits are trailing</v>
       </c>
       <c r="H365" s="8" t="str">
         <f>'SCROD Write Registers'!H365</f>
-        <v>???</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -24550,23 +24802,23 @@
       </c>
       <c r="D366">
         <f>'SCROD Write Registers'!D366</f>
-        <v>0</v>
-      </c>
-      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="E366" t="str">
         <f>'SCROD Write Registers'!E366</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F366" t="str">
         <f>'SCROD Write Registers'!F366</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G366" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G366" s="8" t="str">
         <f>'SCROD Write Registers'!G366</f>
-        <v>0</v>
-      </c>
-      <c r="H366" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H366" s="8" t="str">
         <f>'SCROD Write Registers'!H366</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -24583,23 +24835,23 @@
       </c>
       <c r="D367">
         <f>'SCROD Write Registers'!D367</f>
-        <v>0</v>
-      </c>
-      <c r="E367">
+        <v>2</v>
+      </c>
+      <c r="E367" t="str">
         <f>'SCROD Write Registers'!E367</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F367" t="str">
         <f>'SCROD Write Registers'!F367</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G367" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G367" s="8" t="str">
         <f>'SCROD Write Registers'!G367</f>
-        <v>0</v>
-      </c>
-      <c r="H367" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H367" s="8" t="str">
         <f>'SCROD Write Registers'!H367</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -24616,23 +24868,23 @@
       </c>
       <c r="D368">
         <f>'SCROD Write Registers'!D368</f>
-        <v>0</v>
-      </c>
-      <c r="E368">
+        <v>3</v>
+      </c>
+      <c r="E368" t="str">
         <f>'SCROD Write Registers'!E368</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F368" t="str">
         <f>'SCROD Write Registers'!F368</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G368" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G368" s="8" t="str">
         <f>'SCROD Write Registers'!G368</f>
-        <v>0</v>
-      </c>
-      <c r="H368" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H368" s="8" t="str">
         <f>'SCROD Write Registers'!H368</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -24645,27 +24897,27 @@
       </c>
       <c r="C369">
         <f>'SCROD Write Registers'!C369</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369">
         <f>'SCROD Write Registers'!D369</f>
         <v>0</v>
       </c>
-      <c r="E369">
+      <c r="E369" t="str">
         <f>'SCROD Write Registers'!E369</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F369" t="str">
         <f>'SCROD Write Registers'!F369</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G369" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G369" s="8" t="str">
         <f>'SCROD Write Registers'!G369</f>
-        <v>0</v>
-      </c>
-      <c r="H369" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H369" s="8" t="str">
         <f>'SCROD Write Registers'!H369</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -24678,27 +24930,27 @@
       </c>
       <c r="C370">
         <f>'SCROD Write Registers'!C370</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370">
         <f>'SCROD Write Registers'!D370</f>
-        <v>0</v>
-      </c>
-      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="E370" t="str">
         <f>'SCROD Write Registers'!E370</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F370" t="str">
         <f>'SCROD Write Registers'!F370</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G370" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G370" s="8" t="str">
         <f>'SCROD Write Registers'!G370</f>
-        <v>0</v>
-      </c>
-      <c r="H370" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H370" s="8" t="str">
         <f>'SCROD Write Registers'!H370</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -24711,27 +24963,27 @@
       </c>
       <c r="C371">
         <f>'SCROD Write Registers'!C371</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371">
         <f>'SCROD Write Registers'!D371</f>
-        <v>0</v>
-      </c>
-      <c r="E371">
+        <v>2</v>
+      </c>
+      <c r="E371" t="str">
         <f>'SCROD Write Registers'!E371</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F371" t="str">
         <f>'SCROD Write Registers'!F371</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G371" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G371" s="8" t="str">
         <f>'SCROD Write Registers'!G371</f>
-        <v>0</v>
-      </c>
-      <c r="H371" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H371" s="8" t="str">
         <f>'SCROD Write Registers'!H371</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -24744,27 +24996,27 @@
       </c>
       <c r="C372">
         <f>'SCROD Write Registers'!C372</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372">
         <f>'SCROD Write Registers'!D372</f>
-        <v>0</v>
-      </c>
-      <c r="E372">
+        <v>3</v>
+      </c>
+      <c r="E372" t="str">
         <f>'SCROD Write Registers'!E372</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F372" t="str">
         <f>'SCROD Write Registers'!F372</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G372" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G372" s="8" t="str">
         <f>'SCROD Write Registers'!G372</f>
-        <v>0</v>
-      </c>
-      <c r="H372" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H372" s="8" t="str">
         <f>'SCROD Write Registers'!H372</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -24777,27 +25029,27 @@
       </c>
       <c r="C373">
         <f>'SCROD Write Registers'!C373</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D373">
         <f>'SCROD Write Registers'!D373</f>
         <v>0</v>
       </c>
-      <c r="E373">
+      <c r="E373" t="str">
         <f>'SCROD Write Registers'!E373</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F373" t="str">
         <f>'SCROD Write Registers'!F373</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G373" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G373" s="8" t="str">
         <f>'SCROD Write Registers'!G373</f>
-        <v>0</v>
-      </c>
-      <c r="H373" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H373" s="8" t="str">
         <f>'SCROD Write Registers'!H373</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -24810,27 +25062,27 @@
       </c>
       <c r="C374">
         <f>'SCROD Write Registers'!C374</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D374">
         <f>'SCROD Write Registers'!D374</f>
-        <v>0</v>
-      </c>
-      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="E374" t="str">
         <f>'SCROD Write Registers'!E374</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F374" t="str">
         <f>'SCROD Write Registers'!F374</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G374" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G374" s="8" t="str">
         <f>'SCROD Write Registers'!G374</f>
-        <v>0</v>
-      </c>
-      <c r="H374" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H374" s="8" t="str">
         <f>'SCROD Write Registers'!H374</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -24843,27 +25095,27 @@
       </c>
       <c r="C375">
         <f>'SCROD Write Registers'!C375</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D375">
         <f>'SCROD Write Registers'!D375</f>
-        <v>0</v>
-      </c>
-      <c r="E375">
+        <v>2</v>
+      </c>
+      <c r="E375" t="str">
         <f>'SCROD Write Registers'!E375</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F375" t="str">
         <f>'SCROD Write Registers'!F375</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G375" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G375" s="8" t="str">
         <f>'SCROD Write Registers'!G375</f>
-        <v>0</v>
-      </c>
-      <c r="H375" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H375" s="8" t="str">
         <f>'SCROD Write Registers'!H375</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -24876,27 +25128,27 @@
       </c>
       <c r="C376">
         <f>'SCROD Write Registers'!C376</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D376">
         <f>'SCROD Write Registers'!D376</f>
-        <v>0</v>
-      </c>
-      <c r="E376">
+        <v>3</v>
+      </c>
+      <c r="E376" t="str">
         <f>'SCROD Write Registers'!E376</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F376" t="str">
         <f>'SCROD Write Registers'!F376</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G376" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G376" s="8" t="str">
         <f>'SCROD Write Registers'!G376</f>
-        <v>0</v>
-      </c>
-      <c r="H376" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H376" s="8" t="str">
         <f>'SCROD Write Registers'!H376</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -24909,27 +25161,27 @@
       </c>
       <c r="C377">
         <f>'SCROD Write Registers'!C377</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D377">
         <f>'SCROD Write Registers'!D377</f>
         <v>0</v>
       </c>
-      <c r="E377">
+      <c r="E377" t="str">
         <f>'SCROD Write Registers'!E377</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F377" t="str">
         <f>'SCROD Write Registers'!F377</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G377" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G377" s="8" t="str">
         <f>'SCROD Write Registers'!G377</f>
-        <v>0</v>
-      </c>
-      <c r="H377" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H377" s="8" t="str">
         <f>'SCROD Write Registers'!H377</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -24942,27 +25194,27 @@
       </c>
       <c r="C378">
         <f>'SCROD Write Registers'!C378</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D378">
         <f>'SCROD Write Registers'!D378</f>
-        <v>0</v>
-      </c>
-      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="E378" t="str">
         <f>'SCROD Write Registers'!E378</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F378" t="str">
         <f>'SCROD Write Registers'!F378</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G378" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G378" s="8" t="str">
         <f>'SCROD Write Registers'!G378</f>
-        <v>0</v>
-      </c>
-      <c r="H378" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H378" s="8" t="str">
         <f>'SCROD Write Registers'!H378</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -24975,27 +25227,27 @@
       </c>
       <c r="C379">
         <f>'SCROD Write Registers'!C379</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D379">
         <f>'SCROD Write Registers'!D379</f>
-        <v>0</v>
-      </c>
-      <c r="E379">
+        <v>2</v>
+      </c>
+      <c r="E379" t="str">
         <f>'SCROD Write Registers'!E379</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F379" t="str">
         <f>'SCROD Write Registers'!F379</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G379" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G379" s="8" t="str">
         <f>'SCROD Write Registers'!G379</f>
-        <v>0</v>
-      </c>
-      <c r="H379" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H379" s="8" t="str">
         <f>'SCROD Write Registers'!H379</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -25008,27 +25260,27 @@
       </c>
       <c r="C380">
         <f>'SCROD Write Registers'!C380</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D380">
         <f>'SCROD Write Registers'!D380</f>
-        <v>0</v>
-      </c>
-      <c r="E380">
+        <v>3</v>
+      </c>
+      <c r="E380" t="str">
         <f>'SCROD Write Registers'!E380</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F380" t="str">
         <f>'SCROD Write Registers'!F380</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G380" s="8">
+        <v>TIMING_WR_STRB</v>
+      </c>
+      <c r="G380" s="8" t="str">
         <f>'SCROD Write Registers'!G380</f>
-        <v>0</v>
-      </c>
-      <c r="H380" s="8">
+        <v>see reg 365</v>
+      </c>
+      <c r="H380" s="8" t="str">
         <f>'SCROD Write Registers'!H380</f>
-        <v>0</v>
+        <v>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -25039,29 +25291,29 @@
         <f t="shared" si="5"/>
         <v>017B</v>
       </c>
-      <c r="C381">
+      <c r="C381" t="str">
         <f>'SCROD Write Registers'!C381</f>
-        <v>0</v>
-      </c>
-      <c r="D381">
+        <v>G</v>
+      </c>
+      <c r="D381" t="str">
         <f>'SCROD Write Registers'!D381</f>
-        <v>0</v>
-      </c>
-      <c r="E381">
+        <v>G</v>
+      </c>
+      <c r="E381" t="str">
         <f>'SCROD Write Registers'!E381</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F381" t="str">
         <f>'SCROD Write Registers'!F381</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G381" s="8">
+        <v>TIMING_REG</v>
+      </c>
+      <c r="G381" s="8" t="str">
         <f>'SCROD Write Registers'!G381</f>
-        <v>0</v>
-      </c>
-      <c r="H381" s="8">
+        <v>Register for internal ASIC timing signals (see sheet "IRS3B_TIMING_REGISTER")</v>
+      </c>
+      <c r="H381" s="8" t="str">
         <f>'SCROD Write Registers'!H381</f>
-        <v>0</v>
+        <v>???</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -29024,167 +29276,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="5">
+    <row r="502" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="8">
         <v>500</v>
       </c>
-      <c r="B502" s="6" t="str">
+      <c r="B502" s="19" t="str">
         <f t="shared" si="7"/>
         <v>01F4</v>
       </c>
-      <c r="C502" s="5" t="str">
+      <c r="C502" s="8" t="str">
         <f>'SCROD Write Registers'!C502</f>
         <v>0,1,2,3</v>
       </c>
-      <c r="D502" s="5" t="str">
+      <c r="D502" s="8" t="str">
         <f>'SCROD Write Registers'!D502</f>
         <v>0,1</v>
       </c>
-      <c r="E502" s="5" t="str">
+      <c r="E502" s="8" t="str">
         <f>'SCROD Write Registers'!E502</f>
         <v>N/A</v>
       </c>
-      <c r="F502" s="5" t="str">
+      <c r="F502" s="8" t="str">
         <f>'SCROD Write Registers'!F502</f>
         <v>I2C_BUS[3]_Write</v>
       </c>
-      <c r="G502" s="5" t="str">
+      <c r="G502" s="8" t="str">
         <f>'SCROD Write Registers'!G502</f>
         <v>I2C write for row 0,1 temp sensors (x8), eeproms (x2), and gpios (x2) for cal signals (and SMPL_SEL_ANY)</v>
       </c>
-      <c r="H502" s="5" t="str">
+      <c r="H502" s="8" t="str">
         <f>'SCROD Write Registers'!H502</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>
     </row>
-    <row r="503" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="5">
+    <row r="503" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="8">
         <v>501</v>
       </c>
-      <c r="B503" s="6" t="str">
+      <c r="B503" s="19" t="str">
         <f t="shared" si="7"/>
         <v>01F5</v>
       </c>
-      <c r="C503" s="5" t="str">
+      <c r="C503" s="8" t="str">
         <f>'SCROD Write Registers'!C503</f>
         <v>0,1,2,3</v>
       </c>
-      <c r="D503" s="5" t="str">
+      <c r="D503" s="8" t="str">
         <f>'SCROD Write Registers'!D503</f>
         <v>2,3</v>
       </c>
-      <c r="E503" s="5" t="str">
+      <c r="E503" s="8" t="str">
         <f>'SCROD Write Registers'!E503</f>
         <v>N/A</v>
       </c>
-      <c r="F503" s="5" t="str">
+      <c r="F503" s="8" t="str">
         <f>'SCROD Write Registers'!F503</f>
         <v>I2C_BUS[4]_Write</v>
       </c>
-      <c r="G503" s="5" t="str">
+      <c r="G503" s="8" t="str">
         <f>'SCROD Write Registers'!G503</f>
         <v>I2C write for row 2,3 temp sensors (x8), eeproms (x2), and gpios (x2) for cal signals (and SMPL_SEL_ANY)</v>
       </c>
-      <c r="H503" s="5" t="str">
+      <c r="H503" s="8" t="str">
         <f>'SCROD Write Registers'!H503</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>
     </row>
-    <row r="504" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="5">
+    <row r="504" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="8">
         <v>502</v>
       </c>
-      <c r="B504" s="6" t="str">
+      <c r="B504" s="19" t="str">
         <f t="shared" si="7"/>
         <v>01F6</v>
       </c>
-      <c r="C504" s="5" t="str">
+      <c r="C504" s="8" t="str">
         <f>'SCROD Write Registers'!C504</f>
         <v>0,1,2,3</v>
       </c>
-      <c r="D504" s="5" t="str">
+      <c r="D504" s="8" t="str">
         <f>'SCROD Write Registers'!D504</f>
         <v>0,1</v>
       </c>
-      <c r="E504" s="5" t="str">
+      <c r="E504" s="8" t="str">
         <f>'SCROD Write Registers'!E504</f>
         <v>N/A</v>
       </c>
-      <c r="F504" s="5" t="str">
+      <c r="F504" s="8" t="str">
         <f>'SCROD Write Registers'!F504</f>
         <v>I2C_BUS[5]_Write</v>
       </c>
-      <c r="G504" s="5" t="str">
+      <c r="G504" s="8" t="str">
         <f>'SCROD Write Registers'!G504</f>
         <v>I2C write for row 0,1 GPIO serial for ASIC shift out signals</v>
       </c>
-      <c r="H504" s="5" t="str">
+      <c r="H504" s="8" t="str">
         <f>'SCROD Write Registers'!H504</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>
     </row>
-    <row r="505" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="5">
+    <row r="505" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="8">
         <v>503</v>
       </c>
-      <c r="B505" s="6" t="str">
+      <c r="B505" s="19" t="str">
         <f t="shared" si="7"/>
         <v>01F7</v>
       </c>
-      <c r="C505" s="5" t="str">
+      <c r="C505" s="8" t="str">
         <f>'SCROD Write Registers'!C505</f>
         <v>0,1,2,3</v>
       </c>
-      <c r="D505" s="5" t="str">
+      <c r="D505" s="8" t="str">
         <f>'SCROD Write Registers'!D505</f>
         <v>2,3</v>
       </c>
-      <c r="E505" s="5" t="str">
+      <c r="E505" s="8" t="str">
         <f>'SCROD Write Registers'!E505</f>
         <v>N/A</v>
       </c>
-      <c r="F505" s="5" t="str">
+      <c r="F505" s="8" t="str">
         <f>'SCROD Write Registers'!F505</f>
         <v>I2C_BUS[6]_Write</v>
       </c>
-      <c r="G505" s="5" t="str">
+      <c r="G505" s="8" t="str">
         <f>'SCROD Write Registers'!G505</f>
         <v>I2C write for row 2,3 GPIO serial for ASIC shift out signals</v>
       </c>
-      <c r="H505" s="5" t="str">
+      <c r="H505" s="8" t="str">
         <f>'SCROD Write Registers'!H505</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>
     </row>
-    <row r="506" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="5">
+    <row r="506" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="8">
         <v>504</v>
       </c>
-      <c r="B506" s="6" t="str">
+      <c r="B506" s="19" t="str">
         <f t="shared" si="7"/>
         <v>01F8</v>
       </c>
-      <c r="C506" s="5" t="str">
+      <c r="C506" s="8" t="str">
         <f>'SCROD Write Registers'!C506</f>
         <v>N/A</v>
       </c>
-      <c r="D506" s="5" t="str">
+      <c r="D506" s="8" t="str">
         <f>'SCROD Write Registers'!D506</f>
         <v>N/A</v>
       </c>
-      <c r="E506" s="5" t="str">
+      <c r="E506" s="8" t="str">
         <f>'SCROD Write Registers'!E506</f>
         <v>N/A</v>
       </c>
-      <c r="F506" s="5" t="str">
+      <c r="F506" s="8" t="str">
         <f>'SCROD Write Registers'!F506</f>
         <v>I2C_BUS[7]_Write</v>
       </c>
-      <c r="G506" s="5" t="str">
+      <c r="G506" s="8" t="str">
         <f>'SCROD Write Registers'!G506</f>
         <v>I2C write for interconnect rev C GPIO to control calibration signals</v>
       </c>
-      <c r="H506" s="5" t="str">
+      <c r="H506" s="8" t="str">
         <f>'SCROD Write Registers'!H506</f>
         <v>Bits 15:13 unused, Bit 12: Send stop, Bit 11: Send acknowledge, Bit 10: Read byte, Bit 9: Send byte, Bit 8: Send start, Bit 7:0 Byte to send</v>
       </c>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="243">
   <si>
     <t>Register Number</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>Scalers for ASIC as selected by write register 4</t>
-  </si>
-  <si>
-    <t>DAC Update Statuses</t>
-  </si>
-  <si>
-    <t>Bits 15:8: Update flags for channels 7:0 of daughter card "DAC 2", Bits 7:0: update flags for channels 7:0 of daughter card "DAC 1", 1 if the last update succeeded, 0 otherwise</t>
   </si>
   <si>
     <t>Feedback DAC value of VDLY</t>
@@ -696,6 +690,63 @@
   <si>
     <t>see reg 365</t>
   </si>
+  <si>
+    <t>WILKINSON_TARGET</t>
+  </si>
+  <si>
+    <t>Target count rate value for Wilkinson feedback loop</t>
+  </si>
+  <si>
+    <t>16 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>17 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>18 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>19 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>20 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>21 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>22 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>23 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>24 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>25 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>26 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>27 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>28 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>29 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>30 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>WILK_COUNTER</t>
+  </si>
+  <si>
+    <t>Counter to monitor the Wilkinson clock rate for a given ASIC</t>
+  </si>
 </sst>
 </file>
 
@@ -1113,9 +1164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E366" sqref="E366"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F392" sqref="F392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1146,10 +1197,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1173,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>31</v>
@@ -1197,10 +1248,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>7</v>
@@ -1224,10 +1275,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>7</v>
@@ -1251,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>7</v>
@@ -1281,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>9</v>
@@ -1308,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>30</v>
@@ -1332,10 +1383,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -1362,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>30</v>
@@ -1389,7 +1440,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>30</v>
@@ -1416,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>30</v>
@@ -1443,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>30</v>
@@ -1470,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>30</v>
@@ -1494,10 +1545,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>30</v>
@@ -1524,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>30</v>
@@ -1551,7 +1602,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>30</v>
@@ -1578,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>30</v>
@@ -1605,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>30</v>
@@ -1632,7 +1683,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>30</v>
@@ -1659,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>30</v>
@@ -1686,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>30</v>
@@ -1713,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>30</v>
@@ -1740,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>30</v>
@@ -1767,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>30</v>
@@ -1794,7 +1845,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>30</v>
@@ -1821,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>30</v>
@@ -1848,7 +1899,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>30</v>
@@ -1875,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>30</v>
@@ -1902,7 +1953,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>30</v>
@@ -1929,7 +1980,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>30</v>
@@ -1956,7 +2007,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>30</v>
@@ -1983,7 +2034,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>30</v>
@@ -2010,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>30</v>
@@ -2037,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>30</v>
@@ -2064,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>30</v>
@@ -2091,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>30</v>
@@ -2118,7 +2169,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>30</v>
@@ -2145,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>30</v>
@@ -2172,7 +2223,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>30</v>
@@ -2199,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>30</v>
@@ -2226,7 +2277,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>30</v>
@@ -2253,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>30</v>
@@ -2280,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>30</v>
@@ -2307,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>30</v>
@@ -2334,7 +2385,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>30</v>
@@ -2361,7 +2412,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>30</v>
@@ -2388,7 +2439,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>30</v>
@@ -2415,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>30</v>
@@ -2442,7 +2493,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>30</v>
@@ -2469,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>30</v>
@@ -2496,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>30</v>
@@ -2523,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>30</v>
@@ -2550,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>30</v>
@@ -2577,7 +2628,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>30</v>
@@ -2604,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>30</v>
@@ -2631,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>30</v>
@@ -2658,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>30</v>
@@ -2685,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>30</v>
@@ -2712,7 +2763,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>30</v>
@@ -2739,7 +2790,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>30</v>
@@ -2766,7 +2817,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>30</v>
@@ -2793,7 +2844,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>30</v>
@@ -2820,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>30</v>
@@ -2847,7 +2898,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>30</v>
@@ -2874,7 +2925,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>30</v>
@@ -2901,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>30</v>
@@ -2928,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>30</v>
@@ -2955,7 +3006,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>30</v>
@@ -2982,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>30</v>
@@ -3009,7 +3060,7 @@
         <v>20</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>30</v>
@@ -3036,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>30</v>
@@ -3063,7 +3114,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>30</v>
@@ -3090,7 +3141,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>30</v>
@@ -3117,7 +3168,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>30</v>
@@ -3144,7 +3195,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>30</v>
@@ -3171,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>30</v>
@@ -3198,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>30</v>
@@ -3225,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>30</v>
@@ -3252,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>30</v>
@@ -3279,7 +3330,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>30</v>
@@ -3306,7 +3357,7 @@
         <v>20</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>30</v>
@@ -3333,7 +3384,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>30</v>
@@ -3360,7 +3411,7 @@
         <v>20</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>30</v>
@@ -3387,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>30</v>
@@ -3414,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>30</v>
@@ -3441,7 +3492,7 @@
         <v>20</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>30</v>
@@ -3468,7 +3519,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>30</v>
@@ -3495,7 +3546,7 @@
         <v>20</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>30</v>
@@ -3522,7 +3573,7 @@
         <v>20</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>30</v>
@@ -3549,7 +3600,7 @@
         <v>20</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>30</v>
@@ -3576,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>30</v>
@@ -3603,7 +3654,7 @@
         <v>20</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>30</v>
@@ -3630,7 +3681,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>30</v>
@@ -3657,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>30</v>
@@ -3684,7 +3735,7 @@
         <v>20</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>30</v>
@@ -3711,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>30</v>
@@ -3738,7 +3789,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>30</v>
@@ -3765,7 +3816,7 @@
         <v>20</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>30</v>
@@ -3792,7 +3843,7 @@
         <v>20</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>30</v>
@@ -3819,7 +3870,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>30</v>
@@ -3846,7 +3897,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>30</v>
@@ -3873,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>30</v>
@@ -3900,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>30</v>
@@ -3927,7 +3978,7 @@
         <v>20</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>30</v>
@@ -3954,7 +4005,7 @@
         <v>20</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>30</v>
@@ -3981,7 +4032,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>30</v>
@@ -4008,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>30</v>
@@ -4035,7 +4086,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>30</v>
@@ -4062,7 +4113,7 @@
         <v>20</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>30</v>
@@ -4089,7 +4140,7 @@
         <v>20</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>30</v>
@@ -4116,7 +4167,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>30</v>
@@ -4143,7 +4194,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>30</v>
@@ -4170,7 +4221,7 @@
         <v>20</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>30</v>
@@ -4197,7 +4248,7 @@
         <v>20</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>30</v>
@@ -4224,7 +4275,7 @@
         <v>20</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>30</v>
@@ -4251,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>30</v>
@@ -4278,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>30</v>
@@ -4305,7 +4356,7 @@
         <v>20</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>30</v>
@@ -4332,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>30</v>
@@ -4359,7 +4410,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>30</v>
@@ -4386,7 +4437,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>30</v>
@@ -4413,7 +4464,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>30</v>
@@ -4440,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>30</v>
@@ -4467,7 +4518,7 @@
         <v>20</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>30</v>
@@ -4494,7 +4545,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>30</v>
@@ -4521,7 +4572,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>30</v>
@@ -4548,7 +4599,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>30</v>
@@ -4575,7 +4626,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>30</v>
@@ -4602,7 +4653,7 @@
         <v>20</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>30</v>
@@ -4629,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>30</v>
@@ -4656,7 +4707,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>30</v>
@@ -4683,7 +4734,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>30</v>
@@ -4710,7 +4761,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>30</v>
@@ -4737,7 +4788,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>30</v>
@@ -4764,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>30</v>
@@ -4791,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>30</v>
@@ -4818,7 +4869,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>30</v>
@@ -4845,7 +4896,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>30</v>
@@ -4872,7 +4923,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>30</v>
@@ -4899,7 +4950,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>30</v>
@@ -4926,7 +4977,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>30</v>
@@ -4953,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>30</v>
@@ -4980,7 +5031,7 @@
         <v>29</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>26</v>
@@ -5007,7 +5058,7 @@
         <v>27</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>26</v>
@@ -5034,7 +5085,7 @@
         <v>28</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>26</v>
@@ -5058,10 +5109,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
+        <v>64</v>
+      </c>
+      <c r="H146" t="s">
         <v>66</v>
-      </c>
-      <c r="H146" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5082,7 +5133,7 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5103,7 +5154,7 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5124,7 +5175,7 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5145,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,7 +5217,7 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5208,7 +5259,7 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5229,7 +5280,7 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5250,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5271,7 +5322,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,7 +5343,7 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5313,7 +5364,7 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5334,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5355,7 +5406,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5376,7 +5427,7 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,7 +5448,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5418,10 +5469,10 @@
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H163" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5442,10 +5493,10 @@
         <v>5</v>
       </c>
       <c r="F164" t="s">
+        <v>70</v>
+      </c>
+      <c r="H164" t="s">
         <v>72</v>
-      </c>
-      <c r="H164" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5466,10 +5517,10 @@
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H165" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5490,10 +5541,10 @@
         <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H166" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5514,10 +5565,10 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5538,13 +5589,13 @@
         <v>10</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G168" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H168" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="169" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5565,13 +5616,13 @@
         <v>10</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G169" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H169" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5592,10 +5643,10 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
+        <v>78</v>
+      </c>
+      <c r="H170" t="s">
         <v>80</v>
-      </c>
-      <c r="H170" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5616,10 +5667,10 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
+        <v>79</v>
+      </c>
+      <c r="H171" t="s">
         <v>81</v>
-      </c>
-      <c r="H171" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5640,10 +5691,10 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H172" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5661,13 +5712,13 @@
         <v>19</v>
       </c>
       <c r="E173" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F173" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H173" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5685,13 +5736,13 @@
         <v>21</v>
       </c>
       <c r="E174" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F174" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H174" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5709,13 +5760,13 @@
         <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F175" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H175" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5733,13 +5784,13 @@
         <v>21</v>
       </c>
       <c r="E176" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F176" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H176" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5757,13 +5808,13 @@
         <v>19</v>
       </c>
       <c r="E177" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F177" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H177" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5781,13 +5832,13 @@
         <v>21</v>
       </c>
       <c r="E178" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F178" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H178" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5805,13 +5856,13 @@
         <v>19</v>
       </c>
       <c r="E179" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F179" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H179" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5829,13 +5880,13 @@
         <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F180" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H180" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5853,13 +5904,13 @@
         <v>19</v>
       </c>
       <c r="E181" t="s">
+        <v>86</v>
+      </c>
+      <c r="F181" t="s">
+        <v>85</v>
+      </c>
+      <c r="H181" t="s">
         <v>88</v>
-      </c>
-      <c r="F181" t="s">
-        <v>87</v>
-      </c>
-      <c r="H181" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5877,13 +5928,13 @@
         <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F182" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H182" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5901,13 +5952,13 @@
         <v>19</v>
       </c>
       <c r="E183" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F183" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H183" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5925,13 +5976,13 @@
         <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F184" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H184" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5949,13 +6000,13 @@
         <v>19</v>
       </c>
       <c r="E185" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F185" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H185" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -5973,13 +6024,13 @@
         <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F186" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H186" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5997,13 +6048,13 @@
         <v>19</v>
       </c>
       <c r="E187" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F187" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H187" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6021,13 +6072,13 @@
         <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F188" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H188" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6048,10 +6099,10 @@
         <v>5</v>
       </c>
       <c r="F189" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6072,10 +6123,10 @@
         <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H190" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6087,7 +6138,7 @@
         <v>00BD</v>
       </c>
       <c r="F191" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6099,7 +6150,7 @@
         <v>00BE</v>
       </c>
       <c r="F192" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6111,7 +6162,7 @@
         <v>00BF</v>
       </c>
       <c r="F193" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6123,7 +6174,7 @@
         <v>00C0</v>
       </c>
       <c r="F194" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6135,7 +6186,7 @@
         <v>00C1</v>
       </c>
       <c r="F195" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6147,7 +6198,7 @@
         <v>00C2</v>
       </c>
       <c r="F196" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6159,7 +6210,7 @@
         <v>00C3</v>
       </c>
       <c r="F197" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6171,7 +6222,7 @@
         <v>00C4</v>
       </c>
       <c r="F198" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6183,7 +6234,7 @@
         <v>00C5</v>
       </c>
       <c r="F199" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6195,7 +6246,7 @@
         <v>00C6</v>
       </c>
       <c r="F200" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6207,7 +6258,7 @@
         <v>00C7</v>
       </c>
       <c r="F201" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6228,10 +6279,10 @@
         <v>5</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>30</v>
@@ -6255,10 +6306,10 @@
         <v>5</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>30</v>
@@ -6282,10 +6333,10 @@
         <v>5</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>30</v>
@@ -6312,7 +6363,7 @@
         <v>12</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>30</v>
@@ -6339,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>30</v>
@@ -6366,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>30</v>
@@ -6393,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H208" s="5" t="s">
         <v>30</v>
@@ -6420,7 +6471,7 @@
         <v>12</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>30</v>
@@ -6447,7 +6498,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>30</v>
@@ -6474,7 +6525,7 @@
         <v>12</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>30</v>
@@ -6501,7 +6552,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>30</v>
@@ -6528,7 +6579,7 @@
         <v>12</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>30</v>
@@ -6555,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>30</v>
@@ -6582,7 +6633,7 @@
         <v>12</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>30</v>
@@ -6609,7 +6660,7 @@
         <v>12</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>30</v>
@@ -6636,7 +6687,7 @@
         <v>12</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>30</v>
@@ -6663,7 +6714,7 @@
         <v>12</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>30</v>
@@ -6690,7 +6741,7 @@
         <v>12</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>30</v>
@@ -6717,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>30</v>
@@ -6741,10 +6792,10 @@
         <v>5</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>30</v>
@@ -6768,10 +6819,10 @@
         <v>5</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>30</v>
@@ -6795,10 +6846,10 @@
         <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>30</v>
@@ -6822,10 +6873,10 @@
         <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>30</v>
@@ -6849,10 +6900,10 @@
         <v>5</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>30</v>
@@ -6876,10 +6927,10 @@
         <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>30</v>
@@ -6903,10 +6954,10 @@
         <v>5</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>30</v>
@@ -6930,10 +6981,10 @@
         <v>5</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>30</v>
@@ -6957,10 +7008,10 @@
         <v>5</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>30</v>
@@ -6984,10 +7035,10 @@
         <v>5</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H230" s="5" t="s">
         <v>30</v>
@@ -7011,10 +7062,10 @@
         <v>5</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H231" s="5" t="s">
         <v>30</v>
@@ -7038,10 +7089,10 @@
         <v>5</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>30</v>
@@ -7065,10 +7116,10 @@
         <v>5</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>30</v>
@@ -7092,10 +7143,10 @@
         <v>5</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>30</v>
@@ -7119,10 +7170,10 @@
         <v>5</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>30</v>
@@ -7146,10 +7197,10 @@
         <v>5</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>30</v>
@@ -7176,7 +7227,7 @@
         <v>25</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>30</v>
@@ -7203,7 +7254,7 @@
         <v>25</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>30</v>
@@ -7230,7 +7281,7 @@
         <v>25</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>30</v>
@@ -7257,7 +7308,7 @@
         <v>25</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H240" s="5" t="s">
         <v>30</v>
@@ -7284,7 +7335,7 @@
         <v>25</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>30</v>
@@ -7311,7 +7362,7 @@
         <v>25</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H242" s="5" t="s">
         <v>30</v>
@@ -7338,7 +7389,7 @@
         <v>25</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H243" s="5" t="s">
         <v>30</v>
@@ -7365,7 +7416,7 @@
         <v>25</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>30</v>
@@ -7392,7 +7443,7 @@
         <v>25</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>30</v>
@@ -7419,7 +7470,7 @@
         <v>25</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>30</v>
@@ -7446,7 +7497,7 @@
         <v>25</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>30</v>
@@ -7473,7 +7524,7 @@
         <v>25</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>30</v>
@@ -7500,7 +7551,7 @@
         <v>25</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>30</v>
@@ -7527,7 +7578,7 @@
         <v>25</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>30</v>
@@ -7554,7 +7605,7 @@
         <v>25</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>30</v>
@@ -7581,7 +7632,7 @@
         <v>25</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>30</v>
@@ -7608,7 +7659,7 @@
         <v>23</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>30</v>
@@ -7635,7 +7686,7 @@
         <v>23</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>30</v>
@@ -7662,7 +7713,7 @@
         <v>23</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>30</v>
@@ -7689,7 +7740,7 @@
         <v>23</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>30</v>
@@ -7716,7 +7767,7 @@
         <v>23</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>30</v>
@@ -7743,7 +7794,7 @@
         <v>23</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>30</v>
@@ -7770,7 +7821,7 @@
         <v>23</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>30</v>
@@ -7797,7 +7848,7 @@
         <v>23</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>30</v>
@@ -7824,7 +7875,7 @@
         <v>23</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>30</v>
@@ -7851,7 +7902,7 @@
         <v>23</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H262" s="5" t="s">
         <v>30</v>
@@ -7878,7 +7929,7 @@
         <v>23</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>30</v>
@@ -7905,7 +7956,7 @@
         <v>23</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>30</v>
@@ -7932,7 +7983,7 @@
         <v>23</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>30</v>
@@ -7959,7 +8010,7 @@
         <v>23</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>30</v>
@@ -7986,7 +8037,7 @@
         <v>23</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H267" s="5" t="s">
         <v>30</v>
@@ -8013,7 +8064,7 @@
         <v>23</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H268" s="5" t="s">
         <v>30</v>
@@ -8040,7 +8091,7 @@
         <v>24</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H269" s="5" t="s">
         <v>30</v>
@@ -8067,7 +8118,7 @@
         <v>24</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>30</v>
@@ -8094,7 +8145,7 @@
         <v>24</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H271" s="5" t="s">
         <v>30</v>
@@ -8121,7 +8172,7 @@
         <v>24</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>30</v>
@@ -8148,7 +8199,7 @@
         <v>24</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H273" s="5" t="s">
         <v>30</v>
@@ -8175,7 +8226,7 @@
         <v>24</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H274" s="5" t="s">
         <v>30</v>
@@ -8202,7 +8253,7 @@
         <v>24</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H275" s="5" t="s">
         <v>30</v>
@@ -8229,7 +8280,7 @@
         <v>24</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H276" s="5" t="s">
         <v>30</v>
@@ -8256,7 +8307,7 @@
         <v>24</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H277" s="5" t="s">
         <v>30</v>
@@ -8283,7 +8334,7 @@
         <v>24</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H278" s="5" t="s">
         <v>30</v>
@@ -8310,7 +8361,7 @@
         <v>24</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H279" s="5" t="s">
         <v>30</v>
@@ -8337,7 +8388,7 @@
         <v>24</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H280" s="5" t="s">
         <v>30</v>
@@ -8364,7 +8415,7 @@
         <v>24</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>30</v>
@@ -8391,7 +8442,7 @@
         <v>24</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H282" s="5" t="s">
         <v>30</v>
@@ -8418,7 +8469,7 @@
         <v>24</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>30</v>
@@ -8445,7 +8496,7 @@
         <v>24</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>30</v>
@@ -8472,7 +8523,7 @@
         <v>22</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>30</v>
@@ -8499,7 +8550,7 @@
         <v>22</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H286" s="5" t="s">
         <v>30</v>
@@ -8526,7 +8577,7 @@
         <v>22</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>30</v>
@@ -8553,7 +8604,7 @@
         <v>22</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>30</v>
@@ -8580,7 +8631,7 @@
         <v>22</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>30</v>
@@ -8607,7 +8658,7 @@
         <v>22</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>30</v>
@@ -8634,7 +8685,7 @@
         <v>22</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>30</v>
@@ -8661,7 +8712,7 @@
         <v>22</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H292" s="5" t="s">
         <v>30</v>
@@ -8688,7 +8739,7 @@
         <v>22</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H293" s="5" t="s">
         <v>30</v>
@@ -8715,7 +8766,7 @@
         <v>22</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H294" s="5" t="s">
         <v>30</v>
@@ -8742,7 +8793,7 @@
         <v>22</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>30</v>
@@ -8769,7 +8820,7 @@
         <v>22</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>30</v>
@@ -8796,7 +8847,7 @@
         <v>22</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>30</v>
@@ -8823,7 +8874,7 @@
         <v>22</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H298" s="5" t="s">
         <v>30</v>
@@ -8850,7 +8901,7 @@
         <v>22</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H299" s="5" t="s">
         <v>30</v>
@@ -8877,7 +8928,7 @@
         <v>22</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>30</v>
@@ -8901,13 +8952,13 @@
         <v>5</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8928,13 +8979,13 @@
         <v>5</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8955,13 +9006,13 @@
         <v>5</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="304" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8982,13 +9033,13 @@
         <v>5</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9009,13 +9060,13 @@
         <v>5</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9036,13 +9087,13 @@
         <v>5</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9063,13 +9114,13 @@
         <v>5</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9090,13 +9141,13 @@
         <v>5</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9117,13 +9168,13 @@
         <v>5</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9144,13 +9195,13 @@
         <v>5</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="311" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9171,13 +9222,13 @@
         <v>5</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9198,13 +9249,13 @@
         <v>5</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9225,13 +9276,13 @@
         <v>5</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="314" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9252,13 +9303,13 @@
         <v>5</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="315" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9279,13 +9330,13 @@
         <v>5</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9306,13 +9357,13 @@
         <v>5</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9333,13 +9384,13 @@
         <v>5</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9360,13 +9411,13 @@
         <v>5</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9387,13 +9438,13 @@
         <v>5</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9414,13 +9465,13 @@
         <v>5</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9441,13 +9492,13 @@
         <v>5</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="322" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9468,13 +9519,13 @@
         <v>5</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="323" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9495,13 +9546,13 @@
         <v>5</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9522,13 +9573,13 @@
         <v>5</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9549,13 +9600,13 @@
         <v>5</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="326" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9576,13 +9627,13 @@
         <v>5</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="327" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9603,13 +9654,13 @@
         <v>5</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="328" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9630,13 +9681,13 @@
         <v>5</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="329" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9657,13 +9708,13 @@
         <v>5</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="330" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9684,13 +9735,13 @@
         <v>5</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="331" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9711,13 +9762,13 @@
         <v>5</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="332" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9738,13 +9789,13 @@
         <v>5</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="333" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9765,13 +9816,13 @@
         <v>5</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H333" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="334" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9792,13 +9843,13 @@
         <v>5</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="335" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9819,13 +9870,13 @@
         <v>5</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H335" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="336" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9846,13 +9897,13 @@
         <v>5</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H336" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="337" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9873,13 +9924,13 @@
         <v>5</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H337" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="338" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9900,13 +9951,13 @@
         <v>5</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H338" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="339" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9927,13 +9978,13 @@
         <v>5</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H339" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="340" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9954,13 +10005,13 @@
         <v>5</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H340" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="341" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9981,13 +10032,13 @@
         <v>5</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H341" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="342" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10008,13 +10059,13 @@
         <v>5</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="343" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10035,13 +10086,13 @@
         <v>5</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="344" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10062,13 +10113,13 @@
         <v>5</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="345" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10089,13 +10140,13 @@
         <v>5</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="346" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10116,13 +10167,13 @@
         <v>5</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="347" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10143,13 +10194,13 @@
         <v>5</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="348" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10170,13 +10221,13 @@
         <v>5</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="349" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10197,13 +10248,13 @@
         <v>5</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G349" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H349" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="H349" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="350" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10224,13 +10275,13 @@
         <v>5</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H350" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="351" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10251,13 +10302,13 @@
         <v>5</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H351" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="352" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10278,13 +10329,13 @@
         <v>5</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G352" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H352" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="353" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10305,13 +10356,13 @@
         <v>5</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="354" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10332,13 +10383,13 @@
         <v>5</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="355" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10359,13 +10410,13 @@
         <v>5</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="356" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10386,13 +10437,13 @@
         <v>5</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="357" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10413,13 +10464,13 @@
         <v>5</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="358" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10440,13 +10491,13 @@
         <v>5</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="359" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10467,13 +10518,13 @@
         <v>5</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="360" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10494,13 +10545,13 @@
         <v>5</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10521,13 +10572,13 @@
         <v>5</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="362" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10548,13 +10599,13 @@
         <v>5</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="363" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10575,13 +10626,13 @@
         <v>5</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="364" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10602,13 +10653,13 @@
         <v>5</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="365" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10629,13 +10680,13 @@
         <v>5</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="366" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10656,13 +10707,13 @@
         <v>5</v>
       </c>
       <c r="F366" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G366" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G366" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H366" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="367" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10683,13 +10734,13 @@
         <v>5</v>
       </c>
       <c r="F367" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G367" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G367" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H367" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="368" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10710,13 +10761,13 @@
         <v>5</v>
       </c>
       <c r="F368" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G368" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G368" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H368" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="369" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10737,13 +10788,13 @@
         <v>5</v>
       </c>
       <c r="F369" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G369" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G369" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H369" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="370" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10764,13 +10815,13 @@
         <v>5</v>
       </c>
       <c r="F370" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G370" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G370" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H370" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="371" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10791,13 +10842,13 @@
         <v>5</v>
       </c>
       <c r="F371" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G371" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G371" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H371" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="372" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10818,13 +10869,13 @@
         <v>5</v>
       </c>
       <c r="F372" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G372" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G372" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H372" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="373" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10845,13 +10896,13 @@
         <v>5</v>
       </c>
       <c r="F373" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G373" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G373" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H373" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="374" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10872,13 +10923,13 @@
         <v>5</v>
       </c>
       <c r="F374" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G374" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G374" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H374" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="375" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10899,13 +10950,13 @@
         <v>5</v>
       </c>
       <c r="F375" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G375" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G375" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H375" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="376" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10926,13 +10977,13 @@
         <v>5</v>
       </c>
       <c r="F376" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G376" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G376" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H376" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="377" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10953,13 +11004,13 @@
         <v>5</v>
       </c>
       <c r="F377" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G377" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G377" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H377" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="378" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10980,13 +11031,13 @@
         <v>5</v>
       </c>
       <c r="F378" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G378" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G378" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H378" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="379" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11007,13 +11058,13 @@
         <v>5</v>
       </c>
       <c r="F379" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G379" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G379" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H379" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="380" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11034,13 +11085,13 @@
         <v>5</v>
       </c>
       <c r="F380" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G380" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G380" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="H380" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="381" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11061,13 +11112,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -11079,7 +11130,7 @@
         <v>017C</v>
       </c>
       <c r="F382" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -11091,7 +11142,7 @@
         <v>017D</v>
       </c>
       <c r="F383" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -11103,10 +11154,10 @@
         <v>017E</v>
       </c>
       <c r="F384" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -11115,202 +11166,442 @@
         <v>017F</v>
       </c>
       <c r="F385" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="5">
         <v>384</v>
       </c>
-      <c r="B386" s="4" t="str">
+      <c r="B386" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0180</v>
       </c>
-      <c r="F386" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="C386" s="5">
+        <v>0</v>
+      </c>
+      <c r="D386" s="5">
+        <v>0</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="5">
         <v>385</v>
       </c>
-      <c r="B387" s="4" t="str">
+      <c r="B387" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0181</v>
       </c>
-      <c r="F387" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="C387" s="5">
+        <v>0</v>
+      </c>
+      <c r="D387" s="5">
+        <v>1</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H387" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="5">
         <v>386</v>
       </c>
-      <c r="B388" s="4" t="str">
+      <c r="B388" s="7" t="str">
         <f t="shared" ref="B388:B451" si="8">DEC2HEX(A388,4)</f>
         <v>0182</v>
       </c>
-      <c r="F388" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="C388" s="5">
+        <v>0</v>
+      </c>
+      <c r="D388" s="5">
+        <v>2</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="5">
         <v>387</v>
       </c>
-      <c r="B389" s="4" t="str">
+      <c r="B389" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0183</v>
       </c>
-      <c r="F389" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="C389" s="5">
+        <v>0</v>
+      </c>
+      <c r="D389" s="5">
+        <v>3</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H389" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="5">
         <v>388</v>
       </c>
-      <c r="B390" s="4" t="str">
+      <c r="B390" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0184</v>
       </c>
-      <c r="F390" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="C390" s="5">
+        <v>1</v>
+      </c>
+      <c r="D390" s="5">
+        <v>0</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="5">
         <v>389</v>
       </c>
-      <c r="B391" s="4" t="str">
+      <c r="B391" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0185</v>
       </c>
-      <c r="F391" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="C391" s="5">
+        <v>1</v>
+      </c>
+      <c r="D391" s="5">
+        <v>1</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H391" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="5">
         <v>390</v>
       </c>
-      <c r="B392" s="4" t="str">
+      <c r="B392" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0186</v>
       </c>
-      <c r="F392" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="C392" s="5">
+        <v>1</v>
+      </c>
+      <c r="D392" s="5">
+        <v>2</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="5">
         <v>391</v>
       </c>
-      <c r="B393" s="4" t="str">
+      <c r="B393" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0187</v>
       </c>
-      <c r="F393" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="C393" s="5">
+        <v>1</v>
+      </c>
+      <c r="D393" s="5">
+        <v>3</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H393" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="5">
         <v>392</v>
       </c>
-      <c r="B394" s="4" t="str">
+      <c r="B394" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0188</v>
       </c>
-      <c r="F394" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="C394" s="5">
+        <v>2</v>
+      </c>
+      <c r="D394" s="5">
+        <v>0</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="5">
         <v>393</v>
       </c>
-      <c r="B395" s="4" t="str">
+      <c r="B395" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0189</v>
       </c>
-      <c r="F395" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="C395" s="5">
+        <v>2</v>
+      </c>
+      <c r="D395" s="5">
+        <v>1</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H395" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="5">
         <v>394</v>
       </c>
-      <c r="B396" s="4" t="str">
+      <c r="B396" s="7" t="str">
         <f t="shared" si="8"/>
         <v>018A</v>
       </c>
-      <c r="F396" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="C396" s="5">
+        <v>2</v>
+      </c>
+      <c r="D396" s="5">
+        <v>2</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H396" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="5">
         <v>395</v>
       </c>
-      <c r="B397" s="4" t="str">
+      <c r="B397" s="7" t="str">
         <f t="shared" si="8"/>
         <v>018B</v>
       </c>
-      <c r="F397" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="C397" s="5">
+        <v>2</v>
+      </c>
+      <c r="D397" s="5">
+        <v>3</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H397" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="5">
         <v>396</v>
       </c>
-      <c r="B398" s="4" t="str">
+      <c r="B398" s="7" t="str">
         <f t="shared" si="8"/>
         <v>018C</v>
       </c>
-      <c r="F398" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="C398" s="5">
+        <v>3</v>
+      </c>
+      <c r="D398" s="5">
+        <v>0</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="5">
         <v>397</v>
       </c>
-      <c r="B399" s="4" t="str">
+      <c r="B399" s="7" t="str">
         <f t="shared" si="8"/>
         <v>018D</v>
       </c>
-      <c r="F399" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="C399" s="5">
+        <v>3</v>
+      </c>
+      <c r="D399" s="5">
+        <v>1</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H399" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="5">
         <v>398</v>
       </c>
-      <c r="B400" s="4" t="str">
+      <c r="B400" s="7" t="str">
         <f t="shared" si="8"/>
         <v>018E</v>
       </c>
-      <c r="F400" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="C400" s="5">
+        <v>3</v>
+      </c>
+      <c r="D400" s="5">
+        <v>2</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="5">
         <v>399</v>
       </c>
-      <c r="B401" s="4" t="str">
+      <c r="B401" s="7" t="str">
         <f t="shared" si="8"/>
         <v>018F</v>
       </c>
-      <c r="F401" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C401" s="5">
+        <v>3</v>
+      </c>
+      <c r="D401" s="5">
+        <v>3</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H401" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -11319,10 +11610,10 @@
         <v>0190</v>
       </c>
       <c r="F402" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -11331,10 +11622,10 @@
         <v>0191</v>
       </c>
       <c r="F403" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -11343,10 +11634,10 @@
         <v>0192</v>
       </c>
       <c r="F404" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11355,10 +11646,10 @@
         <v>0193</v>
       </c>
       <c r="F405" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11367,10 +11658,10 @@
         <v>0194</v>
       </c>
       <c r="F406" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11379,10 +11670,10 @@
         <v>0195</v>
       </c>
       <c r="F407" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11391,10 +11682,10 @@
         <v>0196</v>
       </c>
       <c r="F408" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11403,10 +11694,10 @@
         <v>0197</v>
       </c>
       <c r="F409" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11415,10 +11706,10 @@
         <v>0198</v>
       </c>
       <c r="F410" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11427,10 +11718,10 @@
         <v>0199</v>
       </c>
       <c r="F411" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11439,10 +11730,10 @@
         <v>019A</v>
       </c>
       <c r="F412" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11451,10 +11742,10 @@
         <v>019B</v>
       </c>
       <c r="F413" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11463,10 +11754,10 @@
         <v>019C</v>
       </c>
       <c r="F414" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11475,10 +11766,10 @@
         <v>019D</v>
       </c>
       <c r="F415" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11487,7 +11778,7 @@
         <v>019E</v>
       </c>
       <c r="F416" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -11499,7 +11790,7 @@
         <v>019F</v>
       </c>
       <c r="F417" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -11511,7 +11802,7 @@
         <v>01A0</v>
       </c>
       <c r="F418" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -11523,7 +11814,7 @@
         <v>01A1</v>
       </c>
       <c r="F419" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -11535,7 +11826,7 @@
         <v>01A2</v>
       </c>
       <c r="F420" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -11547,7 +11838,7 @@
         <v>01A3</v>
       </c>
       <c r="F421" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -11559,7 +11850,7 @@
         <v>01A4</v>
       </c>
       <c r="F422" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -11571,7 +11862,7 @@
         <v>01A5</v>
       </c>
       <c r="F423" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -11583,7 +11874,7 @@
         <v>01A6</v>
       </c>
       <c r="F424" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -11595,7 +11886,7 @@
         <v>01A7</v>
       </c>
       <c r="F425" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -11607,7 +11898,7 @@
         <v>01A8</v>
       </c>
       <c r="F426" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -11619,7 +11910,7 @@
         <v>01A9</v>
       </c>
       <c r="F427" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -11631,7 +11922,7 @@
         <v>01AA</v>
       </c>
       <c r="F428" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -11643,7 +11934,7 @@
         <v>01AB</v>
       </c>
       <c r="F429" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -11655,7 +11946,7 @@
         <v>01AC</v>
       </c>
       <c r="F430" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -11667,7 +11958,7 @@
         <v>01AD</v>
       </c>
       <c r="F431" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -11679,7 +11970,7 @@
         <v>01AE</v>
       </c>
       <c r="F432" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -11691,7 +11982,7 @@
         <v>01AF</v>
       </c>
       <c r="F433" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -11703,7 +11994,7 @@
         <v>01B0</v>
       </c>
       <c r="F434" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -11715,7 +12006,7 @@
         <v>01B1</v>
       </c>
       <c r="F435" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -11727,7 +12018,7 @@
         <v>01B2</v>
       </c>
       <c r="F436" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -11739,7 +12030,7 @@
         <v>01B3</v>
       </c>
       <c r="F437" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -11751,7 +12042,7 @@
         <v>01B4</v>
       </c>
       <c r="F438" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -11763,7 +12054,7 @@
         <v>01B5</v>
       </c>
       <c r="F439" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -11775,7 +12066,7 @@
         <v>01B6</v>
       </c>
       <c r="F440" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -11787,7 +12078,7 @@
         <v>01B7</v>
       </c>
       <c r="F441" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -11799,7 +12090,7 @@
         <v>01B8</v>
       </c>
       <c r="F442" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -11811,7 +12102,7 @@
         <v>01B9</v>
       </c>
       <c r="F443" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -11823,7 +12114,7 @@
         <v>01BA</v>
       </c>
       <c r="F444" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -11835,7 +12126,7 @@
         <v>01BB</v>
       </c>
       <c r="F445" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -11847,7 +12138,7 @@
         <v>01BC</v>
       </c>
       <c r="F446" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -11859,7 +12150,7 @@
         <v>01BD</v>
       </c>
       <c r="F447" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -11871,7 +12162,7 @@
         <v>01BE</v>
       </c>
       <c r="F448" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -11883,7 +12174,7 @@
         <v>01BF</v>
       </c>
       <c r="F449" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -11895,7 +12186,7 @@
         <v>01C0</v>
       </c>
       <c r="F450" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -11907,7 +12198,7 @@
         <v>01C1</v>
       </c>
       <c r="F451" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -11919,7 +12210,7 @@
         <v>01C2</v>
       </c>
       <c r="F452" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -11931,7 +12222,7 @@
         <v>01C3</v>
       </c>
       <c r="F453" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -11943,7 +12234,7 @@
         <v>01C4</v>
       </c>
       <c r="F454" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -11955,7 +12246,7 @@
         <v>01C5</v>
       </c>
       <c r="F455" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -11967,7 +12258,7 @@
         <v>01C6</v>
       </c>
       <c r="F456" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -11979,7 +12270,7 @@
         <v>01C7</v>
       </c>
       <c r="F457" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -11991,7 +12282,7 @@
         <v>01C8</v>
       </c>
       <c r="F458" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -12003,7 +12294,7 @@
         <v>01C9</v>
       </c>
       <c r="F459" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -12015,7 +12306,7 @@
         <v>01CA</v>
       </c>
       <c r="F460" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -12027,7 +12318,7 @@
         <v>01CB</v>
       </c>
       <c r="F461" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -12039,7 +12330,7 @@
         <v>01CC</v>
       </c>
       <c r="F462" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -12051,7 +12342,7 @@
         <v>01CD</v>
       </c>
       <c r="F463" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -12063,7 +12354,7 @@
         <v>01CE</v>
       </c>
       <c r="F464" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -12075,7 +12366,7 @@
         <v>01CF</v>
       </c>
       <c r="F465" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -12087,7 +12378,7 @@
         <v>01D0</v>
       </c>
       <c r="F466" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -12099,7 +12390,7 @@
         <v>01D1</v>
       </c>
       <c r="F467" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -12111,7 +12402,7 @@
         <v>01D2</v>
       </c>
       <c r="F468" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -12123,7 +12414,7 @@
         <v>01D3</v>
       </c>
       <c r="F469" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -12135,7 +12426,7 @@
         <v>01D4</v>
       </c>
       <c r="F470" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -12147,7 +12438,7 @@
         <v>01D5</v>
       </c>
       <c r="F471" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -12159,7 +12450,7 @@
         <v>01D6</v>
       </c>
       <c r="F472" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -12171,7 +12462,7 @@
         <v>01D7</v>
       </c>
       <c r="F473" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -12183,7 +12474,7 @@
         <v>01D8</v>
       </c>
       <c r="F474" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -12195,7 +12486,7 @@
         <v>01D9</v>
       </c>
       <c r="F475" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -12207,7 +12498,7 @@
         <v>01DA</v>
       </c>
       <c r="F476" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -12219,7 +12510,7 @@
         <v>01DB</v>
       </c>
       <c r="F477" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -12231,7 +12522,7 @@
         <v>01DC</v>
       </c>
       <c r="F478" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -12243,7 +12534,7 @@
         <v>01DD</v>
       </c>
       <c r="F479" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -12255,7 +12546,7 @@
         <v>01DE</v>
       </c>
       <c r="F480" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -12267,7 +12558,7 @@
         <v>01DF</v>
       </c>
       <c r="F481" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -12279,7 +12570,7 @@
         <v>01E0</v>
       </c>
       <c r="F482" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -12291,7 +12582,7 @@
         <v>01E1</v>
       </c>
       <c r="F483" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -12303,7 +12594,7 @@
         <v>01E2</v>
       </c>
       <c r="F484" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -12315,7 +12606,7 @@
         <v>01E3</v>
       </c>
       <c r="F485" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -12327,7 +12618,7 @@
         <v>01E4</v>
       </c>
       <c r="F486" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -12339,7 +12630,7 @@
         <v>01E5</v>
       </c>
       <c r="F487" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -12351,7 +12642,7 @@
         <v>01E6</v>
       </c>
       <c r="F488" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -12363,7 +12654,7 @@
         <v>01E7</v>
       </c>
       <c r="F489" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -12375,7 +12666,7 @@
         <v>01E8</v>
       </c>
       <c r="F490" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -12387,7 +12678,7 @@
         <v>01E9</v>
       </c>
       <c r="F491" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -12399,7 +12690,7 @@
         <v>01EA</v>
       </c>
       <c r="F492" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -12411,7 +12702,7 @@
         <v>01EB</v>
       </c>
       <c r="F493" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -12423,7 +12714,7 @@
         <v>01EC</v>
       </c>
       <c r="F494" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -12435,7 +12726,7 @@
         <v>01ED</v>
       </c>
       <c r="F495" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -12447,7 +12738,7 @@
         <v>01EE</v>
       </c>
       <c r="F496" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -12459,7 +12750,7 @@
         <v>01EF</v>
       </c>
       <c r="F497" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -12471,7 +12762,7 @@
         <v>01F0</v>
       </c>
       <c r="F498" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -12483,7 +12774,7 @@
         <v>01F1</v>
       </c>
       <c r="F499" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -12495,7 +12786,7 @@
         <v>01F2</v>
       </c>
       <c r="F500" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -12507,7 +12798,7 @@
         <v>01F3</v>
       </c>
       <c r="F501" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="502" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12519,7 +12810,7 @@
         <v>01F4</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>19</v>
@@ -12528,10 +12819,10 @@
         <v>10</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H502" s="5" t="s">
         <v>7</v>
@@ -12546,7 +12837,7 @@
         <v>01F5</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D503" s="5" t="s">
         <v>21</v>
@@ -12555,10 +12846,10 @@
         <v>10</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H503" s="5" t="s">
         <v>7</v>
@@ -12573,7 +12864,7 @@
         <v>01F6</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D504" s="5" t="s">
         <v>19</v>
@@ -12582,10 +12873,10 @@
         <v>10</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H504" s="5" t="s">
         <v>7</v>
@@ -12600,7 +12891,7 @@
         <v>01F7</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D505" s="5" t="s">
         <v>21</v>
@@ -12609,10 +12900,10 @@
         <v>10</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H505" s="5" t="s">
         <v>7</v>
@@ -12636,10 +12927,10 @@
         <v>10</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H506" s="5" t="s">
         <v>7</v>
@@ -12654,7 +12945,7 @@
         <v>01F9</v>
       </c>
       <c r="F507" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -12666,7 +12957,7 @@
         <v>01FA</v>
       </c>
       <c r="F508" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -12678,7 +12969,7 @@
         <v>01FB</v>
       </c>
       <c r="F509" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -12690,7 +12981,7 @@
         <v>01FC</v>
       </c>
       <c r="F510" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -12702,7 +12993,7 @@
         <v>01FD</v>
       </c>
       <c r="F511" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -12714,7 +13005,7 @@
         <v>01FE</v>
       </c>
       <c r="F512" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -12726,7 +13017,7 @@
         <v>01FF</v>
       </c>
       <c r="F513" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -12738,9 +13029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H627"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G534" sqref="G534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12756,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -12771,10 +13062,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13194,7 +13485,7 @@
         <v>G</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>'SCROD Write Registers'!G14</f>
@@ -25464,21 +25755,21 @@
         <f>'SCROD Write Registers'!D386</f>
         <v>0</v>
       </c>
-      <c r="E386">
+      <c r="E386" t="str">
         <f>'SCROD Write Registers'!E386</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F386" t="str">
         <f>'SCROD Write Registers'!F386</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G386" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G386" s="8" t="str">
         <f>'SCROD Write Registers'!G386</f>
-        <v>0</v>
-      </c>
-      <c r="H386" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H386" s="8" t="str">
         <f>'SCROD Write Registers'!H386</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -25495,23 +25786,23 @@
       </c>
       <c r="D387">
         <f>'SCROD Write Registers'!D387</f>
-        <v>0</v>
-      </c>
-      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="E387" t="str">
         <f>'SCROD Write Registers'!E387</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F387" t="str">
         <f>'SCROD Write Registers'!F387</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G387" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G387" s="8" t="str">
         <f>'SCROD Write Registers'!G387</f>
-        <v>0</v>
-      </c>
-      <c r="H387" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H387" s="8" t="str">
         <f>'SCROD Write Registers'!H387</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -25528,23 +25819,23 @@
       </c>
       <c r="D388">
         <f>'SCROD Write Registers'!D388</f>
-        <v>0</v>
-      </c>
-      <c r="E388">
+        <v>2</v>
+      </c>
+      <c r="E388" t="str">
         <f>'SCROD Write Registers'!E388</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F388" t="str">
         <f>'SCROD Write Registers'!F388</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G388" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G388" s="8" t="str">
         <f>'SCROD Write Registers'!G388</f>
-        <v>0</v>
-      </c>
-      <c r="H388" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H388" s="8" t="str">
         <f>'SCROD Write Registers'!H388</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -25561,23 +25852,23 @@
       </c>
       <c r="D389">
         <f>'SCROD Write Registers'!D389</f>
-        <v>0</v>
-      </c>
-      <c r="E389">
+        <v>3</v>
+      </c>
+      <c r="E389" t="str">
         <f>'SCROD Write Registers'!E389</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F389" t="str">
         <f>'SCROD Write Registers'!F389</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G389" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G389" s="8" t="str">
         <f>'SCROD Write Registers'!G389</f>
-        <v>0</v>
-      </c>
-      <c r="H389" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H389" s="8" t="str">
         <f>'SCROD Write Registers'!H389</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -25590,27 +25881,27 @@
       </c>
       <c r="C390">
         <f>'SCROD Write Registers'!C390</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D390">
         <f>'SCROD Write Registers'!D390</f>
         <v>0</v>
       </c>
-      <c r="E390">
+      <c r="E390" t="str">
         <f>'SCROD Write Registers'!E390</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F390" t="str">
         <f>'SCROD Write Registers'!F390</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G390" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G390" s="8" t="str">
         <f>'SCROD Write Registers'!G390</f>
-        <v>0</v>
-      </c>
-      <c r="H390" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H390" s="8" t="str">
         <f>'SCROD Write Registers'!H390</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -25623,27 +25914,27 @@
       </c>
       <c r="C391">
         <f>'SCROD Write Registers'!C391</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391">
         <f>'SCROD Write Registers'!D391</f>
-        <v>0</v>
-      </c>
-      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="E391" t="str">
         <f>'SCROD Write Registers'!E391</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F391" t="str">
         <f>'SCROD Write Registers'!F391</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G391" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G391" s="8" t="str">
         <f>'SCROD Write Registers'!G391</f>
-        <v>0</v>
-      </c>
-      <c r="H391" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H391" s="8" t="str">
         <f>'SCROD Write Registers'!H391</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -25656,27 +25947,27 @@
       </c>
       <c r="C392">
         <f>'SCROD Write Registers'!C392</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D392">
         <f>'SCROD Write Registers'!D392</f>
-        <v>0</v>
-      </c>
-      <c r="E392">
+        <v>2</v>
+      </c>
+      <c r="E392" t="str">
         <f>'SCROD Write Registers'!E392</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F392" t="str">
         <f>'SCROD Write Registers'!F392</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G392" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G392" s="8" t="str">
         <f>'SCROD Write Registers'!G392</f>
-        <v>0</v>
-      </c>
-      <c r="H392" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H392" s="8" t="str">
         <f>'SCROD Write Registers'!H392</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -25689,27 +25980,27 @@
       </c>
       <c r="C393">
         <f>'SCROD Write Registers'!C393</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393">
         <f>'SCROD Write Registers'!D393</f>
-        <v>0</v>
-      </c>
-      <c r="E393">
+        <v>3</v>
+      </c>
+      <c r="E393" t="str">
         <f>'SCROD Write Registers'!E393</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F393" t="str">
         <f>'SCROD Write Registers'!F393</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G393" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G393" s="8" t="str">
         <f>'SCROD Write Registers'!G393</f>
-        <v>0</v>
-      </c>
-      <c r="H393" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H393" s="8" t="str">
         <f>'SCROD Write Registers'!H393</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -25722,27 +26013,27 @@
       </c>
       <c r="C394">
         <f>'SCROD Write Registers'!C394</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D394">
         <f>'SCROD Write Registers'!D394</f>
         <v>0</v>
       </c>
-      <c r="E394">
+      <c r="E394" t="str">
         <f>'SCROD Write Registers'!E394</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F394" t="str">
         <f>'SCROD Write Registers'!F394</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G394" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G394" s="8" t="str">
         <f>'SCROD Write Registers'!G394</f>
-        <v>0</v>
-      </c>
-      <c r="H394" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H394" s="8" t="str">
         <f>'SCROD Write Registers'!H394</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -25755,27 +26046,27 @@
       </c>
       <c r="C395">
         <f>'SCROD Write Registers'!C395</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D395">
         <f>'SCROD Write Registers'!D395</f>
-        <v>0</v>
-      </c>
-      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="E395" t="str">
         <f>'SCROD Write Registers'!E395</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F395" t="str">
         <f>'SCROD Write Registers'!F395</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G395" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G395" s="8" t="str">
         <f>'SCROD Write Registers'!G395</f>
-        <v>0</v>
-      </c>
-      <c r="H395" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H395" s="8" t="str">
         <f>'SCROD Write Registers'!H395</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -25788,27 +26079,27 @@
       </c>
       <c r="C396">
         <f>'SCROD Write Registers'!C396</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D396">
         <f>'SCROD Write Registers'!D396</f>
-        <v>0</v>
-      </c>
-      <c r="E396">
+        <v>2</v>
+      </c>
+      <c r="E396" t="str">
         <f>'SCROD Write Registers'!E396</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F396" t="str">
         <f>'SCROD Write Registers'!F396</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G396" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G396" s="8" t="str">
         <f>'SCROD Write Registers'!G396</f>
-        <v>0</v>
-      </c>
-      <c r="H396" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H396" s="8" t="str">
         <f>'SCROD Write Registers'!H396</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -25821,27 +26112,27 @@
       </c>
       <c r="C397">
         <f>'SCROD Write Registers'!C397</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D397">
         <f>'SCROD Write Registers'!D397</f>
-        <v>0</v>
-      </c>
-      <c r="E397">
+        <v>3</v>
+      </c>
+      <c r="E397" t="str">
         <f>'SCROD Write Registers'!E397</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F397" t="str">
         <f>'SCROD Write Registers'!F397</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G397" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G397" s="8" t="str">
         <f>'SCROD Write Registers'!G397</f>
-        <v>0</v>
-      </c>
-      <c r="H397" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H397" s="8" t="str">
         <f>'SCROD Write Registers'!H397</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -25854,27 +26145,27 @@
       </c>
       <c r="C398">
         <f>'SCROD Write Registers'!C398</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D398">
         <f>'SCROD Write Registers'!D398</f>
         <v>0</v>
       </c>
-      <c r="E398">
+      <c r="E398" t="str">
         <f>'SCROD Write Registers'!E398</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F398" t="str">
         <f>'SCROD Write Registers'!F398</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G398" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G398" s="8" t="str">
         <f>'SCROD Write Registers'!G398</f>
-        <v>0</v>
-      </c>
-      <c r="H398" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H398" s="8" t="str">
         <f>'SCROD Write Registers'!H398</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -25887,27 +26178,27 @@
       </c>
       <c r="C399">
         <f>'SCROD Write Registers'!C399</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D399">
         <f>'SCROD Write Registers'!D399</f>
-        <v>0</v>
-      </c>
-      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="E399" t="str">
         <f>'SCROD Write Registers'!E399</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F399" t="str">
         <f>'SCROD Write Registers'!F399</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G399" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G399" s="8" t="str">
         <f>'SCROD Write Registers'!G399</f>
-        <v>0</v>
-      </c>
-      <c r="H399" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H399" s="8" t="str">
         <f>'SCROD Write Registers'!H399</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -25920,27 +26211,27 @@
       </c>
       <c r="C400">
         <f>'SCROD Write Registers'!C400</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D400">
         <f>'SCROD Write Registers'!D400</f>
-        <v>0</v>
-      </c>
-      <c r="E400">
+        <v>2</v>
+      </c>
+      <c r="E400" t="str">
         <f>'SCROD Write Registers'!E400</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F400" t="str">
         <f>'SCROD Write Registers'!F400</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G400" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G400" s="8" t="str">
         <f>'SCROD Write Registers'!G400</f>
-        <v>0</v>
-      </c>
-      <c r="H400" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H400" s="8" t="str">
         <f>'SCROD Write Registers'!H400</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -25953,27 +26244,27 @@
       </c>
       <c r="C401">
         <f>'SCROD Write Registers'!C401</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D401">
         <f>'SCROD Write Registers'!D401</f>
-        <v>0</v>
-      </c>
-      <c r="E401">
+        <v>3</v>
+      </c>
+      <c r="E401" t="str">
         <f>'SCROD Write Registers'!E401</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F401" t="str">
         <f>'SCROD Write Registers'!F401</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G401" s="8">
+        <v>WILKINSON_TARGET</v>
+      </c>
+      <c r="G401" s="8" t="str">
         <f>'SCROD Write Registers'!G401</f>
-        <v>0</v>
-      </c>
-      <c r="H401" s="8">
+        <v>Target count rate value for Wilkinson feedback loop</v>
+      </c>
+      <c r="H401" s="8" t="str">
         <f>'SCROD Write Registers'!H401</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -29690,10 +29981,10 @@
         <v>10</v>
       </c>
       <c r="F514" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H514" s="10" t="s">
         <v>32</v>
@@ -29717,10 +30008,10 @@
         <v>10</v>
       </c>
       <c r="F515" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H515" s="5" t="s">
         <v>32</v>
@@ -29744,10 +30035,10 @@
         <v>10</v>
       </c>
       <c r="F516" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H516" s="5" t="s">
         <v>32</v>
@@ -29771,10 +30062,10 @@
         <v>10</v>
       </c>
       <c r="F517" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>32</v>
@@ -29798,10 +30089,10 @@
         <v>10</v>
       </c>
       <c r="F518" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>32</v>
@@ -29825,10 +30116,10 @@
         <v>10</v>
       </c>
       <c r="F519" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H519" s="5" t="s">
         <v>32</v>
@@ -29852,10 +30143,10 @@
         <v>10</v>
       </c>
       <c r="F520" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H520" s="5" t="s">
         <v>32</v>
@@ -29879,10 +30170,10 @@
         <v>10</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G521" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H521" s="5" t="s">
         <v>32</v>
@@ -29909,7 +30200,7 @@
         <v>35</v>
       </c>
       <c r="H522" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="523" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29933,7 +30224,7 @@
         <v>35</v>
       </c>
       <c r="H523" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="524" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29957,7 +30248,7 @@
         <v>35</v>
       </c>
       <c r="H524" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="525" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29981,7 +30272,7 @@
         <v>35</v>
       </c>
       <c r="H525" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="526" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30005,7 +30296,7 @@
         <v>35</v>
       </c>
       <c r="H526" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="527" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30029,7 +30320,7 @@
         <v>35</v>
       </c>
       <c r="H527" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="528" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30053,7 +30344,7 @@
         <v>35</v>
       </c>
       <c r="H528" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="529" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30077,394 +30368,442 @@
         <v>35</v>
       </c>
       <c r="H529" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A530">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="5">
         <v>528</v>
       </c>
-      <c r="B530" s="3" t="str">
+      <c r="B530" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0210</v>
       </c>
-      <c r="C530">
-        <v>0</v>
-      </c>
-      <c r="D530">
-        <v>0</v>
-      </c>
-      <c r="E530" t="s">
+      <c r="C530" s="5">
+        <v>0</v>
+      </c>
+      <c r="D530" s="5">
+        <v>0</v>
+      </c>
+      <c r="E530" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F530" t="s">
-        <v>36</v>
-      </c>
-      <c r="G530" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="F530" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H530" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="5">
         <v>529</v>
       </c>
-      <c r="B531" s="3" t="str">
+      <c r="B531" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0211</v>
       </c>
-      <c r="C531">
-        <v>0</v>
-      </c>
-      <c r="D531">
-        <v>1</v>
-      </c>
-      <c r="E531" t="s">
+      <c r="C531" s="5">
+        <v>0</v>
+      </c>
+      <c r="D531" s="5">
+        <v>1</v>
+      </c>
+      <c r="E531" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F531" t="s">
-        <v>36</v>
-      </c>
-      <c r="G531" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="F531" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G531" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H531" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="5">
         <v>530</v>
       </c>
-      <c r="B532" s="3" t="str">
+      <c r="B532" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0212</v>
       </c>
-      <c r="C532">
-        <v>0</v>
-      </c>
-      <c r="D532">
-        <v>2</v>
-      </c>
-      <c r="E532" t="s">
+      <c r="C532" s="5">
+        <v>0</v>
+      </c>
+      <c r="D532" s="5">
+        <v>2</v>
+      </c>
+      <c r="E532" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F532" t="s">
-        <v>36</v>
-      </c>
-      <c r="G532" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="F532" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H532" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="5">
         <v>531</v>
       </c>
-      <c r="B533" s="3" t="str">
+      <c r="B533" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0213</v>
       </c>
-      <c r="C533">
-        <v>0</v>
-      </c>
-      <c r="D533">
-        <v>3</v>
-      </c>
-      <c r="E533" t="s">
+      <c r="C533" s="5">
+        <v>0</v>
+      </c>
+      <c r="D533" s="5">
+        <v>3</v>
+      </c>
+      <c r="E533" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F533" t="s">
-        <v>36</v>
-      </c>
-      <c r="G533" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="F533" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G533" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H533" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="5">
         <v>532</v>
       </c>
-      <c r="B534" s="3" t="str">
+      <c r="B534" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0214</v>
       </c>
-      <c r="C534">
-        <v>1</v>
-      </c>
-      <c r="D534">
-        <v>0</v>
-      </c>
-      <c r="E534" t="s">
+      <c r="C534" s="5">
+        <v>1</v>
+      </c>
+      <c r="D534" s="5">
+        <v>0</v>
+      </c>
+      <c r="E534" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F534" t="s">
-        <v>36</v>
-      </c>
-      <c r="G534" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="F534" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G534" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H534" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="5">
         <v>533</v>
       </c>
-      <c r="B535" s="3" t="str">
+      <c r="B535" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0215</v>
       </c>
-      <c r="C535">
-        <v>1</v>
-      </c>
-      <c r="D535">
-        <v>1</v>
-      </c>
-      <c r="E535" t="s">
+      <c r="C535" s="5">
+        <v>1</v>
+      </c>
+      <c r="D535" s="5">
+        <v>1</v>
+      </c>
+      <c r="E535" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F535" t="s">
-        <v>36</v>
-      </c>
-      <c r="G535" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="F535" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G535" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H535" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="5">
         <v>534</v>
       </c>
-      <c r="B536" s="3" t="str">
+      <c r="B536" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0216</v>
       </c>
-      <c r="C536">
-        <v>1</v>
-      </c>
-      <c r="D536">
-        <v>2</v>
-      </c>
-      <c r="E536" t="s">
+      <c r="C536" s="5">
+        <v>1</v>
+      </c>
+      <c r="D536" s="5">
+        <v>2</v>
+      </c>
+      <c r="E536" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F536" t="s">
-        <v>36</v>
-      </c>
-      <c r="G536" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="F536" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G536" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H536" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="5">
         <v>535</v>
       </c>
-      <c r="B537" s="3" t="str">
+      <c r="B537" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0217</v>
       </c>
-      <c r="C537">
-        <v>1</v>
-      </c>
-      <c r="D537">
-        <v>3</v>
-      </c>
-      <c r="E537" t="s">
+      <c r="C537" s="5">
+        <v>1</v>
+      </c>
+      <c r="D537" s="5">
+        <v>3</v>
+      </c>
+      <c r="E537" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F537" t="s">
-        <v>36</v>
-      </c>
-      <c r="G537" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="F537" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G537" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H537" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="5">
         <v>536</v>
       </c>
-      <c r="B538" s="3" t="str">
+      <c r="B538" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0218</v>
       </c>
-      <c r="C538">
-        <v>2</v>
-      </c>
-      <c r="D538">
-        <v>0</v>
-      </c>
-      <c r="E538" t="s">
+      <c r="C538" s="5">
+        <v>2</v>
+      </c>
+      <c r="D538" s="5">
+        <v>0</v>
+      </c>
+      <c r="E538" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F538" t="s">
-        <v>36</v>
-      </c>
-      <c r="G538" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="F538" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G538" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H538" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="5">
         <v>537</v>
       </c>
-      <c r="B539" s="3" t="str">
+      <c r="B539" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0219</v>
       </c>
-      <c r="C539">
-        <v>2</v>
-      </c>
-      <c r="D539">
-        <v>1</v>
-      </c>
-      <c r="E539" t="s">
+      <c r="C539" s="5">
+        <v>2</v>
+      </c>
+      <c r="D539" s="5">
+        <v>1</v>
+      </c>
+      <c r="E539" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F539" t="s">
-        <v>36</v>
-      </c>
-      <c r="G539" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="F539" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G539" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H539" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="5">
         <v>538</v>
       </c>
-      <c r="B540" s="3" t="str">
+      <c r="B540" s="6" t="str">
         <f t="shared" si="8"/>
         <v>021A</v>
       </c>
-      <c r="C540">
-        <v>2</v>
-      </c>
-      <c r="D540">
-        <v>2</v>
-      </c>
-      <c r="E540" t="s">
+      <c r="C540" s="5">
+        <v>2</v>
+      </c>
+      <c r="D540" s="5">
+        <v>2</v>
+      </c>
+      <c r="E540" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F540" t="s">
-        <v>36</v>
-      </c>
-      <c r="G540" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="F540" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G540" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H540" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="5">
         <v>539</v>
       </c>
-      <c r="B541" s="3" t="str">
+      <c r="B541" s="6" t="str">
         <f t="shared" si="8"/>
         <v>021B</v>
       </c>
-      <c r="C541">
-        <v>2</v>
-      </c>
-      <c r="D541">
-        <v>3</v>
-      </c>
-      <c r="E541" t="s">
+      <c r="C541" s="5">
+        <v>2</v>
+      </c>
+      <c r="D541" s="5">
+        <v>3</v>
+      </c>
+      <c r="E541" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F541" t="s">
-        <v>36</v>
-      </c>
-      <c r="G541" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="F541" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G541" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H541" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="5">
         <v>540</v>
       </c>
-      <c r="B542" s="3" t="str">
+      <c r="B542" s="6" t="str">
         <f t="shared" si="8"/>
         <v>021C</v>
       </c>
-      <c r="C542">
-        <v>3</v>
-      </c>
-      <c r="D542">
-        <v>0</v>
-      </c>
-      <c r="E542" t="s">
+      <c r="C542" s="5">
+        <v>3</v>
+      </c>
+      <c r="D542" s="5">
+        <v>0</v>
+      </c>
+      <c r="E542" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F542" t="s">
-        <v>36</v>
-      </c>
-      <c r="G542" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="F542" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G542" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H542" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="5">
         <v>541</v>
       </c>
-      <c r="B543" s="3" t="str">
+      <c r="B543" s="6" t="str">
         <f t="shared" si="8"/>
         <v>021D</v>
       </c>
-      <c r="C543">
-        <v>3</v>
-      </c>
-      <c r="D543">
-        <v>1</v>
-      </c>
-      <c r="E543" t="s">
+      <c r="C543" s="5">
+        <v>3</v>
+      </c>
+      <c r="D543" s="5">
+        <v>1</v>
+      </c>
+      <c r="E543" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F543" t="s">
-        <v>36</v>
-      </c>
-      <c r="G543" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="F543" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G543" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H543" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="5">
         <v>542</v>
       </c>
-      <c r="B544" s="3" t="str">
+      <c r="B544" s="6" t="str">
         <f t="shared" si="8"/>
         <v>021E</v>
       </c>
-      <c r="C544">
-        <v>3</v>
-      </c>
-      <c r="D544">
-        <v>2</v>
-      </c>
-      <c r="E544" t="s">
+      <c r="C544" s="5">
+        <v>3</v>
+      </c>
+      <c r="D544" s="5">
+        <v>2</v>
+      </c>
+      <c r="E544" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F544" t="s">
-        <v>36</v>
-      </c>
-      <c r="G544" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="F544" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G544" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H544" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="5">
         <v>543</v>
       </c>
-      <c r="B545" s="3" t="str">
+      <c r="B545" s="6" t="str">
         <f t="shared" si="8"/>
         <v>021F</v>
       </c>
-      <c r="C545">
-        <v>3</v>
-      </c>
-      <c r="D545">
-        <v>3</v>
-      </c>
-      <c r="E545" t="s">
+      <c r="C545" s="5">
+        <v>3</v>
+      </c>
+      <c r="D545" s="5">
+        <v>3</v>
+      </c>
+      <c r="E545" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F545" t="s">
-        <v>36</v>
-      </c>
-      <c r="G545" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F545" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G545" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H545" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>544</v>
       </c>
@@ -30482,13 +30821,13 @@
         <v>10</v>
       </c>
       <c r="F546" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G546" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
@@ -30506,13 +30845,13 @@
         <v>10</v>
       </c>
       <c r="F547" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G547" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>546</v>
       </c>
@@ -30530,13 +30869,13 @@
         <v>10</v>
       </c>
       <c r="F548" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G548" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
@@ -30554,13 +30893,13 @@
         <v>10</v>
       </c>
       <c r="F549" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G549" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>548</v>
       </c>
@@ -30578,13 +30917,13 @@
         <v>10</v>
       </c>
       <c r="F550" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G550" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>549</v>
       </c>
@@ -30602,13 +30941,13 @@
         <v>10</v>
       </c>
       <c r="F551" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G551" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>550</v>
       </c>
@@ -30626,13 +30965,13 @@
         <v>10</v>
       </c>
       <c r="F552" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G552" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
@@ -30650,13 +30989,13 @@
         <v>10</v>
       </c>
       <c r="F553" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G553" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
@@ -30674,13 +31013,13 @@
         <v>10</v>
       </c>
       <c r="F554" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G554" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>553</v>
       </c>
@@ -30698,13 +31037,13 @@
         <v>10</v>
       </c>
       <c r="F555" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G555" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
@@ -30722,13 +31061,13 @@
         <v>10</v>
       </c>
       <c r="F556" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G556" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>555</v>
       </c>
@@ -30746,13 +31085,13 @@
         <v>10</v>
       </c>
       <c r="F557" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G557" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>556</v>
       </c>
@@ -30770,13 +31109,13 @@
         <v>10</v>
       </c>
       <c r="F558" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G558" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
@@ -30794,13 +31133,13 @@
         <v>10</v>
       </c>
       <c r="F559" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G559" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
@@ -30818,7 +31157,7 @@
         <v>10</v>
       </c>
       <c r="F560" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G560" t="s">
         <v>30</v>
@@ -30842,7 +31181,7 @@
         <v>10</v>
       </c>
       <c r="F561" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G561" t="s">
         <v>30</v>
@@ -30866,7 +31205,7 @@
         <v>10</v>
       </c>
       <c r="F562" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G562" t="s">
         <v>30</v>
@@ -30890,7 +31229,7 @@
         <v>10</v>
       </c>
       <c r="F563" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G563" t="s">
         <v>30</v>
@@ -30914,7 +31253,7 @@
         <v>10</v>
       </c>
       <c r="F564" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G564" t="s">
         <v>30</v>
@@ -30938,7 +31277,7 @@
         <v>10</v>
       </c>
       <c r="F565" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G565" t="s">
         <v>30</v>
@@ -30962,7 +31301,7 @@
         <v>10</v>
       </c>
       <c r="F566" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G566" t="s">
         <v>30</v>
@@ -30986,7 +31325,7 @@
         <v>10</v>
       </c>
       <c r="F567" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G567" t="s">
         <v>30</v>
@@ -31010,7 +31349,7 @@
         <v>10</v>
       </c>
       <c r="F568" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G568" t="s">
         <v>30</v>
@@ -31034,7 +31373,7 @@
         <v>10</v>
       </c>
       <c r="F569" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G569" t="s">
         <v>30</v>
@@ -31058,7 +31397,7 @@
         <v>10</v>
       </c>
       <c r="F570" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G570" t="s">
         <v>30</v>
@@ -31082,7 +31421,7 @@
         <v>10</v>
       </c>
       <c r="F571" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G571" t="s">
         <v>30</v>
@@ -31106,7 +31445,7 @@
         <v>10</v>
       </c>
       <c r="F572" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G572" t="s">
         <v>30</v>
@@ -31130,7 +31469,7 @@
         <v>10</v>
       </c>
       <c r="F573" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G573" t="s">
         <v>30</v>
@@ -31154,7 +31493,7 @@
         <v>10</v>
       </c>
       <c r="F574" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G574" t="s">
         <v>30</v>
@@ -31178,7 +31517,7 @@
         <v>10</v>
       </c>
       <c r="F575" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G575" t="s">
         <v>30</v>
@@ -31202,7 +31541,7 @@
         <v>10</v>
       </c>
       <c r="F576" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G576" t="s">
         <v>30</v>
@@ -31226,7 +31565,7 @@
         <v>10</v>
       </c>
       <c r="F577" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G577" t="s">
         <v>30</v>
@@ -31250,7 +31589,7 @@
         <v>10</v>
       </c>
       <c r="F578" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G578" t="s">
         <v>30</v>
@@ -31274,7 +31613,7 @@
         <v>10</v>
       </c>
       <c r="F579" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G579" t="s">
         <v>30</v>
@@ -31298,7 +31637,7 @@
         <v>10</v>
       </c>
       <c r="F580" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G580" t="s">
         <v>30</v>
@@ -31322,7 +31661,7 @@
         <v>10</v>
       </c>
       <c r="F581" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G581" t="s">
         <v>30</v>
@@ -31346,7 +31685,7 @@
         <v>10</v>
       </c>
       <c r="F582" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G582" t="s">
         <v>30</v>
@@ -31370,7 +31709,7 @@
         <v>10</v>
       </c>
       <c r="F583" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G583" t="s">
         <v>30</v>
@@ -31394,7 +31733,7 @@
         <v>10</v>
       </c>
       <c r="F584" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G584" t="s">
         <v>30</v>
@@ -31418,7 +31757,7 @@
         <v>10</v>
       </c>
       <c r="F585" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G585" t="s">
         <v>30</v>
@@ -31442,7 +31781,7 @@
         <v>10</v>
       </c>
       <c r="F586" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G586" t="s">
         <v>30</v>
@@ -31466,7 +31805,7 @@
         <v>10</v>
       </c>
       <c r="F587" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G587" t="s">
         <v>30</v>
@@ -31490,7 +31829,7 @@
         <v>10</v>
       </c>
       <c r="F588" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G588" t="s">
         <v>30</v>
@@ -31514,7 +31853,7 @@
         <v>10</v>
       </c>
       <c r="F589" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G589" t="s">
         <v>30</v>
@@ -31538,7 +31877,7 @@
         <v>10</v>
       </c>
       <c r="F590" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G590" t="s">
         <v>30</v>
@@ -31562,7 +31901,7 @@
         <v>10</v>
       </c>
       <c r="F591" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G591" t="s">
         <v>30</v>
@@ -31586,7 +31925,7 @@
         <v>10</v>
       </c>
       <c r="F592" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G592" t="s">
         <v>30</v>
@@ -31610,7 +31949,7 @@
         <v>10</v>
       </c>
       <c r="F593" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G593" t="s">
         <v>30</v>
@@ -31634,7 +31973,7 @@
         <v>10</v>
       </c>
       <c r="F594" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G594" t="s">
         <v>30</v>
@@ -31658,7 +31997,7 @@
         <v>10</v>
       </c>
       <c r="F595" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G595" t="s">
         <v>30</v>
@@ -31682,7 +32021,7 @@
         <v>10</v>
       </c>
       <c r="F596" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G596" t="s">
         <v>30</v>
@@ -31706,7 +32045,7 @@
         <v>10</v>
       </c>
       <c r="F597" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G597" t="s">
         <v>30</v>
@@ -31730,7 +32069,7 @@
         <v>10</v>
       </c>
       <c r="F598" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G598" t="s">
         <v>30</v>
@@ -31754,7 +32093,7 @@
         <v>10</v>
       </c>
       <c r="F599" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G599" t="s">
         <v>30</v>
@@ -31778,7 +32117,7 @@
         <v>10</v>
       </c>
       <c r="F600" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G600" t="s">
         <v>30</v>
@@ -31802,7 +32141,7 @@
         <v>10</v>
       </c>
       <c r="F601" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G601" t="s">
         <v>30</v>
@@ -31826,7 +32165,7 @@
         <v>10</v>
       </c>
       <c r="F602" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G602" t="s">
         <v>30</v>
@@ -31850,7 +32189,7 @@
         <v>10</v>
       </c>
       <c r="F603" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G603" t="s">
         <v>30</v>
@@ -31874,7 +32213,7 @@
         <v>10</v>
       </c>
       <c r="F604" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G604" t="s">
         <v>30</v>
@@ -31898,7 +32237,7 @@
         <v>10</v>
       </c>
       <c r="F605" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G605" t="s">
         <v>30</v>
@@ -31922,7 +32261,7 @@
         <v>10</v>
       </c>
       <c r="F606" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G606" t="s">
         <v>30</v>
@@ -31946,7 +32285,7 @@
         <v>10</v>
       </c>
       <c r="F607" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G607" t="s">
         <v>30</v>
@@ -31970,7 +32309,7 @@
         <v>10</v>
       </c>
       <c r="F608" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G608" t="s">
         <v>30</v>
@@ -31994,7 +32333,7 @@
         <v>10</v>
       </c>
       <c r="F609" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G609" t="s">
         <v>30</v>
@@ -32018,7 +32357,7 @@
         <v>10</v>
       </c>
       <c r="F610" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
@@ -32039,7 +32378,7 @@
         <v>10</v>
       </c>
       <c r="F611" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
@@ -32060,7 +32399,7 @@
         <v>10</v>
       </c>
       <c r="F612" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
@@ -32081,7 +32420,7 @@
         <v>10</v>
       </c>
       <c r="F613" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
@@ -32102,7 +32441,7 @@
         <v>10</v>
       </c>
       <c r="F614" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
@@ -32123,7 +32462,7 @@
         <v>10</v>
       </c>
       <c r="F615" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
@@ -32144,7 +32483,7 @@
         <v>10</v>
       </c>
       <c r="F616" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
@@ -32165,7 +32504,7 @@
         <v>10</v>
       </c>
       <c r="F617" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
@@ -32186,7 +32525,7 @@
         <v>10</v>
       </c>
       <c r="F618" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
@@ -32207,7 +32546,7 @@
         <v>10</v>
       </c>
       <c r="F619" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
@@ -32228,7 +32567,7 @@
         <v>10</v>
       </c>
       <c r="F620" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
@@ -32249,7 +32588,7 @@
         <v>10</v>
       </c>
       <c r="F621" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
@@ -32270,7 +32609,7 @@
         <v>10</v>
       </c>
       <c r="F622" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
@@ -32291,7 +32630,7 @@
         <v>10</v>
       </c>
       <c r="F623" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
@@ -32312,7 +32651,7 @@
         <v>10</v>
       </c>
       <c r="F624" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
@@ -32333,7 +32672,7 @@
         <v>10</v>
       </c>
       <c r="F625" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
@@ -32354,10 +32693,10 @@
         <v>5</v>
       </c>
       <c r="F626" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G626" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
@@ -32378,10 +32717,10 @@
         <v>5</v>
       </c>
       <c r="F627" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G627" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -32402,10 +32741,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -32417,19 +32756,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -32437,22 +32776,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -32460,7 +32799,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="18"/>
       <c r="G5" s="15">
@@ -32473,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -32481,7 +32820,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="18"/>
       <c r="G6" s="15">
@@ -32494,7 +32833,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -32502,22 +32841,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -32525,10 +32864,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -32540,7 +32879,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -32548,22 +32887,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="C9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -32571,22 +32910,22 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="C10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -32594,22 +32933,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -32619,7 +32958,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -32637,7 +32976,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32650,22 +32989,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -32679,10 +33018,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <f>HEX2DEC(E2)</f>
@@ -32700,10 +33039,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F17" si="0">HEX2DEC(E3)</f>
@@ -32724,7 +33063,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -32745,7 +33084,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -32766,7 +33105,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -32787,7 +33126,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -32805,10 +33144,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -32826,10 +33165,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -32850,7 +33189,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -32871,7 +33210,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -32892,7 +33231,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -32913,7 +33252,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -32934,7 +33273,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -32955,7 +33294,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -32976,7 +33315,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -32997,7 +33336,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="242">
   <si>
     <t>Register Number</t>
   </si>
@@ -735,6 +735,15 @@
   <si>
     <t>see reg 592</t>
   </si>
+  <si>
+    <t>USE_EXTERNAL_VADJ_DACS</t>
+  </si>
+  <si>
+    <t>LSB chooses whether to use the internal or external VadjP/N DACs</t>
+  </si>
+  <si>
+    <t>LSB only, others ignored</t>
+  </si>
 </sst>
 </file>
 
@@ -1152,9 +1161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F409" sqref="F409"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A418" sqref="A418:XFD418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12021,16 +12030,31 @@
         <v>223</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row r="418" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="5">
         <v>416</v>
       </c>
-      <c r="B418" s="4" t="str">
+      <c r="B418" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A0</v>
       </c>
-      <c r="F418" t="s">
-        <v>60</v>
+      <c r="C418" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H418" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -13257,7 +13281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H627"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G594" sqref="G594"/>
     </sheetView>
@@ -27031,29 +27055,29 @@
         <f t="shared" si="6"/>
         <v>01A0</v>
       </c>
-      <c r="C418">
+      <c r="C418" t="str">
         <f>'SCROD Write Registers'!C418</f>
-        <v>0</v>
-      </c>
-      <c r="D418">
+        <v>G</v>
+      </c>
+      <c r="D418" t="str">
         <f>'SCROD Write Registers'!D418</f>
-        <v>0</v>
-      </c>
-      <c r="E418">
+        <v>G</v>
+      </c>
+      <c r="E418" t="str">
         <f>'SCROD Write Registers'!E418</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F418" t="str">
         <f>'SCROD Write Registers'!F418</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G418" s="8">
+        <v>USE_EXTERNAL_VADJ_DACS</v>
+      </c>
+      <c r="G418" s="8" t="str">
         <f>'SCROD Write Registers'!G418</f>
-        <v>0</v>
-      </c>
-      <c r="H418" s="8">
+        <v>LSB chooses whether to use the internal or external VadjP/N DACs</v>
+      </c>
+      <c r="H418" s="8" t="str">
         <f>'SCROD Write Registers'!H418</f>
-        <v>0</v>
+        <v>LSB only, others ignored</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="14880" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="239">
   <si>
     <t>Register Number</t>
   </si>
@@ -202,19 +202,10 @@
     <t>Reserved (but not yet used)</t>
   </si>
   <si>
-    <t>Wilkinson monitor counter auxiliary controls</t>
-  </si>
-  <si>
     <t>(same in hex)</t>
   </si>
   <si>
-    <t>Bit 0: start Wilkinson monitor counter (edge sensitive), Bit 1: clear Wilkinson monitor counter (level sensitive).  The bit 0 "start" edge can occur while vdly is off and still should work.</t>
-  </si>
-  <si>
     <t>Wilkinson monitor counter</t>
-  </si>
-  <si>
-    <t>Wilkinson rate counter target values</t>
   </si>
   <si>
     <t>First allowed analog storage window</t>
@@ -1162,8 +1153,8 @@
   <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A418" sqref="A418:XFD418"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1194,10 +1185,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1221,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>31</v>
@@ -1245,10 +1236,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>7</v>
@@ -1272,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>7</v>
@@ -1299,10 +1290,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>7</v>
@@ -1329,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>9</v>
@@ -1356,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>30</v>
@@ -1380,10 +1371,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -1410,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>30</v>
@@ -1437,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>30</v>
@@ -1464,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>30</v>
@@ -1491,7 +1482,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>30</v>
@@ -1518,7 +1509,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>30</v>
@@ -1542,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>30</v>
@@ -1572,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>30</v>
@@ -1599,7 +1590,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>30</v>
@@ -1626,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>30</v>
@@ -1653,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>30</v>
@@ -1680,7 +1671,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>30</v>
@@ -1707,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>30</v>
@@ -1734,7 +1725,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>30</v>
@@ -1761,7 +1752,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>30</v>
@@ -1788,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>30</v>
@@ -1815,7 +1806,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>30</v>
@@ -1842,7 +1833,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>30</v>
@@ -1869,7 +1860,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>30</v>
@@ -1896,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>30</v>
@@ -1923,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>30</v>
@@ -1950,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>30</v>
@@ -1977,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>30</v>
@@ -2004,7 +1995,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>30</v>
@@ -2031,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>30</v>
@@ -2058,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>30</v>
@@ -2085,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>30</v>
@@ -2112,7 +2103,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>30</v>
@@ -2139,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>30</v>
@@ -2166,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>30</v>
@@ -2193,7 +2184,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>30</v>
@@ -2220,7 +2211,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>30</v>
@@ -2247,7 +2238,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>30</v>
@@ -2274,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>30</v>
@@ -2301,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>30</v>
@@ -2328,7 +2319,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>30</v>
@@ -2355,7 +2346,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>30</v>
@@ -2382,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>30</v>
@@ -2409,7 +2400,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>30</v>
@@ -2436,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>30</v>
@@ -2463,7 +2454,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>30</v>
@@ -2490,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>30</v>
@@ -2517,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>30</v>
@@ -2544,7 +2535,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>30</v>
@@ -2571,7 +2562,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>30</v>
@@ -2598,7 +2589,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>30</v>
@@ -2625,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>30</v>
@@ -2652,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>30</v>
@@ -2679,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>30</v>
@@ -2706,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>30</v>
@@ -2733,7 +2724,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>30</v>
@@ -2760,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>30</v>
@@ -2787,7 +2778,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>30</v>
@@ -2814,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>30</v>
@@ -2841,7 +2832,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>30</v>
@@ -2868,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>30</v>
@@ -2895,7 +2886,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>30</v>
@@ -2922,7 +2913,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>30</v>
@@ -2949,7 +2940,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>30</v>
@@ -2976,7 +2967,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>30</v>
@@ -3003,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>30</v>
@@ -3030,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>30</v>
@@ -3057,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>30</v>
@@ -3084,7 +3075,7 @@
         <v>20</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>30</v>
@@ -3111,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>30</v>
@@ -3138,7 +3129,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>30</v>
@@ -3165,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>30</v>
@@ -3192,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>30</v>
@@ -3219,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>30</v>
@@ -3246,7 +3237,7 @@
         <v>20</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>30</v>
@@ -3273,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>30</v>
@@ -3300,7 +3291,7 @@
         <v>20</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>30</v>
@@ -3327,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>30</v>
@@ -3354,7 +3345,7 @@
         <v>20</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>30</v>
@@ -3381,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>30</v>
@@ -3408,7 +3399,7 @@
         <v>20</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>30</v>
@@ -3435,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>30</v>
@@ -3462,7 +3453,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>30</v>
@@ -3489,7 +3480,7 @@
         <v>20</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>30</v>
@@ -3516,7 +3507,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>30</v>
@@ -3543,7 +3534,7 @@
         <v>20</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>30</v>
@@ -3570,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>30</v>
@@ -3597,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>30</v>
@@ -3624,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>30</v>
@@ -3651,7 +3642,7 @@
         <v>20</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>30</v>
@@ -3678,7 +3669,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>30</v>
@@ -3705,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>30</v>
@@ -3732,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>30</v>
@@ -3759,7 +3750,7 @@
         <v>20</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>30</v>
@@ -3786,7 +3777,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>30</v>
@@ -3813,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>30</v>
@@ -3840,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>30</v>
@@ -3867,7 +3858,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>30</v>
@@ -3894,7 +3885,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>30</v>
@@ -3921,7 +3912,7 @@
         <v>20</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>30</v>
@@ -3948,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>30</v>
@@ -3975,7 +3966,7 @@
         <v>20</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>30</v>
@@ -4002,7 +3993,7 @@
         <v>20</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>30</v>
@@ -4029,7 +4020,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>30</v>
@@ -4056,7 +4047,7 @@
         <v>20</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>30</v>
@@ -4083,7 +4074,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>30</v>
@@ -4110,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>30</v>
@@ -4137,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>30</v>
@@ -4164,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>30</v>
@@ -4191,7 +4182,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>30</v>
@@ -4218,7 +4209,7 @@
         <v>20</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>30</v>
@@ -4245,7 +4236,7 @@
         <v>20</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>30</v>
@@ -4272,7 +4263,7 @@
         <v>20</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>30</v>
@@ -4299,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>30</v>
@@ -4326,7 +4317,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>30</v>
@@ -4353,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>30</v>
@@ -4380,7 +4371,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>30</v>
@@ -4407,7 +4398,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>30</v>
@@ -4434,7 +4425,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>30</v>
@@ -4461,7 +4452,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>30</v>
@@ -4488,7 +4479,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>30</v>
@@ -4515,7 +4506,7 @@
         <v>20</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>30</v>
@@ -4542,7 +4533,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>30</v>
@@ -4569,7 +4560,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>30</v>
@@ -4596,7 +4587,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>30</v>
@@ -4623,7 +4614,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>30</v>
@@ -4650,7 +4641,7 @@
         <v>20</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>30</v>
@@ -4677,7 +4668,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>30</v>
@@ -4704,7 +4695,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>30</v>
@@ -4731,7 +4722,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>30</v>
@@ -4758,7 +4749,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>30</v>
@@ -4785,7 +4776,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>30</v>
@@ -4812,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>30</v>
@@ -4839,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>30</v>
@@ -4866,7 +4857,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>30</v>
@@ -4893,7 +4884,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>30</v>
@@ -4920,7 +4911,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>30</v>
@@ -4947,7 +4938,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>30</v>
@@ -4974,7 +4965,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>30</v>
@@ -5001,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>30</v>
@@ -5028,7 +5019,7 @@
         <v>29</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>26</v>
@@ -5055,7 +5046,7 @@
         <v>27</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>26</v>
@@ -5082,7 +5073,7 @@
         <v>28</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>26</v>
@@ -5096,20 +5087,8 @@
         <f t="shared" si="2"/>
         <v>0090</v>
       </c>
-      <c r="C146" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
       <c r="F146" t="s">
-        <v>61</v>
-      </c>
-      <c r="H146" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5120,17 +5099,8 @@
         <f t="shared" si="2"/>
         <v>0091</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" t="s">
-        <v>10</v>
-      </c>
       <c r="F147" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5141,17 +5111,8 @@
         <f t="shared" si="2"/>
         <v>0092</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
       <c r="F148" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,17 +5123,8 @@
         <f t="shared" si="2"/>
         <v>0093</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
       <c r="F149" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5183,17 +5135,8 @@
         <f t="shared" si="2"/>
         <v>0094</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>3</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
       <c r="F150" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5204,17 +5147,8 @@
         <f t="shared" si="2"/>
         <v>0095</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151" t="s">
-        <v>10</v>
-      </c>
       <c r="F151" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5225,17 +5159,8 @@
         <f t="shared" si="2"/>
         <v>0096</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>10</v>
-      </c>
       <c r="F152" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5246,17 +5171,8 @@
         <f t="shared" si="2"/>
         <v>0097</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153" t="s">
-        <v>10</v>
-      </c>
       <c r="F153" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5267,17 +5183,8 @@
         <f t="shared" si="2"/>
         <v>0098</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
       <c r="F154" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5288,17 +5195,8 @@
         <f t="shared" si="2"/>
         <v>0099</v>
       </c>
-      <c r="C155">
-        <v>2</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155" t="s">
-        <v>10</v>
-      </c>
       <c r="F155" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5309,17 +5207,8 @@
         <f t="shared" si="2"/>
         <v>009A</v>
       </c>
-      <c r="C156">
-        <v>2</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
       <c r="F156" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5330,17 +5219,8 @@
         <f t="shared" si="2"/>
         <v>009B</v>
       </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-      <c r="E157" t="s">
-        <v>10</v>
-      </c>
       <c r="F157" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5351,17 +5231,8 @@
         <f t="shared" si="2"/>
         <v>009C</v>
       </c>
-      <c r="C158">
-        <v>2</v>
-      </c>
-      <c r="D158">
-        <v>3</v>
-      </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
       <c r="F158" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,17 +5243,8 @@
         <f t="shared" si="2"/>
         <v>009D</v>
       </c>
-      <c r="C159">
-        <v>3</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159" t="s">
-        <v>10</v>
-      </c>
       <c r="F159" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5393,17 +5255,8 @@
         <f t="shared" si="2"/>
         <v>009E</v>
       </c>
-      <c r="C160">
-        <v>3</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
       <c r="F160" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5414,17 +5267,8 @@
         <f t="shared" si="2"/>
         <v>009F</v>
       </c>
-      <c r="C161">
-        <v>3</v>
-      </c>
-      <c r="D161">
-        <v>2</v>
-      </c>
-      <c r="E161" t="s">
-        <v>10</v>
-      </c>
       <c r="F161" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5435,137 +5279,128 @@
         <f t="shared" si="2"/>
         <v>00A0</v>
       </c>
-      <c r="C162">
-        <v>3</v>
-      </c>
-      <c r="D162">
-        <v>3</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
       <c r="F162" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
         <v>161</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B163" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00A1</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H163" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H163" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
+    </row>
+    <row r="164" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
         <v>162</v>
       </c>
-      <c r="B164" s="4" t="str">
+      <c r="B164" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00A2</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F164" t="s">
-        <v>67</v>
-      </c>
-      <c r="H164" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="F164" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
         <v>163</v>
       </c>
-      <c r="B165" s="4" t="str">
+      <c r="B165" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00A3</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F165" t="s">
-        <v>68</v>
-      </c>
-      <c r="H165" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="F165" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
         <v>164</v>
       </c>
-      <c r="B166" s="4" t="str">
+      <c r="B166" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00A4</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F166" t="s">
-        <v>71</v>
-      </c>
-      <c r="H166" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="F166" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
         <v>165</v>
       </c>
-      <c r="B167" s="4" t="str">
+      <c r="B167" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00A5</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F167" t="s">
-        <v>72</v>
-      </c>
-      <c r="H167" t="s">
-        <v>94</v>
+      <c r="F167" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5586,13 +5421,13 @@
         <v>10</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5613,517 +5448,517 @@
         <v>10</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
         <v>168</v>
       </c>
-      <c r="B170" s="4" t="str">
+      <c r="B170" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00A8</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F170" t="s">
-        <v>75</v>
-      </c>
-      <c r="H170" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="F170" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
         <v>169</v>
       </c>
-      <c r="B171" s="4" t="str">
+      <c r="B171" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00A9</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F171" t="s">
-        <v>76</v>
-      </c>
-      <c r="H171" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="F171" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
         <v>170</v>
       </c>
-      <c r="B172" s="4" t="str">
+      <c r="B172" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00AA</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F172" t="s">
-        <v>79</v>
-      </c>
-      <c r="H172" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="F172" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
         <v>171</v>
       </c>
-      <c r="B173" s="4" t="str">
+      <c r="B173" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00AB</v>
       </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C173" s="5">
+        <v>0</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E173" t="s">
-        <v>83</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="E173" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H173" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174">
+    </row>
+    <row r="174" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
         <v>172</v>
       </c>
-      <c r="B174" s="4" t="str">
+      <c r="B174" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00AC</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="C174" s="5">
+        <v>0</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F174" t="s">
-        <v>81</v>
-      </c>
-      <c r="H174" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175">
+    </row>
+    <row r="175" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
         <v>173</v>
       </c>
-      <c r="B175" s="4" t="str">
+      <c r="B175" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00AD</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="C175" s="5">
+        <v>1</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F175" t="s">
-        <v>81</v>
-      </c>
-      <c r="H175" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176">
+    </row>
+    <row r="176" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
         <v>174</v>
       </c>
-      <c r="B176" s="4" t="str">
+      <c r="B176" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00AE</v>
       </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C176" s="5">
+        <v>1</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H176" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F176" t="s">
-        <v>81</v>
-      </c>
-      <c r="H176" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177">
+    </row>
+    <row r="177" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
         <v>175</v>
       </c>
-      <c r="B177" s="4" t="str">
+      <c r="B177" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00AF</v>
       </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="C177" s="5">
+        <v>2</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F177" t="s">
-        <v>81</v>
-      </c>
-      <c r="H177" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178">
+    </row>
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
         <v>176</v>
       </c>
-      <c r="B178" s="4" t="str">
+      <c r="B178" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B0</v>
       </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="C178" s="5">
+        <v>2</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H178" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F178" t="s">
-        <v>81</v>
-      </c>
-      <c r="H178" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179">
+    </row>
+    <row r="179" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
         <v>177</v>
       </c>
-      <c r="B179" s="4" t="str">
+      <c r="B179" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B1</v>
       </c>
-      <c r="C179">
-        <v>3</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="C179" s="5">
+        <v>3</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F179" t="s">
-        <v>81</v>
-      </c>
-      <c r="H179" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180">
+    </row>
+    <row r="180" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
         <v>178</v>
       </c>
-      <c r="B180" s="4" t="str">
+      <c r="B180" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B2</v>
       </c>
-      <c r="C180">
-        <v>3</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="C180" s="5">
+        <v>3</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H180" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F180" t="s">
-        <v>81</v>
-      </c>
-      <c r="H180" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181">
+    </row>
+    <row r="181" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
         <v>179</v>
       </c>
-      <c r="B181" s="4" t="str">
+      <c r="B181" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B3</v>
       </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="C181" s="5">
+        <v>0</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E181" t="s">
-        <v>83</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="E181" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H181" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182">
+    </row>
+    <row r="182" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
         <v>180</v>
       </c>
-      <c r="B182" s="4" t="str">
+      <c r="B182" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B4</v>
       </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="C182" s="5">
+        <v>0</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E182" t="s">
-        <v>83</v>
-      </c>
-      <c r="F182" t="s">
-        <v>82</v>
-      </c>
-      <c r="H182" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="E182" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
         <v>181</v>
       </c>
-      <c r="B183" s="4" t="str">
+      <c r="B183" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B5</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="C183" s="5">
+        <v>1</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E183" t="s">
-        <v>83</v>
-      </c>
-      <c r="F183" t="s">
-        <v>82</v>
-      </c>
-      <c r="H183" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="E183" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
         <v>182</v>
       </c>
-      <c r="B184" s="4" t="str">
+      <c r="B184" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B6</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="C184" s="5">
+        <v>1</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E184" t="s">
-        <v>83</v>
-      </c>
-      <c r="F184" t="s">
-        <v>82</v>
-      </c>
-      <c r="H184" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="E184" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
         <v>183</v>
       </c>
-      <c r="B185" s="4" t="str">
+      <c r="B185" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B7</v>
       </c>
-      <c r="C185">
-        <v>2</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="C185" s="5">
+        <v>2</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E185" t="s">
-        <v>83</v>
-      </c>
-      <c r="F185" t="s">
-        <v>82</v>
-      </c>
-      <c r="H185" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="E185" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
         <v>184</v>
       </c>
-      <c r="B186" s="4" t="str">
+      <c r="B186" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B8</v>
       </c>
-      <c r="C186">
-        <v>2</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="C186" s="5">
+        <v>2</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E186" t="s">
-        <v>83</v>
-      </c>
-      <c r="F186" t="s">
-        <v>82</v>
-      </c>
-      <c r="H186" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="E186" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
         <v>185</v>
       </c>
-      <c r="B187" s="4" t="str">
+      <c r="B187" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00B9</v>
       </c>
-      <c r="C187">
-        <v>3</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="C187" s="5">
+        <v>3</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E187" t="s">
-        <v>83</v>
-      </c>
-      <c r="F187" t="s">
-        <v>82</v>
-      </c>
-      <c r="H187" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="E187" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
         <v>186</v>
       </c>
-      <c r="B188" s="4" t="str">
+      <c r="B188" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00BA</v>
       </c>
-      <c r="C188">
-        <v>3</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="C188" s="5">
+        <v>3</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E188" t="s">
-        <v>83</v>
-      </c>
-      <c r="F188" t="s">
-        <v>82</v>
-      </c>
-      <c r="H188" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="E188" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
         <v>187</v>
       </c>
-      <c r="B189" s="4" t="str">
+      <c r="B189" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00BB</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F189" t="s">
-        <v>90</v>
-      </c>
-      <c r="H189" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="F189" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
         <v>188</v>
       </c>
-      <c r="B190" s="4" t="str">
+      <c r="B190" s="7" t="str">
         <f t="shared" si="2"/>
         <v>00BC</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F190" t="s">
-        <v>92</v>
-      </c>
-      <c r="H190" t="s">
-        <v>93</v>
+      <c r="F190" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6276,10 +6111,10 @@
         <v>5</v>
       </c>
       <c r="F202" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G202" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>30</v>
@@ -6303,10 +6138,10 @@
         <v>5</v>
       </c>
       <c r="F203" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G203" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>30</v>
@@ -6330,10 +6165,10 @@
         <v>5</v>
       </c>
       <c r="F204" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G204" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>30</v>
@@ -6360,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>30</v>
@@ -6387,7 +6222,7 @@
         <v>12</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>30</v>
@@ -6414,7 +6249,7 @@
         <v>12</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>30</v>
@@ -6441,7 +6276,7 @@
         <v>12</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H208" s="5" t="s">
         <v>30</v>
@@ -6468,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>30</v>
@@ -6495,7 +6330,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>30</v>
@@ -6522,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>30</v>
@@ -6549,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>30</v>
@@ -6576,7 +6411,7 @@
         <v>12</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>30</v>
@@ -6603,7 +6438,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>30</v>
@@ -6630,7 +6465,7 @@
         <v>12</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>30</v>
@@ -6657,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>30</v>
@@ -6684,7 +6519,7 @@
         <v>12</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>30</v>
@@ -6711,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>30</v>
@@ -6738,7 +6573,7 @@
         <v>12</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>30</v>
@@ -6765,7 +6600,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>30</v>
@@ -6789,10 +6624,10 @@
         <v>5</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>30</v>
@@ -6816,10 +6651,10 @@
         <v>5</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>30</v>
@@ -6843,10 +6678,10 @@
         <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>30</v>
@@ -6870,10 +6705,10 @@
         <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>30</v>
@@ -6897,10 +6732,10 @@
         <v>5</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>30</v>
@@ -6924,10 +6759,10 @@
         <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>30</v>
@@ -6951,10 +6786,10 @@
         <v>5</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>30</v>
@@ -6978,10 +6813,10 @@
         <v>5</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>30</v>
@@ -7005,10 +6840,10 @@
         <v>5</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>30</v>
@@ -7032,10 +6867,10 @@
         <v>5</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H230" s="5" t="s">
         <v>30</v>
@@ -7059,10 +6894,10 @@
         <v>5</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H231" s="5" t="s">
         <v>30</v>
@@ -7086,10 +6921,10 @@
         <v>5</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>30</v>
@@ -7113,10 +6948,10 @@
         <v>5</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>30</v>
@@ -7140,10 +6975,10 @@
         <v>5</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>30</v>
@@ -7167,10 +7002,10 @@
         <v>5</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>30</v>
@@ -7194,10 +7029,10 @@
         <v>5</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>30</v>
@@ -7224,7 +7059,7 @@
         <v>25</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>30</v>
@@ -7251,7 +7086,7 @@
         <v>25</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>30</v>
@@ -7278,7 +7113,7 @@
         <v>25</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>30</v>
@@ -7305,7 +7140,7 @@
         <v>25</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H240" s="5" t="s">
         <v>30</v>
@@ -7332,7 +7167,7 @@
         <v>25</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>30</v>
@@ -7359,7 +7194,7 @@
         <v>25</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H242" s="5" t="s">
         <v>30</v>
@@ -7386,7 +7221,7 @@
         <v>25</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H243" s="5" t="s">
         <v>30</v>
@@ -7413,7 +7248,7 @@
         <v>25</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>30</v>
@@ -7440,7 +7275,7 @@
         <v>25</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>30</v>
@@ -7467,7 +7302,7 @@
         <v>25</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>30</v>
@@ -7494,7 +7329,7 @@
         <v>25</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>30</v>
@@ -7521,7 +7356,7 @@
         <v>25</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>30</v>
@@ -7548,7 +7383,7 @@
         <v>25</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>30</v>
@@ -7575,7 +7410,7 @@
         <v>25</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>30</v>
@@ -7602,7 +7437,7 @@
         <v>25</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>30</v>
@@ -7629,7 +7464,7 @@
         <v>25</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>30</v>
@@ -7656,7 +7491,7 @@
         <v>23</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>30</v>
@@ -7683,7 +7518,7 @@
         <v>23</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>30</v>
@@ -7710,7 +7545,7 @@
         <v>23</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>30</v>
@@ -7737,7 +7572,7 @@
         <v>23</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>30</v>
@@ -7764,7 +7599,7 @@
         <v>23</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>30</v>
@@ -7791,7 +7626,7 @@
         <v>23</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>30</v>
@@ -7818,7 +7653,7 @@
         <v>23</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>30</v>
@@ -7845,7 +7680,7 @@
         <v>23</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>30</v>
@@ -7872,7 +7707,7 @@
         <v>23</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>30</v>
@@ -7899,7 +7734,7 @@
         <v>23</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H262" s="5" t="s">
         <v>30</v>
@@ -7926,7 +7761,7 @@
         <v>23</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>30</v>
@@ -7953,7 +7788,7 @@
         <v>23</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>30</v>
@@ -7980,7 +7815,7 @@
         <v>23</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>30</v>
@@ -8007,7 +7842,7 @@
         <v>23</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>30</v>
@@ -8034,7 +7869,7 @@
         <v>23</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H267" s="5" t="s">
         <v>30</v>
@@ -8061,7 +7896,7 @@
         <v>23</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H268" s="5" t="s">
         <v>30</v>
@@ -8088,7 +7923,7 @@
         <v>24</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H269" s="5" t="s">
         <v>30</v>
@@ -8115,7 +7950,7 @@
         <v>24</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>30</v>
@@ -8142,7 +7977,7 @@
         <v>24</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H271" s="5" t="s">
         <v>30</v>
@@ -8169,7 +8004,7 @@
         <v>24</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>30</v>
@@ -8196,7 +8031,7 @@
         <v>24</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H273" s="5" t="s">
         <v>30</v>
@@ -8223,7 +8058,7 @@
         <v>24</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H274" s="5" t="s">
         <v>30</v>
@@ -8250,7 +8085,7 @@
         <v>24</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H275" s="5" t="s">
         <v>30</v>
@@ -8277,7 +8112,7 @@
         <v>24</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H276" s="5" t="s">
         <v>30</v>
@@ -8304,7 +8139,7 @@
         <v>24</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H277" s="5" t="s">
         <v>30</v>
@@ -8331,7 +8166,7 @@
         <v>24</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H278" s="5" t="s">
         <v>30</v>
@@ -8358,7 +8193,7 @@
         <v>24</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H279" s="5" t="s">
         <v>30</v>
@@ -8385,7 +8220,7 @@
         <v>24</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H280" s="5" t="s">
         <v>30</v>
@@ -8412,7 +8247,7 @@
         <v>24</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>30</v>
@@ -8439,7 +8274,7 @@
         <v>24</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H282" s="5" t="s">
         <v>30</v>
@@ -8466,7 +8301,7 @@
         <v>24</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>30</v>
@@ -8493,7 +8328,7 @@
         <v>24</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>30</v>
@@ -8520,7 +8355,7 @@
         <v>22</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>30</v>
@@ -8547,7 +8382,7 @@
         <v>22</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H286" s="5" t="s">
         <v>30</v>
@@ -8574,7 +8409,7 @@
         <v>22</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>30</v>
@@ -8601,7 +8436,7 @@
         <v>22</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>30</v>
@@ -8628,7 +8463,7 @@
         <v>22</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>30</v>
@@ -8655,7 +8490,7 @@
         <v>22</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>30</v>
@@ -8682,7 +8517,7 @@
         <v>22</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>30</v>
@@ -8709,7 +8544,7 @@
         <v>22</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H292" s="5" t="s">
         <v>30</v>
@@ -8736,7 +8571,7 @@
         <v>22</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H293" s="5" t="s">
         <v>30</v>
@@ -8763,7 +8598,7 @@
         <v>22</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H294" s="5" t="s">
         <v>30</v>
@@ -8790,7 +8625,7 @@
         <v>22</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>30</v>
@@ -8817,7 +8652,7 @@
         <v>22</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>30</v>
@@ -8844,7 +8679,7 @@
         <v>22</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>30</v>
@@ -8871,7 +8706,7 @@
         <v>22</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H298" s="5" t="s">
         <v>30</v>
@@ -8898,7 +8733,7 @@
         <v>22</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H299" s="5" t="s">
         <v>30</v>
@@ -8925,7 +8760,7 @@
         <v>22</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>30</v>
@@ -8949,13 +8784,13 @@
         <v>5</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8976,13 +8811,13 @@
         <v>5</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9003,13 +8838,13 @@
         <v>5</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="304" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9030,13 +8865,13 @@
         <v>5</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9057,13 +8892,13 @@
         <v>5</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9084,13 +8919,13 @@
         <v>5</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9111,13 +8946,13 @@
         <v>5</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9138,13 +8973,13 @@
         <v>5</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9165,13 +9000,13 @@
         <v>5</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9192,13 +9027,13 @@
         <v>5</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="311" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9219,13 +9054,13 @@
         <v>5</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9246,13 +9081,13 @@
         <v>5</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9273,13 +9108,13 @@
         <v>5</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="314" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9300,13 +9135,13 @@
         <v>5</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="315" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9327,13 +9162,13 @@
         <v>5</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9354,13 +9189,13 @@
         <v>5</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9381,13 +9216,13 @@
         <v>5</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9408,13 +9243,13 @@
         <v>5</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9435,13 +9270,13 @@
         <v>5</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9462,13 +9297,13 @@
         <v>5</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9489,13 +9324,13 @@
         <v>5</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="322" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9516,13 +9351,13 @@
         <v>5</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="323" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9543,13 +9378,13 @@
         <v>5</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="324" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9570,13 +9405,13 @@
         <v>5</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9597,13 +9432,13 @@
         <v>5</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="326" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9624,13 +9459,13 @@
         <v>5</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="327" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9651,13 +9486,13 @@
         <v>5</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="328" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9678,13 +9513,13 @@
         <v>5</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="329" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9705,13 +9540,13 @@
         <v>5</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="330" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9732,13 +9567,13 @@
         <v>5</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="331" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9759,13 +9594,13 @@
         <v>5</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="332" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9786,13 +9621,13 @@
         <v>5</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="333" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9813,13 +9648,13 @@
         <v>5</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H333" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="334" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9840,13 +9675,13 @@
         <v>5</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G334" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H334" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H334" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="335" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9867,13 +9702,13 @@
         <v>5</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G335" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H335" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H335" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="336" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9894,13 +9729,13 @@
         <v>5</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G336" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H336" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H336" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="337" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9921,13 +9756,13 @@
         <v>5</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G337" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H337" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H337" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="338" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9948,13 +9783,13 @@
         <v>5</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G338" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H338" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H338" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="339" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9975,13 +9810,13 @@
         <v>5</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G339" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H339" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H339" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="340" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10002,13 +9837,13 @@
         <v>5</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G340" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H340" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H340" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="341" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10029,13 +9864,13 @@
         <v>5</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G341" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H341" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H341" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="342" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10056,13 +9891,13 @@
         <v>5</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G342" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H342" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H342" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="343" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10083,13 +9918,13 @@
         <v>5</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G343" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H343" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H343" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="344" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10110,13 +9945,13 @@
         <v>5</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G344" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H344" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H344" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="345" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10137,13 +9972,13 @@
         <v>5</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G345" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H345" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H345" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="346" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10164,13 +9999,13 @@
         <v>5</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G346" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H346" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H346" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="347" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10191,13 +10026,13 @@
         <v>5</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G347" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H347" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H347" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="348" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10218,13 +10053,13 @@
         <v>5</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G348" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H348" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H348" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="349" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10245,13 +10080,13 @@
         <v>5</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G349" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H349" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="350" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10272,13 +10107,13 @@
         <v>5</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H350" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="351" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10299,13 +10134,13 @@
         <v>5</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H351" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="352" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10326,13 +10161,13 @@
         <v>5</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G352" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H352" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="353" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10353,13 +10188,13 @@
         <v>5</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="354" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10380,13 +10215,13 @@
         <v>5</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="355" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10407,13 +10242,13 @@
         <v>5</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="356" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10434,13 +10269,13 @@
         <v>5</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="357" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10461,13 +10296,13 @@
         <v>5</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="358" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10488,13 +10323,13 @@
         <v>5</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="359" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10515,13 +10350,13 @@
         <v>5</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="360" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10542,13 +10377,13 @@
         <v>5</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10569,13 +10404,13 @@
         <v>5</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="362" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10596,13 +10431,13 @@
         <v>5</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="363" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10623,13 +10458,13 @@
         <v>5</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="364" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10650,13 +10485,13 @@
         <v>5</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="365" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10677,13 +10512,13 @@
         <v>5</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="366" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10704,13 +10539,13 @@
         <v>5</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H366" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="367" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10731,13 +10566,13 @@
         <v>5</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H367" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="368" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10758,13 +10593,13 @@
         <v>5</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H368" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="369" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10785,13 +10620,13 @@
         <v>5</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H369" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="370" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10812,13 +10647,13 @@
         <v>5</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H370" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="371" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10839,13 +10674,13 @@
         <v>5</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H371" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="372" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10866,13 +10701,13 @@
         <v>5</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H372" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="373" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10893,13 +10728,13 @@
         <v>5</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H373" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="374" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10920,13 +10755,13 @@
         <v>5</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="375" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10947,13 +10782,13 @@
         <v>5</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="376" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10974,13 +10809,13 @@
         <v>5</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="377" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11001,13 +10836,13 @@
         <v>5</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="378" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11028,13 +10863,13 @@
         <v>5</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="379" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11055,13 +10890,13 @@
         <v>5</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="380" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11082,13 +10917,13 @@
         <v>5</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="381" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11109,13 +10944,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -11184,13 +11019,13 @@
         <v>5</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H386" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="387" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11211,13 +11046,13 @@
         <v>5</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H387" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="388" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11238,13 +11073,13 @@
         <v>5</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H388" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="389" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11265,13 +11100,13 @@
         <v>5</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G389" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H389" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11292,13 +11127,13 @@
         <v>5</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H390" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="391" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11319,13 +11154,13 @@
         <v>5</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G391" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H391" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11346,13 +11181,13 @@
         <v>5</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H392" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="393" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11373,13 +11208,13 @@
         <v>5</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G393" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H393" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="394" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11400,13 +11235,13 @@
         <v>5</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H394" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="395" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11427,13 +11262,13 @@
         <v>5</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H395" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="396" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11454,13 +11289,13 @@
         <v>5</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H396" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="397" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11481,13 +11316,13 @@
         <v>5</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G397" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H397" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="398" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11508,13 +11343,13 @@
         <v>5</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G398" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H398" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="399" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11535,13 +11370,13 @@
         <v>5</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H399" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="400" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11562,13 +11397,13 @@
         <v>5</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H400" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="401" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11589,13 +11424,13 @@
         <v>5</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H401" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="402" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11616,13 +11451,13 @@
         <v>5</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H402" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="403" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11643,13 +11478,13 @@
         <v>5</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H403" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="404" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11670,13 +11505,13 @@
         <v>5</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H404" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="405" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11697,13 +11532,13 @@
         <v>5</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H405" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="406" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11724,13 +11559,13 @@
         <v>5</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H406" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="407" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11751,13 +11586,13 @@
         <v>5</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H407" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="408" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11778,13 +11613,13 @@
         <v>5</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H408" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="409" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11805,13 +11640,13 @@
         <v>5</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H409" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="410" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11832,13 +11667,13 @@
         <v>5</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H410" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="411" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11859,13 +11694,13 @@
         <v>5</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H411" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="412" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11886,13 +11721,13 @@
         <v>5</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H412" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="413" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11913,13 +11748,13 @@
         <v>5</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H413" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="414" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11940,13 +11775,13 @@
         <v>5</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="415" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11967,13 +11802,13 @@
         <v>5</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G415" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H415" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="416" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11994,13 +11829,13 @@
         <v>5</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G416" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H416" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="417" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12021,13 +11856,13 @@
         <v>5</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G417" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H417" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="418" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12048,13 +11883,13 @@
         <v>5</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G418" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H418" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -13062,7 +12897,7 @@
         <v>01F4</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>19</v>
@@ -13071,10 +12906,10 @@
         <v>10</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H502" s="5" t="s">
         <v>7</v>
@@ -13089,7 +12924,7 @@
         <v>01F5</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D503" s="5" t="s">
         <v>21</v>
@@ -13098,10 +12933,10 @@
         <v>10</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H503" s="5" t="s">
         <v>7</v>
@@ -13116,7 +12951,7 @@
         <v>01F6</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D504" s="5" t="s">
         <v>19</v>
@@ -13125,10 +12960,10 @@
         <v>10</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H504" s="5" t="s">
         <v>7</v>
@@ -13143,7 +12978,7 @@
         <v>01F7</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D505" s="5" t="s">
         <v>21</v>
@@ -13152,10 +12987,10 @@
         <v>10</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H505" s="5" t="s">
         <v>7</v>
@@ -13179,10 +13014,10 @@
         <v>10</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H506" s="5" t="s">
         <v>7</v>
@@ -13282,8 +13117,8 @@
   <dimension ref="A1:H627"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G594" sqref="G594"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13299,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -13314,10 +13149,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13737,7 +13572,7 @@
         <v>G</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>'SCROD Write Registers'!G14</f>
@@ -18079,29 +17914,29 @@
         <f t="shared" si="2"/>
         <v>0090</v>
       </c>
-      <c r="C146" s="8" t="str">
+      <c r="C146" s="8">
         <f>'SCROD Write Registers'!C146</f>
-        <v>N/A</v>
-      </c>
-      <c r="D146" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="D146" s="8">
         <f>'SCROD Write Registers'!D146</f>
-        <v>N/A</v>
-      </c>
-      <c r="E146" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" s="8">
         <f>'SCROD Write Registers'!E146</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F146" s="8" t="str">
         <f>'SCROD Write Registers'!F146</f>
-        <v>Wilkinson monitor counter auxiliary controls</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G146" s="8">
         <f>'SCROD Write Registers'!G146</f>
         <v>0</v>
       </c>
-      <c r="H146" s="8" t="str">
+      <c r="H146" s="8">
         <f>'SCROD Write Registers'!H146</f>
-        <v>Bit 0: start Wilkinson monitor counter (edge sensitive), Bit 1: clear Wilkinson monitor counter (level sensitive).  The bit 0 "start" edge can occur while vdly is off and still should work.</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -18120,13 +17955,13 @@
         <f>'SCROD Write Registers'!D147</f>
         <v>0</v>
       </c>
-      <c r="E147" s="8" t="str">
+      <c r="E147" s="8">
         <f>'SCROD Write Registers'!E147</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F147" s="8" t="str">
         <f>'SCROD Write Registers'!F147</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G147" s="8">
         <f>'SCROD Write Registers'!G147</f>
@@ -18151,15 +17986,15 @@
       </c>
       <c r="D148" s="8">
         <f>'SCROD Write Registers'!D148</f>
-        <v>1</v>
-      </c>
-      <c r="E148" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E148" s="8">
         <f>'SCROD Write Registers'!E148</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F148" s="8" t="str">
         <f>'SCROD Write Registers'!F148</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G148" s="8">
         <f>'SCROD Write Registers'!G148</f>
@@ -18184,15 +18019,15 @@
       </c>
       <c r="D149" s="8">
         <f>'SCROD Write Registers'!D149</f>
-        <v>2</v>
-      </c>
-      <c r="E149" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E149" s="8">
         <f>'SCROD Write Registers'!E149</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F149" s="8" t="str">
         <f>'SCROD Write Registers'!F149</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G149" s="8">
         <f>'SCROD Write Registers'!G149</f>
@@ -18217,15 +18052,15 @@
       </c>
       <c r="D150" s="8">
         <f>'SCROD Write Registers'!D150</f>
-        <v>3</v>
-      </c>
-      <c r="E150" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E150" s="8">
         <f>'SCROD Write Registers'!E150</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F150" s="8" t="str">
         <f>'SCROD Write Registers'!F150</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G150" s="8">
         <f>'SCROD Write Registers'!G150</f>
@@ -18246,19 +18081,19 @@
       </c>
       <c r="C151" s="8">
         <f>'SCROD Write Registers'!C151</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" s="8">
         <f>'SCROD Write Registers'!D151</f>
         <v>0</v>
       </c>
-      <c r="E151" s="8" t="str">
+      <c r="E151" s="8">
         <f>'SCROD Write Registers'!E151</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F151" s="8" t="str">
         <f>'SCROD Write Registers'!F151</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G151" s="8">
         <f>'SCROD Write Registers'!G151</f>
@@ -18279,19 +18114,19 @@
       </c>
       <c r="C152" s="8">
         <f>'SCROD Write Registers'!C152</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" s="8">
         <f>'SCROD Write Registers'!D152</f>
-        <v>1</v>
-      </c>
-      <c r="E152" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E152" s="8">
         <f>'SCROD Write Registers'!E152</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F152" s="8" t="str">
         <f>'SCROD Write Registers'!F152</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G152" s="8">
         <f>'SCROD Write Registers'!G152</f>
@@ -18312,19 +18147,19 @@
       </c>
       <c r="C153" s="8">
         <f>'SCROD Write Registers'!C153</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" s="8">
         <f>'SCROD Write Registers'!D153</f>
-        <v>2</v>
-      </c>
-      <c r="E153" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E153" s="8">
         <f>'SCROD Write Registers'!E153</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F153" s="8" t="str">
         <f>'SCROD Write Registers'!F153</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G153" s="8">
         <f>'SCROD Write Registers'!G153</f>
@@ -18345,19 +18180,19 @@
       </c>
       <c r="C154" s="8">
         <f>'SCROD Write Registers'!C154</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" s="8">
         <f>'SCROD Write Registers'!D154</f>
-        <v>3</v>
-      </c>
-      <c r="E154" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" s="8">
         <f>'SCROD Write Registers'!E154</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F154" s="8" t="str">
         <f>'SCROD Write Registers'!F154</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G154" s="8">
         <f>'SCROD Write Registers'!G154</f>
@@ -18378,19 +18213,19 @@
       </c>
       <c r="C155" s="8">
         <f>'SCROD Write Registers'!C155</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D155" s="8">
         <f>'SCROD Write Registers'!D155</f>
         <v>0</v>
       </c>
-      <c r="E155" s="8" t="str">
+      <c r="E155" s="8">
         <f>'SCROD Write Registers'!E155</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F155" s="8" t="str">
         <f>'SCROD Write Registers'!F155</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G155" s="8">
         <f>'SCROD Write Registers'!G155</f>
@@ -18411,19 +18246,19 @@
       </c>
       <c r="C156" s="8">
         <f>'SCROD Write Registers'!C156</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D156" s="8">
         <f>'SCROD Write Registers'!D156</f>
-        <v>1</v>
-      </c>
-      <c r="E156" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E156" s="8">
         <f>'SCROD Write Registers'!E156</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F156" s="8" t="str">
         <f>'SCROD Write Registers'!F156</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G156" s="8">
         <f>'SCROD Write Registers'!G156</f>
@@ -18444,19 +18279,19 @@
       </c>
       <c r="C157" s="8">
         <f>'SCROD Write Registers'!C157</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D157" s="8">
         <f>'SCROD Write Registers'!D157</f>
-        <v>2</v>
-      </c>
-      <c r="E157" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E157" s="8">
         <f>'SCROD Write Registers'!E157</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F157" s="8" t="str">
         <f>'SCROD Write Registers'!F157</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G157" s="8">
         <f>'SCROD Write Registers'!G157</f>
@@ -18477,19 +18312,19 @@
       </c>
       <c r="C158" s="8">
         <f>'SCROD Write Registers'!C158</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D158" s="8">
         <f>'SCROD Write Registers'!D158</f>
-        <v>3</v>
-      </c>
-      <c r="E158" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E158" s="8">
         <f>'SCROD Write Registers'!E158</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F158" s="8" t="str">
         <f>'SCROD Write Registers'!F158</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G158" s="8">
         <f>'SCROD Write Registers'!G158</f>
@@ -18510,19 +18345,19 @@
       </c>
       <c r="C159" s="8">
         <f>'SCROD Write Registers'!C159</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D159" s="8">
         <f>'SCROD Write Registers'!D159</f>
         <v>0</v>
       </c>
-      <c r="E159" s="8" t="str">
+      <c r="E159" s="8">
         <f>'SCROD Write Registers'!E159</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F159" s="8" t="str">
         <f>'SCROD Write Registers'!F159</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G159" s="8">
         <f>'SCROD Write Registers'!G159</f>
@@ -18543,19 +18378,19 @@
       </c>
       <c r="C160" s="8">
         <f>'SCROD Write Registers'!C160</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D160" s="8">
         <f>'SCROD Write Registers'!D160</f>
-        <v>1</v>
-      </c>
-      <c r="E160" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E160" s="8">
         <f>'SCROD Write Registers'!E160</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F160" s="8" t="str">
         <f>'SCROD Write Registers'!F160</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G160" s="8">
         <f>'SCROD Write Registers'!G160</f>
@@ -18576,19 +18411,19 @@
       </c>
       <c r="C161" s="8">
         <f>'SCROD Write Registers'!C161</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D161" s="8">
         <f>'SCROD Write Registers'!D161</f>
-        <v>2</v>
-      </c>
-      <c r="E161" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E161" s="8">
         <f>'SCROD Write Registers'!E161</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F161" s="8" t="str">
         <f>'SCROD Write Registers'!F161</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G161" s="8">
         <f>'SCROD Write Registers'!G161</f>
@@ -18609,19 +18444,19 @@
       </c>
       <c r="C162" s="8">
         <f>'SCROD Write Registers'!C162</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D162" s="8">
         <f>'SCROD Write Registers'!D162</f>
-        <v>3</v>
-      </c>
-      <c r="E162" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" s="8">
         <f>'SCROD Write Registers'!E162</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="F162" s="8" t="str">
         <f>'SCROD Write Registers'!F162</f>
-        <v>Wilkinson rate counter target values</v>
+        <v>Reserved (but not yet used)</v>
       </c>
       <c r="G162" s="8">
         <f>'SCROD Write Registers'!G162</f>
@@ -30233,10 +30068,10 @@
         <v>10</v>
       </c>
       <c r="F514" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H514" s="10" t="s">
         <v>32</v>
@@ -30260,10 +30095,10 @@
         <v>10</v>
       </c>
       <c r="F515" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H515" s="5" t="s">
         <v>32</v>
@@ -30287,10 +30122,10 @@
         <v>10</v>
       </c>
       <c r="F516" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H516" s="5" t="s">
         <v>32</v>
@@ -30314,10 +30149,10 @@
         <v>10</v>
       </c>
       <c r="F517" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>32</v>
@@ -30341,10 +30176,10 @@
         <v>10</v>
       </c>
       <c r="F518" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>32</v>
@@ -30368,10 +30203,10 @@
         <v>10</v>
       </c>
       <c r="F519" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H519" s="5" t="s">
         <v>32</v>
@@ -30395,10 +30230,10 @@
         <v>10</v>
       </c>
       <c r="F520" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H520" s="5" t="s">
         <v>32</v>
@@ -30422,10 +30257,10 @@
         <v>10</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G521" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H521" s="5" t="s">
         <v>32</v>
@@ -30452,7 +30287,7 @@
         <v>35</v>
       </c>
       <c r="H522" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="523" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30476,7 +30311,7 @@
         <v>35</v>
       </c>
       <c r="H523" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="524" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30500,7 +30335,7 @@
         <v>35</v>
       </c>
       <c r="H524" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="525" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30524,7 +30359,7 @@
         <v>35</v>
       </c>
       <c r="H525" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="526" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30548,7 +30383,7 @@
         <v>35</v>
       </c>
       <c r="H526" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="527" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30572,7 +30407,7 @@
         <v>35</v>
       </c>
       <c r="H527" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="528" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30596,7 +30431,7 @@
         <v>35</v>
       </c>
       <c r="H528" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="529" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30620,7 +30455,7 @@
         <v>35</v>
       </c>
       <c r="H529" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="530" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30641,13 +30476,13 @@
         <v>10</v>
       </c>
       <c r="F530" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H530" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="531" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30668,13 +30503,13 @@
         <v>10</v>
       </c>
       <c r="F531" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H531" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="532" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30695,13 +30530,13 @@
         <v>10</v>
       </c>
       <c r="F532" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G532" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H532" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="533" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30722,13 +30557,13 @@
         <v>10</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H533" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="534" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30749,13 +30584,13 @@
         <v>10</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H534" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="535" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30776,13 +30611,13 @@
         <v>10</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H535" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="536" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30803,13 +30638,13 @@
         <v>10</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H536" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="537" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30830,13 +30665,13 @@
         <v>10</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H537" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="538" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30857,13 +30692,13 @@
         <v>10</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H538" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="539" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30884,13 +30719,13 @@
         <v>10</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H539" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="540" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30911,13 +30746,13 @@
         <v>10</v>
       </c>
       <c r="F540" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H540" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="541" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30938,13 +30773,13 @@
         <v>10</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H541" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="542" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30965,13 +30800,13 @@
         <v>10</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G542" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H542" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="543" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30992,13 +30827,13 @@
         <v>10</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G543" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H543" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="544" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31019,13 +30854,13 @@
         <v>10</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G544" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H544" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="545" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31046,13 +30881,13 @@
         <v>10</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G545" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H545" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31073,10 +30908,10 @@
         <v>10</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G546" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H546" s="5" t="s">
         <v>30</v>
@@ -31100,10 +30935,10 @@
         <v>10</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G547" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H547" s="5" t="s">
         <v>30</v>
@@ -31127,10 +30962,10 @@
         <v>10</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G548" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H548" s="5" t="s">
         <v>30</v>
@@ -31154,10 +30989,10 @@
         <v>10</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G549" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H549" s="5" t="s">
         <v>30</v>
@@ -31181,10 +31016,10 @@
         <v>10</v>
       </c>
       <c r="F550" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G550" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H550" s="5" t="s">
         <v>30</v>
@@ -31208,10 +31043,10 @@
         <v>10</v>
       </c>
       <c r="F551" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H551" s="5" t="s">
         <v>30</v>
@@ -31235,10 +31070,10 @@
         <v>10</v>
       </c>
       <c r="F552" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H552" s="5" t="s">
         <v>30</v>
@@ -31262,10 +31097,10 @@
         <v>10</v>
       </c>
       <c r="F553" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G553" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H553" s="5" t="s">
         <v>30</v>
@@ -31289,10 +31124,10 @@
         <v>10</v>
       </c>
       <c r="F554" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G554" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H554" s="5" t="s">
         <v>30</v>
@@ -31316,10 +31151,10 @@
         <v>10</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G555" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H555" s="5" t="s">
         <v>30</v>
@@ -31343,10 +31178,10 @@
         <v>10</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G556" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H556" s="5" t="s">
         <v>30</v>
@@ -31370,10 +31205,10 @@
         <v>10</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G557" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H557" s="5" t="s">
         <v>30</v>
@@ -31397,10 +31232,10 @@
         <v>10</v>
       </c>
       <c r="F558" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G558" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H558" s="5" t="s">
         <v>30</v>
@@ -31424,10 +31259,10 @@
         <v>10</v>
       </c>
       <c r="F559" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G559" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H559" s="5" t="s">
         <v>30</v>
@@ -31451,10 +31286,10 @@
         <v>10</v>
       </c>
       <c r="F560" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G560" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H560" s="5" t="s">
         <v>30</v>
@@ -31478,10 +31313,10 @@
         <v>10</v>
       </c>
       <c r="F561" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G561" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H561" s="5" t="s">
         <v>30</v>
@@ -31505,13 +31340,13 @@
         <v>10</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G562" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H562" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31532,13 +31367,13 @@
         <v>10</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H563" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="564" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31559,13 +31394,13 @@
         <v>10</v>
       </c>
       <c r="F564" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G564" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H564" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="565" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31586,13 +31421,13 @@
         <v>10</v>
       </c>
       <c r="F565" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H565" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31613,13 +31448,13 @@
         <v>10</v>
       </c>
       <c r="F566" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G566" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H566" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="567" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31640,13 +31475,13 @@
         <v>10</v>
       </c>
       <c r="F567" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G567" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H567" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="568" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31667,13 +31502,13 @@
         <v>10</v>
       </c>
       <c r="F568" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G568" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H568" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31694,13 +31529,13 @@
         <v>10</v>
       </c>
       <c r="F569" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G569" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H569" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31721,13 +31556,13 @@
         <v>10</v>
       </c>
       <c r="F570" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G570" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H570" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="571" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31748,13 +31583,13 @@
         <v>10</v>
       </c>
       <c r="F571" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G571" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H571" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="572" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31775,13 +31610,13 @@
         <v>10</v>
       </c>
       <c r="F572" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G572" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H572" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="573" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31802,13 +31637,13 @@
         <v>10</v>
       </c>
       <c r="F573" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G573" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H573" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="574" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31829,13 +31664,13 @@
         <v>10</v>
       </c>
       <c r="F574" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G574" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H574" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="575" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31856,13 +31691,13 @@
         <v>10</v>
       </c>
       <c r="F575" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G575" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H575" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="576" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31883,13 +31718,13 @@
         <v>10</v>
       </c>
       <c r="F576" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G576" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H576" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="577" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31910,13 +31745,13 @@
         <v>10</v>
       </c>
       <c r="F577" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G577" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H577" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="578" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31937,7 +31772,7 @@
         <v>10</v>
       </c>
       <c r="F578" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G578" s="5" t="s">
         <v>36</v>
@@ -31964,10 +31799,10 @@
         <v>10</v>
       </c>
       <c r="F579" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G579" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H579" s="5" t="s">
         <v>30</v>
@@ -31991,10 +31826,10 @@
         <v>10</v>
       </c>
       <c r="F580" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G580" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H580" s="5" t="s">
         <v>30</v>
@@ -32018,10 +31853,10 @@
         <v>10</v>
       </c>
       <c r="F581" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G581" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H581" s="5" t="s">
         <v>30</v>
@@ -32045,10 +31880,10 @@
         <v>10</v>
       </c>
       <c r="F582" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G582" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H582" s="5" t="s">
         <v>30</v>
@@ -32072,10 +31907,10 @@
         <v>10</v>
       </c>
       <c r="F583" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G583" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H583" s="5" t="s">
         <v>30</v>
@@ -32099,10 +31934,10 @@
         <v>10</v>
       </c>
       <c r="F584" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G584" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H584" s="5" t="s">
         <v>30</v>
@@ -32126,10 +31961,10 @@
         <v>10</v>
       </c>
       <c r="F585" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G585" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H585" s="5" t="s">
         <v>30</v>
@@ -32153,10 +31988,10 @@
         <v>10</v>
       </c>
       <c r="F586" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G586" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H586" s="5" t="s">
         <v>30</v>
@@ -32180,10 +32015,10 @@
         <v>10</v>
       </c>
       <c r="F587" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G587" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H587" s="5" t="s">
         <v>30</v>
@@ -32207,10 +32042,10 @@
         <v>10</v>
       </c>
       <c r="F588" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G588" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H588" s="5" t="s">
         <v>30</v>
@@ -32234,10 +32069,10 @@
         <v>10</v>
       </c>
       <c r="F589" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G589" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H589" s="5" t="s">
         <v>30</v>
@@ -32261,10 +32096,10 @@
         <v>10</v>
       </c>
       <c r="F590" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G590" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H590" s="5" t="s">
         <v>30</v>
@@ -32288,10 +32123,10 @@
         <v>10</v>
       </c>
       <c r="F591" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G591" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H591" s="5" t="s">
         <v>30</v>
@@ -32315,10 +32150,10 @@
         <v>10</v>
       </c>
       <c r="F592" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G592" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H592" s="5" t="s">
         <v>30</v>
@@ -32342,10 +32177,10 @@
         <v>10</v>
       </c>
       <c r="F593" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G593" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H593" s="5" t="s">
         <v>30</v>
@@ -32369,7 +32204,7 @@
         <v>10</v>
       </c>
       <c r="F594" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G594" s="5" t="s">
         <v>36</v>
@@ -32396,10 +32231,10 @@
         <v>10</v>
       </c>
       <c r="F595" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G595" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H595" s="5" t="s">
         <v>30</v>
@@ -32423,10 +32258,10 @@
         <v>10</v>
       </c>
       <c r="F596" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G596" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H596" s="5" t="s">
         <v>30</v>
@@ -32450,10 +32285,10 @@
         <v>10</v>
       </c>
       <c r="F597" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G597" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H597" s="5" t="s">
         <v>30</v>
@@ -32477,10 +32312,10 @@
         <v>10</v>
       </c>
       <c r="F598" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G598" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H598" s="5" t="s">
         <v>30</v>
@@ -32504,10 +32339,10 @@
         <v>10</v>
       </c>
       <c r="F599" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G599" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H599" s="5" t="s">
         <v>30</v>
@@ -32531,10 +32366,10 @@
         <v>10</v>
       </c>
       <c r="F600" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G600" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H600" s="5" t="s">
         <v>30</v>
@@ -32558,10 +32393,10 @@
         <v>10</v>
       </c>
       <c r="F601" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G601" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H601" s="5" t="s">
         <v>30</v>
@@ -32585,10 +32420,10 @@
         <v>10</v>
       </c>
       <c r="F602" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G602" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H602" s="5" t="s">
         <v>30</v>
@@ -32612,10 +32447,10 @@
         <v>10</v>
       </c>
       <c r="F603" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G603" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H603" s="5" t="s">
         <v>30</v>
@@ -32639,10 +32474,10 @@
         <v>10</v>
       </c>
       <c r="F604" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G604" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H604" s="5" t="s">
         <v>30</v>
@@ -32666,10 +32501,10 @@
         <v>10</v>
       </c>
       <c r="F605" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G605" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H605" s="5" t="s">
         <v>30</v>
@@ -32693,10 +32528,10 @@
         <v>10</v>
       </c>
       <c r="F606" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G606" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H606" s="5" t="s">
         <v>30</v>
@@ -32720,10 +32555,10 @@
         <v>10</v>
       </c>
       <c r="F607" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G607" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H607" s="5" t="s">
         <v>30</v>
@@ -32747,10 +32582,10 @@
         <v>10</v>
       </c>
       <c r="F608" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G608" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H608" s="5" t="s">
         <v>30</v>
@@ -32774,10 +32609,10 @@
         <v>10</v>
       </c>
       <c r="F609" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G609" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H609" s="5" t="s">
         <v>30</v>
@@ -32801,7 +32636,7 @@
         <v>10</v>
       </c>
       <c r="F610" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
@@ -32822,7 +32657,7 @@
         <v>10</v>
       </c>
       <c r="F611" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
@@ -32843,7 +32678,7 @@
         <v>10</v>
       </c>
       <c r="F612" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
@@ -32864,7 +32699,7 @@
         <v>10</v>
       </c>
       <c r="F613" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
@@ -32885,7 +32720,7 @@
         <v>10</v>
       </c>
       <c r="F614" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
@@ -32906,7 +32741,7 @@
         <v>10</v>
       </c>
       <c r="F615" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
@@ -32927,7 +32762,7 @@
         <v>10</v>
       </c>
       <c r="F616" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
@@ -32948,7 +32783,7 @@
         <v>10</v>
       </c>
       <c r="F617" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
@@ -32969,7 +32804,7 @@
         <v>10</v>
       </c>
       <c r="F618" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
@@ -32990,7 +32825,7 @@
         <v>10</v>
       </c>
       <c r="F619" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
@@ -33011,7 +32846,7 @@
         <v>10</v>
       </c>
       <c r="F620" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
@@ -33032,7 +32867,7 @@
         <v>10</v>
       </c>
       <c r="F621" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
@@ -33053,7 +32888,7 @@
         <v>10</v>
       </c>
       <c r="F622" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
@@ -33074,7 +32909,7 @@
         <v>10</v>
       </c>
       <c r="F623" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
@@ -33095,7 +32930,7 @@
         <v>10</v>
       </c>
       <c r="F624" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
@@ -33116,7 +32951,7 @@
         <v>10</v>
       </c>
       <c r="F625" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
@@ -33137,10 +32972,10 @@
         <v>5</v>
       </c>
       <c r="F626" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G626" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
@@ -33161,10 +32996,10 @@
         <v>5</v>
       </c>
       <c r="F627" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G627" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -33188,10 +33023,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -33203,19 +33038,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -33223,10 +33058,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
@@ -33238,7 +33073,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -33246,7 +33081,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" s="18"/>
       <c r="G5" s="15">
@@ -33259,7 +33094,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -33267,7 +33102,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" s="18"/>
       <c r="G6" s="15">
@@ -33280,7 +33115,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -33288,10 +33123,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
@@ -33303,7 +33138,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -33311,10 +33146,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -33326,7 +33161,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -33334,10 +33169,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G9" s="15">
         <v>1</v>
@@ -33349,7 +33184,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -33357,10 +33192,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
@@ -33372,7 +33207,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -33380,10 +33215,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G11" s="15">
         <v>1</v>
@@ -33395,7 +33230,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -33405,7 +33240,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="14880" windowHeight="7965"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="14880" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="241">
   <si>
     <t>Register Number</t>
   </si>
@@ -205,9 +205,6 @@
     <t>(same in hex)</t>
   </si>
   <si>
-    <t>Wilkinson monitor counter</t>
-  </si>
-  <si>
     <t>First allowed analog storage window</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
   </si>
   <si>
     <t>See 179</t>
-  </si>
-  <si>
-    <t>Event number</t>
   </si>
   <si>
     <t>Bits 15:0 - high 16 bits of event number</t>
@@ -735,6 +729,18 @@
   <si>
     <t>LSB only, others ignored</t>
   </si>
+  <si>
+    <t>Event number MSBs</t>
+  </si>
+  <si>
+    <t>Event number LSBs</t>
+  </si>
+  <si>
+    <t>32-bit unsigned (with below)</t>
+  </si>
+  <si>
+    <t>32-bit unsigned (with above)</t>
+  </si>
 </sst>
 </file>
 
@@ -1152,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
@@ -1185,10 +1191,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1212,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>31</v>
@@ -1236,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>7</v>
@@ -1263,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>7</v>
@@ -1290,10 +1296,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>7</v>
@@ -1320,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>9</v>
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>30</v>
@@ -1371,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -1401,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>30</v>
@@ -1428,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>30</v>
@@ -1455,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>30</v>
@@ -1482,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>30</v>
@@ -1509,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>30</v>
@@ -1533,10 +1539,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>30</v>
@@ -1563,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>30</v>
@@ -1590,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>30</v>
@@ -1617,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>30</v>
@@ -1644,7 +1650,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>30</v>
@@ -1671,7 +1677,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>30</v>
@@ -1698,7 +1704,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>30</v>
@@ -1725,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>30</v>
@@ -1752,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>30</v>
@@ -1779,7 +1785,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>30</v>
@@ -1806,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>30</v>
@@ -1833,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>30</v>
@@ -1860,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>30</v>
@@ -1887,7 +1893,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>30</v>
@@ -1914,7 +1920,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>30</v>
@@ -1941,7 +1947,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>30</v>
@@ -1968,7 +1974,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>30</v>
@@ -1995,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>30</v>
@@ -2022,7 +2028,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>30</v>
@@ -2049,7 +2055,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>30</v>
@@ -2076,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>30</v>
@@ -2103,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>30</v>
@@ -2130,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>30</v>
@@ -2157,7 +2163,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>30</v>
@@ -2184,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>30</v>
@@ -2211,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>30</v>
@@ -2238,7 +2244,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>30</v>
@@ -2265,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>30</v>
@@ -2292,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>30</v>
@@ -2319,7 +2325,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>30</v>
@@ -2346,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>30</v>
@@ -2373,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>30</v>
@@ -2400,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>30</v>
@@ -2427,7 +2433,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>30</v>
@@ -2454,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>30</v>
@@ -2481,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>30</v>
@@ -2508,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>30</v>
@@ -2535,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>30</v>
@@ -2562,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>30</v>
@@ -2589,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>30</v>
@@ -2616,7 +2622,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>30</v>
@@ -2643,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>30</v>
@@ -2670,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>30</v>
@@ -2697,7 +2703,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>30</v>
@@ -2724,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>30</v>
@@ -2751,7 +2757,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>30</v>
@@ -2778,7 +2784,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>30</v>
@@ -2805,7 +2811,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>30</v>
@@ -2832,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>30</v>
@@ -2859,7 +2865,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>30</v>
@@ -2886,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>30</v>
@@ -2913,7 +2919,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>30</v>
@@ -2940,7 +2946,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>30</v>
@@ -2967,7 +2973,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>30</v>
@@ -2994,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>30</v>
@@ -3021,7 +3027,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>30</v>
@@ -3048,7 +3054,7 @@
         <v>20</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>30</v>
@@ -3075,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>30</v>
@@ -3102,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>30</v>
@@ -3129,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>30</v>
@@ -3156,7 +3162,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>30</v>
@@ -3183,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>30</v>
@@ -3210,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>30</v>
@@ -3237,7 +3243,7 @@
         <v>20</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>30</v>
@@ -3264,7 +3270,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>30</v>
@@ -3291,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>30</v>
@@ -3318,7 +3324,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>30</v>
@@ -3345,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>30</v>
@@ -3372,7 +3378,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>30</v>
@@ -3399,7 +3405,7 @@
         <v>20</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>30</v>
@@ -3426,7 +3432,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>30</v>
@@ -3453,7 +3459,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>30</v>
@@ -3480,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>30</v>
@@ -3507,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>30</v>
@@ -3534,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>30</v>
@@ -3561,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>30</v>
@@ -3588,7 +3594,7 @@
         <v>20</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>30</v>
@@ -3615,7 +3621,7 @@
         <v>20</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>30</v>
@@ -3642,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>30</v>
@@ -3669,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>30</v>
@@ -3696,7 +3702,7 @@
         <v>20</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>30</v>
@@ -3723,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>30</v>
@@ -3750,7 +3756,7 @@
         <v>20</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>30</v>
@@ -3777,7 +3783,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>30</v>
@@ -3804,7 +3810,7 @@
         <v>20</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>30</v>
@@ -3831,7 +3837,7 @@
         <v>20</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>30</v>
@@ -3858,7 +3864,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>30</v>
@@ -3885,7 +3891,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>30</v>
@@ -3912,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>30</v>
@@ -3939,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>30</v>
@@ -3966,7 +3972,7 @@
         <v>20</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>30</v>
@@ -3993,7 +3999,7 @@
         <v>20</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>30</v>
@@ -4020,7 +4026,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>30</v>
@@ -4047,7 +4053,7 @@
         <v>20</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>30</v>
@@ -4074,7 +4080,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>30</v>
@@ -4101,7 +4107,7 @@
         <v>20</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>30</v>
@@ -4128,7 +4134,7 @@
         <v>20</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>30</v>
@@ -4155,7 +4161,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>30</v>
@@ -4182,7 +4188,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>30</v>
@@ -4209,7 +4215,7 @@
         <v>20</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>30</v>
@@ -4236,7 +4242,7 @@
         <v>20</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>30</v>
@@ -4263,7 +4269,7 @@
         <v>20</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>30</v>
@@ -4290,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>30</v>
@@ -4317,7 +4323,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>30</v>
@@ -4344,7 +4350,7 @@
         <v>20</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>30</v>
@@ -4371,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>30</v>
@@ -4398,7 +4404,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>30</v>
@@ -4425,7 +4431,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>30</v>
@@ -4452,7 +4458,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>30</v>
@@ -4479,7 +4485,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>30</v>
@@ -4506,7 +4512,7 @@
         <v>20</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>30</v>
@@ -4533,7 +4539,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>30</v>
@@ -4560,7 +4566,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>30</v>
@@ -4587,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>30</v>
@@ -4614,7 +4620,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>30</v>
@@ -4641,7 +4647,7 @@
         <v>20</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>30</v>
@@ -4668,7 +4674,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>30</v>
@@ -4695,7 +4701,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>30</v>
@@ -4722,7 +4728,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>30</v>
@@ -4749,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>30</v>
@@ -4776,7 +4782,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>30</v>
@@ -4803,7 +4809,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>30</v>
@@ -4830,7 +4836,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>30</v>
@@ -4857,7 +4863,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>30</v>
@@ -4884,7 +4890,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>30</v>
@@ -4911,7 +4917,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>30</v>
@@ -4938,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>30</v>
@@ -4965,7 +4971,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>30</v>
@@ -4992,7 +4998,7 @@
         <v>20</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>30</v>
@@ -5019,7 +5025,7 @@
         <v>29</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>26</v>
@@ -5046,7 +5052,7 @@
         <v>27</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>26</v>
@@ -5073,7 +5079,7 @@
         <v>28</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>26</v>
@@ -5301,10 +5307,10 @@
         <v>5</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="164" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5325,10 +5331,10 @@
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5349,10 +5355,10 @@
         <v>5</v>
       </c>
       <c r="F165" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H165" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5373,10 +5379,10 @@
         <v>5</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5397,10 +5403,10 @@
         <v>5</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5421,13 +5427,13 @@
         <v>10</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G168" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H168" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5448,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G169" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H169" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="170" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5475,10 +5481,10 @@
         <v>10</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5499,10 +5505,10 @@
         <v>10</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5523,10 +5529,10 @@
         <v>10</v>
       </c>
       <c r="F172" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H172" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5544,13 +5550,13 @@
         <v>19</v>
       </c>
       <c r="E173" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="174" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5568,13 +5574,13 @@
         <v>21</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5592,13 +5598,13 @@
         <v>19</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5616,13 +5622,13 @@
         <v>21</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5640,13 +5646,13 @@
         <v>19</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5664,13 +5670,13 @@
         <v>21</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5688,13 +5694,13 @@
         <v>19</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5712,13 +5718,13 @@
         <v>21</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5736,13 +5742,13 @@
         <v>19</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5760,13 +5766,13 @@
         <v>21</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5784,13 +5790,13 @@
         <v>19</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="184" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5808,13 +5814,13 @@
         <v>21</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="185" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5832,13 +5838,13 @@
         <v>19</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5856,13 +5862,13 @@
         <v>21</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="187" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5880,13 +5886,13 @@
         <v>19</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5904,13 +5910,13 @@
         <v>21</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="189" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5931,10 +5937,10 @@
         <v>5</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5955,10 +5961,10 @@
         <v>5</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6111,10 +6117,10 @@
         <v>5</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>30</v>
@@ -6138,10 +6144,10 @@
         <v>5</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>30</v>
@@ -6165,10 +6171,10 @@
         <v>5</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>30</v>
@@ -6195,7 +6201,7 @@
         <v>12</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>30</v>
@@ -6222,7 +6228,7 @@
         <v>12</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>30</v>
@@ -6249,7 +6255,7 @@
         <v>12</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>30</v>
@@ -6276,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H208" s="5" t="s">
         <v>30</v>
@@ -6303,7 +6309,7 @@
         <v>12</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>30</v>
@@ -6330,7 +6336,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>30</v>
@@ -6357,7 +6363,7 @@
         <v>12</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>30</v>
@@ -6384,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>30</v>
@@ -6411,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>30</v>
@@ -6438,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>30</v>
@@ -6465,7 +6471,7 @@
         <v>12</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>30</v>
@@ -6492,7 +6498,7 @@
         <v>12</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>30</v>
@@ -6519,7 +6525,7 @@
         <v>12</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>30</v>
@@ -6546,7 +6552,7 @@
         <v>12</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>30</v>
@@ -6573,7 +6579,7 @@
         <v>12</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>30</v>
@@ -6600,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>30</v>
@@ -6624,10 +6630,10 @@
         <v>5</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>30</v>
@@ -6651,10 +6657,10 @@
         <v>5</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>30</v>
@@ -6678,10 +6684,10 @@
         <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>30</v>
@@ -6705,10 +6711,10 @@
         <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>30</v>
@@ -6732,10 +6738,10 @@
         <v>5</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>30</v>
@@ -6759,10 +6765,10 @@
         <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>30</v>
@@ -6786,10 +6792,10 @@
         <v>5</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>30</v>
@@ -6813,10 +6819,10 @@
         <v>5</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>30</v>
@@ -6840,10 +6846,10 @@
         <v>5</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>30</v>
@@ -6867,10 +6873,10 @@
         <v>5</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H230" s="5" t="s">
         <v>30</v>
@@ -6894,10 +6900,10 @@
         <v>5</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H231" s="5" t="s">
         <v>30</v>
@@ -6921,10 +6927,10 @@
         <v>5</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>30</v>
@@ -6948,10 +6954,10 @@
         <v>5</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>30</v>
@@ -6975,10 +6981,10 @@
         <v>5</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>30</v>
@@ -7002,10 +7008,10 @@
         <v>5</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>30</v>
@@ -7029,10 +7035,10 @@
         <v>5</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>30</v>
@@ -7059,7 +7065,7 @@
         <v>25</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>30</v>
@@ -7086,7 +7092,7 @@
         <v>25</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>30</v>
@@ -7113,7 +7119,7 @@
         <v>25</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>30</v>
@@ -7140,7 +7146,7 @@
         <v>25</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H240" s="5" t="s">
         <v>30</v>
@@ -7167,7 +7173,7 @@
         <v>25</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>30</v>
@@ -7194,7 +7200,7 @@
         <v>25</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H242" s="5" t="s">
         <v>30</v>
@@ -7221,7 +7227,7 @@
         <v>25</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H243" s="5" t="s">
         <v>30</v>
@@ -7248,7 +7254,7 @@
         <v>25</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>30</v>
@@ -7275,7 +7281,7 @@
         <v>25</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>30</v>
@@ -7302,7 +7308,7 @@
         <v>25</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>30</v>
@@ -7329,7 +7335,7 @@
         <v>25</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>30</v>
@@ -7356,7 +7362,7 @@
         <v>25</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>30</v>
@@ -7383,7 +7389,7 @@
         <v>25</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>30</v>
@@ -7410,7 +7416,7 @@
         <v>25</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>30</v>
@@ -7437,7 +7443,7 @@
         <v>25</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>30</v>
@@ -7464,7 +7470,7 @@
         <v>25</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>30</v>
@@ -7491,7 +7497,7 @@
         <v>23</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>30</v>
@@ -7518,7 +7524,7 @@
         <v>23</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>30</v>
@@ -7545,7 +7551,7 @@
         <v>23</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>30</v>
@@ -7572,7 +7578,7 @@
         <v>23</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>30</v>
@@ -7599,7 +7605,7 @@
         <v>23</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>30</v>
@@ -7626,7 +7632,7 @@
         <v>23</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>30</v>
@@ -7653,7 +7659,7 @@
         <v>23</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>30</v>
@@ -7680,7 +7686,7 @@
         <v>23</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>30</v>
@@ -7707,7 +7713,7 @@
         <v>23</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>30</v>
@@ -7734,7 +7740,7 @@
         <v>23</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H262" s="5" t="s">
         <v>30</v>
@@ -7761,7 +7767,7 @@
         <v>23</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>30</v>
@@ -7788,7 +7794,7 @@
         <v>23</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>30</v>
@@ -7815,7 +7821,7 @@
         <v>23</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>30</v>
@@ -7842,7 +7848,7 @@
         <v>23</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>30</v>
@@ -7869,7 +7875,7 @@
         <v>23</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H267" s="5" t="s">
         <v>30</v>
@@ -7896,7 +7902,7 @@
         <v>23</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H268" s="5" t="s">
         <v>30</v>
@@ -7923,7 +7929,7 @@
         <v>24</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H269" s="5" t="s">
         <v>30</v>
@@ -7950,7 +7956,7 @@
         <v>24</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>30</v>
@@ -7977,7 +7983,7 @@
         <v>24</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H271" s="5" t="s">
         <v>30</v>
@@ -8004,7 +8010,7 @@
         <v>24</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>30</v>
@@ -8031,7 +8037,7 @@
         <v>24</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H273" s="5" t="s">
         <v>30</v>
@@ -8058,7 +8064,7 @@
         <v>24</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H274" s="5" t="s">
         <v>30</v>
@@ -8085,7 +8091,7 @@
         <v>24</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H275" s="5" t="s">
         <v>30</v>
@@ -8112,7 +8118,7 @@
         <v>24</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H276" s="5" t="s">
         <v>30</v>
@@ -8139,7 +8145,7 @@
         <v>24</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H277" s="5" t="s">
         <v>30</v>
@@ -8166,7 +8172,7 @@
         <v>24</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H278" s="5" t="s">
         <v>30</v>
@@ -8193,7 +8199,7 @@
         <v>24</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H279" s="5" t="s">
         <v>30</v>
@@ -8220,7 +8226,7 @@
         <v>24</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H280" s="5" t="s">
         <v>30</v>
@@ -8247,7 +8253,7 @@
         <v>24</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>30</v>
@@ -8274,7 +8280,7 @@
         <v>24</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H282" s="5" t="s">
         <v>30</v>
@@ -8301,7 +8307,7 @@
         <v>24</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>30</v>
@@ -8328,7 +8334,7 @@
         <v>24</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>30</v>
@@ -8355,7 +8361,7 @@
         <v>22</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>30</v>
@@ -8382,7 +8388,7 @@
         <v>22</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H286" s="5" t="s">
         <v>30</v>
@@ -8409,7 +8415,7 @@
         <v>22</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>30</v>
@@ -8436,7 +8442,7 @@
         <v>22</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>30</v>
@@ -8463,7 +8469,7 @@
         <v>22</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>30</v>
@@ -8490,7 +8496,7 @@
         <v>22</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>30</v>
@@ -8517,7 +8523,7 @@
         <v>22</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>30</v>
@@ -8544,7 +8550,7 @@
         <v>22</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H292" s="5" t="s">
         <v>30</v>
@@ -8571,7 +8577,7 @@
         <v>22</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H293" s="5" t="s">
         <v>30</v>
@@ -8598,7 +8604,7 @@
         <v>22</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H294" s="5" t="s">
         <v>30</v>
@@ -8625,7 +8631,7 @@
         <v>22</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>30</v>
@@ -8652,7 +8658,7 @@
         <v>22</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>30</v>
@@ -8679,7 +8685,7 @@
         <v>22</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>30</v>
@@ -8706,7 +8712,7 @@
         <v>22</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H298" s="5" t="s">
         <v>30</v>
@@ -8733,7 +8739,7 @@
         <v>22</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H299" s="5" t="s">
         <v>30</v>
@@ -8760,7 +8766,7 @@
         <v>22</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>30</v>
@@ -8784,13 +8790,13 @@
         <v>5</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8811,13 +8817,13 @@
         <v>5</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8838,13 +8844,13 @@
         <v>5</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="304" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8865,13 +8871,13 @@
         <v>5</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8892,13 +8898,13 @@
         <v>5</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8919,13 +8925,13 @@
         <v>5</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8946,13 +8952,13 @@
         <v>5</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8973,13 +8979,13 @@
         <v>5</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9000,13 +9006,13 @@
         <v>5</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9027,13 +9033,13 @@
         <v>5</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="311" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9054,13 +9060,13 @@
         <v>5</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9081,13 +9087,13 @@
         <v>5</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9108,13 +9114,13 @@
         <v>5</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="314" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9135,13 +9141,13 @@
         <v>5</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="315" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9162,13 +9168,13 @@
         <v>5</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9189,13 +9195,13 @@
         <v>5</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9216,13 +9222,13 @@
         <v>5</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9243,13 +9249,13 @@
         <v>5</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9270,13 +9276,13 @@
         <v>5</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9297,13 +9303,13 @@
         <v>5</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9324,13 +9330,13 @@
         <v>5</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="322" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9351,13 +9357,13 @@
         <v>5</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="323" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9378,13 +9384,13 @@
         <v>5</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="324" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9405,13 +9411,13 @@
         <v>5</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9432,13 +9438,13 @@
         <v>5</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="326" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9459,13 +9465,13 @@
         <v>5</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="327" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9486,13 +9492,13 @@
         <v>5</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="328" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9513,13 +9519,13 @@
         <v>5</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="329" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9540,13 +9546,13 @@
         <v>5</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="330" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9567,13 +9573,13 @@
         <v>5</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="331" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9594,13 +9600,13 @@
         <v>5</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="332" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9621,13 +9627,13 @@
         <v>5</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="333" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9648,13 +9654,13 @@
         <v>5</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H333" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="334" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9675,13 +9681,13 @@
         <v>5</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="335" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9702,13 +9708,13 @@
         <v>5</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H335" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="336" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9729,13 +9735,13 @@
         <v>5</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H336" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="337" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9756,13 +9762,13 @@
         <v>5</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H337" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="338" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9783,13 +9789,13 @@
         <v>5</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H338" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="339" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9810,13 +9816,13 @@
         <v>5</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H339" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="340" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9837,13 +9843,13 @@
         <v>5</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H340" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="341" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9864,13 +9870,13 @@
         <v>5</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H341" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="342" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9891,13 +9897,13 @@
         <v>5</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="343" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9918,13 +9924,13 @@
         <v>5</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="344" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9945,13 +9951,13 @@
         <v>5</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="345" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9972,13 +9978,13 @@
         <v>5</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="346" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9999,13 +10005,13 @@
         <v>5</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="347" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10026,13 +10032,13 @@
         <v>5</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="348" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10053,13 +10059,13 @@
         <v>5</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="349" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10080,13 +10086,13 @@
         <v>5</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G349" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H349" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="H349" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="350" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10107,13 +10113,13 @@
         <v>5</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H350" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="351" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10134,13 +10140,13 @@
         <v>5</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H351" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="352" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10161,13 +10167,13 @@
         <v>5</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G352" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H352" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="353" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10188,13 +10194,13 @@
         <v>5</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="354" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10215,13 +10221,13 @@
         <v>5</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="355" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10242,13 +10248,13 @@
         <v>5</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="356" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10269,13 +10275,13 @@
         <v>5</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="357" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10296,13 +10302,13 @@
         <v>5</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="358" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10323,13 +10329,13 @@
         <v>5</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="359" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10350,13 +10356,13 @@
         <v>5</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="360" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10377,13 +10383,13 @@
         <v>5</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10404,13 +10410,13 @@
         <v>5</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="362" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10431,13 +10437,13 @@
         <v>5</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="363" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10458,13 +10464,13 @@
         <v>5</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="364" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10485,13 +10491,13 @@
         <v>5</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="365" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10512,13 +10518,13 @@
         <v>5</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="366" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10539,13 +10545,13 @@
         <v>5</v>
       </c>
       <c r="F366" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G366" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G366" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H366" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="367" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10566,13 +10572,13 @@
         <v>5</v>
       </c>
       <c r="F367" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G367" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G367" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H367" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="368" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10593,13 +10599,13 @@
         <v>5</v>
       </c>
       <c r="F368" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G368" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G368" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H368" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="369" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10620,13 +10626,13 @@
         <v>5</v>
       </c>
       <c r="F369" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G369" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G369" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H369" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="370" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10647,13 +10653,13 @@
         <v>5</v>
       </c>
       <c r="F370" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G370" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G370" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H370" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="371" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10674,13 +10680,13 @@
         <v>5</v>
       </c>
       <c r="F371" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G371" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G371" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H371" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="372" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10701,13 +10707,13 @@
         <v>5</v>
       </c>
       <c r="F372" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G372" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G372" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H372" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="373" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10728,13 +10734,13 @@
         <v>5</v>
       </c>
       <c r="F373" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G373" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G373" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H373" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10755,13 +10761,13 @@
         <v>5</v>
       </c>
       <c r="F374" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G374" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G374" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H374" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10782,13 +10788,13 @@
         <v>5</v>
       </c>
       <c r="F375" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G375" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G375" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H375" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="376" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10809,13 +10815,13 @@
         <v>5</v>
       </c>
       <c r="F376" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G376" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G376" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H376" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="377" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10836,13 +10842,13 @@
         <v>5</v>
       </c>
       <c r="F377" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G377" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G377" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H377" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="378" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10863,13 +10869,13 @@
         <v>5</v>
       </c>
       <c r="F378" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G378" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G378" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H378" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="379" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10890,13 +10896,13 @@
         <v>5</v>
       </c>
       <c r="F379" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G379" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G379" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H379" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="380" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10917,13 +10923,13 @@
         <v>5</v>
       </c>
       <c r="F380" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G380" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G380" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="H380" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="381" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10944,13 +10950,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -11019,13 +11025,13 @@
         <v>5</v>
       </c>
       <c r="F386" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H386" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G386" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H386" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="387" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11046,13 +11052,13 @@
         <v>5</v>
       </c>
       <c r="F387" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H387" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G387" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H387" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="388" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11073,13 +11079,13 @@
         <v>5</v>
       </c>
       <c r="F388" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H388" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G388" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H388" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="389" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11100,13 +11106,13 @@
         <v>5</v>
       </c>
       <c r="F389" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H389" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G389" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H389" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11127,13 +11133,13 @@
         <v>5</v>
       </c>
       <c r="F390" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H390" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G390" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H390" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="391" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11154,13 +11160,13 @@
         <v>5</v>
       </c>
       <c r="F391" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H391" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G391" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11181,13 +11187,13 @@
         <v>5</v>
       </c>
       <c r="F392" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H392" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G392" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H392" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="393" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11208,13 +11214,13 @@
         <v>5</v>
       </c>
       <c r="F393" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H393" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G393" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H393" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="394" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11235,13 +11241,13 @@
         <v>5</v>
       </c>
       <c r="F394" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H394" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G394" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H394" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="395" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11262,13 +11268,13 @@
         <v>5</v>
       </c>
       <c r="F395" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H395" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G395" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H395" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="396" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11289,13 +11295,13 @@
         <v>5</v>
       </c>
       <c r="F396" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H396" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G396" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H396" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="397" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11316,13 +11322,13 @@
         <v>5</v>
       </c>
       <c r="F397" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H397" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G397" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H397" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="398" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11343,13 +11349,13 @@
         <v>5</v>
       </c>
       <c r="F398" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H398" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G398" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H398" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="399" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11370,13 +11376,13 @@
         <v>5</v>
       </c>
       <c r="F399" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H399" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G399" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H399" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="400" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11397,13 +11403,13 @@
         <v>5</v>
       </c>
       <c r="F400" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H400" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G400" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H400" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="401" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11424,13 +11430,13 @@
         <v>5</v>
       </c>
       <c r="F401" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H401" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G401" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H401" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="402" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11451,13 +11457,13 @@
         <v>5</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H402" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="403" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11478,13 +11484,13 @@
         <v>5</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H403" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="404" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11505,13 +11511,13 @@
         <v>5</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H404" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="405" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11532,13 +11538,13 @@
         <v>5</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H405" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="406" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11559,13 +11565,13 @@
         <v>5</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H406" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="407" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11586,13 +11592,13 @@
         <v>5</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H407" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="408" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11613,13 +11619,13 @@
         <v>5</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H408" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="409" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11640,13 +11646,13 @@
         <v>5</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H409" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="410" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11667,13 +11673,13 @@
         <v>5</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H410" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="411" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11694,13 +11700,13 @@
         <v>5</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H411" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="412" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11721,13 +11727,13 @@
         <v>5</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H412" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="413" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11748,13 +11754,13 @@
         <v>5</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H413" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="414" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11775,13 +11781,13 @@
         <v>5</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="415" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11802,13 +11808,13 @@
         <v>5</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G415" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H415" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="416" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11829,13 +11835,13 @@
         <v>5</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G416" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H416" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="417" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11856,13 +11862,13 @@
         <v>5</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G417" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H417" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="418" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11883,13 +11889,13 @@
         <v>5</v>
       </c>
       <c r="F418" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H418" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="G418" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H418" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -12897,7 +12903,7 @@
         <v>01F4</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>19</v>
@@ -12906,10 +12912,10 @@
         <v>10</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H502" s="5" t="s">
         <v>7</v>
@@ -12924,7 +12930,7 @@
         <v>01F5</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D503" s="5" t="s">
         <v>21</v>
@@ -12933,10 +12939,10 @@
         <v>10</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H503" s="5" t="s">
         <v>7</v>
@@ -12951,7 +12957,7 @@
         <v>01F6</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D504" s="5" t="s">
         <v>19</v>
@@ -12960,10 +12966,10 @@
         <v>10</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H504" s="5" t="s">
         <v>7</v>
@@ -12978,7 +12984,7 @@
         <v>01F7</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D505" s="5" t="s">
         <v>21</v>
@@ -12987,10 +12993,10 @@
         <v>10</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H505" s="5" t="s">
         <v>7</v>
@@ -13014,10 +13020,10 @@
         <v>10</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H506" s="5" t="s">
         <v>7</v>
@@ -13114,11 +13120,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H627"/>
+  <dimension ref="A1:H628"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F610" sqref="F610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13149,10 +13155,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13572,7 +13578,7 @@
         <v>G</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>'SCROD Write Registers'!G14</f>
@@ -30068,10 +30074,10 @@
         <v>10</v>
       </c>
       <c r="F514" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H514" s="10" t="s">
         <v>32</v>
@@ -30095,10 +30101,10 @@
         <v>10</v>
       </c>
       <c r="F515" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H515" s="5" t="s">
         <v>32</v>
@@ -30122,10 +30128,10 @@
         <v>10</v>
       </c>
       <c r="F516" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H516" s="5" t="s">
         <v>32</v>
@@ -30149,10 +30155,10 @@
         <v>10</v>
       </c>
       <c r="F517" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>32</v>
@@ -30176,10 +30182,10 @@
         <v>10</v>
       </c>
       <c r="F518" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>32</v>
@@ -30203,10 +30209,10 @@
         <v>10</v>
       </c>
       <c r="F519" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H519" s="5" t="s">
         <v>32</v>
@@ -30230,10 +30236,10 @@
         <v>10</v>
       </c>
       <c r="F520" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H520" s="5" t="s">
         <v>32</v>
@@ -30257,10 +30263,10 @@
         <v>10</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G521" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H521" s="5" t="s">
         <v>32</v>
@@ -30287,7 +30293,7 @@
         <v>35</v>
       </c>
       <c r="H522" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="523" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30311,7 +30317,7 @@
         <v>35</v>
       </c>
       <c r="H523" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="524" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30335,7 +30341,7 @@
         <v>35</v>
       </c>
       <c r="H524" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="525" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30359,7 +30365,7 @@
         <v>35</v>
       </c>
       <c r="H525" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="526" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30383,7 +30389,7 @@
         <v>35</v>
       </c>
       <c r="H526" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="527" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30407,7 +30413,7 @@
         <v>35</v>
       </c>
       <c r="H527" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="528" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30431,7 +30437,7 @@
         <v>35</v>
       </c>
       <c r="H528" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="529" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30455,7 +30461,7 @@
         <v>35</v>
       </c>
       <c r="H529" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="530" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30476,13 +30482,13 @@
         <v>10</v>
       </c>
       <c r="F530" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H530" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="531" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30503,13 +30509,13 @@
         <v>10</v>
       </c>
       <c r="F531" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H531" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="532" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30530,13 +30536,13 @@
         <v>10</v>
       </c>
       <c r="F532" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G532" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H532" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="533" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30557,13 +30563,13 @@
         <v>10</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H533" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="534" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30584,13 +30590,13 @@
         <v>10</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H534" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="535" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30611,13 +30617,13 @@
         <v>10</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H535" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="536" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30638,13 +30644,13 @@
         <v>10</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H536" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="537" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30665,13 +30671,13 @@
         <v>10</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H537" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="538" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30692,13 +30698,13 @@
         <v>10</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H538" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="539" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30719,13 +30725,13 @@
         <v>10</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H539" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="540" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30746,13 +30752,13 @@
         <v>10</v>
       </c>
       <c r="F540" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H540" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="541" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30773,13 +30779,13 @@
         <v>10</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H541" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="542" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30800,13 +30806,13 @@
         <v>10</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G542" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H542" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="543" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30827,13 +30833,13 @@
         <v>10</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G543" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H543" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="544" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30854,13 +30860,13 @@
         <v>10</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G544" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H544" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="545" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30881,13 +30887,13 @@
         <v>10</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G545" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H545" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30908,10 +30914,10 @@
         <v>10</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G546" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H546" s="5" t="s">
         <v>30</v>
@@ -30935,10 +30941,10 @@
         <v>10</v>
       </c>
       <c r="F547" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G547" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H547" s="5" t="s">
         <v>30</v>
@@ -30962,10 +30968,10 @@
         <v>10</v>
       </c>
       <c r="F548" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G548" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H548" s="5" t="s">
         <v>30</v>
@@ -30989,10 +30995,10 @@
         <v>10</v>
       </c>
       <c r="F549" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G549" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H549" s="5" t="s">
         <v>30</v>
@@ -31016,10 +31022,10 @@
         <v>10</v>
       </c>
       <c r="F550" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G550" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H550" s="5" t="s">
         <v>30</v>
@@ -31043,10 +31049,10 @@
         <v>10</v>
       </c>
       <c r="F551" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G551" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H551" s="5" t="s">
         <v>30</v>
@@ -31070,10 +31076,10 @@
         <v>10</v>
       </c>
       <c r="F552" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G552" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H552" s="5" t="s">
         <v>30</v>
@@ -31097,10 +31103,10 @@
         <v>10</v>
       </c>
       <c r="F553" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G553" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H553" s="5" t="s">
         <v>30</v>
@@ -31124,10 +31130,10 @@
         <v>10</v>
       </c>
       <c r="F554" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G554" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H554" s="5" t="s">
         <v>30</v>
@@ -31151,10 +31157,10 @@
         <v>10</v>
       </c>
       <c r="F555" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G555" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H555" s="5" t="s">
         <v>30</v>
@@ -31178,10 +31184,10 @@
         <v>10</v>
       </c>
       <c r="F556" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G556" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H556" s="5" t="s">
         <v>30</v>
@@ -31205,10 +31211,10 @@
         <v>10</v>
       </c>
       <c r="F557" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G557" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G557" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H557" s="5" t="s">
         <v>30</v>
@@ -31232,10 +31238,10 @@
         <v>10</v>
       </c>
       <c r="F558" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G558" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G558" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H558" s="5" t="s">
         <v>30</v>
@@ -31259,10 +31265,10 @@
         <v>10</v>
       </c>
       <c r="F559" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G559" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G559" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H559" s="5" t="s">
         <v>30</v>
@@ -31286,10 +31292,10 @@
         <v>10</v>
       </c>
       <c r="F560" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G560" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G560" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H560" s="5" t="s">
         <v>30</v>
@@ -31313,10 +31319,10 @@
         <v>10</v>
       </c>
       <c r="F561" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G561" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G561" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H561" s="5" t="s">
         <v>30</v>
@@ -31340,13 +31346,13 @@
         <v>10</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G562" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H562" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31367,13 +31373,13 @@
         <v>10</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H563" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="564" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31394,13 +31400,13 @@
         <v>10</v>
       </c>
       <c r="F564" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G564" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H564" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="565" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31421,13 +31427,13 @@
         <v>10</v>
       </c>
       <c r="F565" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H565" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31448,13 +31454,13 @@
         <v>10</v>
       </c>
       <c r="F566" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G566" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H566" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="567" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31475,13 +31481,13 @@
         <v>10</v>
       </c>
       <c r="F567" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G567" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H567" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="568" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31502,13 +31508,13 @@
         <v>10</v>
       </c>
       <c r="F568" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G568" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H568" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31529,13 +31535,13 @@
         <v>10</v>
       </c>
       <c r="F569" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G569" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H569" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31556,13 +31562,13 @@
         <v>10</v>
       </c>
       <c r="F570" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G570" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H570" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="571" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31583,13 +31589,13 @@
         <v>10</v>
       </c>
       <c r="F571" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G571" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H571" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="572" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31610,13 +31616,13 @@
         <v>10</v>
       </c>
       <c r="F572" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G572" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H572" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="573" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31637,13 +31643,13 @@
         <v>10</v>
       </c>
       <c r="F573" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G573" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H573" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="574" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31664,13 +31670,13 @@
         <v>10</v>
       </c>
       <c r="F574" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G574" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H574" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="575" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31691,13 +31697,13 @@
         <v>10</v>
       </c>
       <c r="F575" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G575" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H575" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="576" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31718,13 +31724,13 @@
         <v>10</v>
       </c>
       <c r="F576" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G576" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H576" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="577" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31745,13 +31751,13 @@
         <v>10</v>
       </c>
       <c r="F577" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G577" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H577" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="578" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31772,7 +31778,7 @@
         <v>10</v>
       </c>
       <c r="F578" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G578" s="5" t="s">
         <v>36</v>
@@ -31799,10 +31805,10 @@
         <v>10</v>
       </c>
       <c r="F579" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G579" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H579" s="5" t="s">
         <v>30</v>
@@ -31826,10 +31832,10 @@
         <v>10</v>
       </c>
       <c r="F580" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G580" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H580" s="5" t="s">
         <v>30</v>
@@ -31853,10 +31859,10 @@
         <v>10</v>
       </c>
       <c r="F581" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G581" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H581" s="5" t="s">
         <v>30</v>
@@ -31880,10 +31886,10 @@
         <v>10</v>
       </c>
       <c r="F582" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G582" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H582" s="5" t="s">
         <v>30</v>
@@ -31907,10 +31913,10 @@
         <v>10</v>
       </c>
       <c r="F583" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G583" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H583" s="5" t="s">
         <v>30</v>
@@ -31921,7 +31927,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="6" t="str">
-        <f t="shared" ref="B584:B627" si="11">DEC2HEX(A584,4)</f>
+        <f t="shared" ref="B584:B628" si="11">DEC2HEX(A584,4)</f>
         <v>0246</v>
       </c>
       <c r="C584" s="5">
@@ -31934,10 +31940,10 @@
         <v>10</v>
       </c>
       <c r="F584" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G584" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H584" s="5" t="s">
         <v>30</v>
@@ -31961,10 +31967,10 @@
         <v>10</v>
       </c>
       <c r="F585" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G585" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H585" s="5" t="s">
         <v>30</v>
@@ -31988,10 +31994,10 @@
         <v>10</v>
       </c>
       <c r="F586" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G586" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H586" s="5" t="s">
         <v>30</v>
@@ -32015,10 +32021,10 @@
         <v>10</v>
       </c>
       <c r="F587" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G587" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H587" s="5" t="s">
         <v>30</v>
@@ -32042,10 +32048,10 @@
         <v>10</v>
       </c>
       <c r="F588" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G588" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H588" s="5" t="s">
         <v>30</v>
@@ -32069,10 +32075,10 @@
         <v>10</v>
       </c>
       <c r="F589" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G589" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H589" s="5" t="s">
         <v>30</v>
@@ -32096,10 +32102,10 @@
         <v>10</v>
       </c>
       <c r="F590" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G590" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H590" s="5" t="s">
         <v>30</v>
@@ -32123,10 +32129,10 @@
         <v>10</v>
       </c>
       <c r="F591" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G591" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H591" s="5" t="s">
         <v>30</v>
@@ -32150,10 +32156,10 @@
         <v>10</v>
       </c>
       <c r="F592" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G592" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H592" s="5" t="s">
         <v>30</v>
@@ -32177,10 +32183,10 @@
         <v>10</v>
       </c>
       <c r="F593" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G593" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H593" s="5" t="s">
         <v>30</v>
@@ -32204,7 +32210,7 @@
         <v>10</v>
       </c>
       <c r="F594" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G594" s="5" t="s">
         <v>36</v>
@@ -32231,10 +32237,10 @@
         <v>10</v>
       </c>
       <c r="F595" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G595" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H595" s="5" t="s">
         <v>30</v>
@@ -32258,10 +32264,10 @@
         <v>10</v>
       </c>
       <c r="F596" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G596" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H596" s="5" t="s">
         <v>30</v>
@@ -32285,10 +32291,10 @@
         <v>10</v>
       </c>
       <c r="F597" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G597" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H597" s="5" t="s">
         <v>30</v>
@@ -32312,10 +32318,10 @@
         <v>10</v>
       </c>
       <c r="F598" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G598" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H598" s="5" t="s">
         <v>30</v>
@@ -32339,10 +32345,10 @@
         <v>10</v>
       </c>
       <c r="F599" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G599" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H599" s="5" t="s">
         <v>30</v>
@@ -32366,10 +32372,10 @@
         <v>10</v>
       </c>
       <c r="F600" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G600" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H600" s="5" t="s">
         <v>30</v>
@@ -32393,10 +32399,10 @@
         <v>10</v>
       </c>
       <c r="F601" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G601" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H601" s="5" t="s">
         <v>30</v>
@@ -32420,10 +32426,10 @@
         <v>10</v>
       </c>
       <c r="F602" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G602" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H602" s="5" t="s">
         <v>30</v>
@@ -32447,10 +32453,10 @@
         <v>10</v>
       </c>
       <c r="F603" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G603" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H603" s="5" t="s">
         <v>30</v>
@@ -32474,10 +32480,10 @@
         <v>10</v>
       </c>
       <c r="F604" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G604" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H604" s="5" t="s">
         <v>30</v>
@@ -32501,10 +32507,10 @@
         <v>10</v>
       </c>
       <c r="F605" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G605" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H605" s="5" t="s">
         <v>30</v>
@@ -32528,10 +32534,10 @@
         <v>10</v>
       </c>
       <c r="F606" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G606" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H606" s="5" t="s">
         <v>30</v>
@@ -32555,10 +32561,10 @@
         <v>10</v>
       </c>
       <c r="F607" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G607" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H607" s="5" t="s">
         <v>30</v>
@@ -32582,10 +32588,10 @@
         <v>10</v>
       </c>
       <c r="F608" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G608" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H608" s="5" t="s">
         <v>30</v>
@@ -32609,398 +32615,119 @@
         <v>10</v>
       </c>
       <c r="F609" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G609" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H609" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A610">
+    <row r="610" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="5">
         <v>608</v>
       </c>
-      <c r="B610" s="3" t="str">
+      <c r="B610" s="6" t="str">
         <f t="shared" si="11"/>
         <v>0260</v>
       </c>
-      <c r="C610">
-        <v>0</v>
-      </c>
-      <c r="D610">
-        <v>0</v>
-      </c>
-      <c r="E610" t="s">
+      <c r="C610" s="5">
+        <v>0</v>
+      </c>
+      <c r="D610" s="5">
+        <v>0</v>
+      </c>
+      <c r="E610" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F610" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A611">
+      <c r="F610" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G610" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H610" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="5">
         <v>609</v>
       </c>
-      <c r="B611" s="3" t="str">
+      <c r="B611" s="6" t="str">
         <f t="shared" si="11"/>
         <v>0261</v>
       </c>
-      <c r="C611">
-        <v>0</v>
-      </c>
-      <c r="D611">
-        <v>1</v>
-      </c>
-      <c r="E611" t="s">
+      <c r="C611" s="5">
+        <v>0</v>
+      </c>
+      <c r="D611" s="5">
+        <v>1</v>
+      </c>
+      <c r="E611" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F611" t="s">
-        <v>62</v>
+      <c r="F611" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G611" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H611" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A612">
-        <v>610</v>
-      </c>
-      <c r="B612" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0262</v>
-      </c>
-      <c r="C612">
-        <v>0</v>
-      </c>
-      <c r="D612">
-        <v>2</v>
-      </c>
-      <c r="E612" t="s">
-        <v>10</v>
-      </c>
-      <c r="F612" t="s">
-        <v>62</v>
-      </c>
+      <c r="B612" s="3"/>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A613">
-        <v>611</v>
-      </c>
-      <c r="B613" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0263</v>
-      </c>
-      <c r="C613">
-        <v>0</v>
-      </c>
-      <c r="D613">
-        <v>3</v>
-      </c>
-      <c r="E613" t="s">
-        <v>10</v>
-      </c>
-      <c r="F613" t="s">
-        <v>62</v>
-      </c>
+      <c r="B613" s="3"/>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A614">
-        <v>612</v>
-      </c>
-      <c r="B614" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0264</v>
-      </c>
-      <c r="C614">
-        <v>1</v>
-      </c>
-      <c r="D614">
-        <v>0</v>
-      </c>
-      <c r="E614" t="s">
-        <v>10</v>
-      </c>
-      <c r="F614" t="s">
-        <v>62</v>
-      </c>
+      <c r="B614" s="3"/>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A615">
-        <v>613</v>
-      </c>
-      <c r="B615" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0265</v>
-      </c>
-      <c r="C615">
-        <v>1</v>
-      </c>
-      <c r="D615">
-        <v>1</v>
-      </c>
-      <c r="E615" t="s">
-        <v>10</v>
-      </c>
-      <c r="F615" t="s">
-        <v>62</v>
-      </c>
+      <c r="B615" s="3"/>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A616">
-        <v>614</v>
-      </c>
-      <c r="B616" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0266</v>
-      </c>
-      <c r="C616">
-        <v>1</v>
-      </c>
-      <c r="D616">
-        <v>2</v>
-      </c>
-      <c r="E616" t="s">
-        <v>10</v>
-      </c>
-      <c r="F616" t="s">
-        <v>62</v>
-      </c>
+      <c r="B616" s="3"/>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A617">
-        <v>615</v>
-      </c>
-      <c r="B617" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0267</v>
-      </c>
-      <c r="C617">
-        <v>1</v>
-      </c>
-      <c r="D617">
-        <v>3</v>
-      </c>
-      <c r="E617" t="s">
-        <v>10</v>
-      </c>
-      <c r="F617" t="s">
-        <v>62</v>
-      </c>
+      <c r="B617" s="3"/>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A618">
-        <v>616</v>
-      </c>
-      <c r="B618" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0268</v>
-      </c>
-      <c r="C618">
-        <v>2</v>
-      </c>
-      <c r="D618">
-        <v>0</v>
-      </c>
-      <c r="E618" t="s">
-        <v>10</v>
-      </c>
-      <c r="F618" t="s">
-        <v>62</v>
-      </c>
+      <c r="B618" s="3"/>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A619">
-        <v>617</v>
-      </c>
-      <c r="B619" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0269</v>
-      </c>
-      <c r="C619">
-        <v>2</v>
-      </c>
-      <c r="D619">
-        <v>1</v>
-      </c>
-      <c r="E619" t="s">
-        <v>10</v>
-      </c>
-      <c r="F619" t="s">
-        <v>62</v>
-      </c>
+      <c r="B619" s="3"/>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A620">
-        <v>618</v>
-      </c>
-      <c r="B620" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>026A</v>
-      </c>
-      <c r="C620">
-        <v>2</v>
-      </c>
-      <c r="D620">
-        <v>2</v>
-      </c>
-      <c r="E620" t="s">
-        <v>10</v>
-      </c>
-      <c r="F620" t="s">
-        <v>62</v>
-      </c>
+      <c r="B620" s="3"/>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A621">
-        <v>619</v>
-      </c>
-      <c r="B621" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>026B</v>
-      </c>
-      <c r="C621">
-        <v>2</v>
-      </c>
-      <c r="D621">
-        <v>3</v>
-      </c>
-      <c r="E621" t="s">
-        <v>10</v>
-      </c>
-      <c r="F621" t="s">
-        <v>62</v>
-      </c>
+      <c r="B621" s="3"/>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A622">
-        <v>620</v>
-      </c>
-      <c r="B622" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>026C</v>
-      </c>
-      <c r="C622">
-        <v>3</v>
-      </c>
-      <c r="D622">
-        <v>0</v>
-      </c>
-      <c r="E622" t="s">
-        <v>10</v>
-      </c>
-      <c r="F622" t="s">
-        <v>62</v>
-      </c>
+      <c r="B622" s="3"/>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A623">
-        <v>621</v>
-      </c>
-      <c r="B623" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>026D</v>
-      </c>
-      <c r="C623">
-        <v>3</v>
-      </c>
-      <c r="D623">
-        <v>1</v>
-      </c>
-      <c r="E623" t="s">
-        <v>10</v>
-      </c>
-      <c r="F623" t="s">
-        <v>62</v>
-      </c>
+      <c r="B623" s="3"/>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A624">
-        <v>622</v>
-      </c>
-      <c r="B624" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>026E</v>
-      </c>
-      <c r="C624">
-        <v>3</v>
-      </c>
-      <c r="D624">
-        <v>2</v>
-      </c>
-      <c r="E624" t="s">
-        <v>10</v>
-      </c>
-      <c r="F624" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A625">
-        <v>623</v>
-      </c>
-      <c r="B625" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>026F</v>
-      </c>
-      <c r="C625">
-        <v>3</v>
-      </c>
-      <c r="D625">
-        <v>3</v>
-      </c>
-      <c r="E625" t="s">
-        <v>10</v>
-      </c>
-      <c r="F625" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A626">
-        <v>624</v>
-      </c>
-      <c r="B626" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0270</v>
-      </c>
-      <c r="C626" t="s">
-        <v>5</v>
-      </c>
-      <c r="D626" t="s">
-        <v>5</v>
-      </c>
-      <c r="E626" t="s">
-        <v>5</v>
-      </c>
-      <c r="F626" t="s">
-        <v>85</v>
-      </c>
-      <c r="G626" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A627">
-        <v>625</v>
-      </c>
-      <c r="B627" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>0271</v>
-      </c>
-      <c r="C627" t="s">
-        <v>5</v>
-      </c>
-      <c r="D627" t="s">
-        <v>5</v>
-      </c>
-      <c r="E627" t="s">
-        <v>5</v>
-      </c>
-      <c r="F627" t="s">
-        <v>85</v>
-      </c>
-      <c r="G627" t="s">
-        <v>86</v>
-      </c>
+      <c r="B624" s="3"/>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" s="3"/>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" s="3"/>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" s="3"/>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33023,10 +32750,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -33038,19 +32765,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -33058,22 +32785,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -33081,7 +32808,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="18"/>
       <c r="G5" s="15">
@@ -33094,7 +32821,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -33102,7 +32829,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="18"/>
       <c r="G6" s="15">
@@ -33115,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -33123,22 +32850,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -33146,10 +32873,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -33161,7 +32888,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -33169,22 +32896,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -33192,22 +32919,22 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -33215,22 +32942,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="C11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -33240,7 +32967,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="14880" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11520" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
     <sheet name="SCROD Read Registers" sheetId="2" r:id="rId2"/>
-    <sheet name="IRS3B_TIMING_REGISTER" sheetId="4" r:id="rId3"/>
-    <sheet name="DAC Mappings (IRS2 DC RevB2)" sheetId="3" r:id="rId4"/>
+    <sheet name="IRS3B_Reg_Default" sheetId="5" r:id="rId3"/>
+    <sheet name="IRS3B_TIMING_REGISTER" sheetId="4" r:id="rId4"/>
+    <sheet name="I2C addresses" sheetId="6" r:id="rId5"/>
+    <sheet name="DAC Mappings (IRS2 DC RevB2)" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">IRS3B_Reg_Default!$A$5:$K$69</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="419">
   <si>
     <t>Register Number</t>
   </si>
@@ -740,6 +745,540 @@
   </si>
   <si>
     <t>32-bit unsigned (with above)</t>
+  </si>
+  <si>
+    <t>Pulse Trigger test circuit</t>
+  </si>
+  <si>
+    <t>ADDR_M</t>
+  </si>
+  <si>
+    <t>AddrMode</t>
+  </si>
+  <si>
+    <t>Trig_In</t>
+  </si>
+  <si>
+    <t>Stop/Clear Wilkinson Reference counter</t>
+  </si>
+  <si>
+    <t>Boin_CLR</t>
+  </si>
+  <si>
+    <t>Start Wilkinson Reference counter</t>
+  </si>
+  <si>
+    <t>Start_WilkMon</t>
+  </si>
+  <si>
+    <t>Clear Read Address Registers</t>
+  </si>
+  <si>
+    <t>RD_ctr_CLR</t>
+  </si>
+  <si>
+    <t>Clear Data Output Address Registers</t>
+  </si>
+  <si>
+    <t>DatOut_ctr_CLR</t>
+  </si>
+  <si>
+    <t>undef.</t>
+  </si>
+  <si>
+    <t>0xAD0</t>
+  </si>
+  <si>
+    <t>Servo-lock target value</t>
+  </si>
+  <si>
+    <t>Timing Generator delay adjust NMOS</t>
+  </si>
+  <si>
+    <t>VadjN</t>
+  </si>
+  <si>
+    <t>0x600</t>
+  </si>
+  <si>
+    <t>DAC buff bias for VadjN</t>
+  </si>
+  <si>
+    <t>VANDbias</t>
+  </si>
+  <si>
+    <t>0x5E8</t>
+  </si>
+  <si>
+    <t>Initial config required</t>
+  </si>
+  <si>
+    <t>Timing Generator delay adjust PMOS</t>
+  </si>
+  <si>
+    <t>VadjP</t>
+  </si>
+  <si>
+    <t>DAC buff bias for VadjP</t>
+  </si>
+  <si>
+    <t>VAPDbias</t>
+  </si>
+  <si>
+    <t>0xB54</t>
+  </si>
+  <si>
+    <t>Wilkinson counter adj voltage</t>
+  </si>
+  <si>
+    <t>Vdly</t>
+  </si>
+  <si>
+    <t>0x400</t>
+  </si>
+  <si>
+    <t>DAC buff bias for Vdly</t>
+  </si>
+  <si>
+    <t>VDDbias</t>
+  </si>
+  <si>
+    <t>0x900</t>
+  </si>
+  <si>
+    <t>Voltage Ramp Current</t>
+  </si>
+  <si>
+    <t>DAC buff bias for ISEL</t>
+  </si>
+  <si>
+    <t>ISDbias</t>
+  </si>
+  <si>
+    <t>Super Buffer bias</t>
+  </si>
+  <si>
+    <t>Sbbias</t>
+  </si>
+  <si>
+    <t>DAC buff bias for Super Buffer bias</t>
+  </si>
+  <si>
+    <t>SBDbias</t>
+  </si>
+  <si>
+    <t>0xBF0</t>
+  </si>
+  <si>
+    <t>Storage Column Comparators (Pull-Up) bias</t>
+  </si>
+  <si>
+    <t>PUbias</t>
+  </si>
+  <si>
+    <t>DAC buff bias for CMPbias</t>
+  </si>
+  <si>
+    <t>PUDbias</t>
+  </si>
+  <si>
+    <t>0x500</t>
+  </si>
+  <si>
+    <t>Storage Cell Comparators (Pull-Down) bias</t>
+  </si>
+  <si>
+    <t>CMPbias</t>
+  </si>
+  <si>
+    <t>PDDbias</t>
+  </si>
+  <si>
+    <t>decode for view state --See MONTIMING Page below</t>
+  </si>
+  <si>
+    <t>Select Timing signals viewed, Phase clear, RCO running</t>
+  </si>
+  <si>
+    <t>0x***</t>
+  </si>
+  <si>
+    <t>Timing Generator Reg</t>
+  </si>
+  <si>
+    <t>0x070</t>
+  </si>
+  <si>
+    <t>Trailing Edge WR_STRB</t>
+  </si>
+  <si>
+    <t>0x040</t>
+  </si>
+  <si>
+    <t>NOTE:  WR_ADDR phase CRITICAL</t>
+  </si>
+  <si>
+    <t>Timing Gen:  WR_STRB</t>
+  </si>
+  <si>
+    <t>Leading Edge WR_STRB</t>
+  </si>
+  <si>
+    <t>0x030</t>
+  </si>
+  <si>
+    <t>Trailing Edge PHASE</t>
+  </si>
+  <si>
+    <t>0x018</t>
+  </si>
+  <si>
+    <t>Timing Gen:  PHASE</t>
+  </si>
+  <si>
+    <t>Leading Edge PHASE</t>
+  </si>
+  <si>
+    <t>Trailing Edge S2</t>
+  </si>
+  <si>
+    <t>0x068</t>
+  </si>
+  <si>
+    <t>Timing Gen:  S2</t>
+  </si>
+  <si>
+    <t>Leading Edge S2</t>
+  </si>
+  <si>
+    <t>0x058</t>
+  </si>
+  <si>
+    <t>Trailing Edge S1</t>
+  </si>
+  <si>
+    <t>0x028</t>
+  </si>
+  <si>
+    <t>Timing Gen:  S1</t>
+  </si>
+  <si>
+    <t>Leading Edge S1</t>
+  </si>
+  <si>
+    <t>0x010</t>
+  </si>
+  <si>
+    <t>Trailing Edge SSPin</t>
+  </si>
+  <si>
+    <t>0x060</t>
+  </si>
+  <si>
+    <t>Timing Gen:  SSPin</t>
+  </si>
+  <si>
+    <t>Leading Edge SSPin</t>
+  </si>
+  <si>
+    <t>0x800</t>
+  </si>
+  <si>
+    <t>Trigger threshold for reference channel</t>
+  </si>
+  <si>
+    <t>TRGthref</t>
+  </si>
+  <si>
+    <t>0x350</t>
+  </si>
+  <si>
+    <t>TRGbias for reference channel</t>
+  </si>
+  <si>
+    <t>TRGbias2</t>
+  </si>
+  <si>
+    <t>DAC buff bias for TRGbias2, TRGthref</t>
+  </si>
+  <si>
+    <t>TRGDbias</t>
+  </si>
+  <si>
+    <t>(disable for external drive)</t>
+  </si>
+  <si>
+    <t>Internal Trigger Threshold buffer bias</t>
+  </si>
+  <si>
+    <t>Tbbias</t>
+  </si>
+  <si>
+    <t>DAC buff bias for Trigger Thresholds</t>
+  </si>
+  <si>
+    <t>THDbias</t>
+  </si>
+  <si>
+    <t>Trigger Comparator bias</t>
+  </si>
+  <si>
+    <t>TRGbias</t>
+  </si>
+  <si>
+    <t>DAC buff bias for Trigger Comparator</t>
+  </si>
+  <si>
+    <t>TCBbias</t>
+  </si>
+  <si>
+    <t>0x370</t>
+  </si>
+  <si>
+    <t>Trigger Width adjust (Wbias)</t>
+  </si>
+  <si>
+    <t>0x3D7</t>
+  </si>
+  <si>
+    <t>Wbias</t>
+  </si>
+  <si>
+    <t>DAC buff bias for Wbias</t>
+  </si>
+  <si>
+    <t>WBDbias</t>
+  </si>
+  <si>
+    <t>0x000</t>
+  </si>
+  <si>
+    <t>Misc Reg (incl. SGN)</t>
+  </si>
+  <si>
+    <t>Buff amp bias -- transfer samples</t>
+  </si>
+  <si>
+    <t>Vbias2</t>
+  </si>
+  <si>
+    <t>0x380</t>
+  </si>
+  <si>
+    <t>Buff amp bias -- initial sample</t>
+  </si>
+  <si>
+    <t>Vbias</t>
+  </si>
+  <si>
+    <t>DAC buff bias for Vbias, Vbias2</t>
+  </si>
+  <si>
+    <t>VBDbias</t>
+  </si>
+  <si>
+    <t>TBD (0x000)</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 8</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 7</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 6</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 5</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 4</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 3</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 2</t>
+  </si>
+  <si>
+    <t>scan required</t>
+  </si>
+  <si>
+    <t>Threshold Ch. 1</t>
+  </si>
+  <si>
+    <t>equiv.</t>
+  </si>
+  <si>
+    <t>value (hex)</t>
+  </si>
+  <si>
+    <t># bits</t>
+  </si>
+  <si>
+    <t>Default value</t>
+  </si>
+  <si>
+    <t>Register/Value</t>
+  </si>
+  <si>
+    <t>"PCLK #"</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>mV/count</t>
+  </si>
+  <si>
+    <t>Decimal equivalent at right --&gt;</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>Register Map for IRS3B</t>
+  </si>
+  <si>
+    <t>alternative is to treat GPIO2 on c13 as write-only device and ignore the conflict with the temperature sensor (which it will not be possible to read)</t>
+  </si>
+  <si>
+    <t>the boxes with a red background are a mistake; solution is to exchange for PCA9534, then the address is 0100010</t>
+  </si>
+  <si>
+    <t>swapped GPIO0 and GPIO2 in this table from previous version to make it correspond to the schematic</t>
+  </si>
+  <si>
+    <t>updates from 2013-03-01:</t>
+  </si>
+  <si>
+    <t>W18,J2</t>
+  </si>
+  <si>
+    <t>GPIOs are PCA9534</t>
+  </si>
+  <si>
+    <t>interconnect</t>
+  </si>
+  <si>
+    <t>0100001</t>
+  </si>
+  <si>
+    <t>0100000</t>
+  </si>
+  <si>
+    <t>0111011</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0111010</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1001011</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0010001</t>
+  </si>
+  <si>
+    <t>0111000</t>
+  </si>
+  <si>
+    <t>0111001</t>
+  </si>
+  <si>
+    <t>1010001</t>
+  </si>
+  <si>
+    <t>1001010</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1001001</t>
+  </si>
+  <si>
+    <t>0010000</t>
+  </si>
+  <si>
+    <t>0111100</t>
+  </si>
+  <si>
+    <t>0111101</t>
+  </si>
+  <si>
+    <t>0111110</t>
+  </si>
+  <si>
+    <t>1010000</t>
+  </si>
+  <si>
+    <t>1001000</t>
+  </si>
+  <si>
+    <t>I2C SCL,SDA nets</t>
+  </si>
+  <si>
+    <t>E14,K14</t>
+  </si>
+  <si>
+    <t>AB4,P19</t>
+  </si>
+  <si>
+    <t>L10,K10</t>
+  </si>
+  <si>
+    <t>GPIOs are PCA9534A</t>
+  </si>
+  <si>
+    <t>H13,F14</t>
+  </si>
+  <si>
+    <t>AD4,AE1</t>
+  </si>
+  <si>
+    <t>M18,N18</t>
+  </si>
+  <si>
+    <t>carrier DAC</t>
+  </si>
+  <si>
+    <t>carrier GPIO0</t>
+  </si>
+  <si>
+    <t>carrier GPIO1</t>
+  </si>
+  <si>
+    <t>carrier GPIO2</t>
+  </si>
+  <si>
+    <t>carrier eeprom</t>
+  </si>
+  <si>
+    <t>ASIC temperature</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>row</t>
   </si>
 </sst>
 </file>
@@ -749,7 +1288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,8 +1304,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +1344,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="61"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="35"/>
       </patternFill>
     </fill>
   </fills>
@@ -807,10 +1416,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -855,9 +1465,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,9 +1837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G504" sqref="G504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13122,9 +13801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F610" sqref="F610"/>
+      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32737,10 +33416,1608 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="31">
+        <f ca="1">+TODAY()</f>
+        <v>41349</v>
+      </c>
+      <c r="P1">
+        <v>2500</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E2" s="31"/>
+      <c r="P2">
+        <v>4096</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="P3">
+        <f>+P1/P2</f>
+        <v>0.6103515625</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" t="s">
+        <v>363</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="28">
+        <v>12</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>HEX2DEC(N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <f>+$P$3*O6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>2</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="28">
+        <v>12</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>HEX2DEC(N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <f>+$P$3*O7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="28">
+        <v>12</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>HEX2DEC(N8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <f>+$P$3*O8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>4</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="28">
+        <v>12</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>HEX2DEC(N9)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <f>+$P$3*O9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>5</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="28">
+        <v>12</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>HEX2DEC(N10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <f>+$P$3*O10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>6</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="28">
+        <v>12</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>HEX2DEC(N11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <f>+$P$3*O11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>7</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="28">
+        <v>12</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>HEX2DEC(N12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <f>+$P$3*O12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>8</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="26">
+        <v>12</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>HEX2DEC(N13)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <f>+$P$3*O13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>349</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" s="24">
+        <v>400</v>
+      </c>
+      <c r="O14">
+        <f>HEX2DEC(N14)</f>
+        <v>1024</v>
+      </c>
+      <c r="P14" s="25">
+        <f>+$P$3*O14</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>347</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="N15" s="24">
+        <v>380</v>
+      </c>
+      <c r="O15">
+        <f>HEX2DEC(N15)</f>
+        <v>896</v>
+      </c>
+      <c r="P15" s="25">
+        <f>+$P$3*O15</f>
+        <v>546.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>344</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N16" s="24">
+        <v>370</v>
+      </c>
+      <c r="O16">
+        <f>HEX2DEC(N16)</f>
+        <v>880</v>
+      </c>
+      <c r="P16" s="25">
+        <f>+$P$3*O16</f>
+        <v>537.109375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>HEX2DEC(N17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <f>+$P$3*O17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>340</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="24">
+        <v>400</v>
+      </c>
+      <c r="O18">
+        <f>HEX2DEC(N18)</f>
+        <v>1024</v>
+      </c>
+      <c r="P18" s="25">
+        <f>+$P$3*O18</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>337</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N19" s="24">
+        <v>370</v>
+      </c>
+      <c r="O19">
+        <f>HEX2DEC(N19)</f>
+        <v>880</v>
+      </c>
+      <c r="P19" s="25">
+        <f>+$P$3*O19</f>
+        <v>537.109375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="N20" s="24">
+        <v>400</v>
+      </c>
+      <c r="O20">
+        <f>HEX2DEC(N20)</f>
+        <v>1024</v>
+      </c>
+      <c r="P20" s="25">
+        <f>+$P$3*O20</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>332</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="N21" s="24">
+        <v>350</v>
+      </c>
+      <c r="O21">
+        <f>HEX2DEC(N21)</f>
+        <v>848</v>
+      </c>
+      <c r="P21" s="25">
+        <f>+$P$3*O21</f>
+        <v>517.578125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>330</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="N22" s="24">
+        <v>400</v>
+      </c>
+      <c r="O22">
+        <f>HEX2DEC(N22)</f>
+        <v>1024</v>
+      </c>
+      <c r="P22" s="25">
+        <f>+$P$3*O22</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>328</v>
+      </c>
+      <c r="I23" t="s">
+        <v>327</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="N23" s="24">
+        <v>400</v>
+      </c>
+      <c r="O23">
+        <f>HEX2DEC(N23)</f>
+        <v>1024</v>
+      </c>
+      <c r="P23" s="25">
+        <f>+$P$3*O23</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>325</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24" s="24">
+        <v>400</v>
+      </c>
+      <c r="O24">
+        <f>HEX2DEC(N24)</f>
+        <v>1024</v>
+      </c>
+      <c r="P24" s="25">
+        <f>+$P$3*O24</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>323</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="N25" s="24">
+        <v>350</v>
+      </c>
+      <c r="O25">
+        <f>HEX2DEC(N25)</f>
+        <v>848</v>
+      </c>
+      <c r="P25" s="25">
+        <f>+$P$3*O25</f>
+        <v>517.578125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N26" s="24">
+        <v>800</v>
+      </c>
+      <c r="O26">
+        <f>HEX2DEC(N26)</f>
+        <v>2048</v>
+      </c>
+      <c r="P26" s="25">
+        <f>+$P$3*O26</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="M27" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="N27" s="24">
+        <v>60</v>
+      </c>
+      <c r="O27">
+        <f>HEX2DEC(N27)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>+A27+1</f>
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="M28" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="N28" s="24">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <f>HEX2DEC(N28)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>+A28+1</f>
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="M29" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="N29" s="24">
+        <v>28</v>
+      </c>
+      <c r="O29">
+        <f>HEX2DEC(N29)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>+A29+1</f>
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="M30" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N30" s="24">
+        <v>58</v>
+      </c>
+      <c r="O30">
+        <f>HEX2DEC(N30)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>+A30+1</f>
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="M31" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="N31" s="24">
+        <v>68</v>
+      </c>
+      <c r="O31">
+        <f>HEX2DEC(N31)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>+A31+1</f>
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="M32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="N32" s="24">
+        <v>18</v>
+      </c>
+      <c r="O32">
+        <f>HEX2DEC(N32)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>+A32+1</f>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="M33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="N33" s="24">
+        <v>18</v>
+      </c>
+      <c r="O33">
+        <f>HEX2DEC(N33)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>+A33+1</f>
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="M34" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="N34" s="24">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <f>HEX2DEC(N34)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>+A34+1</f>
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="N35" s="24">
+        <v>40</v>
+      </c>
+      <c r="O35">
+        <f>HEX2DEC(N35)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>+A35+1</f>
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="M36" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="N36" s="24">
+        <v>70</v>
+      </c>
+      <c r="O36">
+        <f>HEX2DEC(N36)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>+A36+1</f>
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>+A37+1</f>
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>+A38+1</f>
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>+A39+1</f>
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>+A40+1</f>
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>282</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>+A41+1</f>
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>+A42+1</f>
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>277</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>+A43+1</f>
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>275</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>+A44+1</f>
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>+A45+1</f>
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>271</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>+A46+1</f>
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>268</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>+A47+1</f>
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>+A48+1</f>
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>263</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>+A49+1</f>
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>259</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>+A50+1</f>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>256</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>+A51+1</f>
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>+A52+1</f>
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>+A53+1</f>
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>+A54+1</f>
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>+A55+1</f>
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>+A56+1</f>
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>+A57+1</f>
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>+A58+1</f>
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>+A59+1</f>
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>+A60+1</f>
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>+A61+1</f>
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>+A62+1</f>
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>+A63+1</f>
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>+A64+1</f>
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>+A65+1</f>
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>+A66+1</f>
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>+A67+1</f>
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>+A68+1</f>
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="E33:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32979,13 +35256,549 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="32" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11" style="32" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="33" customWidth="1"/>
+    <col min="12" max="12" width="11" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43"/>
+      <c r="J5" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="43"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="43"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="43"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="37"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="37"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="37"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="E21" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="34" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="24">
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -465,9 +465,6 @@
     <t>TIMING_PHASE</t>
   </si>
   <si>
-    <t>TIMING_REG</t>
-  </si>
-  <si>
     <t>Each bit turns on one ASIC's feedback enale for servoing VDLY</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
     <t>Bits 7:0 set the timing of the leading edge, bits 15:8 set the timing of the trailing edge</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>PCLK = 32 address decoding</t>
   </si>
   <si>
@@ -1279,6 +1273,12 @@
   </si>
   <si>
     <t>row</t>
+  </si>
+  <si>
+    <t>TIMING_REG &amp; sampling sync bits)</t>
+  </si>
+  <si>
+    <t>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases</t>
   </si>
 </sst>
 </file>
@@ -1456,12 +1456,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1476,13 +1470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1500,22 +1488,40 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,13 +1530,7 @@
     <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G504" sqref="G504"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G381" sqref="G381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>26</v>
@@ -5731,7 +5731,7 @@
         <v>27</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>26</v>
@@ -5758,7 +5758,7 @@
         <v>28</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>26</v>
@@ -6880,7 +6880,7 @@
         <v>12</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>30</v>
@@ -6907,7 +6907,7 @@
         <v>12</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>30</v>
@@ -6934,7 +6934,7 @@
         <v>12</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>30</v>
@@ -6961,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H208" s="5" t="s">
         <v>30</v>
@@ -6988,7 +6988,7 @@
         <v>12</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>30</v>
@@ -7015,7 +7015,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>30</v>
@@ -7042,7 +7042,7 @@
         <v>12</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>30</v>
@@ -7069,7 +7069,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>30</v>
@@ -7096,7 +7096,7 @@
         <v>12</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>30</v>
@@ -7123,7 +7123,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>30</v>
@@ -7150,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>30</v>
@@ -7177,7 +7177,7 @@
         <v>12</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>30</v>
@@ -7204,7 +7204,7 @@
         <v>12</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>30</v>
@@ -7231,7 +7231,7 @@
         <v>12</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>30</v>
@@ -7258,7 +7258,7 @@
         <v>12</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>30</v>
@@ -7285,7 +7285,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>30</v>
@@ -7312,7 +7312,7 @@
         <v>141</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>30</v>
@@ -7339,7 +7339,7 @@
         <v>141</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>30</v>
@@ -7366,7 +7366,7 @@
         <v>141</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>30</v>
@@ -7393,7 +7393,7 @@
         <v>141</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>30</v>
@@ -7420,7 +7420,7 @@
         <v>141</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>30</v>
@@ -7447,7 +7447,7 @@
         <v>141</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>30</v>
@@ -7474,7 +7474,7 @@
         <v>141</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>30</v>
@@ -7501,7 +7501,7 @@
         <v>141</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>30</v>
@@ -7528,7 +7528,7 @@
         <v>141</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>30</v>
@@ -7555,7 +7555,7 @@
         <v>141</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H230" s="5" t="s">
         <v>30</v>
@@ -7582,7 +7582,7 @@
         <v>141</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H231" s="5" t="s">
         <v>30</v>
@@ -7609,7 +7609,7 @@
         <v>141</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>30</v>
@@ -7636,7 +7636,7 @@
         <v>141</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>30</v>
@@ -7663,7 +7663,7 @@
         <v>141</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>30</v>
@@ -7690,7 +7690,7 @@
         <v>141</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>30</v>
@@ -7717,7 +7717,7 @@
         <v>141</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>30</v>
@@ -7744,7 +7744,7 @@
         <v>25</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>30</v>
@@ -7771,7 +7771,7 @@
         <v>25</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>30</v>
@@ -7798,7 +7798,7 @@
         <v>25</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>30</v>
@@ -7825,7 +7825,7 @@
         <v>25</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H240" s="5" t="s">
         <v>30</v>
@@ -7852,7 +7852,7 @@
         <v>25</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>30</v>
@@ -7879,7 +7879,7 @@
         <v>25</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H242" s="5" t="s">
         <v>30</v>
@@ -7906,7 +7906,7 @@
         <v>25</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H243" s="5" t="s">
         <v>30</v>
@@ -7933,7 +7933,7 @@
         <v>25</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>30</v>
@@ -7960,7 +7960,7 @@
         <v>25</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>30</v>
@@ -7987,7 +7987,7 @@
         <v>25</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>30</v>
@@ -8014,7 +8014,7 @@
         <v>25</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>30</v>
@@ -8041,7 +8041,7 @@
         <v>25</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>30</v>
@@ -8068,7 +8068,7 @@
         <v>25</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>30</v>
@@ -8095,7 +8095,7 @@
         <v>25</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>30</v>
@@ -8122,7 +8122,7 @@
         <v>25</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>30</v>
@@ -8149,7 +8149,7 @@
         <v>25</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>30</v>
@@ -8176,7 +8176,7 @@
         <v>23</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>30</v>
@@ -8203,7 +8203,7 @@
         <v>23</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>30</v>
@@ -8230,7 +8230,7 @@
         <v>23</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>30</v>
@@ -8257,7 +8257,7 @@
         <v>23</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>30</v>
@@ -8284,7 +8284,7 @@
         <v>23</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>30</v>
@@ -8311,7 +8311,7 @@
         <v>23</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>30</v>
@@ -8338,7 +8338,7 @@
         <v>23</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>30</v>
@@ -8365,7 +8365,7 @@
         <v>23</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>30</v>
@@ -8392,7 +8392,7 @@
         <v>23</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>30</v>
@@ -8419,7 +8419,7 @@
         <v>23</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H262" s="5" t="s">
         <v>30</v>
@@ -8446,7 +8446,7 @@
         <v>23</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>30</v>
@@ -8473,7 +8473,7 @@
         <v>23</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>30</v>
@@ -8500,7 +8500,7 @@
         <v>23</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>30</v>
@@ -8527,7 +8527,7 @@
         <v>23</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>30</v>
@@ -8554,7 +8554,7 @@
         <v>23</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H267" s="5" t="s">
         <v>30</v>
@@ -8581,7 +8581,7 @@
         <v>23</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H268" s="5" t="s">
         <v>30</v>
@@ -8608,7 +8608,7 @@
         <v>24</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H269" s="5" t="s">
         <v>30</v>
@@ -8635,7 +8635,7 @@
         <v>24</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>30</v>
@@ -8662,7 +8662,7 @@
         <v>24</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H271" s="5" t="s">
         <v>30</v>
@@ -8689,7 +8689,7 @@
         <v>24</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>30</v>
@@ -8716,7 +8716,7 @@
         <v>24</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H273" s="5" t="s">
         <v>30</v>
@@ -8743,7 +8743,7 @@
         <v>24</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H274" s="5" t="s">
         <v>30</v>
@@ -8770,7 +8770,7 @@
         <v>24</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H275" s="5" t="s">
         <v>30</v>
@@ -8797,7 +8797,7 @@
         <v>24</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H276" s="5" t="s">
         <v>30</v>
@@ -8824,7 +8824,7 @@
         <v>24</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H277" s="5" t="s">
         <v>30</v>
@@ -8851,7 +8851,7 @@
         <v>24</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H278" s="5" t="s">
         <v>30</v>
@@ -8878,7 +8878,7 @@
         <v>24</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H279" s="5" t="s">
         <v>30</v>
@@ -8905,7 +8905,7 @@
         <v>24</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H280" s="5" t="s">
         <v>30</v>
@@ -8932,7 +8932,7 @@
         <v>24</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>30</v>
@@ -8959,7 +8959,7 @@
         <v>24</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H282" s="5" t="s">
         <v>30</v>
@@ -8986,7 +8986,7 @@
         <v>24</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>30</v>
@@ -9013,7 +9013,7 @@
         <v>24</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>30</v>
@@ -9040,7 +9040,7 @@
         <v>22</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>30</v>
@@ -9067,7 +9067,7 @@
         <v>22</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H286" s="5" t="s">
         <v>30</v>
@@ -9094,7 +9094,7 @@
         <v>22</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>30</v>
@@ -9121,7 +9121,7 @@
         <v>22</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>30</v>
@@ -9148,7 +9148,7 @@
         <v>22</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>30</v>
@@ -9175,7 +9175,7 @@
         <v>22</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>30</v>
@@ -9202,7 +9202,7 @@
         <v>22</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>30</v>
@@ -9229,7 +9229,7 @@
         <v>22</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H292" s="5" t="s">
         <v>30</v>
@@ -9256,7 +9256,7 @@
         <v>22</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H293" s="5" t="s">
         <v>30</v>
@@ -9283,7 +9283,7 @@
         <v>22</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H294" s="5" t="s">
         <v>30</v>
@@ -9310,7 +9310,7 @@
         <v>22</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>30</v>
@@ -9337,7 +9337,7 @@
         <v>22</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>30</v>
@@ -9364,7 +9364,7 @@
         <v>22</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>30</v>
@@ -9391,7 +9391,7 @@
         <v>22</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H298" s="5" t="s">
         <v>30</v>
@@ -9418,7 +9418,7 @@
         <v>22</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H299" s="5" t="s">
         <v>30</v>
@@ -9445,7 +9445,7 @@
         <v>22</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>30</v>
@@ -9472,10 +9472,10 @@
         <v>142</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9499,10 +9499,10 @@
         <v>142</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9526,10 +9526,10 @@
         <v>142</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="304" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9553,10 +9553,10 @@
         <v>142</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9580,10 +9580,10 @@
         <v>142</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9607,10 +9607,10 @@
         <v>142</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9634,10 +9634,10 @@
         <v>142</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9661,10 +9661,10 @@
         <v>142</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9688,10 +9688,10 @@
         <v>142</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9715,10 +9715,10 @@
         <v>142</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="311" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9742,10 +9742,10 @@
         <v>142</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9769,10 +9769,10 @@
         <v>142</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9796,10 +9796,10 @@
         <v>142</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="314" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9823,10 +9823,10 @@
         <v>142</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="315" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9850,10 +9850,10 @@
         <v>142</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9877,10 +9877,10 @@
         <v>142</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9904,10 +9904,10 @@
         <v>143</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9931,10 +9931,10 @@
         <v>143</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9958,10 +9958,10 @@
         <v>143</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9985,10 +9985,10 @@
         <v>143</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10012,10 +10012,10 @@
         <v>143</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="322" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10039,10 +10039,10 @@
         <v>143</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="323" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10066,10 +10066,10 @@
         <v>143</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="324" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10093,10 +10093,10 @@
         <v>143</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10120,10 +10120,10 @@
         <v>143</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="326" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10147,10 +10147,10 @@
         <v>143</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="327" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10174,10 +10174,10 @@
         <v>143</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="328" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10201,10 +10201,10 @@
         <v>143</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="329" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10228,10 +10228,10 @@
         <v>143</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="330" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10255,10 +10255,10 @@
         <v>143</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="331" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10282,10 +10282,10 @@
         <v>143</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="332" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10309,10 +10309,10 @@
         <v>143</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="333" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10336,10 +10336,10 @@
         <v>144</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H333" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="334" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10363,10 +10363,10 @@
         <v>144</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="335" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10390,10 +10390,10 @@
         <v>144</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H335" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="336" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10417,10 +10417,10 @@
         <v>144</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H336" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="337" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10444,10 +10444,10 @@
         <v>144</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H337" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="338" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10471,10 +10471,10 @@
         <v>144</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H338" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="339" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10498,10 +10498,10 @@
         <v>144</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H339" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="340" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10525,10 +10525,10 @@
         <v>144</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H340" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="341" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10552,10 +10552,10 @@
         <v>144</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H341" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="342" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10579,10 +10579,10 @@
         <v>144</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="343" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10606,10 +10606,10 @@
         <v>144</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="344" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10633,10 +10633,10 @@
         <v>144</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="345" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10660,10 +10660,10 @@
         <v>144</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="346" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10687,10 +10687,10 @@
         <v>144</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="347" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10714,10 +10714,10 @@
         <v>144</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="348" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10741,10 +10741,10 @@
         <v>144</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="349" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10768,10 +10768,10 @@
         <v>146</v>
       </c>
       <c r="G349" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H349" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="350" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10795,10 +10795,10 @@
         <v>146</v>
       </c>
       <c r="G350" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H350" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H350" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="351" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10822,10 +10822,10 @@
         <v>146</v>
       </c>
       <c r="G351" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H351" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H351" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="352" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10849,10 +10849,10 @@
         <v>146</v>
       </c>
       <c r="G352" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H352" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H352" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="353" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10876,10 +10876,10 @@
         <v>146</v>
       </c>
       <c r="G353" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H353" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H353" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="354" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10903,10 +10903,10 @@
         <v>146</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H354" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="355" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10930,10 +10930,10 @@
         <v>146</v>
       </c>
       <c r="G355" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H355" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H355" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="356" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10957,10 +10957,10 @@
         <v>146</v>
       </c>
       <c r="G356" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H356" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H356" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="357" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10984,10 +10984,10 @@
         <v>146</v>
       </c>
       <c r="G357" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H357" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H357" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="358" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11011,10 +11011,10 @@
         <v>146</v>
       </c>
       <c r="G358" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H358" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H358" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="359" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11038,10 +11038,10 @@
         <v>146</v>
       </c>
       <c r="G359" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H359" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H359" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="360" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11065,10 +11065,10 @@
         <v>146</v>
       </c>
       <c r="G360" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H360" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H360" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11092,10 +11092,10 @@
         <v>146</v>
       </c>
       <c r="G361" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H361" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H361" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="362" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11119,10 +11119,10 @@
         <v>146</v>
       </c>
       <c r="G362" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H362" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H362" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="363" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11146,10 +11146,10 @@
         <v>146</v>
       </c>
       <c r="G363" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H363" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H363" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="364" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11173,10 +11173,10 @@
         <v>146</v>
       </c>
       <c r="G364" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H364" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H364" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="365" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11197,13 +11197,13 @@
         <v>5</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="366" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11224,13 +11224,13 @@
         <v>5</v>
       </c>
       <c r="F366" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G366" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G366" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H366" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="367" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11251,13 +11251,13 @@
         <v>5</v>
       </c>
       <c r="F367" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G367" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G367" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H367" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="368" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11278,13 +11278,13 @@
         <v>5</v>
       </c>
       <c r="F368" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G368" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G368" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H368" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="369" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11305,13 +11305,13 @@
         <v>5</v>
       </c>
       <c r="F369" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G369" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G369" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H369" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="370" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11332,13 +11332,13 @@
         <v>5</v>
       </c>
       <c r="F370" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G370" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G370" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H370" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="371" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11359,13 +11359,13 @@
         <v>5</v>
       </c>
       <c r="F371" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G371" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G371" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H371" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="372" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11386,13 +11386,13 @@
         <v>5</v>
       </c>
       <c r="F372" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G372" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G372" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H372" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="373" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11413,13 +11413,13 @@
         <v>5</v>
       </c>
       <c r="F373" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G373" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G373" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H373" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="374" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11440,13 +11440,13 @@
         <v>5</v>
       </c>
       <c r="F374" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G374" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G374" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H374" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="375" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11467,13 +11467,13 @@
         <v>5</v>
       </c>
       <c r="F375" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G375" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G375" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H375" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="376" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11494,13 +11494,13 @@
         <v>5</v>
       </c>
       <c r="F376" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G376" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G376" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H376" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="377" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11521,13 +11521,13 @@
         <v>5</v>
       </c>
       <c r="F377" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G377" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G377" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H377" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="378" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11548,13 +11548,13 @@
         <v>5</v>
       </c>
       <c r="F378" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G378" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G378" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H378" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="379" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11575,13 +11575,13 @@
         <v>5</v>
       </c>
       <c r="F379" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G379" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G379" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H379" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="380" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11602,13 +11602,13 @@
         <v>5</v>
       </c>
       <c r="F380" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G380" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G380" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H380" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="381" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11629,13 +11629,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>147</v>
+        <v>417</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -11704,13 +11704,13 @@
         <v>5</v>
       </c>
       <c r="F386" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H386" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G386" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H386" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="387" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11731,13 +11731,13 @@
         <v>5</v>
       </c>
       <c r="F387" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H387" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G387" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H387" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="388" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11758,13 +11758,13 @@
         <v>5</v>
       </c>
       <c r="F388" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H388" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G388" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H388" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="389" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11785,13 +11785,13 @@
         <v>5</v>
       </c>
       <c r="F389" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H389" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G389" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H389" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11812,13 +11812,13 @@
         <v>5</v>
       </c>
       <c r="F390" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H390" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G390" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H390" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="391" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11839,13 +11839,13 @@
         <v>5</v>
       </c>
       <c r="F391" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H391" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G391" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11866,13 +11866,13 @@
         <v>5</v>
       </c>
       <c r="F392" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H392" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G392" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H392" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="393" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11893,13 +11893,13 @@
         <v>5</v>
       </c>
       <c r="F393" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H393" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G393" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H393" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="394" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11920,13 +11920,13 @@
         <v>5</v>
       </c>
       <c r="F394" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H394" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G394" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H394" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="395" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11947,13 +11947,13 @@
         <v>5</v>
       </c>
       <c r="F395" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H395" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G395" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H395" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="396" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11974,13 +11974,13 @@
         <v>5</v>
       </c>
       <c r="F396" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H396" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G396" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H396" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="397" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12001,13 +12001,13 @@
         <v>5</v>
       </c>
       <c r="F397" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H397" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G397" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H397" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="398" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12028,13 +12028,13 @@
         <v>5</v>
       </c>
       <c r="F398" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H398" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G398" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H398" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="399" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12055,13 +12055,13 @@
         <v>5</v>
       </c>
       <c r="F399" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H399" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G399" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H399" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="400" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12082,13 +12082,13 @@
         <v>5</v>
       </c>
       <c r="F400" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H400" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G400" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H400" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="401" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12109,13 +12109,13 @@
         <v>5</v>
       </c>
       <c r="F401" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H401" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G401" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H401" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="402" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12136,13 +12136,13 @@
         <v>5</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H402" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="403" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12163,13 +12163,13 @@
         <v>5</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H403" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="404" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12190,13 +12190,13 @@
         <v>5</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H404" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="405" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12217,13 +12217,13 @@
         <v>5</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H405" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="406" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12244,13 +12244,13 @@
         <v>5</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H406" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="407" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12271,13 +12271,13 @@
         <v>5</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H407" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="408" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12298,13 +12298,13 @@
         <v>5</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H408" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="409" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12325,13 +12325,13 @@
         <v>5</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H409" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="410" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12352,13 +12352,13 @@
         <v>5</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H410" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="411" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12379,13 +12379,13 @@
         <v>5</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H411" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="412" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12406,13 +12406,13 @@
         <v>5</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H412" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="413" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12433,13 +12433,13 @@
         <v>5</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H413" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="414" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12460,13 +12460,13 @@
         <v>5</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="415" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12487,13 +12487,13 @@
         <v>5</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G415" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H415" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="416" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12514,13 +12514,13 @@
         <v>5</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G416" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H416" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="417" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12541,13 +12541,13 @@
         <v>5</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G417" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H417" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="418" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12568,13 +12568,13 @@
         <v>5</v>
       </c>
       <c r="F418" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H418" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="G418" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H418" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -13802,8 +13802,8 @@
   <dimension ref="A1:H628"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G600" sqref="G600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13844,7 +13844,7 @@
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="str">
+      <c r="B2" s="17" t="str">
         <f>DEC2HEX(A2,4)</f>
         <v>0000</v>
       </c>
@@ -13877,7 +13877,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="17" t="str">
         <f t="shared" ref="B3:B66" si="0">DEC2HEX(A3,4)</f>
         <v>0001</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0002</v>
       </c>
@@ -13943,7 +13943,7 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0003</v>
       </c>
@@ -13976,7 +13976,7 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0004</v>
       </c>
@@ -14009,7 +14009,7 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0005</v>
       </c>
@@ -14042,7 +14042,7 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0006</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0007</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0008</v>
       </c>
@@ -14141,7 +14141,7 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0009</v>
       </c>
@@ -14174,7 +14174,7 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>000A</v>
       </c>
@@ -14207,7 +14207,7 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="str">
+      <c r="B13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>000B</v>
       </c>
@@ -14240,7 +14240,7 @@
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>000C</v>
       </c>
@@ -14272,7 +14272,7 @@
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>000D</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="str">
+      <c r="B16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>000E</v>
       </c>
@@ -14338,7 +14338,7 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>000F</v>
       </c>
@@ -14371,7 +14371,7 @@
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0010</v>
       </c>
@@ -14404,7 +14404,7 @@
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="str">
+      <c r="B19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0011</v>
       </c>
@@ -14437,7 +14437,7 @@
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0012</v>
       </c>
@@ -14470,7 +14470,7 @@
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="str">
+      <c r="B21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0013</v>
       </c>
@@ -14503,7 +14503,7 @@
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0014</v>
       </c>
@@ -14536,7 +14536,7 @@
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="str">
+      <c r="B23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0015</v>
       </c>
@@ -14569,7 +14569,7 @@
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0016</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="19" t="str">
+      <c r="B25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0017</v>
       </c>
@@ -14635,7 +14635,7 @@
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0018</v>
       </c>
@@ -14668,7 +14668,7 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="str">
+      <c r="B27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0019</v>
       </c>
@@ -14701,7 +14701,7 @@
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="19" t="str">
+      <c r="B28" s="17" t="str">
         <f t="shared" si="0"/>
         <v>001A</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="str">
+      <c r="B29" s="17" t="str">
         <f t="shared" si="0"/>
         <v>001B</v>
       </c>
@@ -14767,7 +14767,7 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B30" s="17" t="str">
         <f t="shared" si="0"/>
         <v>001C</v>
       </c>
@@ -14800,7 +14800,7 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="19" t="str">
+      <c r="B31" s="17" t="str">
         <f t="shared" si="0"/>
         <v>001D</v>
       </c>
@@ -14833,7 +14833,7 @@
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="19" t="str">
+      <c r="B32" s="17" t="str">
         <f t="shared" si="0"/>
         <v>001E</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="19" t="str">
+      <c r="B33" s="17" t="str">
         <f t="shared" si="0"/>
         <v>001F</v>
       </c>
@@ -14899,7 +14899,7 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="19" t="str">
+      <c r="B34" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0020</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="19" t="str">
+      <c r="B35" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0021</v>
       </c>
@@ -14965,7 +14965,7 @@
       <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="19" t="str">
+      <c r="B36" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0022</v>
       </c>
@@ -14998,7 +14998,7 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="19" t="str">
+      <c r="B37" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0023</v>
       </c>
@@ -15031,7 +15031,7 @@
       <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="19" t="str">
+      <c r="B38" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0024</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="19" t="str">
+      <c r="B39" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0025</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="19" t="str">
+      <c r="B40" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0026</v>
       </c>
@@ -15130,7 +15130,7 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="19" t="str">
+      <c r="B41" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0027</v>
       </c>
@@ -15163,7 +15163,7 @@
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="19" t="str">
+      <c r="B42" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0028</v>
       </c>
@@ -15196,7 +15196,7 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="19" t="str">
+      <c r="B43" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0029</v>
       </c>
@@ -15229,7 +15229,7 @@
       <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="19" t="str">
+      <c r="B44" s="17" t="str">
         <f t="shared" si="0"/>
         <v>002A</v>
       </c>
@@ -15262,7 +15262,7 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="19" t="str">
+      <c r="B45" s="17" t="str">
         <f t="shared" si="0"/>
         <v>002B</v>
       </c>
@@ -15295,7 +15295,7 @@
       <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="19" t="str">
+      <c r="B46" s="17" t="str">
         <f t="shared" si="0"/>
         <v>002C</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="19" t="str">
+      <c r="B47" s="17" t="str">
         <f t="shared" si="0"/>
         <v>002D</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="19" t="str">
+      <c r="B48" s="17" t="str">
         <f t="shared" si="0"/>
         <v>002E</v>
       </c>
@@ -15394,7 +15394,7 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="19" t="str">
+      <c r="B49" s="17" t="str">
         <f t="shared" si="0"/>
         <v>002F</v>
       </c>
@@ -15427,7 +15427,7 @@
       <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="19" t="str">
+      <c r="B50" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0030</v>
       </c>
@@ -15460,7 +15460,7 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="19" t="str">
+      <c r="B51" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0031</v>
       </c>
@@ -15493,7 +15493,7 @@
       <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="19" t="str">
+      <c r="B52" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0032</v>
       </c>
@@ -15526,7 +15526,7 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="19" t="str">
+      <c r="B53" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0033</v>
       </c>
@@ -15559,7 +15559,7 @@
       <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="19" t="str">
+      <c r="B54" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0034</v>
       </c>
@@ -15592,7 +15592,7 @@
       <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="19" t="str">
+      <c r="B55" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0035</v>
       </c>
@@ -15625,7 +15625,7 @@
       <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="19" t="str">
+      <c r="B56" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0036</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="19" t="str">
+      <c r="B57" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0037</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="19" t="str">
+      <c r="B58" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0038</v>
       </c>
@@ -15724,7 +15724,7 @@
       <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="19" t="str">
+      <c r="B59" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0039</v>
       </c>
@@ -15757,7 +15757,7 @@
       <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="19" t="str">
+      <c r="B60" s="17" t="str">
         <f t="shared" si="0"/>
         <v>003A</v>
       </c>
@@ -15790,7 +15790,7 @@
       <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="19" t="str">
+      <c r="B61" s="17" t="str">
         <f t="shared" si="0"/>
         <v>003B</v>
       </c>
@@ -15823,7 +15823,7 @@
       <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="19" t="str">
+      <c r="B62" s="17" t="str">
         <f t="shared" si="0"/>
         <v>003C</v>
       </c>
@@ -15856,7 +15856,7 @@
       <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="19" t="str">
+      <c r="B63" s="17" t="str">
         <f t="shared" si="0"/>
         <v>003D</v>
       </c>
@@ -15889,7 +15889,7 @@
       <c r="A64" s="8">
         <v>62</v>
       </c>
-      <c r="B64" s="19" t="str">
+      <c r="B64" s="17" t="str">
         <f t="shared" si="0"/>
         <v>003E</v>
       </c>
@@ -15922,7 +15922,7 @@
       <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="19" t="str">
+      <c r="B65" s="17" t="str">
         <f t="shared" si="0"/>
         <v>003F</v>
       </c>
@@ -15955,7 +15955,7 @@
       <c r="A66" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="19" t="str">
+      <c r="B66" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
@@ -15988,7 +15988,7 @@
       <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="19" t="str">
+      <c r="B67" s="17" t="str">
         <f t="shared" ref="B67:B130" si="1">DEC2HEX(A67,4)</f>
         <v>0041</v>
       </c>
@@ -16021,7 +16021,7 @@
       <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="19" t="str">
+      <c r="B68" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0042</v>
       </c>
@@ -16054,7 +16054,7 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="19" t="str">
+      <c r="B69" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0043</v>
       </c>
@@ -16087,7 +16087,7 @@
       <c r="A70" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="19" t="str">
+      <c r="B70" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0044</v>
       </c>
@@ -16120,7 +16120,7 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="19" t="str">
+      <c r="B71" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0045</v>
       </c>
@@ -16153,7 +16153,7 @@
       <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="19" t="str">
+      <c r="B72" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0046</v>
       </c>
@@ -16186,7 +16186,7 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="19" t="str">
+      <c r="B73" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0047</v>
       </c>
@@ -16219,7 +16219,7 @@
       <c r="A74" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="19" t="str">
+      <c r="B74" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0048</v>
       </c>
@@ -16252,7 +16252,7 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="19" t="str">
+      <c r="B75" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0049</v>
       </c>
@@ -16285,7 +16285,7 @@
       <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="19" t="str">
+      <c r="B76" s="17" t="str">
         <f t="shared" si="1"/>
         <v>004A</v>
       </c>
@@ -16318,7 +16318,7 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="19" t="str">
+      <c r="B77" s="17" t="str">
         <f t="shared" si="1"/>
         <v>004B</v>
       </c>
@@ -16351,7 +16351,7 @@
       <c r="A78" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="19" t="str">
+      <c r="B78" s="17" t="str">
         <f t="shared" si="1"/>
         <v>004C</v>
       </c>
@@ -16384,7 +16384,7 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="19" t="str">
+      <c r="B79" s="17" t="str">
         <f t="shared" si="1"/>
         <v>004D</v>
       </c>
@@ -16417,7 +16417,7 @@
       <c r="A80" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="19" t="str">
+      <c r="B80" s="17" t="str">
         <f t="shared" si="1"/>
         <v>004E</v>
       </c>
@@ -16450,7 +16450,7 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="19" t="str">
+      <c r="B81" s="17" t="str">
         <f t="shared" si="1"/>
         <v>004F</v>
       </c>
@@ -16483,7 +16483,7 @@
       <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="19" t="str">
+      <c r="B82" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0050</v>
       </c>
@@ -16516,7 +16516,7 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="19" t="str">
+      <c r="B83" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0051</v>
       </c>
@@ -16549,7 +16549,7 @@
       <c r="A84" s="8">
         <v>82</v>
       </c>
-      <c r="B84" s="19" t="str">
+      <c r="B84" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0052</v>
       </c>
@@ -16582,7 +16582,7 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="19" t="str">
+      <c r="B85" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0053</v>
       </c>
@@ -16615,7 +16615,7 @@
       <c r="A86" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="19" t="str">
+      <c r="B86" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0054</v>
       </c>
@@ -16648,7 +16648,7 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="19" t="str">
+      <c r="B87" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0055</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="19" t="str">
+      <c r="B88" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0056</v>
       </c>
@@ -16714,7 +16714,7 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="19" t="str">
+      <c r="B89" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0057</v>
       </c>
@@ -16747,7 +16747,7 @@
       <c r="A90" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="19" t="str">
+      <c r="B90" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0058</v>
       </c>
@@ -16780,7 +16780,7 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="19" t="str">
+      <c r="B91" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0059</v>
       </c>
@@ -16813,7 +16813,7 @@
       <c r="A92" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="19" t="str">
+      <c r="B92" s="17" t="str">
         <f t="shared" si="1"/>
         <v>005A</v>
       </c>
@@ -16846,7 +16846,7 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="19" t="str">
+      <c r="B93" s="17" t="str">
         <f t="shared" si="1"/>
         <v>005B</v>
       </c>
@@ -16879,7 +16879,7 @@
       <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="19" t="str">
+      <c r="B94" s="17" t="str">
         <f t="shared" si="1"/>
         <v>005C</v>
       </c>
@@ -16912,7 +16912,7 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="19" t="str">
+      <c r="B95" s="17" t="str">
         <f t="shared" si="1"/>
         <v>005D</v>
       </c>
@@ -16945,7 +16945,7 @@
       <c r="A96" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="19" t="str">
+      <c r="B96" s="17" t="str">
         <f t="shared" si="1"/>
         <v>005E</v>
       </c>
@@ -16978,7 +16978,7 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="19" t="str">
+      <c r="B97" s="17" t="str">
         <f t="shared" si="1"/>
         <v>005F</v>
       </c>
@@ -17011,7 +17011,7 @@
       <c r="A98" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="19" t="str">
+      <c r="B98" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0060</v>
       </c>
@@ -17044,7 +17044,7 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="19" t="str">
+      <c r="B99" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0061</v>
       </c>
@@ -17077,7 +17077,7 @@
       <c r="A100" s="8">
         <v>98</v>
       </c>
-      <c r="B100" s="19" t="str">
+      <c r="B100" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0062</v>
       </c>
@@ -17110,7 +17110,7 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="19" t="str">
+      <c r="B101" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0063</v>
       </c>
@@ -17143,7 +17143,7 @@
       <c r="A102" s="8">
         <v>100</v>
       </c>
-      <c r="B102" s="19" t="str">
+      <c r="B102" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0064</v>
       </c>
@@ -17176,7 +17176,7 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="19" t="str">
+      <c r="B103" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0065</v>
       </c>
@@ -17209,7 +17209,7 @@
       <c r="A104" s="8">
         <v>102</v>
       </c>
-      <c r="B104" s="19" t="str">
+      <c r="B104" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0066</v>
       </c>
@@ -17242,7 +17242,7 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="19" t="str">
+      <c r="B105" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0067</v>
       </c>
@@ -17275,7 +17275,7 @@
       <c r="A106" s="8">
         <v>104</v>
       </c>
-      <c r="B106" s="19" t="str">
+      <c r="B106" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0068</v>
       </c>
@@ -17308,7 +17308,7 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="19" t="str">
+      <c r="B107" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0069</v>
       </c>
@@ -17341,7 +17341,7 @@
       <c r="A108" s="8">
         <v>106</v>
       </c>
-      <c r="B108" s="19" t="str">
+      <c r="B108" s="17" t="str">
         <f t="shared" si="1"/>
         <v>006A</v>
       </c>
@@ -17374,7 +17374,7 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="19" t="str">
+      <c r="B109" s="17" t="str">
         <f t="shared" si="1"/>
         <v>006B</v>
       </c>
@@ -17407,7 +17407,7 @@
       <c r="A110" s="8">
         <v>108</v>
       </c>
-      <c r="B110" s="19" t="str">
+      <c r="B110" s="17" t="str">
         <f t="shared" si="1"/>
         <v>006C</v>
       </c>
@@ -17440,7 +17440,7 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="19" t="str">
+      <c r="B111" s="17" t="str">
         <f t="shared" si="1"/>
         <v>006D</v>
       </c>
@@ -17473,7 +17473,7 @@
       <c r="A112" s="8">
         <v>110</v>
       </c>
-      <c r="B112" s="19" t="str">
+      <c r="B112" s="17" t="str">
         <f t="shared" si="1"/>
         <v>006E</v>
       </c>
@@ -17506,7 +17506,7 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="19" t="str">
+      <c r="B113" s="17" t="str">
         <f t="shared" si="1"/>
         <v>006F</v>
       </c>
@@ -17539,7 +17539,7 @@
       <c r="A114" s="8">
         <v>112</v>
       </c>
-      <c r="B114" s="19" t="str">
+      <c r="B114" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0070</v>
       </c>
@@ -17572,7 +17572,7 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="19" t="str">
+      <c r="B115" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0071</v>
       </c>
@@ -17605,7 +17605,7 @@
       <c r="A116" s="8">
         <v>114</v>
       </c>
-      <c r="B116" s="19" t="str">
+      <c r="B116" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0072</v>
       </c>
@@ -17638,7 +17638,7 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="19" t="str">
+      <c r="B117" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0073</v>
       </c>
@@ -17671,7 +17671,7 @@
       <c r="A118" s="8">
         <v>116</v>
       </c>
-      <c r="B118" s="19" t="str">
+      <c r="B118" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0074</v>
       </c>
@@ -17704,7 +17704,7 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="19" t="str">
+      <c r="B119" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0075</v>
       </c>
@@ -17737,7 +17737,7 @@
       <c r="A120" s="8">
         <v>118</v>
       </c>
-      <c r="B120" s="19" t="str">
+      <c r="B120" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0076</v>
       </c>
@@ -17770,7 +17770,7 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="19" t="str">
+      <c r="B121" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0077</v>
       </c>
@@ -17803,7 +17803,7 @@
       <c r="A122" s="8">
         <v>120</v>
       </c>
-      <c r="B122" s="19" t="str">
+      <c r="B122" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0078</v>
       </c>
@@ -17836,7 +17836,7 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="19" t="str">
+      <c r="B123" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0079</v>
       </c>
@@ -17869,7 +17869,7 @@
       <c r="A124" s="8">
         <v>122</v>
       </c>
-      <c r="B124" s="19" t="str">
+      <c r="B124" s="17" t="str">
         <f t="shared" si="1"/>
         <v>007A</v>
       </c>
@@ -17902,7 +17902,7 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="19" t="str">
+      <c r="B125" s="17" t="str">
         <f t="shared" si="1"/>
         <v>007B</v>
       </c>
@@ -17935,7 +17935,7 @@
       <c r="A126" s="8">
         <v>124</v>
       </c>
-      <c r="B126" s="19" t="str">
+      <c r="B126" s="17" t="str">
         <f t="shared" si="1"/>
         <v>007C</v>
       </c>
@@ -17968,7 +17968,7 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="19" t="str">
+      <c r="B127" s="17" t="str">
         <f t="shared" si="1"/>
         <v>007D</v>
       </c>
@@ -18001,7 +18001,7 @@
       <c r="A128" s="8">
         <v>126</v>
       </c>
-      <c r="B128" s="19" t="str">
+      <c r="B128" s="17" t="str">
         <f t="shared" si="1"/>
         <v>007E</v>
       </c>
@@ -18034,7 +18034,7 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="19" t="str">
+      <c r="B129" s="17" t="str">
         <f t="shared" si="1"/>
         <v>007F</v>
       </c>
@@ -18067,7 +18067,7 @@
       <c r="A130" s="8">
         <v>128</v>
       </c>
-      <c r="B130" s="19" t="str">
+      <c r="B130" s="17" t="str">
         <f t="shared" si="1"/>
         <v>0080</v>
       </c>
@@ -18100,7 +18100,7 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="19" t="str">
+      <c r="B131" s="17" t="str">
         <f t="shared" ref="B131:B194" si="2">DEC2HEX(A131,4)</f>
         <v>0081</v>
       </c>
@@ -18133,7 +18133,7 @@
       <c r="A132" s="8">
         <v>130</v>
       </c>
-      <c r="B132" s="19" t="str">
+      <c r="B132" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0082</v>
       </c>
@@ -18166,7 +18166,7 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="19" t="str">
+      <c r="B133" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0083</v>
       </c>
@@ -18199,7 +18199,7 @@
       <c r="A134" s="8">
         <v>132</v>
       </c>
-      <c r="B134" s="19" t="str">
+      <c r="B134" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0084</v>
       </c>
@@ -18232,7 +18232,7 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="19" t="str">
+      <c r="B135" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0085</v>
       </c>
@@ -18265,7 +18265,7 @@
       <c r="A136" s="8">
         <v>134</v>
       </c>
-      <c r="B136" s="19" t="str">
+      <c r="B136" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0086</v>
       </c>
@@ -18298,7 +18298,7 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="19" t="str">
+      <c r="B137" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0087</v>
       </c>
@@ -18331,7 +18331,7 @@
       <c r="A138" s="8">
         <v>136</v>
       </c>
-      <c r="B138" s="19" t="str">
+      <c r="B138" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0088</v>
       </c>
@@ -18364,7 +18364,7 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="19" t="str">
+      <c r="B139" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0089</v>
       </c>
@@ -18397,7 +18397,7 @@
       <c r="A140" s="8">
         <v>138</v>
       </c>
-      <c r="B140" s="19" t="str">
+      <c r="B140" s="17" t="str">
         <f t="shared" si="2"/>
         <v>008A</v>
       </c>
@@ -18430,7 +18430,7 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="19" t="str">
+      <c r="B141" s="17" t="str">
         <f t="shared" si="2"/>
         <v>008B</v>
       </c>
@@ -18463,7 +18463,7 @@
       <c r="A142" s="8">
         <v>140</v>
       </c>
-      <c r="B142" s="19" t="str">
+      <c r="B142" s="17" t="str">
         <f t="shared" si="2"/>
         <v>008C</v>
       </c>
@@ -18496,7 +18496,7 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="19" t="str">
+      <c r="B143" s="17" t="str">
         <f t="shared" si="2"/>
         <v>008D</v>
       </c>
@@ -18529,7 +18529,7 @@
       <c r="A144" s="8">
         <v>142</v>
       </c>
-      <c r="B144" s="19" t="str">
+      <c r="B144" s="17" t="str">
         <f t="shared" si="2"/>
         <v>008E</v>
       </c>
@@ -18562,7 +18562,7 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="19" t="str">
+      <c r="B145" s="17" t="str">
         <f t="shared" si="2"/>
         <v>008F</v>
       </c>
@@ -18595,7 +18595,7 @@
       <c r="A146" s="8">
         <v>144</v>
       </c>
-      <c r="B146" s="19" t="str">
+      <c r="B146" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0090</v>
       </c>
@@ -18628,7 +18628,7 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="19" t="str">
+      <c r="B147" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0091</v>
       </c>
@@ -18661,7 +18661,7 @@
       <c r="A148" s="8">
         <v>146</v>
       </c>
-      <c r="B148" s="19" t="str">
+      <c r="B148" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0092</v>
       </c>
@@ -18694,7 +18694,7 @@
       <c r="A149" s="8">
         <v>147</v>
       </c>
-      <c r="B149" s="19" t="str">
+      <c r="B149" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0093</v>
       </c>
@@ -18727,7 +18727,7 @@
       <c r="A150" s="8">
         <v>148</v>
       </c>
-      <c r="B150" s="19" t="str">
+      <c r="B150" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0094</v>
       </c>
@@ -18760,7 +18760,7 @@
       <c r="A151" s="8">
         <v>149</v>
       </c>
-      <c r="B151" s="19" t="str">
+      <c r="B151" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0095</v>
       </c>
@@ -18793,7 +18793,7 @@
       <c r="A152" s="8">
         <v>150</v>
       </c>
-      <c r="B152" s="19" t="str">
+      <c r="B152" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0096</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="A153" s="8">
         <v>151</v>
       </c>
-      <c r="B153" s="19" t="str">
+      <c r="B153" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0097</v>
       </c>
@@ -18859,7 +18859,7 @@
       <c r="A154" s="8">
         <v>152</v>
       </c>
-      <c r="B154" s="19" t="str">
+      <c r="B154" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0098</v>
       </c>
@@ -18892,7 +18892,7 @@
       <c r="A155" s="8">
         <v>153</v>
       </c>
-      <c r="B155" s="19" t="str">
+      <c r="B155" s="17" t="str">
         <f t="shared" si="2"/>
         <v>0099</v>
       </c>
@@ -18925,7 +18925,7 @@
       <c r="A156" s="8">
         <v>154</v>
       </c>
-      <c r="B156" s="19" t="str">
+      <c r="B156" s="17" t="str">
         <f t="shared" si="2"/>
         <v>009A</v>
       </c>
@@ -18958,7 +18958,7 @@
       <c r="A157" s="8">
         <v>155</v>
       </c>
-      <c r="B157" s="19" t="str">
+      <c r="B157" s="17" t="str">
         <f t="shared" si="2"/>
         <v>009B</v>
       </c>
@@ -18991,7 +18991,7 @@
       <c r="A158" s="8">
         <v>156</v>
       </c>
-      <c r="B158" s="19" t="str">
+      <c r="B158" s="17" t="str">
         <f t="shared" si="2"/>
         <v>009C</v>
       </c>
@@ -19024,7 +19024,7 @@
       <c r="A159" s="8">
         <v>157</v>
       </c>
-      <c r="B159" s="19" t="str">
+      <c r="B159" s="17" t="str">
         <f t="shared" si="2"/>
         <v>009D</v>
       </c>
@@ -19057,7 +19057,7 @@
       <c r="A160" s="8">
         <v>158</v>
       </c>
-      <c r="B160" s="19" t="str">
+      <c r="B160" s="17" t="str">
         <f t="shared" si="2"/>
         <v>009E</v>
       </c>
@@ -19090,7 +19090,7 @@
       <c r="A161" s="8">
         <v>159</v>
       </c>
-      <c r="B161" s="19" t="str">
+      <c r="B161" s="17" t="str">
         <f t="shared" si="2"/>
         <v>009F</v>
       </c>
@@ -19123,7 +19123,7 @@
       <c r="A162" s="8">
         <v>160</v>
       </c>
-      <c r="B162" s="19" t="str">
+      <c r="B162" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A0</v>
       </c>
@@ -19156,7 +19156,7 @@
       <c r="A163" s="8">
         <v>161</v>
       </c>
-      <c r="B163" s="19" t="str">
+      <c r="B163" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A1</v>
       </c>
@@ -19189,7 +19189,7 @@
       <c r="A164" s="8">
         <v>162</v>
       </c>
-      <c r="B164" s="19" t="str">
+      <c r="B164" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A2</v>
       </c>
@@ -19222,7 +19222,7 @@
       <c r="A165" s="8">
         <v>163</v>
       </c>
-      <c r="B165" s="19" t="str">
+      <c r="B165" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A3</v>
       </c>
@@ -19255,7 +19255,7 @@
       <c r="A166" s="8">
         <v>164</v>
       </c>
-      <c r="B166" s="19" t="str">
+      <c r="B166" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A4</v>
       </c>
@@ -19288,7 +19288,7 @@
       <c r="A167" s="8">
         <v>165</v>
       </c>
-      <c r="B167" s="19" t="str">
+      <c r="B167" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A5</v>
       </c>
@@ -19321,7 +19321,7 @@
       <c r="A168" s="8">
         <v>166</v>
       </c>
-      <c r="B168" s="19" t="str">
+      <c r="B168" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A6</v>
       </c>
@@ -19354,7 +19354,7 @@
       <c r="A169" s="8">
         <v>167</v>
       </c>
-      <c r="B169" s="19" t="str">
+      <c r="B169" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A7</v>
       </c>
@@ -19387,7 +19387,7 @@
       <c r="A170" s="8">
         <v>168</v>
       </c>
-      <c r="B170" s="19" t="str">
+      <c r="B170" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A8</v>
       </c>
@@ -19420,7 +19420,7 @@
       <c r="A171" s="8">
         <v>169</v>
       </c>
-      <c r="B171" s="19" t="str">
+      <c r="B171" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00A9</v>
       </c>
@@ -19453,7 +19453,7 @@
       <c r="A172" s="8">
         <v>170</v>
       </c>
-      <c r="B172" s="19" t="str">
+      <c r="B172" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00AA</v>
       </c>
@@ -26368,7 +26368,7 @@
       </c>
       <c r="F381" t="str">
         <f>'SCROD Write Registers'!F381</f>
-        <v>TIMING_REG</v>
+        <v>TIMING_REG &amp; sampling sync bits)</v>
       </c>
       <c r="G381" s="8" t="str">
         <f>'SCROD Write Registers'!G381</f>
@@ -26376,7 +26376,7 @@
       </c>
       <c r="H381" s="8" t="str">
         <f>'SCROD Write Registers'!H381</f>
-        <v>???</v>
+        <v>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -30343,7 +30343,7 @@
       <c r="A502" s="8">
         <v>500</v>
       </c>
-      <c r="B502" s="19" t="str">
+      <c r="B502" s="17" t="str">
         <f t="shared" si="7"/>
         <v>01F4</v>
       </c>
@@ -30376,7 +30376,7 @@
       <c r="A503" s="8">
         <v>501</v>
       </c>
-      <c r="B503" s="19" t="str">
+      <c r="B503" s="17" t="str">
         <f t="shared" si="7"/>
         <v>01F5</v>
       </c>
@@ -30409,7 +30409,7 @@
       <c r="A504" s="8">
         <v>502</v>
       </c>
-      <c r="B504" s="19" t="str">
+      <c r="B504" s="17" t="str">
         <f t="shared" si="7"/>
         <v>01F6</v>
       </c>
@@ -30442,7 +30442,7 @@
       <c r="A505" s="8">
         <v>503</v>
       </c>
-      <c r="B505" s="19" t="str">
+      <c r="B505" s="17" t="str">
         <f t="shared" si="7"/>
         <v>01F7</v>
       </c>
@@ -30475,7 +30475,7 @@
       <c r="A506" s="8">
         <v>504</v>
       </c>
-      <c r="B506" s="19" t="str">
+      <c r="B506" s="17" t="str">
         <f t="shared" si="7"/>
         <v>01F8</v>
       </c>
@@ -30756,7 +30756,7 @@
         <v>96</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H514" s="10" t="s">
         <v>32</v>
@@ -30783,7 +30783,7 @@
         <v>97</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H515" s="5" t="s">
         <v>32</v>
@@ -30810,7 +30810,7 @@
         <v>98</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H516" s="5" t="s">
         <v>32</v>
@@ -30837,7 +30837,7 @@
         <v>99</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>32</v>
@@ -30864,7 +30864,7 @@
         <v>100</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>32</v>
@@ -30891,7 +30891,7 @@
         <v>101</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H519" s="5" t="s">
         <v>32</v>
@@ -30918,7 +30918,7 @@
         <v>102</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H520" s="5" t="s">
         <v>32</v>
@@ -30942,10 +30942,10 @@
         <v>10</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G521" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H521" s="5" t="s">
         <v>32</v>
@@ -30972,7 +30972,7 @@
         <v>35</v>
       </c>
       <c r="H522" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="523" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30996,7 +30996,7 @@
         <v>35</v>
       </c>
       <c r="H523" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="524" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31020,7 +31020,7 @@
         <v>35</v>
       </c>
       <c r="H524" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="525" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31044,7 +31044,7 @@
         <v>35</v>
       </c>
       <c r="H525" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="526" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31068,7 +31068,7 @@
         <v>35</v>
       </c>
       <c r="H526" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="527" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31092,7 +31092,7 @@
         <v>35</v>
       </c>
       <c r="H527" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="528" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31116,7 +31116,7 @@
         <v>35</v>
       </c>
       <c r="H528" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="529" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31140,7 +31140,7 @@
         <v>35</v>
       </c>
       <c r="H529" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="530" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31161,13 +31161,13 @@
         <v>10</v>
       </c>
       <c r="F530" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H530" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="531" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31188,13 +31188,13 @@
         <v>10</v>
       </c>
       <c r="F531" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H531" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="532" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31215,13 +31215,13 @@
         <v>10</v>
       </c>
       <c r="F532" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G532" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H532" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="533" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31242,13 +31242,13 @@
         <v>10</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H533" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="534" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31269,13 +31269,13 @@
         <v>10</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H534" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="535" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31296,13 +31296,13 @@
         <v>10</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H535" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="536" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31323,13 +31323,13 @@
         <v>10</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H536" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="537" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31350,13 +31350,13 @@
         <v>10</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H537" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="538" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31377,13 +31377,13 @@
         <v>10</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H538" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="539" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31404,13 +31404,13 @@
         <v>10</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H539" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="540" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31431,13 +31431,13 @@
         <v>10</v>
       </c>
       <c r="F540" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H540" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="541" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31458,13 +31458,13 @@
         <v>10</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H541" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="542" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31485,13 +31485,13 @@
         <v>10</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G542" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H542" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="543" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31512,13 +31512,13 @@
         <v>10</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G543" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H543" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="544" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31539,13 +31539,13 @@
         <v>10</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G544" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H544" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="545" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31566,13 +31566,13 @@
         <v>10</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G545" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H545" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31593,10 +31593,10 @@
         <v>10</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G546" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H546" s="5" t="s">
         <v>30</v>
@@ -31620,10 +31620,10 @@
         <v>10</v>
       </c>
       <c r="F547" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G547" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H547" s="5" t="s">
         <v>30</v>
@@ -31647,10 +31647,10 @@
         <v>10</v>
       </c>
       <c r="F548" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G548" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H548" s="5" t="s">
         <v>30</v>
@@ -31674,10 +31674,10 @@
         <v>10</v>
       </c>
       <c r="F549" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G549" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H549" s="5" t="s">
         <v>30</v>
@@ -31701,10 +31701,10 @@
         <v>10</v>
       </c>
       <c r="F550" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G550" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H550" s="5" t="s">
         <v>30</v>
@@ -31728,10 +31728,10 @@
         <v>10</v>
       </c>
       <c r="F551" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G551" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H551" s="5" t="s">
         <v>30</v>
@@ -31755,10 +31755,10 @@
         <v>10</v>
       </c>
       <c r="F552" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G552" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H552" s="5" t="s">
         <v>30</v>
@@ -31782,10 +31782,10 @@
         <v>10</v>
       </c>
       <c r="F553" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G553" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H553" s="5" t="s">
         <v>30</v>
@@ -31809,10 +31809,10 @@
         <v>10</v>
       </c>
       <c r="F554" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G554" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H554" s="5" t="s">
         <v>30</v>
@@ -31836,10 +31836,10 @@
         <v>10</v>
       </c>
       <c r="F555" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G555" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H555" s="5" t="s">
         <v>30</v>
@@ -31863,10 +31863,10 @@
         <v>10</v>
       </c>
       <c r="F556" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G556" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H556" s="5" t="s">
         <v>30</v>
@@ -31890,10 +31890,10 @@
         <v>10</v>
       </c>
       <c r="F557" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G557" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G557" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H557" s="5" t="s">
         <v>30</v>
@@ -31917,10 +31917,10 @@
         <v>10</v>
       </c>
       <c r="F558" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G558" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G558" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H558" s="5" t="s">
         <v>30</v>
@@ -31944,10 +31944,10 @@
         <v>10</v>
       </c>
       <c r="F559" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G559" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G559" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H559" s="5" t="s">
         <v>30</v>
@@ -31971,10 +31971,10 @@
         <v>10</v>
       </c>
       <c r="F560" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G560" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G560" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H560" s="5" t="s">
         <v>30</v>
@@ -31998,10 +31998,10 @@
         <v>10</v>
       </c>
       <c r="F561" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G561" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G561" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H561" s="5" t="s">
         <v>30</v>
@@ -32025,13 +32025,13 @@
         <v>10</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G562" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H562" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32052,13 +32052,13 @@
         <v>10</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H563" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="564" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32079,13 +32079,13 @@
         <v>10</v>
       </c>
       <c r="F564" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G564" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H564" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="565" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32106,13 +32106,13 @@
         <v>10</v>
       </c>
       <c r="F565" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H565" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32133,13 +32133,13 @@
         <v>10</v>
       </c>
       <c r="F566" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G566" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H566" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="567" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32160,13 +32160,13 @@
         <v>10</v>
       </c>
       <c r="F567" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G567" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H567" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="568" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32187,13 +32187,13 @@
         <v>10</v>
       </c>
       <c r="F568" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G568" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H568" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32214,13 +32214,13 @@
         <v>10</v>
       </c>
       <c r="F569" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G569" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H569" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32241,13 +32241,13 @@
         <v>10</v>
       </c>
       <c r="F570" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G570" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H570" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="571" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32268,13 +32268,13 @@
         <v>10</v>
       </c>
       <c r="F571" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G571" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H571" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="572" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32295,13 +32295,13 @@
         <v>10</v>
       </c>
       <c r="F572" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G572" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H572" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="573" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32322,13 +32322,13 @@
         <v>10</v>
       </c>
       <c r="F573" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G573" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H573" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="574" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32349,13 +32349,13 @@
         <v>10</v>
       </c>
       <c r="F574" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G574" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H574" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="575" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32376,13 +32376,13 @@
         <v>10</v>
       </c>
       <c r="F575" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G575" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H575" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="576" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32403,13 +32403,13 @@
         <v>10</v>
       </c>
       <c r="F576" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G576" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H576" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="577" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32430,13 +32430,13 @@
         <v>10</v>
       </c>
       <c r="F577" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G577" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H577" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="578" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32457,7 +32457,7 @@
         <v>10</v>
       </c>
       <c r="F578" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G578" s="5" t="s">
         <v>36</v>
@@ -32484,10 +32484,10 @@
         <v>10</v>
       </c>
       <c r="F579" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G579" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H579" s="5" t="s">
         <v>30</v>
@@ -32511,10 +32511,10 @@
         <v>10</v>
       </c>
       <c r="F580" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G580" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H580" s="5" t="s">
         <v>30</v>
@@ -32538,10 +32538,10 @@
         <v>10</v>
       </c>
       <c r="F581" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G581" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H581" s="5" t="s">
         <v>30</v>
@@ -32565,10 +32565,10 @@
         <v>10</v>
       </c>
       <c r="F582" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G582" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H582" s="5" t="s">
         <v>30</v>
@@ -32592,10 +32592,10 @@
         <v>10</v>
       </c>
       <c r="F583" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G583" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H583" s="5" t="s">
         <v>30</v>
@@ -32606,7 +32606,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="6" t="str">
-        <f t="shared" ref="B584:B628" si="11">DEC2HEX(A584,4)</f>
+        <f t="shared" ref="B584:B611" si="11">DEC2HEX(A584,4)</f>
         <v>0246</v>
       </c>
       <c r="C584" s="5">
@@ -32619,10 +32619,10 @@
         <v>10</v>
       </c>
       <c r="F584" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G584" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H584" s="5" t="s">
         <v>30</v>
@@ -32646,10 +32646,10 @@
         <v>10</v>
       </c>
       <c r="F585" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G585" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H585" s="5" t="s">
         <v>30</v>
@@ -32673,10 +32673,10 @@
         <v>10</v>
       </c>
       <c r="F586" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G586" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H586" s="5" t="s">
         <v>30</v>
@@ -32700,10 +32700,10 @@
         <v>10</v>
       </c>
       <c r="F587" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G587" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H587" s="5" t="s">
         <v>30</v>
@@ -32727,10 +32727,10 @@
         <v>10</v>
       </c>
       <c r="F588" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G588" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H588" s="5" t="s">
         <v>30</v>
@@ -32754,10 +32754,10 @@
         <v>10</v>
       </c>
       <c r="F589" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G589" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H589" s="5" t="s">
         <v>30</v>
@@ -32781,10 +32781,10 @@
         <v>10</v>
       </c>
       <c r="F590" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G590" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H590" s="5" t="s">
         <v>30</v>
@@ -32808,10 +32808,10 @@
         <v>10</v>
       </c>
       <c r="F591" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G591" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H591" s="5" t="s">
         <v>30</v>
@@ -32835,10 +32835,10 @@
         <v>10</v>
       </c>
       <c r="F592" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G592" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H592" s="5" t="s">
         <v>30</v>
@@ -32862,10 +32862,10 @@
         <v>10</v>
       </c>
       <c r="F593" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G593" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H593" s="5" t="s">
         <v>30</v>
@@ -32889,7 +32889,7 @@
         <v>10</v>
       </c>
       <c r="F594" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G594" s="5" t="s">
         <v>36</v>
@@ -32916,10 +32916,10 @@
         <v>10</v>
       </c>
       <c r="F595" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G595" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H595" s="5" t="s">
         <v>30</v>
@@ -32943,10 +32943,10 @@
         <v>10</v>
       </c>
       <c r="F596" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G596" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H596" s="5" t="s">
         <v>30</v>
@@ -32970,10 +32970,10 @@
         <v>10</v>
       </c>
       <c r="F597" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G597" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H597" s="5" t="s">
         <v>30</v>
@@ -32997,10 +32997,10 @@
         <v>10</v>
       </c>
       <c r="F598" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G598" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H598" s="5" t="s">
         <v>30</v>
@@ -33024,10 +33024,10 @@
         <v>10</v>
       </c>
       <c r="F599" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G599" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H599" s="5" t="s">
         <v>30</v>
@@ -33051,10 +33051,10 @@
         <v>10</v>
       </c>
       <c r="F600" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G600" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H600" s="5" t="s">
         <v>30</v>
@@ -33078,10 +33078,10 @@
         <v>10</v>
       </c>
       <c r="F601" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G601" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H601" s="5" t="s">
         <v>30</v>
@@ -33105,10 +33105,10 @@
         <v>10</v>
       </c>
       <c r="F602" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G602" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H602" s="5" t="s">
         <v>30</v>
@@ -33132,10 +33132,10 @@
         <v>10</v>
       </c>
       <c r="F603" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G603" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H603" s="5" t="s">
         <v>30</v>
@@ -33159,10 +33159,10 @@
         <v>10</v>
       </c>
       <c r="F604" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G604" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H604" s="5" t="s">
         <v>30</v>
@@ -33186,10 +33186,10 @@
         <v>10</v>
       </c>
       <c r="F605" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G605" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H605" s="5" t="s">
         <v>30</v>
@@ -33213,10 +33213,10 @@
         <v>10</v>
       </c>
       <c r="F606" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G606" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H606" s="5" t="s">
         <v>30</v>
@@ -33240,10 +33240,10 @@
         <v>10</v>
       </c>
       <c r="F607" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G607" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H607" s="5" t="s">
         <v>30</v>
@@ -33267,10 +33267,10 @@
         <v>10</v>
       </c>
       <c r="F608" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G608" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H608" s="5" t="s">
         <v>30</v>
@@ -33294,10 +33294,10 @@
         <v>10</v>
       </c>
       <c r="F609" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G609" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H609" s="5" t="s">
         <v>30</v>
@@ -33321,13 +33321,13 @@
         <v>10</v>
       </c>
       <c r="F610" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G610" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H610" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="611" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -33348,13 +33348,13 @@
         <v>10</v>
       </c>
       <c r="F611" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G611" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H611" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
@@ -33421,8 +33421,8 @@
   </sheetPr>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33434,346 +33434,346 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E1" s="31">
+        <v>372</v>
+      </c>
+      <c r="E1" s="27">
         <f ca="1">+TODAY()</f>
-        <v>41349</v>
+        <v>41357</v>
       </c>
       <c r="P1">
         <v>2500</v>
       </c>
       <c r="Q1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="31"/>
+      <c r="E2" s="27"/>
       <c r="P2">
         <v>4096</v>
       </c>
       <c r="Q2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="31"/>
+        <v>369</v>
+      </c>
+      <c r="E3" s="27"/>
       <c r="P3">
         <f>+P1/P2</f>
         <v>0.6103515625</v>
       </c>
       <c r="Q3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N4" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>1</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="25">
+        <v>12</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O36" si="0">HEX2DEC(N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <f t="shared" ref="P6:P26" si="1">+$P$3*O6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="25">
+        <v>12</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="25">
+        <v>12</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="25">
+        <v>12</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="25">
+        <v>12</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="25">
+        <v>12</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>7</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="28">
+      <c r="C12" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="25">
         <v>12</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>HEX2DEC(N6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="25">
-        <f>+$P$3*O6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>2</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="28">
+      <c r="E12" s="38"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>8</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="24">
         <v>12</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>HEX2DEC(N7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
-        <f>+$P$3*O7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>3</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="28">
-        <v>12</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>HEX2DEC(N8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <f>+$P$3*O8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>4</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="28">
-        <v>12</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>HEX2DEC(N9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
-        <f>+$P$3*O9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>5</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="28">
-        <v>12</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>HEX2DEC(N10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <f>+$P$3*O10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>6</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="28">
-        <v>12</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>HEX2DEC(N11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="25">
-        <f>+$P$3*O11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>7</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="28">
-        <v>12</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>HEX2DEC(N12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="25">
-        <f>+$P$3*O12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
-        <v>8</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="26">
-        <v>12</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26">
+      <c r="E13" s="39"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24">
         <v>0</v>
       </c>
       <c r="O13">
-        <f>HEX2DEC(N13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="25">
-        <f>+$P$3*O13</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -33782,29 +33782,29 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="N14" s="24">
+        <v>268</v>
+      </c>
+      <c r="N14" s="22">
         <v>400</v>
       </c>
       <c r="O14">
-        <f>HEX2DEC(N14)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P14" s="25">
-        <f>+$P$3*O14</f>
+      <c r="P14" s="23">
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
@@ -33813,29 +33813,29 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="N15" s="24">
+        <v>344</v>
+      </c>
+      <c r="N15" s="22">
         <v>380</v>
       </c>
       <c r="O15">
-        <f>HEX2DEC(N15)</f>
+        <f t="shared" si="0"/>
         <v>896</v>
       </c>
-      <c r="P15" s="25">
-        <f>+$P$3*O15</f>
+      <c r="P15" s="23">
+        <f t="shared" si="1"/>
         <v>546.875</v>
       </c>
     </row>
@@ -33844,29 +33844,29 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="N16" s="24">
+        <v>334</v>
+      </c>
+      <c r="N16" s="22">
         <v>370</v>
       </c>
       <c r="O16">
-        <f>HEX2DEC(N16)</f>
+        <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="P16" s="25">
-        <f>+$P$3*O16</f>
+      <c r="P16" s="23">
+        <f t="shared" si="1"/>
         <v>537.109375</v>
       </c>
     </row>
@@ -33875,26 +33875,26 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="N17" s="24">
+        <v>340</v>
+      </c>
+      <c r="N17" s="22">
         <v>0</v>
       </c>
       <c r="O17">
-        <f>HEX2DEC(N17)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="25">
-        <f>+$P$3*O17</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -33903,29 +33903,29 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="N18" s="24">
+        <v>268</v>
+      </c>
+      <c r="N18" s="22">
         <v>400</v>
       </c>
       <c r="O18">
-        <f>HEX2DEC(N18)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P18" s="25">
-        <f>+$P$3*O18</f>
+      <c r="P18" s="23">
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
@@ -33934,29 +33934,29 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="N19" s="24">
+        <v>334</v>
+      </c>
+      <c r="N19" s="22">
         <v>370</v>
       </c>
       <c r="O19">
-        <f>HEX2DEC(N19)</f>
+        <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="P19" s="25">
-        <f>+$P$3*O19</f>
+      <c r="P19" s="23">
+        <f t="shared" si="1"/>
         <v>537.109375</v>
       </c>
     </row>
@@ -33965,29 +33965,29 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="N20" s="24">
+        <v>268</v>
+      </c>
+      <c r="N20" s="22">
         <v>400</v>
       </c>
       <c r="O20">
-        <f>HEX2DEC(N20)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P20" s="25">
-        <f>+$P$3*O20</f>
+      <c r="P20" s="23">
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
@@ -33996,29 +33996,29 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="N21" s="24">
+        <v>320</v>
+      </c>
+      <c r="N21" s="22">
         <v>350</v>
       </c>
       <c r="O21">
-        <f>HEX2DEC(N21)</f>
+        <f t="shared" si="0"/>
         <v>848</v>
       </c>
-      <c r="P21" s="25">
-        <f>+$P$3*O21</f>
+      <c r="P21" s="23">
+        <f t="shared" si="1"/>
         <v>517.578125</v>
       </c>
     </row>
@@ -34027,29 +34027,29 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="N22" s="24">
+        <v>268</v>
+      </c>
+      <c r="N22" s="22">
         <v>400</v>
       </c>
       <c r="O22">
-        <f>HEX2DEC(N22)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P22" s="25">
-        <f>+$P$3*O22</f>
+      <c r="P22" s="23">
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
@@ -34058,32 +34058,32 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="N23" s="24">
+        <v>268</v>
+      </c>
+      <c r="N23" s="22">
         <v>400</v>
       </c>
       <c r="O23">
-        <f>HEX2DEC(N23)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P23" s="25">
-        <f>+$P$3*O23</f>
+      <c r="P23" s="23">
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
@@ -34092,29 +34092,29 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D24">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="N24" s="24">
+        <v>268</v>
+      </c>
+      <c r="N24" s="22">
         <v>400</v>
       </c>
       <c r="O24">
-        <f>HEX2DEC(N24)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P24" s="25">
-        <f>+$P$3*O24</f>
+      <c r="P24" s="23">
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
@@ -34123,29 +34123,29 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="N25" s="24">
+        <v>320</v>
+      </c>
+      <c r="N25" s="22">
         <v>350</v>
       </c>
       <c r="O25">
-        <f>HEX2DEC(N25)</f>
+        <f t="shared" si="0"/>
         <v>848</v>
       </c>
-      <c r="P25" s="25">
-        <f>+$P$3*O25</f>
+      <c r="P25" s="23">
+        <f t="shared" si="1"/>
         <v>517.578125</v>
       </c>
     </row>
@@ -34154,29 +34154,29 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N26" s="24">
+        <v>317</v>
+      </c>
+      <c r="N26" s="22">
         <v>800</v>
       </c>
       <c r="O26">
-        <f>HEX2DEC(N26)</f>
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="P26" s="25">
-        <f>+$P$3*O26</f>
+      <c r="P26" s="23">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -34185,817 +34185,817 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="F27" s="17"/>
+      <c r="E27" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F27" s="37"/>
       <c r="M27" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="N27" s="24">
+        <v>314</v>
+      </c>
+      <c r="N27" s="22">
         <v>60</v>
       </c>
       <c r="O27">
-        <f>HEX2DEC(N27)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>+A27+1</f>
+        <f t="shared" ref="A28:A69" si="2">+A27+1</f>
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
       <c r="M28" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="N28" s="24">
+        <v>312</v>
+      </c>
+      <c r="N28" s="22">
         <v>10</v>
       </c>
       <c r="O28">
-        <f>HEX2DEC(N28)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>+A28+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="E29" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="37"/>
       <c r="M29" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="N29" s="24">
+        <v>309</v>
+      </c>
+      <c r="N29" s="22">
         <v>28</v>
       </c>
       <c r="O29">
-        <f>HEX2DEC(N29)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>+A29+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
       <c r="M30" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="N30" s="24">
+        <v>307</v>
+      </c>
+      <c r="N30" s="22">
         <v>58</v>
       </c>
       <c r="O30">
-        <f>HEX2DEC(N30)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>+A30+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="F31" s="17"/>
+      <c r="E31" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31" s="37"/>
       <c r="M31" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="N31" s="24">
+        <v>304</v>
+      </c>
+      <c r="N31" s="22">
         <v>68</v>
       </c>
       <c r="O31">
-        <f>HEX2DEC(N31)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>+A31+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
       <c r="M32" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="N32" s="24">
+        <v>300</v>
+      </c>
+      <c r="N32" s="22">
         <v>18</v>
       </c>
       <c r="O32">
-        <f>HEX2DEC(N32)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>+A32+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F33" s="17"/>
+      <c r="E33" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" s="37"/>
       <c r="M33" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="N33" s="24">
+        <v>300</v>
+      </c>
+      <c r="N33" s="22">
         <v>18</v>
       </c>
       <c r="O33">
-        <f>HEX2DEC(N33)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>+A33+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
       <c r="M34" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="N34" s="24">
+        <v>298</v>
+      </c>
+      <c r="N34" s="22">
         <v>30</v>
       </c>
       <c r="O34">
-        <f>HEX2DEC(N34)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>+A34+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="20" t="s">
-        <v>297</v>
+      <c r="E35" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="N35" s="24">
+        <v>294</v>
+      </c>
+      <c r="N35" s="22">
         <v>40</v>
       </c>
       <c r="O35">
-        <f>HEX2DEC(N35)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>+A35+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
       <c r="M36" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="N36" s="24">
+        <v>292</v>
+      </c>
+      <c r="N36" s="22">
         <v>70</v>
       </c>
       <c r="O36">
-        <f>HEX2DEC(N36)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>+A36+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>+A37+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D38">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>+A38+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>+A39+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>+A40+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D41">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>+A41+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>+A42+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>+A43+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D44">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>+A44+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>273</v>
+      <c r="C45" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="D45">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>262</v>
+        <v>272</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>+A45+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D46">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>+A46+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="21" t="s">
         <v>267</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="D47">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>268</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>255</v>
+        <v>266</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>+A47+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D48">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>+A48+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>+A49+1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>+A50+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>+A51+1</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>+A52+1</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>+A53+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>+A54+1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>+A55+1</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>+A56+1</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>+A57+1</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>+A58+1</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>+A59+1</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>+A60+1</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>+A61+1</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>+A62+1</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>+A63+1</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>+A64+1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>+A65+1</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>+A66+1</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>+A67+1</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" t="s">
         <v>243</v>
-      </c>
-      <c r="D68" t="s">
-        <v>242</v>
-      </c>
-      <c r="E68" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>+A68+1</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -35027,34 +35027,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+        <v>171</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -35062,22 +35062,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -35085,9 +35085,9 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="C5" s="40"/>
       <c r="G5" s="15">
         <v>1</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -35106,9 +35106,9 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="C6" s="40"/>
       <c r="G6" s="15">
         <v>0</v>
       </c>
@@ -35119,7 +35119,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -35127,22 +35127,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="C7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -35150,10 +35150,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -35196,22 +35196,22 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -35219,22 +35219,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -35244,7 +35244,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -35266,522 +35266,522 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="32" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="11" style="32" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="33" customWidth="1"/>
-    <col min="12" max="12" width="11" style="33" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="32"/>
+    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="28" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11" style="28" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="11" style="29" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>411</v>
       </c>
+      <c r="G1" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="45"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="J5" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="45"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="44" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="G11" s="44"/>
+      <c r="H11" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="C17" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="41"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>392</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="43"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="43"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="C18" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="43"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C11" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="37"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="37"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="37"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="37"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="41"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
+      <c r="A19" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="41"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="E21" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="I21" s="33" t="s">
+      <c r="A21" s="31"/>
+      <c r="E21" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="F21" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="I21" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
+      <c r="J21" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="36" t="s">
-        <v>378</v>
+      <c r="C23" s="32" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="35" t="s">
-        <v>377</v>
+      <c r="C24" s="31" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="34" t="s">
-        <v>376</v>
+      <c r="C25" s="30" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="34" t="s">
-        <v>375</v>
+      <c r="C26" s="30" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
+      <c r="C27" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11520" windowHeight="7965"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11520" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="425">
   <si>
     <t>Register Number</t>
   </si>
@@ -1279,6 +1279,24 @@
   </si>
   <si>
     <t>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases</t>
+  </si>
+  <si>
+    <t>Seconds SST PLL locked</t>
+  </si>
+  <si>
+    <t>Number of seconds the PLL generating SST_IN has been locked</t>
+  </si>
+  <si>
+    <t>16-bit unsigned</t>
+  </si>
+  <si>
+    <t>Choose which MONTIMING and RCOSSX signal to send to the monitor headers</t>
+  </si>
+  <si>
+    <t>Bits 1:0 row MONTIMING, bits 3:2 col MONTIMING, bits 5:4 row RCOSSX, bits 7:6 col RCOSSX</t>
+  </si>
+  <si>
+    <t>MON_HEADER_MON_TIMING_ROW/COL (&amp; RCOSSX)</t>
   </si>
 </sst>
 </file>
@@ -1837,16 +1855,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G381" sqref="G381"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="108" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11638,16 +11656,31 @@
         <v>418</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="382" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="5">
         <v>380</v>
       </c>
-      <c r="B382" s="4" t="str">
+      <c r="B382" s="7" t="str">
         <f t="shared" si="6"/>
         <v>017C</v>
       </c>
-      <c r="F382" t="s">
-        <v>60</v>
+      <c r="C382" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -13801,9 +13834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H628"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G600" sqref="G600"/>
+      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26387,29 +26420,29 @@
         <f t="shared" si="5"/>
         <v>017C</v>
       </c>
-      <c r="C382">
+      <c r="C382" t="str">
         <f>'SCROD Write Registers'!C382</f>
-        <v>0</v>
-      </c>
-      <c r="D382">
+        <v>N/A</v>
+      </c>
+      <c r="D382" t="str">
         <f>'SCROD Write Registers'!D382</f>
-        <v>0</v>
-      </c>
-      <c r="E382">
+        <v>N/A</v>
+      </c>
+      <c r="E382" t="str">
         <f>'SCROD Write Registers'!E382</f>
-        <v>0</v>
+        <v>N/A</v>
       </c>
       <c r="F382" t="str">
         <f>'SCROD Write Registers'!F382</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G382" s="8">
+        <v>MON_HEADER_MON_TIMING_ROW/COL (&amp; RCOSSX)</v>
+      </c>
+      <c r="G382" s="8" t="str">
         <f>'SCROD Write Registers'!G382</f>
-        <v>0</v>
-      </c>
-      <c r="H382" s="8">
+        <v>Choose which MONTIMING and RCOSSX signal to send to the monitor headers</v>
+      </c>
+      <c r="H382" s="8" t="str">
         <f>'SCROD Write Registers'!H382</f>
-        <v>0</v>
+        <v>Bits 1:0 row MONTIMING, bits 3:2 col MONTIMING, bits 5:4 row RCOSSX, bits 7:6 col RCOSSX</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -32606,7 +32639,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="6" t="str">
-        <f t="shared" ref="B584:B611" si="11">DEC2HEX(A584,4)</f>
+        <f t="shared" ref="B584:B612" si="11">DEC2HEX(A584,4)</f>
         <v>0246</v>
       </c>
       <c r="C584" s="5">
@@ -33357,8 +33390,32 @@
         <v>238</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B612" s="3"/>
+    <row r="612" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="5">
+        <v>610</v>
+      </c>
+      <c r="B612" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0262</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D612" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H612" s="5" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B613" s="3"/>
@@ -35017,7 +35074,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11520" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11520" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -1293,10 +1293,10 @@
     <t>Choose which MONTIMING and RCOSSX signal to send to the monitor headers</t>
   </si>
   <si>
-    <t>Bits 1:0 row MONTIMING, bits 3:2 col MONTIMING, bits 5:4 row RCOSSX, bits 7:6 col RCOSSX</t>
-  </si>
-  <si>
     <t>MON_HEADER_MON_TIMING_ROW/COL (&amp; RCOSSX)</t>
+  </si>
+  <si>
+    <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 5: choose between MONTIMING and RCOSSX</t>
   </si>
 </sst>
 </file>
@@ -1855,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B382" sqref="B382"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H383" sqref="H383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11674,13 +11674,13 @@
         <v>10</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>422</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -13834,8 +13834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
@@ -26442,7 +26442,7 @@
       </c>
       <c r="H382" s="8" t="str">
         <f>'SCROD Write Registers'!H382</f>
-        <v>Bits 1:0 row MONTIMING, bits 3:2 col MONTIMING, bits 5:4 row RCOSSX, bits 7:6 col RCOSSX</v>
+        <v>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 5: choose between MONTIMING and RCOSSX</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -33478,8 +33478,8 @@
   </sheetPr>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -1275,9 +1275,6 @@
     <t>row</t>
   </si>
   <si>
-    <t>TIMING_REG &amp; sampling sync bits)</t>
-  </si>
-  <si>
     <t>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases</t>
   </si>
   <si>
@@ -1297,6 +1294,9 @@
   </si>
   <si>
     <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 5: choose between MONTIMING and RCOSSX</t>
+  </si>
+  <si>
+    <t>TIMING_REG &amp; sampling sync bits</t>
   </si>
 </sst>
 </file>
@@ -1855,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H383" sqref="H383"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11647,13 +11647,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>200</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11674,13 +11674,13 @@
         <v>10</v>
       </c>
       <c r="F382" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H382" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="G382" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="H382" s="5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -13835,7 +13835,7 @@
   <dimension ref="A1:H628"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
@@ -26401,7 +26401,7 @@
       </c>
       <c r="F381" t="str">
         <f>'SCROD Write Registers'!F381</f>
-        <v>TIMING_REG &amp; sampling sync bits)</v>
+        <v>TIMING_REG &amp; sampling sync bits</v>
       </c>
       <c r="G381" s="8" t="str">
         <f>'SCROD Write Registers'!G381</f>
@@ -33408,13 +33408,13 @@
         <v>10</v>
       </c>
       <c r="F612" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G612" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G612" s="5" t="s">
+      <c r="H612" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="H612" s="5" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -1293,10 +1293,10 @@
     <t>MON_HEADER_MON_TIMING_ROW/COL (&amp; RCOSSX)</t>
   </si>
   <si>
-    <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 5: choose between MONTIMING and RCOSSX</t>
-  </si>
-  <si>
     <t>TIMING_REG &amp; sampling sync bits</t>
+  </si>
+  <si>
+    <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX</t>
   </si>
 </sst>
 </file>
@@ -1855,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
+      <selection pane="bottomLeft" activeCell="H383" sqref="H383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11647,7 +11647,7 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>200</v>
@@ -11680,7 +11680,7 @@
         <v>421</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -26442,7 +26442,7 @@
       </c>
       <c r="H382" s="8" t="str">
         <f>'SCROD Write Registers'!H382</f>
-        <v>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 5: choose between MONTIMING and RCOSSX</v>
+        <v>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -33495,7 +33495,7 @@
       </c>
       <c r="E1" s="27">
         <f ca="1">+TODAY()</f>
-        <v>41357</v>
+        <v>41358</v>
       </c>
       <c r="P1">
         <v>2500</v>
@@ -35074,7 +35074,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -1855,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H383" sqref="H383"/>
+      <selection pane="bottomLeft" activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -1530,25 +1530,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1857,7 +1857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A382" sqref="A382"/>
+      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35363,15 +35363,15 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="36" t="s">
         <v>406</v>
       </c>
@@ -35389,19 +35389,19 @@
       <c r="C3" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="43" t="s">
         <v>395</v>
       </c>
     </row>
@@ -35415,11 +35415,11 @@
       <c r="C4" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="43"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
@@ -35435,11 +35435,11 @@
       <c r="C5" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="43"/>
       <c r="J5" s="29" t="s">
         <v>405</v>
       </c>
@@ -35458,11 +35458,11 @@
       <c r="C6" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="43"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
@@ -35478,19 +35478,19 @@
       <c r="C7" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="43" t="s">
         <v>388</v>
       </c>
       <c r="K7" s="31"/>
@@ -35508,11 +35508,11 @@
       <c r="C8" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="43"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
@@ -35529,11 +35529,11 @@
       <c r="C9" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
@@ -35550,11 +35550,11 @@
       <c r="C10" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
@@ -35562,15 +35562,15 @@
       <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="44" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="34" t="s">
         <v>402</v>
       </c>
@@ -35592,19 +35592,19 @@
       <c r="C12" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="47" t="s">
         <v>395</v>
       </c>
       <c r="K12" s="31"/>
@@ -35622,11 +35622,11 @@
       <c r="C13" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="47"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
@@ -35642,11 +35642,11 @@
       <c r="C14" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="47"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
@@ -35662,11 +35662,11 @@
       <c r="C15" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="41"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="47"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -35682,19 +35682,19 @@
       <c r="C16" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="47" t="s">
         <v>388</v>
       </c>
       <c r="K16" s="31"/>
@@ -35712,11 +35712,11 @@
       <c r="C17" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="41"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="47"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
@@ -35732,11 +35732,11 @@
       <c r="C18" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="41"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="47"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -35752,11 +35752,11 @@
       <c r="C19" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="41"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="47"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -35815,30 +35815,30 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11520" windowHeight="7965"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="437">
   <si>
     <t>Register Number</t>
   </si>
@@ -540,24 +540,9 @@
     <t>PCLK = 32 address decoding</t>
   </si>
   <si>
-    <t>MONTIMING SOURCE Select</t>
-  </si>
-  <si>
     <t>Bit #</t>
   </si>
   <si>
-    <t>Sel_0</t>
-  </si>
-  <si>
-    <t>Sel_1</t>
-  </si>
-  <si>
-    <t>Sel_2</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>nSel_0</t>
   </si>
   <si>
@@ -582,48 +567,30 @@
     <t>nRipSSP</t>
   </si>
   <si>
-    <t>Enable SSP RCO</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
     <t>nRipSST</t>
   </si>
   <si>
-    <t>Enable SST RCO</t>
-  </si>
-  <si>
     <t>nSSPSST</t>
   </si>
   <si>
-    <t>Select SSP/SST for monitoring</t>
-  </si>
-  <si>
     <t>PHAB</t>
   </si>
   <si>
     <t>nRCO_SSXmon</t>
   </si>
   <si>
-    <t>Select RCO or SSP/SST mon</t>
-  </si>
-  <si>
     <t>SSPin</t>
   </si>
   <si>
     <t>nCLR_PHASE</t>
   </si>
   <si>
-    <t>Clear phase (align)</t>
-  </si>
-  <si>
     <t>WR_STRB</t>
   </si>
   <si>
-    <t>Active low</t>
-  </si>
-  <si>
     <t>Register for internal ASIC timing signals (see sheet "IRS3B_TIMING_REGISTER")</t>
   </si>
   <si>
@@ -1297,6 +1264,75 @@
   </si>
   <si>
     <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX</t>
+  </si>
+  <si>
+    <t>new name</t>
+  </si>
+  <si>
+    <t>when 0</t>
+  </si>
+  <si>
+    <t>when 1</t>
+  </si>
+  <si>
+    <t>signal name inside ASIC</t>
+  </si>
+  <si>
+    <t>montiming_select(0)</t>
+  </si>
+  <si>
+    <t>montiming_select(1)</t>
+  </si>
+  <si>
+    <t>montiming_select(2)</t>
+  </si>
+  <si>
+    <t>disable_RCOSSP</t>
+  </si>
+  <si>
+    <t>RCOSSP enabled inside ASIC</t>
+  </si>
+  <si>
+    <t>breaks link in ring oscillator</t>
+  </si>
+  <si>
+    <t>disable_RCOSST</t>
+  </si>
+  <si>
+    <t>RCOSST enabled inside ASIC</t>
+  </si>
+  <si>
+    <t>select_SSP</t>
+  </si>
+  <si>
+    <t>SST or RCOSST brought out</t>
+  </si>
+  <si>
+    <t>SSP or RCOSSP brought out</t>
+  </si>
+  <si>
+    <t>select_SSX</t>
+  </si>
+  <si>
+    <t>RCO brought out to pin</t>
+  </si>
+  <si>
+    <t>SSX brought out</t>
+  </si>
+  <si>
+    <t>clear_phase</t>
+  </si>
+  <si>
+    <t>for normal running</t>
+  </si>
+  <si>
+    <t>clears flip-flop for PHAB signal</t>
+  </si>
+  <si>
+    <t>montiming_select0)</t>
+  </si>
+  <si>
+    <t>montiming output</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,6 +1384,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1434,11 +1476,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1463,9 +1506,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1527,8 +1567,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1536,23 +1588,29 @@
     <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1856,8 +1914,8 @@
   <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11215,10 +11273,10 @@
         <v>5</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H365" s="5" t="s">
         <v>170</v>
@@ -11242,10 +11300,10 @@
         <v>5</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H366" s="5" t="s">
         <v>170</v>
@@ -11269,10 +11327,10 @@
         <v>5</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H367" s="5" t="s">
         <v>170</v>
@@ -11296,10 +11354,10 @@
         <v>5</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H368" s="5" t="s">
         <v>170</v>
@@ -11323,10 +11381,10 @@
         <v>5</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H369" s="5" t="s">
         <v>170</v>
@@ -11350,10 +11408,10 @@
         <v>5</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H370" s="5" t="s">
         <v>170</v>
@@ -11377,10 +11435,10 @@
         <v>5</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H371" s="5" t="s">
         <v>170</v>
@@ -11404,10 +11462,10 @@
         <v>5</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H372" s="5" t="s">
         <v>170</v>
@@ -11431,10 +11489,10 @@
         <v>5</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H373" s="5" t="s">
         <v>170</v>
@@ -11458,10 +11516,10 @@
         <v>5</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H374" s="5" t="s">
         <v>170</v>
@@ -11485,10 +11543,10 @@
         <v>5</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H375" s="5" t="s">
         <v>170</v>
@@ -11512,10 +11570,10 @@
         <v>5</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H376" s="5" t="s">
         <v>170</v>
@@ -11539,10 +11597,10 @@
         <v>5</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H377" s="5" t="s">
         <v>170</v>
@@ -11566,10 +11624,10 @@
         <v>5</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H378" s="5" t="s">
         <v>170</v>
@@ -11593,10 +11651,10 @@
         <v>5</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H379" s="5" t="s">
         <v>170</v>
@@ -11620,10 +11678,10 @@
         <v>5</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H380" s="5" t="s">
         <v>170</v>
@@ -11647,13 +11705,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="382" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11674,13 +11732,13 @@
         <v>10</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -11737,13 +11795,13 @@
         <v>5</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H386" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="387" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11764,13 +11822,13 @@
         <v>5</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H387" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="388" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11791,13 +11849,13 @@
         <v>5</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H388" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="389" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11818,13 +11876,13 @@
         <v>5</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G389" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H389" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11845,13 +11903,13 @@
         <v>5</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H390" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="391" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11872,13 +11930,13 @@
         <v>5</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G391" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H391" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11899,13 +11957,13 @@
         <v>5</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H392" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="393" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11926,13 +11984,13 @@
         <v>5</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G393" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H393" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="394" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11953,13 +12011,13 @@
         <v>5</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H394" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="395" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11980,13 +12038,13 @@
         <v>5</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H395" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="396" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12007,13 +12065,13 @@
         <v>5</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H396" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="397" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12034,13 +12092,13 @@
         <v>5</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G397" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H397" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="398" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12061,13 +12119,13 @@
         <v>5</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G398" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H398" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="399" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12088,13 +12146,13 @@
         <v>5</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H399" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="400" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12115,13 +12173,13 @@
         <v>5</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H400" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="401" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12142,13 +12200,13 @@
         <v>5</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H401" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="402" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12169,13 +12227,13 @@
         <v>5</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H402" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="403" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12196,13 +12254,13 @@
         <v>5</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H403" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="404" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12223,13 +12281,13 @@
         <v>5</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H404" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="405" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12250,13 +12308,13 @@
         <v>5</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H405" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="406" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12277,13 +12335,13 @@
         <v>5</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H406" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="407" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12304,13 +12362,13 @@
         <v>5</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H407" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="408" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12331,13 +12389,13 @@
         <v>5</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H408" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="409" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12358,13 +12416,13 @@
         <v>5</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H409" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="410" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12385,13 +12443,13 @@
         <v>5</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H410" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="411" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12412,13 +12470,13 @@
         <v>5</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H411" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="412" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12439,13 +12497,13 @@
         <v>5</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H412" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="413" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12466,13 +12524,13 @@
         <v>5</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H413" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="414" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12493,13 +12551,13 @@
         <v>5</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="415" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12520,13 +12578,13 @@
         <v>5</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G415" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H415" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="416" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12547,13 +12605,13 @@
         <v>5</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G416" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H416" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="417" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12574,13 +12632,13 @@
         <v>5</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G417" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H417" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="418" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12601,13 +12659,13 @@
         <v>5</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G418" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H418" s="5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -13877,7 +13935,7 @@
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="16" t="str">
         <f>DEC2HEX(A2,4)</f>
         <v>0000</v>
       </c>
@@ -13910,7 +13968,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="str">
+      <c r="B3" s="16" t="str">
         <f t="shared" ref="B3:B66" si="0">DEC2HEX(A3,4)</f>
         <v>0001</v>
       </c>
@@ -13943,7 +14001,7 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="str">
+      <c r="B4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0002</v>
       </c>
@@ -13976,7 +14034,7 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0003</v>
       </c>
@@ -14009,7 +14067,7 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0004</v>
       </c>
@@ -14042,7 +14100,7 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0005</v>
       </c>
@@ -14075,7 +14133,7 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0006</v>
       </c>
@@ -14108,7 +14166,7 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0007</v>
       </c>
@@ -14141,7 +14199,7 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0008</v>
       </c>
@@ -14174,7 +14232,7 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0009</v>
       </c>
@@ -14207,7 +14265,7 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>000A</v>
       </c>
@@ -14240,7 +14298,7 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>000B</v>
       </c>
@@ -14273,7 +14331,7 @@
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>000C</v>
       </c>
@@ -14305,7 +14363,7 @@
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>000D</v>
       </c>
@@ -14338,7 +14396,7 @@
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>000E</v>
       </c>
@@ -14371,7 +14429,7 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>000F</v>
       </c>
@@ -14404,7 +14462,7 @@
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0010</v>
       </c>
@@ -14437,7 +14495,7 @@
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0011</v>
       </c>
@@ -14470,7 +14528,7 @@
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0012</v>
       </c>
@@ -14503,7 +14561,7 @@
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0013</v>
       </c>
@@ -14536,7 +14594,7 @@
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="17" t="str">
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0014</v>
       </c>
@@ -14569,7 +14627,7 @@
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="str">
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0015</v>
       </c>
@@ -14602,7 +14660,7 @@
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="17" t="str">
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0016</v>
       </c>
@@ -14635,7 +14693,7 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="str">
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0017</v>
       </c>
@@ -14668,7 +14726,7 @@
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="17" t="str">
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0018</v>
       </c>
@@ -14701,7 +14759,7 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="17" t="str">
+      <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0019</v>
       </c>
@@ -14734,7 +14792,7 @@
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="str">
+      <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>001A</v>
       </c>
@@ -14767,7 +14825,7 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="17" t="str">
+      <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>001B</v>
       </c>
@@ -14800,7 +14858,7 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="17" t="str">
+      <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>001C</v>
       </c>
@@ -14833,7 +14891,7 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="17" t="str">
+      <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>001D</v>
       </c>
@@ -14866,7 +14924,7 @@
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="17" t="str">
+      <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>001E</v>
       </c>
@@ -14899,7 +14957,7 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="17" t="str">
+      <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>001F</v>
       </c>
@@ -14932,7 +14990,7 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="17" t="str">
+      <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0020</v>
       </c>
@@ -14965,7 +15023,7 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="17" t="str">
+      <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0021</v>
       </c>
@@ -14998,7 +15056,7 @@
       <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="str">
+      <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0022</v>
       </c>
@@ -15031,7 +15089,7 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="17" t="str">
+      <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0023</v>
       </c>
@@ -15064,7 +15122,7 @@
       <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="17" t="str">
+      <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0024</v>
       </c>
@@ -15097,7 +15155,7 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="17" t="str">
+      <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0025</v>
       </c>
@@ -15130,7 +15188,7 @@
       <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0026</v>
       </c>
@@ -15163,7 +15221,7 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="17" t="str">
+      <c r="B41" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0027</v>
       </c>
@@ -15196,7 +15254,7 @@
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="17" t="str">
+      <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0028</v>
       </c>
@@ -15229,7 +15287,7 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="17" t="str">
+      <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0029</v>
       </c>
@@ -15262,7 +15320,7 @@
       <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="17" t="str">
+      <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
         <v>002A</v>
       </c>
@@ -15295,7 +15353,7 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="17" t="str">
+      <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
         <v>002B</v>
       </c>
@@ -15328,7 +15386,7 @@
       <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="17" t="str">
+      <c r="B46" s="16" t="str">
         <f t="shared" si="0"/>
         <v>002C</v>
       </c>
@@ -15361,7 +15419,7 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="17" t="str">
+      <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
         <v>002D</v>
       </c>
@@ -15394,7 +15452,7 @@
       <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="17" t="str">
+      <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
         <v>002E</v>
       </c>
@@ -15427,7 +15485,7 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
         <v>002F</v>
       </c>
@@ -15460,7 +15518,7 @@
       <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="17" t="str">
+      <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0030</v>
       </c>
@@ -15493,7 +15551,7 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="17" t="str">
+      <c r="B51" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0031</v>
       </c>
@@ -15526,7 +15584,7 @@
       <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="17" t="str">
+      <c r="B52" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0032</v>
       </c>
@@ -15559,7 +15617,7 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="17" t="str">
+      <c r="B53" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0033</v>
       </c>
@@ -15592,7 +15650,7 @@
       <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="17" t="str">
+      <c r="B54" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0034</v>
       </c>
@@ -15625,7 +15683,7 @@
       <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="17" t="str">
+      <c r="B55" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0035</v>
       </c>
@@ -15658,7 +15716,7 @@
       <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="17" t="str">
+      <c r="B56" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0036</v>
       </c>
@@ -15691,7 +15749,7 @@
       <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="17" t="str">
+      <c r="B57" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0037</v>
       </c>
@@ -15724,7 +15782,7 @@
       <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="17" t="str">
+      <c r="B58" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0038</v>
       </c>
@@ -15757,7 +15815,7 @@
       <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="17" t="str">
+      <c r="B59" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0039</v>
       </c>
@@ -15790,7 +15848,7 @@
       <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="17" t="str">
+      <c r="B60" s="16" t="str">
         <f t="shared" si="0"/>
         <v>003A</v>
       </c>
@@ -15823,7 +15881,7 @@
       <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="17" t="str">
+      <c r="B61" s="16" t="str">
         <f t="shared" si="0"/>
         <v>003B</v>
       </c>
@@ -15856,7 +15914,7 @@
       <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="17" t="str">
+      <c r="B62" s="16" t="str">
         <f t="shared" si="0"/>
         <v>003C</v>
       </c>
@@ -15889,7 +15947,7 @@
       <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="17" t="str">
+      <c r="B63" s="16" t="str">
         <f t="shared" si="0"/>
         <v>003D</v>
       </c>
@@ -15922,7 +15980,7 @@
       <c r="A64" s="8">
         <v>62</v>
       </c>
-      <c r="B64" s="17" t="str">
+      <c r="B64" s="16" t="str">
         <f t="shared" si="0"/>
         <v>003E</v>
       </c>
@@ -15955,7 +16013,7 @@
       <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="17" t="str">
+      <c r="B65" s="16" t="str">
         <f t="shared" si="0"/>
         <v>003F</v>
       </c>
@@ -15988,7 +16046,7 @@
       <c r="A66" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="17" t="str">
+      <c r="B66" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
@@ -16021,7 +16079,7 @@
       <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="17" t="str">
+      <c r="B67" s="16" t="str">
         <f t="shared" ref="B67:B130" si="1">DEC2HEX(A67,4)</f>
         <v>0041</v>
       </c>
@@ -16054,7 +16112,7 @@
       <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="17" t="str">
+      <c r="B68" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0042</v>
       </c>
@@ -16087,7 +16145,7 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="17" t="str">
+      <c r="B69" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0043</v>
       </c>
@@ -16120,7 +16178,7 @@
       <c r="A70" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="17" t="str">
+      <c r="B70" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0044</v>
       </c>
@@ -16153,7 +16211,7 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="17" t="str">
+      <c r="B71" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0045</v>
       </c>
@@ -16186,7 +16244,7 @@
       <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="17" t="str">
+      <c r="B72" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0046</v>
       </c>
@@ -16219,7 +16277,7 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="17" t="str">
+      <c r="B73" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0047</v>
       </c>
@@ -16252,7 +16310,7 @@
       <c r="A74" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="17" t="str">
+      <c r="B74" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0048</v>
       </c>
@@ -16285,7 +16343,7 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="17" t="str">
+      <c r="B75" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0049</v>
       </c>
@@ -16318,7 +16376,7 @@
       <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="17" t="str">
+      <c r="B76" s="16" t="str">
         <f t="shared" si="1"/>
         <v>004A</v>
       </c>
@@ -16351,7 +16409,7 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="17" t="str">
+      <c r="B77" s="16" t="str">
         <f t="shared" si="1"/>
         <v>004B</v>
       </c>
@@ -16384,7 +16442,7 @@
       <c r="A78" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="17" t="str">
+      <c r="B78" s="16" t="str">
         <f t="shared" si="1"/>
         <v>004C</v>
       </c>
@@ -16417,7 +16475,7 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="17" t="str">
+      <c r="B79" s="16" t="str">
         <f t="shared" si="1"/>
         <v>004D</v>
       </c>
@@ -16450,7 +16508,7 @@
       <c r="A80" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="17" t="str">
+      <c r="B80" s="16" t="str">
         <f t="shared" si="1"/>
         <v>004E</v>
       </c>
@@ -16483,7 +16541,7 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="17" t="str">
+      <c r="B81" s="16" t="str">
         <f t="shared" si="1"/>
         <v>004F</v>
       </c>
@@ -16516,7 +16574,7 @@
       <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="17" t="str">
+      <c r="B82" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0050</v>
       </c>
@@ -16549,7 +16607,7 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="17" t="str">
+      <c r="B83" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0051</v>
       </c>
@@ -16582,7 +16640,7 @@
       <c r="A84" s="8">
         <v>82</v>
       </c>
-      <c r="B84" s="17" t="str">
+      <c r="B84" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0052</v>
       </c>
@@ -16615,7 +16673,7 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="17" t="str">
+      <c r="B85" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0053</v>
       </c>
@@ -16648,7 +16706,7 @@
       <c r="A86" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="17" t="str">
+      <c r="B86" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0054</v>
       </c>
@@ -16681,7 +16739,7 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="17" t="str">
+      <c r="B87" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0055</v>
       </c>
@@ -16714,7 +16772,7 @@
       <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="17" t="str">
+      <c r="B88" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0056</v>
       </c>
@@ -16747,7 +16805,7 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="17" t="str">
+      <c r="B89" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0057</v>
       </c>
@@ -16780,7 +16838,7 @@
       <c r="A90" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="17" t="str">
+      <c r="B90" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0058</v>
       </c>
@@ -16813,7 +16871,7 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="17" t="str">
+      <c r="B91" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0059</v>
       </c>
@@ -16846,7 +16904,7 @@
       <c r="A92" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="17" t="str">
+      <c r="B92" s="16" t="str">
         <f t="shared" si="1"/>
         <v>005A</v>
       </c>
@@ -16879,7 +16937,7 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="17" t="str">
+      <c r="B93" s="16" t="str">
         <f t="shared" si="1"/>
         <v>005B</v>
       </c>
@@ -16912,7 +16970,7 @@
       <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="17" t="str">
+      <c r="B94" s="16" t="str">
         <f t="shared" si="1"/>
         <v>005C</v>
       </c>
@@ -16945,7 +17003,7 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="17" t="str">
+      <c r="B95" s="16" t="str">
         <f t="shared" si="1"/>
         <v>005D</v>
       </c>
@@ -16978,7 +17036,7 @@
       <c r="A96" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="17" t="str">
+      <c r="B96" s="16" t="str">
         <f t="shared" si="1"/>
         <v>005E</v>
       </c>
@@ -17011,7 +17069,7 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="17" t="str">
+      <c r="B97" s="16" t="str">
         <f t="shared" si="1"/>
         <v>005F</v>
       </c>
@@ -17044,7 +17102,7 @@
       <c r="A98" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="17" t="str">
+      <c r="B98" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0060</v>
       </c>
@@ -17077,7 +17135,7 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="17" t="str">
+      <c r="B99" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0061</v>
       </c>
@@ -17110,7 +17168,7 @@
       <c r="A100" s="8">
         <v>98</v>
       </c>
-      <c r="B100" s="17" t="str">
+      <c r="B100" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0062</v>
       </c>
@@ -17143,7 +17201,7 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="17" t="str">
+      <c r="B101" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0063</v>
       </c>
@@ -17176,7 +17234,7 @@
       <c r="A102" s="8">
         <v>100</v>
       </c>
-      <c r="B102" s="17" t="str">
+      <c r="B102" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0064</v>
       </c>
@@ -17209,7 +17267,7 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="17" t="str">
+      <c r="B103" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0065</v>
       </c>
@@ -17242,7 +17300,7 @@
       <c r="A104" s="8">
         <v>102</v>
       </c>
-      <c r="B104" s="17" t="str">
+      <c r="B104" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0066</v>
       </c>
@@ -17275,7 +17333,7 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="17" t="str">
+      <c r="B105" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0067</v>
       </c>
@@ -17308,7 +17366,7 @@
       <c r="A106" s="8">
         <v>104</v>
       </c>
-      <c r="B106" s="17" t="str">
+      <c r="B106" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0068</v>
       </c>
@@ -17341,7 +17399,7 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="17" t="str">
+      <c r="B107" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0069</v>
       </c>
@@ -17374,7 +17432,7 @@
       <c r="A108" s="8">
         <v>106</v>
       </c>
-      <c r="B108" s="17" t="str">
+      <c r="B108" s="16" t="str">
         <f t="shared" si="1"/>
         <v>006A</v>
       </c>
@@ -17407,7 +17465,7 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="17" t="str">
+      <c r="B109" s="16" t="str">
         <f t="shared" si="1"/>
         <v>006B</v>
       </c>
@@ -17440,7 +17498,7 @@
       <c r="A110" s="8">
         <v>108</v>
       </c>
-      <c r="B110" s="17" t="str">
+      <c r="B110" s="16" t="str">
         <f t="shared" si="1"/>
         <v>006C</v>
       </c>
@@ -17473,7 +17531,7 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="17" t="str">
+      <c r="B111" s="16" t="str">
         <f t="shared" si="1"/>
         <v>006D</v>
       </c>
@@ -17506,7 +17564,7 @@
       <c r="A112" s="8">
         <v>110</v>
       </c>
-      <c r="B112" s="17" t="str">
+      <c r="B112" s="16" t="str">
         <f t="shared" si="1"/>
         <v>006E</v>
       </c>
@@ -17539,7 +17597,7 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="17" t="str">
+      <c r="B113" s="16" t="str">
         <f t="shared" si="1"/>
         <v>006F</v>
       </c>
@@ -17572,7 +17630,7 @@
       <c r="A114" s="8">
         <v>112</v>
       </c>
-      <c r="B114" s="17" t="str">
+      <c r="B114" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0070</v>
       </c>
@@ -17605,7 +17663,7 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="17" t="str">
+      <c r="B115" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0071</v>
       </c>
@@ -17638,7 +17696,7 @@
       <c r="A116" s="8">
         <v>114</v>
       </c>
-      <c r="B116" s="17" t="str">
+      <c r="B116" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0072</v>
       </c>
@@ -17671,7 +17729,7 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="17" t="str">
+      <c r="B117" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0073</v>
       </c>
@@ -17704,7 +17762,7 @@
       <c r="A118" s="8">
         <v>116</v>
       </c>
-      <c r="B118" s="17" t="str">
+      <c r="B118" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0074</v>
       </c>
@@ -17737,7 +17795,7 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="17" t="str">
+      <c r="B119" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0075</v>
       </c>
@@ -17770,7 +17828,7 @@
       <c r="A120" s="8">
         <v>118</v>
       </c>
-      <c r="B120" s="17" t="str">
+      <c r="B120" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0076</v>
       </c>
@@ -17803,7 +17861,7 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="17" t="str">
+      <c r="B121" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0077</v>
       </c>
@@ -17836,7 +17894,7 @@
       <c r="A122" s="8">
         <v>120</v>
       </c>
-      <c r="B122" s="17" t="str">
+      <c r="B122" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0078</v>
       </c>
@@ -17869,7 +17927,7 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="17" t="str">
+      <c r="B123" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0079</v>
       </c>
@@ -17902,7 +17960,7 @@
       <c r="A124" s="8">
         <v>122</v>
       </c>
-      <c r="B124" s="17" t="str">
+      <c r="B124" s="16" t="str">
         <f t="shared" si="1"/>
         <v>007A</v>
       </c>
@@ -17935,7 +17993,7 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="17" t="str">
+      <c r="B125" s="16" t="str">
         <f t="shared" si="1"/>
         <v>007B</v>
       </c>
@@ -17968,7 +18026,7 @@
       <c r="A126" s="8">
         <v>124</v>
       </c>
-      <c r="B126" s="17" t="str">
+      <c r="B126" s="16" t="str">
         <f t="shared" si="1"/>
         <v>007C</v>
       </c>
@@ -18001,7 +18059,7 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="17" t="str">
+      <c r="B127" s="16" t="str">
         <f t="shared" si="1"/>
         <v>007D</v>
       </c>
@@ -18034,7 +18092,7 @@
       <c r="A128" s="8">
         <v>126</v>
       </c>
-      <c r="B128" s="17" t="str">
+      <c r="B128" s="16" t="str">
         <f t="shared" si="1"/>
         <v>007E</v>
       </c>
@@ -18067,7 +18125,7 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="17" t="str">
+      <c r="B129" s="16" t="str">
         <f t="shared" si="1"/>
         <v>007F</v>
       </c>
@@ -18100,7 +18158,7 @@
       <c r="A130" s="8">
         <v>128</v>
       </c>
-      <c r="B130" s="17" t="str">
+      <c r="B130" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0080</v>
       </c>
@@ -18133,7 +18191,7 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="17" t="str">
+      <c r="B131" s="16" t="str">
         <f t="shared" ref="B131:B194" si="2">DEC2HEX(A131,4)</f>
         <v>0081</v>
       </c>
@@ -18166,7 +18224,7 @@
       <c r="A132" s="8">
         <v>130</v>
       </c>
-      <c r="B132" s="17" t="str">
+      <c r="B132" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0082</v>
       </c>
@@ -18199,7 +18257,7 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="17" t="str">
+      <c r="B133" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0083</v>
       </c>
@@ -18232,7 +18290,7 @@
       <c r="A134" s="8">
         <v>132</v>
       </c>
-      <c r="B134" s="17" t="str">
+      <c r="B134" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0084</v>
       </c>
@@ -18265,7 +18323,7 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="17" t="str">
+      <c r="B135" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0085</v>
       </c>
@@ -18298,7 +18356,7 @@
       <c r="A136" s="8">
         <v>134</v>
       </c>
-      <c r="B136" s="17" t="str">
+      <c r="B136" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0086</v>
       </c>
@@ -18331,7 +18389,7 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="17" t="str">
+      <c r="B137" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0087</v>
       </c>
@@ -18364,7 +18422,7 @@
       <c r="A138" s="8">
         <v>136</v>
       </c>
-      <c r="B138" s="17" t="str">
+      <c r="B138" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0088</v>
       </c>
@@ -18397,7 +18455,7 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="17" t="str">
+      <c r="B139" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0089</v>
       </c>
@@ -18430,7 +18488,7 @@
       <c r="A140" s="8">
         <v>138</v>
       </c>
-      <c r="B140" s="17" t="str">
+      <c r="B140" s="16" t="str">
         <f t="shared" si="2"/>
         <v>008A</v>
       </c>
@@ -18463,7 +18521,7 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="17" t="str">
+      <c r="B141" s="16" t="str">
         <f t="shared" si="2"/>
         <v>008B</v>
       </c>
@@ -18496,7 +18554,7 @@
       <c r="A142" s="8">
         <v>140</v>
       </c>
-      <c r="B142" s="17" t="str">
+      <c r="B142" s="16" t="str">
         <f t="shared" si="2"/>
         <v>008C</v>
       </c>
@@ -18529,7 +18587,7 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="17" t="str">
+      <c r="B143" s="16" t="str">
         <f t="shared" si="2"/>
         <v>008D</v>
       </c>
@@ -18562,7 +18620,7 @@
       <c r="A144" s="8">
         <v>142</v>
       </c>
-      <c r="B144" s="17" t="str">
+      <c r="B144" s="16" t="str">
         <f t="shared" si="2"/>
         <v>008E</v>
       </c>
@@ -18595,7 +18653,7 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="17" t="str">
+      <c r="B145" s="16" t="str">
         <f t="shared" si="2"/>
         <v>008F</v>
       </c>
@@ -18628,7 +18686,7 @@
       <c r="A146" s="8">
         <v>144</v>
       </c>
-      <c r="B146" s="17" t="str">
+      <c r="B146" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0090</v>
       </c>
@@ -18661,7 +18719,7 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="17" t="str">
+      <c r="B147" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0091</v>
       </c>
@@ -18694,7 +18752,7 @@
       <c r="A148" s="8">
         <v>146</v>
       </c>
-      <c r="B148" s="17" t="str">
+      <c r="B148" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0092</v>
       </c>
@@ -18727,7 +18785,7 @@
       <c r="A149" s="8">
         <v>147</v>
       </c>
-      <c r="B149" s="17" t="str">
+      <c r="B149" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0093</v>
       </c>
@@ -18760,7 +18818,7 @@
       <c r="A150" s="8">
         <v>148</v>
       </c>
-      <c r="B150" s="17" t="str">
+      <c r="B150" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0094</v>
       </c>
@@ -18793,7 +18851,7 @@
       <c r="A151" s="8">
         <v>149</v>
       </c>
-      <c r="B151" s="17" t="str">
+      <c r="B151" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0095</v>
       </c>
@@ -18826,7 +18884,7 @@
       <c r="A152" s="8">
         <v>150</v>
       </c>
-      <c r="B152" s="17" t="str">
+      <c r="B152" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0096</v>
       </c>
@@ -18859,7 +18917,7 @@
       <c r="A153" s="8">
         <v>151</v>
       </c>
-      <c r="B153" s="17" t="str">
+      <c r="B153" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0097</v>
       </c>
@@ -18892,7 +18950,7 @@
       <c r="A154" s="8">
         <v>152</v>
       </c>
-      <c r="B154" s="17" t="str">
+      <c r="B154" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0098</v>
       </c>
@@ -18925,7 +18983,7 @@
       <c r="A155" s="8">
         <v>153</v>
       </c>
-      <c r="B155" s="17" t="str">
+      <c r="B155" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0099</v>
       </c>
@@ -18958,7 +19016,7 @@
       <c r="A156" s="8">
         <v>154</v>
       </c>
-      <c r="B156" s="17" t="str">
+      <c r="B156" s="16" t="str">
         <f t="shared" si="2"/>
         <v>009A</v>
       </c>
@@ -18991,7 +19049,7 @@
       <c r="A157" s="8">
         <v>155</v>
       </c>
-      <c r="B157" s="17" t="str">
+      <c r="B157" s="16" t="str">
         <f t="shared" si="2"/>
         <v>009B</v>
       </c>
@@ -19024,7 +19082,7 @@
       <c r="A158" s="8">
         <v>156</v>
       </c>
-      <c r="B158" s="17" t="str">
+      <c r="B158" s="16" t="str">
         <f t="shared" si="2"/>
         <v>009C</v>
       </c>
@@ -19057,7 +19115,7 @@
       <c r="A159" s="8">
         <v>157</v>
       </c>
-      <c r="B159" s="17" t="str">
+      <c r="B159" s="16" t="str">
         <f t="shared" si="2"/>
         <v>009D</v>
       </c>
@@ -19090,7 +19148,7 @@
       <c r="A160" s="8">
         <v>158</v>
       </c>
-      <c r="B160" s="17" t="str">
+      <c r="B160" s="16" t="str">
         <f t="shared" si="2"/>
         <v>009E</v>
       </c>
@@ -19123,7 +19181,7 @@
       <c r="A161" s="8">
         <v>159</v>
       </c>
-      <c r="B161" s="17" t="str">
+      <c r="B161" s="16" t="str">
         <f t="shared" si="2"/>
         <v>009F</v>
       </c>
@@ -19156,7 +19214,7 @@
       <c r="A162" s="8">
         <v>160</v>
       </c>
-      <c r="B162" s="17" t="str">
+      <c r="B162" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A0</v>
       </c>
@@ -19189,7 +19247,7 @@
       <c r="A163" s="8">
         <v>161</v>
       </c>
-      <c r="B163" s="17" t="str">
+      <c r="B163" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A1</v>
       </c>
@@ -19222,7 +19280,7 @@
       <c r="A164" s="8">
         <v>162</v>
       </c>
-      <c r="B164" s="17" t="str">
+      <c r="B164" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A2</v>
       </c>
@@ -19255,7 +19313,7 @@
       <c r="A165" s="8">
         <v>163</v>
       </c>
-      <c r="B165" s="17" t="str">
+      <c r="B165" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A3</v>
       </c>
@@ -19288,7 +19346,7 @@
       <c r="A166" s="8">
         <v>164</v>
       </c>
-      <c r="B166" s="17" t="str">
+      <c r="B166" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A4</v>
       </c>
@@ -19321,7 +19379,7 @@
       <c r="A167" s="8">
         <v>165</v>
       </c>
-      <c r="B167" s="17" t="str">
+      <c r="B167" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A5</v>
       </c>
@@ -19354,7 +19412,7 @@
       <c r="A168" s="8">
         <v>166</v>
       </c>
-      <c r="B168" s="17" t="str">
+      <c r="B168" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A6</v>
       </c>
@@ -19387,7 +19445,7 @@
       <c r="A169" s="8">
         <v>167</v>
       </c>
-      <c r="B169" s="17" t="str">
+      <c r="B169" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A7</v>
       </c>
@@ -19420,7 +19478,7 @@
       <c r="A170" s="8">
         <v>168</v>
       </c>
-      <c r="B170" s="17" t="str">
+      <c r="B170" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A8</v>
       </c>
@@ -19453,7 +19511,7 @@
       <c r="A171" s="8">
         <v>169</v>
       </c>
-      <c r="B171" s="17" t="str">
+      <c r="B171" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00A9</v>
       </c>
@@ -19486,7 +19544,7 @@
       <c r="A172" s="8">
         <v>170</v>
       </c>
-      <c r="B172" s="17" t="str">
+      <c r="B172" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00AA</v>
       </c>
@@ -30376,7 +30434,7 @@
       <c r="A502" s="8">
         <v>500</v>
       </c>
-      <c r="B502" s="17" t="str">
+      <c r="B502" s="16" t="str">
         <f t="shared" si="7"/>
         <v>01F4</v>
       </c>
@@ -30409,7 +30467,7 @@
       <c r="A503" s="8">
         <v>501</v>
       </c>
-      <c r="B503" s="17" t="str">
+      <c r="B503" s="16" t="str">
         <f t="shared" si="7"/>
         <v>01F5</v>
       </c>
@@ -30442,7 +30500,7 @@
       <c r="A504" s="8">
         <v>502</v>
       </c>
-      <c r="B504" s="17" t="str">
+      <c r="B504" s="16" t="str">
         <f t="shared" si="7"/>
         <v>01F6</v>
       </c>
@@ -30475,7 +30533,7 @@
       <c r="A505" s="8">
         <v>503</v>
       </c>
-      <c r="B505" s="17" t="str">
+      <c r="B505" s="16" t="str">
         <f t="shared" si="7"/>
         <v>01F7</v>
       </c>
@@ -30508,7 +30566,7 @@
       <c r="A506" s="8">
         <v>504</v>
       </c>
-      <c r="B506" s="17" t="str">
+      <c r="B506" s="16" t="str">
         <f t="shared" si="7"/>
         <v>01F8</v>
       </c>
@@ -30789,7 +30847,7 @@
         <v>96</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H514" s="10" t="s">
         <v>32</v>
@@ -30816,7 +30874,7 @@
         <v>97</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H515" s="5" t="s">
         <v>32</v>
@@ -30843,7 +30901,7 @@
         <v>98</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H516" s="5" t="s">
         <v>32</v>
@@ -30870,7 +30928,7 @@
         <v>99</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>32</v>
@@ -30897,7 +30955,7 @@
         <v>100</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>32</v>
@@ -30924,7 +30982,7 @@
         <v>101</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H519" s="5" t="s">
         <v>32</v>
@@ -30951,7 +31009,7 @@
         <v>102</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H520" s="5" t="s">
         <v>32</v>
@@ -30975,10 +31033,10 @@
         <v>10</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G521" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H521" s="5" t="s">
         <v>32</v>
@@ -31005,7 +31063,7 @@
         <v>35</v>
       </c>
       <c r="H522" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="523" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31029,7 +31087,7 @@
         <v>35</v>
       </c>
       <c r="H523" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="524" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31053,7 +31111,7 @@
         <v>35</v>
       </c>
       <c r="H524" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="525" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31077,7 +31135,7 @@
         <v>35</v>
       </c>
       <c r="H525" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="526" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31101,7 +31159,7 @@
         <v>35</v>
       </c>
       <c r="H526" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="527" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31125,7 +31183,7 @@
         <v>35</v>
       </c>
       <c r="H527" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="528" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31149,7 +31207,7 @@
         <v>35</v>
       </c>
       <c r="H528" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="529" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31173,7 +31231,7 @@
         <v>35</v>
       </c>
       <c r="H529" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="530" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31194,13 +31252,13 @@
         <v>10</v>
       </c>
       <c r="F530" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H530" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="531" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31221,13 +31279,13 @@
         <v>10</v>
       </c>
       <c r="F531" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H531" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="532" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31248,13 +31306,13 @@
         <v>10</v>
       </c>
       <c r="F532" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G532" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H532" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="533" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31275,13 +31333,13 @@
         <v>10</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H533" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="534" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31302,13 +31360,13 @@
         <v>10</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H534" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="535" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31329,13 +31387,13 @@
         <v>10</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H535" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="536" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31356,13 +31414,13 @@
         <v>10</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H536" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="537" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31383,13 +31441,13 @@
         <v>10</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H537" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="538" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31410,13 +31468,13 @@
         <v>10</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H538" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="539" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31437,13 +31495,13 @@
         <v>10</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H539" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="540" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31464,13 +31522,13 @@
         <v>10</v>
       </c>
       <c r="F540" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H540" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="541" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31491,13 +31549,13 @@
         <v>10</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H541" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="542" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31518,13 +31576,13 @@
         <v>10</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G542" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H542" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="543" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31545,13 +31603,13 @@
         <v>10</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G543" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H543" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="544" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31572,13 +31630,13 @@
         <v>10</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G544" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H544" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="545" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31599,13 +31657,13 @@
         <v>10</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G545" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H545" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31626,10 +31684,10 @@
         <v>10</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G546" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H546" s="5" t="s">
         <v>30</v>
@@ -31653,10 +31711,10 @@
         <v>10</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G547" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H547" s="5" t="s">
         <v>30</v>
@@ -31680,10 +31738,10 @@
         <v>10</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G548" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H548" s="5" t="s">
         <v>30</v>
@@ -31707,10 +31765,10 @@
         <v>10</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G549" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H549" s="5" t="s">
         <v>30</v>
@@ -31734,10 +31792,10 @@
         <v>10</v>
       </c>
       <c r="F550" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G550" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H550" s="5" t="s">
         <v>30</v>
@@ -31761,10 +31819,10 @@
         <v>10</v>
       </c>
       <c r="F551" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H551" s="5" t="s">
         <v>30</v>
@@ -31788,10 +31846,10 @@
         <v>10</v>
       </c>
       <c r="F552" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H552" s="5" t="s">
         <v>30</v>
@@ -31815,10 +31873,10 @@
         <v>10</v>
       </c>
       <c r="F553" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G553" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H553" s="5" t="s">
         <v>30</v>
@@ -31842,10 +31900,10 @@
         <v>10</v>
       </c>
       <c r="F554" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G554" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H554" s="5" t="s">
         <v>30</v>
@@ -31869,10 +31927,10 @@
         <v>10</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G555" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H555" s="5" t="s">
         <v>30</v>
@@ -31896,10 +31954,10 @@
         <v>10</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G556" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H556" s="5" t="s">
         <v>30</v>
@@ -31923,10 +31981,10 @@
         <v>10</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G557" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H557" s="5" t="s">
         <v>30</v>
@@ -31950,10 +32008,10 @@
         <v>10</v>
       </c>
       <c r="F558" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G558" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H558" s="5" t="s">
         <v>30</v>
@@ -31977,10 +32035,10 @@
         <v>10</v>
       </c>
       <c r="F559" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G559" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H559" s="5" t="s">
         <v>30</v>
@@ -32004,10 +32062,10 @@
         <v>10</v>
       </c>
       <c r="F560" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G560" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H560" s="5" t="s">
         <v>30</v>
@@ -32031,10 +32089,10 @@
         <v>10</v>
       </c>
       <c r="F561" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G561" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H561" s="5" t="s">
         <v>30</v>
@@ -32058,13 +32116,13 @@
         <v>10</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G562" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H562" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32085,13 +32143,13 @@
         <v>10</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H563" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="564" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32112,13 +32170,13 @@
         <v>10</v>
       </c>
       <c r="F564" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G564" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H564" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="565" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32139,13 +32197,13 @@
         <v>10</v>
       </c>
       <c r="F565" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H565" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32166,13 +32224,13 @@
         <v>10</v>
       </c>
       <c r="F566" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G566" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H566" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="567" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32193,13 +32251,13 @@
         <v>10</v>
       </c>
       <c r="F567" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G567" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H567" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="568" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32220,13 +32278,13 @@
         <v>10</v>
       </c>
       <c r="F568" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G568" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H568" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32247,13 +32305,13 @@
         <v>10</v>
       </c>
       <c r="F569" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G569" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H569" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32274,13 +32332,13 @@
         <v>10</v>
       </c>
       <c r="F570" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G570" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H570" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="571" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32301,13 +32359,13 @@
         <v>10</v>
       </c>
       <c r="F571" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G571" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H571" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="572" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32328,13 +32386,13 @@
         <v>10</v>
       </c>
       <c r="F572" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G572" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H572" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="573" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32355,13 +32413,13 @@
         <v>10</v>
       </c>
       <c r="F573" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G573" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H573" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="574" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32382,13 +32440,13 @@
         <v>10</v>
       </c>
       <c r="F574" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G574" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H574" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="575" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32409,13 +32467,13 @@
         <v>10</v>
       </c>
       <c r="F575" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G575" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H575" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="576" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32436,13 +32494,13 @@
         <v>10</v>
       </c>
       <c r="F576" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G576" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H576" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="577" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32463,13 +32521,13 @@
         <v>10</v>
       </c>
       <c r="F577" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G577" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H577" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="578" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32490,7 +32548,7 @@
         <v>10</v>
       </c>
       <c r="F578" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G578" s="5" t="s">
         <v>36</v>
@@ -32517,10 +32575,10 @@
         <v>10</v>
       </c>
       <c r="F579" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G579" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H579" s="5" t="s">
         <v>30</v>
@@ -32544,10 +32602,10 @@
         <v>10</v>
       </c>
       <c r="F580" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G580" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H580" s="5" t="s">
         <v>30</v>
@@ -32571,10 +32629,10 @@
         <v>10</v>
       </c>
       <c r="F581" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G581" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H581" s="5" t="s">
         <v>30</v>
@@ -32598,10 +32656,10 @@
         <v>10</v>
       </c>
       <c r="F582" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G582" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H582" s="5" t="s">
         <v>30</v>
@@ -32625,10 +32683,10 @@
         <v>10</v>
       </c>
       <c r="F583" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G583" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H583" s="5" t="s">
         <v>30</v>
@@ -32652,10 +32710,10 @@
         <v>10</v>
       </c>
       <c r="F584" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G584" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H584" s="5" t="s">
         <v>30</v>
@@ -32679,10 +32737,10 @@
         <v>10</v>
       </c>
       <c r="F585" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G585" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H585" s="5" t="s">
         <v>30</v>
@@ -32706,10 +32764,10 @@
         <v>10</v>
       </c>
       <c r="F586" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G586" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H586" s="5" t="s">
         <v>30</v>
@@ -32733,10 +32791,10 @@
         <v>10</v>
       </c>
       <c r="F587" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G587" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H587" s="5" t="s">
         <v>30</v>
@@ -32760,10 +32818,10 @@
         <v>10</v>
       </c>
       <c r="F588" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G588" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H588" s="5" t="s">
         <v>30</v>
@@ -32787,10 +32845,10 @@
         <v>10</v>
       </c>
       <c r="F589" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G589" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H589" s="5" t="s">
         <v>30</v>
@@ -32814,10 +32872,10 @@
         <v>10</v>
       </c>
       <c r="F590" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G590" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H590" s="5" t="s">
         <v>30</v>
@@ -32841,10 +32899,10 @@
         <v>10</v>
       </c>
       <c r="F591" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G591" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H591" s="5" t="s">
         <v>30</v>
@@ -32868,10 +32926,10 @@
         <v>10</v>
       </c>
       <c r="F592" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G592" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H592" s="5" t="s">
         <v>30</v>
@@ -32895,10 +32953,10 @@
         <v>10</v>
       </c>
       <c r="F593" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G593" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H593" s="5" t="s">
         <v>30</v>
@@ -32922,7 +32980,7 @@
         <v>10</v>
       </c>
       <c r="F594" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G594" s="5" t="s">
         <v>36</v>
@@ -32949,10 +33007,10 @@
         <v>10</v>
       </c>
       <c r="F595" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G595" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H595" s="5" t="s">
         <v>30</v>
@@ -32976,10 +33034,10 @@
         <v>10</v>
       </c>
       <c r="F596" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G596" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H596" s="5" t="s">
         <v>30</v>
@@ -33003,10 +33061,10 @@
         <v>10</v>
       </c>
       <c r="F597" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G597" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H597" s="5" t="s">
         <v>30</v>
@@ -33030,10 +33088,10 @@
         <v>10</v>
       </c>
       <c r="F598" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G598" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H598" s="5" t="s">
         <v>30</v>
@@ -33057,10 +33115,10 @@
         <v>10</v>
       </c>
       <c r="F599" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G599" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H599" s="5" t="s">
         <v>30</v>
@@ -33084,10 +33142,10 @@
         <v>10</v>
       </c>
       <c r="F600" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G600" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H600" s="5" t="s">
         <v>30</v>
@@ -33111,10 +33169,10 @@
         <v>10</v>
       </c>
       <c r="F601" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G601" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H601" s="5" t="s">
         <v>30</v>
@@ -33138,10 +33196,10 @@
         <v>10</v>
       </c>
       <c r="F602" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G602" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H602" s="5" t="s">
         <v>30</v>
@@ -33165,10 +33223,10 @@
         <v>10</v>
       </c>
       <c r="F603" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G603" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H603" s="5" t="s">
         <v>30</v>
@@ -33192,10 +33250,10 @@
         <v>10</v>
       </c>
       <c r="F604" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G604" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H604" s="5" t="s">
         <v>30</v>
@@ -33219,10 +33277,10 @@
         <v>10</v>
       </c>
       <c r="F605" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G605" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H605" s="5" t="s">
         <v>30</v>
@@ -33246,10 +33304,10 @@
         <v>10</v>
       </c>
       <c r="F606" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G606" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H606" s="5" t="s">
         <v>30</v>
@@ -33273,10 +33331,10 @@
         <v>10</v>
       </c>
       <c r="F607" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G607" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H607" s="5" t="s">
         <v>30</v>
@@ -33300,10 +33358,10 @@
         <v>10</v>
       </c>
       <c r="F608" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G608" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H608" s="5" t="s">
         <v>30</v>
@@ -33327,10 +33385,10 @@
         <v>10</v>
       </c>
       <c r="F609" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G609" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H609" s="5" t="s">
         <v>30</v>
@@ -33354,13 +33412,13 @@
         <v>10</v>
       </c>
       <c r="F610" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G610" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H610" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="611" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -33381,13 +33439,13 @@
         <v>10</v>
       </c>
       <c r="F611" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G611" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H611" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="612" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -33408,13 +33466,13 @@
         <v>10</v>
       </c>
       <c r="F612" s="5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G612" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H612" s="5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
@@ -33478,8 +33536,8 @@
   </sheetPr>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33491,345 +33549,345 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" s="27">
+        <v>361</v>
+      </c>
+      <c r="E1" s="26">
         <f ca="1">+TODAY()</f>
-        <v>41358</v>
+        <v>41360</v>
       </c>
       <c r="P1">
         <v>2500</v>
       </c>
       <c r="Q1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="27"/>
+      <c r="E2" s="26"/>
       <c r="P2">
         <v>4096</v>
       </c>
       <c r="Q2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E3" s="27"/>
+        <v>358</v>
+      </c>
+      <c r="E3" s="26"/>
       <c r="P3">
         <f>+P1/P2</f>
         <v>0.6103515625</v>
       </c>
       <c r="Q3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N4" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>365</v>
+      <c r="N4" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>359</v>
+        <v>349</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>1</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="A6" s="24">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="24">
         <v>12</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25">
+      <c r="E6" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24">
         <v>0</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O36" si="0">HEX2DEC(N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="22">
         <f t="shared" ref="P6:P26" si="1">+$P$3*O6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="A7" s="24">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="24">
         <v>12</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25">
+      <c r="E7" s="37"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24">
         <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="24">
         <v>12</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25">
+      <c r="E8" s="37"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24">
         <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="B9" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="24">
         <v>12</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="E9" s="37"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
         <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="B10" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="24">
         <v>12</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25">
+      <c r="E10" s="37"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24">
         <v>0</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>6</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="B11" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="24">
         <v>12</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25">
+      <c r="E11" s="37"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24">
         <v>0</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>7</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="B12" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="24">
         <v>12</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25">
+      <c r="E12" s="37"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24">
         <v>0</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>8</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>350</v>
+      <c r="B13" s="23" t="s">
+        <v>339</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="24">
+        <v>338</v>
+      </c>
+      <c r="D13" s="23">
         <v>12</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24">
+      <c r="E13" s="38"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23">
         <v>0</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -33839,28 +33897,28 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>268</v>
+        <v>337</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N14" s="22">
+        <v>336</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="21">
         <v>400</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="22">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -33870,28 +33928,28 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>344</v>
+        <v>335</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="N15" s="22">
+        <v>334</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="N15" s="21">
         <v>380</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
         <v>896</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="22">
         <f t="shared" si="1"/>
         <v>546.875</v>
       </c>
@@ -33901,28 +33959,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>342</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="N16" s="22">
+        <v>331</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="N16" s="21">
         <v>370</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="22">
         <f t="shared" si="1"/>
         <v>537.109375</v>
       </c>
@@ -33932,25 +33990,25 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>340</v>
+        <v>330</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="N17" s="22">
+      <c r="M17" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="N17" s="21">
         <v>0</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -33960,28 +34018,28 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>268</v>
+        <v>328</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N18" s="22">
+        <v>327</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" s="21">
         <v>400</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="22">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -33991,28 +34049,28 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>325</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="N19" s="22">
+        <v>324</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="N19" s="21">
         <v>370</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="22">
         <f t="shared" si="1"/>
         <v>537.109375</v>
       </c>
@@ -34022,28 +34080,28 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>268</v>
+        <v>322</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>332</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N20" s="22">
+        <v>321</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N20" s="21">
         <v>400</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="22">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -34053,28 +34111,28 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
-      </c>
-      <c r="C21" s="15" t="s">
         <v>320</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>330</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="N21" s="22">
+        <v>319</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N21" s="21">
         <v>350</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
         <v>848</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="22">
         <f t="shared" si="1"/>
         <v>517.578125</v>
       </c>
@@ -34084,28 +34142,28 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>268</v>
+        <v>318</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>328</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N22" s="22">
+        <v>317</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N22" s="21">
         <v>400</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="22">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -34115,31 +34173,31 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>268</v>
+        <v>316</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I23" t="s">
-        <v>325</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N23" s="22">
+        <v>314</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N23" s="21">
         <v>400</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="22">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -34149,28 +34207,28 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>268</v>
+        <v>313</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D24">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>323</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N24" s="22">
+        <v>312</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N24" s="21">
         <v>400</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="22">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
@@ -34180,28 +34238,28 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="N25" s="22">
+        <v>310</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N25" s="21">
         <v>350</v>
       </c>
       <c r="O25">
         <f t="shared" si="0"/>
         <v>848</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="22">
         <f t="shared" si="1"/>
         <v>517.578125</v>
       </c>
@@ -34211,28 +34269,28 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>318</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="N26" s="22">
+        <v>307</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="N26" s="21">
         <v>800</v>
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="22">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
@@ -34242,22 +34300,22 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="M27" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="N27" s="22">
+      <c r="E27" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="M27" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="N27" s="21">
         <v>60</v>
       </c>
       <c r="O27">
@@ -34271,20 +34329,20 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>312</v>
+        <v>302</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="M28" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="N28" s="22">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="M28" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="N28" s="21">
         <v>10</v>
       </c>
       <c r="O28">
@@ -34298,22 +34356,22 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>309</v>
+        <v>300</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
-      <c r="E29" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="M29" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="E29" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="M29" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="N29" s="21">
         <v>28</v>
       </c>
       <c r="O29">
@@ -34327,20 +34385,20 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>307</v>
+        <v>297</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="M30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="N30" s="22">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="M30" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="N30" s="21">
         <v>58</v>
       </c>
       <c r="O30">
@@ -34354,22 +34412,22 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>304</v>
+        <v>295</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
-      <c r="E31" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="M31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="N31" s="22">
+      <c r="E31" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="M31" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="N31" s="21">
         <v>68</v>
       </c>
       <c r="O31">
@@ -34383,20 +34441,20 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>300</v>
+        <v>292</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="M32" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="N32" s="22">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="M32" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="N32" s="21">
         <v>18</v>
       </c>
       <c r="O32">
@@ -34410,22 +34468,22 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>300</v>
+        <v>291</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="M33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="N33" s="22">
+      <c r="E33" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="M33" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="N33" s="21">
         <v>18</v>
       </c>
       <c r="O33">
@@ -34439,20 +34497,20 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>287</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="M34" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="M34" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="N34" s="21">
         <v>30</v>
       </c>
       <c r="O34">
@@ -34466,26 +34524,26 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="N35" s="22">
+      <c r="E35" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="N35" s="21">
         <v>40</v>
       </c>
       <c r="O35">
@@ -34499,21 +34557,21 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>292</v>
+        <v>282</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="M36" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="N36" s="22">
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="M36" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="N36" s="21">
         <v>70</v>
       </c>
       <c r="O36">
@@ -34527,19 +34585,19 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>290</v>
+        <v>280</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -34548,19 +34606,19 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>268</v>
+        <v>276</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D38">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -34569,19 +34627,19 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>285</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>284</v>
+        <v>274</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -34590,19 +34648,19 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>268</v>
+        <v>272</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -34611,19 +34669,19 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="D41">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>280</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -34632,19 +34690,19 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -34653,19 +34711,19 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>275</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -34674,19 +34732,19 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D44">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -34697,20 +34755,20 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>271</v>
+      <c r="C45" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="D45">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
-      </c>
-      <c r="I45" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -34719,19 +34777,19 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D46">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>268</v>
+        <v>258</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -34740,22 +34798,22 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="D47">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>266</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>265</v>
+        <v>255</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -34764,19 +34822,19 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="D48">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -34785,22 +34843,22 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>259</v>
+        <v>251</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>261</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>259</v>
+        <v>250</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -34809,19 +34867,19 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>256</v>
+        <v>246</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -34830,22 +34888,22 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>252</v>
+        <v>243</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -34854,7 +34912,7 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -34863,7 +34921,7 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -34872,7 +34930,7 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -34881,7 +34939,7 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -34890,7 +34948,7 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -34899,7 +34957,7 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -34908,7 +34966,7 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -34917,7 +34975,7 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -34926,7 +34984,7 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -34935,7 +34993,7 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -34944,7 +35002,7 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -34953,7 +35011,7 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -34962,7 +35020,7 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -34971,16 +35029,16 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -34989,16 +35047,16 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -35007,16 +35065,16 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -35025,16 +35083,16 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -35043,16 +35101,16 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -35071,243 +35129,857 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="46"/>
+    <col min="2" max="2" width="19.85546875" style="46" customWidth="1"/>
+    <col min="3" max="5" width="29.5703125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="46" customWidth="1"/>
+    <col min="10" max="257" width="8.7109375" style="46"/>
+    <col min="258" max="258" width="19.85546875" style="46" customWidth="1"/>
+    <col min="259" max="261" width="29.5703125" style="46" customWidth="1"/>
+    <col min="262" max="262" width="22.28515625" style="46" customWidth="1"/>
+    <col min="263" max="263" width="27.5703125" style="46" customWidth="1"/>
+    <col min="264" max="264" width="26.7109375" style="46" customWidth="1"/>
+    <col min="265" max="265" width="20.140625" style="46" customWidth="1"/>
+    <col min="266" max="513" width="8.7109375" style="46"/>
+    <col min="514" max="514" width="19.85546875" style="46" customWidth="1"/>
+    <col min="515" max="517" width="29.5703125" style="46" customWidth="1"/>
+    <col min="518" max="518" width="22.28515625" style="46" customWidth="1"/>
+    <col min="519" max="519" width="27.5703125" style="46" customWidth="1"/>
+    <col min="520" max="520" width="26.7109375" style="46" customWidth="1"/>
+    <col min="521" max="521" width="20.140625" style="46" customWidth="1"/>
+    <col min="522" max="769" width="8.7109375" style="46"/>
+    <col min="770" max="770" width="19.85546875" style="46" customWidth="1"/>
+    <col min="771" max="773" width="29.5703125" style="46" customWidth="1"/>
+    <col min="774" max="774" width="22.28515625" style="46" customWidth="1"/>
+    <col min="775" max="775" width="27.5703125" style="46" customWidth="1"/>
+    <col min="776" max="776" width="26.7109375" style="46" customWidth="1"/>
+    <col min="777" max="777" width="20.140625" style="46" customWidth="1"/>
+    <col min="778" max="1025" width="8.7109375" style="46"/>
+    <col min="1026" max="1026" width="19.85546875" style="46" customWidth="1"/>
+    <col min="1027" max="1029" width="29.5703125" style="46" customWidth="1"/>
+    <col min="1030" max="1030" width="22.28515625" style="46" customWidth="1"/>
+    <col min="1031" max="1031" width="27.5703125" style="46" customWidth="1"/>
+    <col min="1032" max="1032" width="26.7109375" style="46" customWidth="1"/>
+    <col min="1033" max="1033" width="20.140625" style="46" customWidth="1"/>
+    <col min="1034" max="1281" width="8.7109375" style="46"/>
+    <col min="1282" max="1282" width="19.85546875" style="46" customWidth="1"/>
+    <col min="1283" max="1285" width="29.5703125" style="46" customWidth="1"/>
+    <col min="1286" max="1286" width="22.28515625" style="46" customWidth="1"/>
+    <col min="1287" max="1287" width="27.5703125" style="46" customWidth="1"/>
+    <col min="1288" max="1288" width="26.7109375" style="46" customWidth="1"/>
+    <col min="1289" max="1289" width="20.140625" style="46" customWidth="1"/>
+    <col min="1290" max="1537" width="8.7109375" style="46"/>
+    <col min="1538" max="1538" width="19.85546875" style="46" customWidth="1"/>
+    <col min="1539" max="1541" width="29.5703125" style="46" customWidth="1"/>
+    <col min="1542" max="1542" width="22.28515625" style="46" customWidth="1"/>
+    <col min="1543" max="1543" width="27.5703125" style="46" customWidth="1"/>
+    <col min="1544" max="1544" width="26.7109375" style="46" customWidth="1"/>
+    <col min="1545" max="1545" width="20.140625" style="46" customWidth="1"/>
+    <col min="1546" max="1793" width="8.7109375" style="46"/>
+    <col min="1794" max="1794" width="19.85546875" style="46" customWidth="1"/>
+    <col min="1795" max="1797" width="29.5703125" style="46" customWidth="1"/>
+    <col min="1798" max="1798" width="22.28515625" style="46" customWidth="1"/>
+    <col min="1799" max="1799" width="27.5703125" style="46" customWidth="1"/>
+    <col min="1800" max="1800" width="26.7109375" style="46" customWidth="1"/>
+    <col min="1801" max="1801" width="20.140625" style="46" customWidth="1"/>
+    <col min="1802" max="2049" width="8.7109375" style="46"/>
+    <col min="2050" max="2050" width="19.85546875" style="46" customWidth="1"/>
+    <col min="2051" max="2053" width="29.5703125" style="46" customWidth="1"/>
+    <col min="2054" max="2054" width="22.28515625" style="46" customWidth="1"/>
+    <col min="2055" max="2055" width="27.5703125" style="46" customWidth="1"/>
+    <col min="2056" max="2056" width="26.7109375" style="46" customWidth="1"/>
+    <col min="2057" max="2057" width="20.140625" style="46" customWidth="1"/>
+    <col min="2058" max="2305" width="8.7109375" style="46"/>
+    <col min="2306" max="2306" width="19.85546875" style="46" customWidth="1"/>
+    <col min="2307" max="2309" width="29.5703125" style="46" customWidth="1"/>
+    <col min="2310" max="2310" width="22.28515625" style="46" customWidth="1"/>
+    <col min="2311" max="2311" width="27.5703125" style="46" customWidth="1"/>
+    <col min="2312" max="2312" width="26.7109375" style="46" customWidth="1"/>
+    <col min="2313" max="2313" width="20.140625" style="46" customWidth="1"/>
+    <col min="2314" max="2561" width="8.7109375" style="46"/>
+    <col min="2562" max="2562" width="19.85546875" style="46" customWidth="1"/>
+    <col min="2563" max="2565" width="29.5703125" style="46" customWidth="1"/>
+    <col min="2566" max="2566" width="22.28515625" style="46" customWidth="1"/>
+    <col min="2567" max="2567" width="27.5703125" style="46" customWidth="1"/>
+    <col min="2568" max="2568" width="26.7109375" style="46" customWidth="1"/>
+    <col min="2569" max="2569" width="20.140625" style="46" customWidth="1"/>
+    <col min="2570" max="2817" width="8.7109375" style="46"/>
+    <col min="2818" max="2818" width="19.85546875" style="46" customWidth="1"/>
+    <col min="2819" max="2821" width="29.5703125" style="46" customWidth="1"/>
+    <col min="2822" max="2822" width="22.28515625" style="46" customWidth="1"/>
+    <col min="2823" max="2823" width="27.5703125" style="46" customWidth="1"/>
+    <col min="2824" max="2824" width="26.7109375" style="46" customWidth="1"/>
+    <col min="2825" max="2825" width="20.140625" style="46" customWidth="1"/>
+    <col min="2826" max="3073" width="8.7109375" style="46"/>
+    <col min="3074" max="3074" width="19.85546875" style="46" customWidth="1"/>
+    <col min="3075" max="3077" width="29.5703125" style="46" customWidth="1"/>
+    <col min="3078" max="3078" width="22.28515625" style="46" customWidth="1"/>
+    <col min="3079" max="3079" width="27.5703125" style="46" customWidth="1"/>
+    <col min="3080" max="3080" width="26.7109375" style="46" customWidth="1"/>
+    <col min="3081" max="3081" width="20.140625" style="46" customWidth="1"/>
+    <col min="3082" max="3329" width="8.7109375" style="46"/>
+    <col min="3330" max="3330" width="19.85546875" style="46" customWidth="1"/>
+    <col min="3331" max="3333" width="29.5703125" style="46" customWidth="1"/>
+    <col min="3334" max="3334" width="22.28515625" style="46" customWidth="1"/>
+    <col min="3335" max="3335" width="27.5703125" style="46" customWidth="1"/>
+    <col min="3336" max="3336" width="26.7109375" style="46" customWidth="1"/>
+    <col min="3337" max="3337" width="20.140625" style="46" customWidth="1"/>
+    <col min="3338" max="3585" width="8.7109375" style="46"/>
+    <col min="3586" max="3586" width="19.85546875" style="46" customWidth="1"/>
+    <col min="3587" max="3589" width="29.5703125" style="46" customWidth="1"/>
+    <col min="3590" max="3590" width="22.28515625" style="46" customWidth="1"/>
+    <col min="3591" max="3591" width="27.5703125" style="46" customWidth="1"/>
+    <col min="3592" max="3592" width="26.7109375" style="46" customWidth="1"/>
+    <col min="3593" max="3593" width="20.140625" style="46" customWidth="1"/>
+    <col min="3594" max="3841" width="8.7109375" style="46"/>
+    <col min="3842" max="3842" width="19.85546875" style="46" customWidth="1"/>
+    <col min="3843" max="3845" width="29.5703125" style="46" customWidth="1"/>
+    <col min="3846" max="3846" width="22.28515625" style="46" customWidth="1"/>
+    <col min="3847" max="3847" width="27.5703125" style="46" customWidth="1"/>
+    <col min="3848" max="3848" width="26.7109375" style="46" customWidth="1"/>
+    <col min="3849" max="3849" width="20.140625" style="46" customWidth="1"/>
+    <col min="3850" max="4097" width="8.7109375" style="46"/>
+    <col min="4098" max="4098" width="19.85546875" style="46" customWidth="1"/>
+    <col min="4099" max="4101" width="29.5703125" style="46" customWidth="1"/>
+    <col min="4102" max="4102" width="22.28515625" style="46" customWidth="1"/>
+    <col min="4103" max="4103" width="27.5703125" style="46" customWidth="1"/>
+    <col min="4104" max="4104" width="26.7109375" style="46" customWidth="1"/>
+    <col min="4105" max="4105" width="20.140625" style="46" customWidth="1"/>
+    <col min="4106" max="4353" width="8.7109375" style="46"/>
+    <col min="4354" max="4354" width="19.85546875" style="46" customWidth="1"/>
+    <col min="4355" max="4357" width="29.5703125" style="46" customWidth="1"/>
+    <col min="4358" max="4358" width="22.28515625" style="46" customWidth="1"/>
+    <col min="4359" max="4359" width="27.5703125" style="46" customWidth="1"/>
+    <col min="4360" max="4360" width="26.7109375" style="46" customWidth="1"/>
+    <col min="4361" max="4361" width="20.140625" style="46" customWidth="1"/>
+    <col min="4362" max="4609" width="8.7109375" style="46"/>
+    <col min="4610" max="4610" width="19.85546875" style="46" customWidth="1"/>
+    <col min="4611" max="4613" width="29.5703125" style="46" customWidth="1"/>
+    <col min="4614" max="4614" width="22.28515625" style="46" customWidth="1"/>
+    <col min="4615" max="4615" width="27.5703125" style="46" customWidth="1"/>
+    <col min="4616" max="4616" width="26.7109375" style="46" customWidth="1"/>
+    <col min="4617" max="4617" width="20.140625" style="46" customWidth="1"/>
+    <col min="4618" max="4865" width="8.7109375" style="46"/>
+    <col min="4866" max="4866" width="19.85546875" style="46" customWidth="1"/>
+    <col min="4867" max="4869" width="29.5703125" style="46" customWidth="1"/>
+    <col min="4870" max="4870" width="22.28515625" style="46" customWidth="1"/>
+    <col min="4871" max="4871" width="27.5703125" style="46" customWidth="1"/>
+    <col min="4872" max="4872" width="26.7109375" style="46" customWidth="1"/>
+    <col min="4873" max="4873" width="20.140625" style="46" customWidth="1"/>
+    <col min="4874" max="5121" width="8.7109375" style="46"/>
+    <col min="5122" max="5122" width="19.85546875" style="46" customWidth="1"/>
+    <col min="5123" max="5125" width="29.5703125" style="46" customWidth="1"/>
+    <col min="5126" max="5126" width="22.28515625" style="46" customWidth="1"/>
+    <col min="5127" max="5127" width="27.5703125" style="46" customWidth="1"/>
+    <col min="5128" max="5128" width="26.7109375" style="46" customWidth="1"/>
+    <col min="5129" max="5129" width="20.140625" style="46" customWidth="1"/>
+    <col min="5130" max="5377" width="8.7109375" style="46"/>
+    <col min="5378" max="5378" width="19.85546875" style="46" customWidth="1"/>
+    <col min="5379" max="5381" width="29.5703125" style="46" customWidth="1"/>
+    <col min="5382" max="5382" width="22.28515625" style="46" customWidth="1"/>
+    <col min="5383" max="5383" width="27.5703125" style="46" customWidth="1"/>
+    <col min="5384" max="5384" width="26.7109375" style="46" customWidth="1"/>
+    <col min="5385" max="5385" width="20.140625" style="46" customWidth="1"/>
+    <col min="5386" max="5633" width="8.7109375" style="46"/>
+    <col min="5634" max="5634" width="19.85546875" style="46" customWidth="1"/>
+    <col min="5635" max="5637" width="29.5703125" style="46" customWidth="1"/>
+    <col min="5638" max="5638" width="22.28515625" style="46" customWidth="1"/>
+    <col min="5639" max="5639" width="27.5703125" style="46" customWidth="1"/>
+    <col min="5640" max="5640" width="26.7109375" style="46" customWidth="1"/>
+    <col min="5641" max="5641" width="20.140625" style="46" customWidth="1"/>
+    <col min="5642" max="5889" width="8.7109375" style="46"/>
+    <col min="5890" max="5890" width="19.85546875" style="46" customWidth="1"/>
+    <col min="5891" max="5893" width="29.5703125" style="46" customWidth="1"/>
+    <col min="5894" max="5894" width="22.28515625" style="46" customWidth="1"/>
+    <col min="5895" max="5895" width="27.5703125" style="46" customWidth="1"/>
+    <col min="5896" max="5896" width="26.7109375" style="46" customWidth="1"/>
+    <col min="5897" max="5897" width="20.140625" style="46" customWidth="1"/>
+    <col min="5898" max="6145" width="8.7109375" style="46"/>
+    <col min="6146" max="6146" width="19.85546875" style="46" customWidth="1"/>
+    <col min="6147" max="6149" width="29.5703125" style="46" customWidth="1"/>
+    <col min="6150" max="6150" width="22.28515625" style="46" customWidth="1"/>
+    <col min="6151" max="6151" width="27.5703125" style="46" customWidth="1"/>
+    <col min="6152" max="6152" width="26.7109375" style="46" customWidth="1"/>
+    <col min="6153" max="6153" width="20.140625" style="46" customWidth="1"/>
+    <col min="6154" max="6401" width="8.7109375" style="46"/>
+    <col min="6402" max="6402" width="19.85546875" style="46" customWidth="1"/>
+    <col min="6403" max="6405" width="29.5703125" style="46" customWidth="1"/>
+    <col min="6406" max="6406" width="22.28515625" style="46" customWidth="1"/>
+    <col min="6407" max="6407" width="27.5703125" style="46" customWidth="1"/>
+    <col min="6408" max="6408" width="26.7109375" style="46" customWidth="1"/>
+    <col min="6409" max="6409" width="20.140625" style="46" customWidth="1"/>
+    <col min="6410" max="6657" width="8.7109375" style="46"/>
+    <col min="6658" max="6658" width="19.85546875" style="46" customWidth="1"/>
+    <col min="6659" max="6661" width="29.5703125" style="46" customWidth="1"/>
+    <col min="6662" max="6662" width="22.28515625" style="46" customWidth="1"/>
+    <col min="6663" max="6663" width="27.5703125" style="46" customWidth="1"/>
+    <col min="6664" max="6664" width="26.7109375" style="46" customWidth="1"/>
+    <col min="6665" max="6665" width="20.140625" style="46" customWidth="1"/>
+    <col min="6666" max="6913" width="8.7109375" style="46"/>
+    <col min="6914" max="6914" width="19.85546875" style="46" customWidth="1"/>
+    <col min="6915" max="6917" width="29.5703125" style="46" customWidth="1"/>
+    <col min="6918" max="6918" width="22.28515625" style="46" customWidth="1"/>
+    <col min="6919" max="6919" width="27.5703125" style="46" customWidth="1"/>
+    <col min="6920" max="6920" width="26.7109375" style="46" customWidth="1"/>
+    <col min="6921" max="6921" width="20.140625" style="46" customWidth="1"/>
+    <col min="6922" max="7169" width="8.7109375" style="46"/>
+    <col min="7170" max="7170" width="19.85546875" style="46" customWidth="1"/>
+    <col min="7171" max="7173" width="29.5703125" style="46" customWidth="1"/>
+    <col min="7174" max="7174" width="22.28515625" style="46" customWidth="1"/>
+    <col min="7175" max="7175" width="27.5703125" style="46" customWidth="1"/>
+    <col min="7176" max="7176" width="26.7109375" style="46" customWidth="1"/>
+    <col min="7177" max="7177" width="20.140625" style="46" customWidth="1"/>
+    <col min="7178" max="7425" width="8.7109375" style="46"/>
+    <col min="7426" max="7426" width="19.85546875" style="46" customWidth="1"/>
+    <col min="7427" max="7429" width="29.5703125" style="46" customWidth="1"/>
+    <col min="7430" max="7430" width="22.28515625" style="46" customWidth="1"/>
+    <col min="7431" max="7431" width="27.5703125" style="46" customWidth="1"/>
+    <col min="7432" max="7432" width="26.7109375" style="46" customWidth="1"/>
+    <col min="7433" max="7433" width="20.140625" style="46" customWidth="1"/>
+    <col min="7434" max="7681" width="8.7109375" style="46"/>
+    <col min="7682" max="7682" width="19.85546875" style="46" customWidth="1"/>
+    <col min="7683" max="7685" width="29.5703125" style="46" customWidth="1"/>
+    <col min="7686" max="7686" width="22.28515625" style="46" customWidth="1"/>
+    <col min="7687" max="7687" width="27.5703125" style="46" customWidth="1"/>
+    <col min="7688" max="7688" width="26.7109375" style="46" customWidth="1"/>
+    <col min="7689" max="7689" width="20.140625" style="46" customWidth="1"/>
+    <col min="7690" max="7937" width="8.7109375" style="46"/>
+    <col min="7938" max="7938" width="19.85546875" style="46" customWidth="1"/>
+    <col min="7939" max="7941" width="29.5703125" style="46" customWidth="1"/>
+    <col min="7942" max="7942" width="22.28515625" style="46" customWidth="1"/>
+    <col min="7943" max="7943" width="27.5703125" style="46" customWidth="1"/>
+    <col min="7944" max="7944" width="26.7109375" style="46" customWidth="1"/>
+    <col min="7945" max="7945" width="20.140625" style="46" customWidth="1"/>
+    <col min="7946" max="8193" width="8.7109375" style="46"/>
+    <col min="8194" max="8194" width="19.85546875" style="46" customWidth="1"/>
+    <col min="8195" max="8197" width="29.5703125" style="46" customWidth="1"/>
+    <col min="8198" max="8198" width="22.28515625" style="46" customWidth="1"/>
+    <col min="8199" max="8199" width="27.5703125" style="46" customWidth="1"/>
+    <col min="8200" max="8200" width="26.7109375" style="46" customWidth="1"/>
+    <col min="8201" max="8201" width="20.140625" style="46" customWidth="1"/>
+    <col min="8202" max="8449" width="8.7109375" style="46"/>
+    <col min="8450" max="8450" width="19.85546875" style="46" customWidth="1"/>
+    <col min="8451" max="8453" width="29.5703125" style="46" customWidth="1"/>
+    <col min="8454" max="8454" width="22.28515625" style="46" customWidth="1"/>
+    <col min="8455" max="8455" width="27.5703125" style="46" customWidth="1"/>
+    <col min="8456" max="8456" width="26.7109375" style="46" customWidth="1"/>
+    <col min="8457" max="8457" width="20.140625" style="46" customWidth="1"/>
+    <col min="8458" max="8705" width="8.7109375" style="46"/>
+    <col min="8706" max="8706" width="19.85546875" style="46" customWidth="1"/>
+    <col min="8707" max="8709" width="29.5703125" style="46" customWidth="1"/>
+    <col min="8710" max="8710" width="22.28515625" style="46" customWidth="1"/>
+    <col min="8711" max="8711" width="27.5703125" style="46" customWidth="1"/>
+    <col min="8712" max="8712" width="26.7109375" style="46" customWidth="1"/>
+    <col min="8713" max="8713" width="20.140625" style="46" customWidth="1"/>
+    <col min="8714" max="8961" width="8.7109375" style="46"/>
+    <col min="8962" max="8962" width="19.85546875" style="46" customWidth="1"/>
+    <col min="8963" max="8965" width="29.5703125" style="46" customWidth="1"/>
+    <col min="8966" max="8966" width="22.28515625" style="46" customWidth="1"/>
+    <col min="8967" max="8967" width="27.5703125" style="46" customWidth="1"/>
+    <col min="8968" max="8968" width="26.7109375" style="46" customWidth="1"/>
+    <col min="8969" max="8969" width="20.140625" style="46" customWidth="1"/>
+    <col min="8970" max="9217" width="8.7109375" style="46"/>
+    <col min="9218" max="9218" width="19.85546875" style="46" customWidth="1"/>
+    <col min="9219" max="9221" width="29.5703125" style="46" customWidth="1"/>
+    <col min="9222" max="9222" width="22.28515625" style="46" customWidth="1"/>
+    <col min="9223" max="9223" width="27.5703125" style="46" customWidth="1"/>
+    <col min="9224" max="9224" width="26.7109375" style="46" customWidth="1"/>
+    <col min="9225" max="9225" width="20.140625" style="46" customWidth="1"/>
+    <col min="9226" max="9473" width="8.7109375" style="46"/>
+    <col min="9474" max="9474" width="19.85546875" style="46" customWidth="1"/>
+    <col min="9475" max="9477" width="29.5703125" style="46" customWidth="1"/>
+    <col min="9478" max="9478" width="22.28515625" style="46" customWidth="1"/>
+    <col min="9479" max="9479" width="27.5703125" style="46" customWidth="1"/>
+    <col min="9480" max="9480" width="26.7109375" style="46" customWidth="1"/>
+    <col min="9481" max="9481" width="20.140625" style="46" customWidth="1"/>
+    <col min="9482" max="9729" width="8.7109375" style="46"/>
+    <col min="9730" max="9730" width="19.85546875" style="46" customWidth="1"/>
+    <col min="9731" max="9733" width="29.5703125" style="46" customWidth="1"/>
+    <col min="9734" max="9734" width="22.28515625" style="46" customWidth="1"/>
+    <col min="9735" max="9735" width="27.5703125" style="46" customWidth="1"/>
+    <col min="9736" max="9736" width="26.7109375" style="46" customWidth="1"/>
+    <col min="9737" max="9737" width="20.140625" style="46" customWidth="1"/>
+    <col min="9738" max="9985" width="8.7109375" style="46"/>
+    <col min="9986" max="9986" width="19.85546875" style="46" customWidth="1"/>
+    <col min="9987" max="9989" width="29.5703125" style="46" customWidth="1"/>
+    <col min="9990" max="9990" width="22.28515625" style="46" customWidth="1"/>
+    <col min="9991" max="9991" width="27.5703125" style="46" customWidth="1"/>
+    <col min="9992" max="9992" width="26.7109375" style="46" customWidth="1"/>
+    <col min="9993" max="9993" width="20.140625" style="46" customWidth="1"/>
+    <col min="9994" max="10241" width="8.7109375" style="46"/>
+    <col min="10242" max="10242" width="19.85546875" style="46" customWidth="1"/>
+    <col min="10243" max="10245" width="29.5703125" style="46" customWidth="1"/>
+    <col min="10246" max="10246" width="22.28515625" style="46" customWidth="1"/>
+    <col min="10247" max="10247" width="27.5703125" style="46" customWidth="1"/>
+    <col min="10248" max="10248" width="26.7109375" style="46" customWidth="1"/>
+    <col min="10249" max="10249" width="20.140625" style="46" customWidth="1"/>
+    <col min="10250" max="10497" width="8.7109375" style="46"/>
+    <col min="10498" max="10498" width="19.85546875" style="46" customWidth="1"/>
+    <col min="10499" max="10501" width="29.5703125" style="46" customWidth="1"/>
+    <col min="10502" max="10502" width="22.28515625" style="46" customWidth="1"/>
+    <col min="10503" max="10503" width="27.5703125" style="46" customWidth="1"/>
+    <col min="10504" max="10504" width="26.7109375" style="46" customWidth="1"/>
+    <col min="10505" max="10505" width="20.140625" style="46" customWidth="1"/>
+    <col min="10506" max="10753" width="8.7109375" style="46"/>
+    <col min="10754" max="10754" width="19.85546875" style="46" customWidth="1"/>
+    <col min="10755" max="10757" width="29.5703125" style="46" customWidth="1"/>
+    <col min="10758" max="10758" width="22.28515625" style="46" customWidth="1"/>
+    <col min="10759" max="10759" width="27.5703125" style="46" customWidth="1"/>
+    <col min="10760" max="10760" width="26.7109375" style="46" customWidth="1"/>
+    <col min="10761" max="10761" width="20.140625" style="46" customWidth="1"/>
+    <col min="10762" max="11009" width="8.7109375" style="46"/>
+    <col min="11010" max="11010" width="19.85546875" style="46" customWidth="1"/>
+    <col min="11011" max="11013" width="29.5703125" style="46" customWidth="1"/>
+    <col min="11014" max="11014" width="22.28515625" style="46" customWidth="1"/>
+    <col min="11015" max="11015" width="27.5703125" style="46" customWidth="1"/>
+    <col min="11016" max="11016" width="26.7109375" style="46" customWidth="1"/>
+    <col min="11017" max="11017" width="20.140625" style="46" customWidth="1"/>
+    <col min="11018" max="11265" width="8.7109375" style="46"/>
+    <col min="11266" max="11266" width="19.85546875" style="46" customWidth="1"/>
+    <col min="11267" max="11269" width="29.5703125" style="46" customWidth="1"/>
+    <col min="11270" max="11270" width="22.28515625" style="46" customWidth="1"/>
+    <col min="11271" max="11271" width="27.5703125" style="46" customWidth="1"/>
+    <col min="11272" max="11272" width="26.7109375" style="46" customWidth="1"/>
+    <col min="11273" max="11273" width="20.140625" style="46" customWidth="1"/>
+    <col min="11274" max="11521" width="8.7109375" style="46"/>
+    <col min="11522" max="11522" width="19.85546875" style="46" customWidth="1"/>
+    <col min="11523" max="11525" width="29.5703125" style="46" customWidth="1"/>
+    <col min="11526" max="11526" width="22.28515625" style="46" customWidth="1"/>
+    <col min="11527" max="11527" width="27.5703125" style="46" customWidth="1"/>
+    <col min="11528" max="11528" width="26.7109375" style="46" customWidth="1"/>
+    <col min="11529" max="11529" width="20.140625" style="46" customWidth="1"/>
+    <col min="11530" max="11777" width="8.7109375" style="46"/>
+    <col min="11778" max="11778" width="19.85546875" style="46" customWidth="1"/>
+    <col min="11779" max="11781" width="29.5703125" style="46" customWidth="1"/>
+    <col min="11782" max="11782" width="22.28515625" style="46" customWidth="1"/>
+    <col min="11783" max="11783" width="27.5703125" style="46" customWidth="1"/>
+    <col min="11784" max="11784" width="26.7109375" style="46" customWidth="1"/>
+    <col min="11785" max="11785" width="20.140625" style="46" customWidth="1"/>
+    <col min="11786" max="12033" width="8.7109375" style="46"/>
+    <col min="12034" max="12034" width="19.85546875" style="46" customWidth="1"/>
+    <col min="12035" max="12037" width="29.5703125" style="46" customWidth="1"/>
+    <col min="12038" max="12038" width="22.28515625" style="46" customWidth="1"/>
+    <col min="12039" max="12039" width="27.5703125" style="46" customWidth="1"/>
+    <col min="12040" max="12040" width="26.7109375" style="46" customWidth="1"/>
+    <col min="12041" max="12041" width="20.140625" style="46" customWidth="1"/>
+    <col min="12042" max="12289" width="8.7109375" style="46"/>
+    <col min="12290" max="12290" width="19.85546875" style="46" customWidth="1"/>
+    <col min="12291" max="12293" width="29.5703125" style="46" customWidth="1"/>
+    <col min="12294" max="12294" width="22.28515625" style="46" customWidth="1"/>
+    <col min="12295" max="12295" width="27.5703125" style="46" customWidth="1"/>
+    <col min="12296" max="12296" width="26.7109375" style="46" customWidth="1"/>
+    <col min="12297" max="12297" width="20.140625" style="46" customWidth="1"/>
+    <col min="12298" max="12545" width="8.7109375" style="46"/>
+    <col min="12546" max="12546" width="19.85546875" style="46" customWidth="1"/>
+    <col min="12547" max="12549" width="29.5703125" style="46" customWidth="1"/>
+    <col min="12550" max="12550" width="22.28515625" style="46" customWidth="1"/>
+    <col min="12551" max="12551" width="27.5703125" style="46" customWidth="1"/>
+    <col min="12552" max="12552" width="26.7109375" style="46" customWidth="1"/>
+    <col min="12553" max="12553" width="20.140625" style="46" customWidth="1"/>
+    <col min="12554" max="12801" width="8.7109375" style="46"/>
+    <col min="12802" max="12802" width="19.85546875" style="46" customWidth="1"/>
+    <col min="12803" max="12805" width="29.5703125" style="46" customWidth="1"/>
+    <col min="12806" max="12806" width="22.28515625" style="46" customWidth="1"/>
+    <col min="12807" max="12807" width="27.5703125" style="46" customWidth="1"/>
+    <col min="12808" max="12808" width="26.7109375" style="46" customWidth="1"/>
+    <col min="12809" max="12809" width="20.140625" style="46" customWidth="1"/>
+    <col min="12810" max="13057" width="8.7109375" style="46"/>
+    <col min="13058" max="13058" width="19.85546875" style="46" customWidth="1"/>
+    <col min="13059" max="13061" width="29.5703125" style="46" customWidth="1"/>
+    <col min="13062" max="13062" width="22.28515625" style="46" customWidth="1"/>
+    <col min="13063" max="13063" width="27.5703125" style="46" customWidth="1"/>
+    <col min="13064" max="13064" width="26.7109375" style="46" customWidth="1"/>
+    <col min="13065" max="13065" width="20.140625" style="46" customWidth="1"/>
+    <col min="13066" max="13313" width="8.7109375" style="46"/>
+    <col min="13314" max="13314" width="19.85546875" style="46" customWidth="1"/>
+    <col min="13315" max="13317" width="29.5703125" style="46" customWidth="1"/>
+    <col min="13318" max="13318" width="22.28515625" style="46" customWidth="1"/>
+    <col min="13319" max="13319" width="27.5703125" style="46" customWidth="1"/>
+    <col min="13320" max="13320" width="26.7109375" style="46" customWidth="1"/>
+    <col min="13321" max="13321" width="20.140625" style="46" customWidth="1"/>
+    <col min="13322" max="13569" width="8.7109375" style="46"/>
+    <col min="13570" max="13570" width="19.85546875" style="46" customWidth="1"/>
+    <col min="13571" max="13573" width="29.5703125" style="46" customWidth="1"/>
+    <col min="13574" max="13574" width="22.28515625" style="46" customWidth="1"/>
+    <col min="13575" max="13575" width="27.5703125" style="46" customWidth="1"/>
+    <col min="13576" max="13576" width="26.7109375" style="46" customWidth="1"/>
+    <col min="13577" max="13577" width="20.140625" style="46" customWidth="1"/>
+    <col min="13578" max="13825" width="8.7109375" style="46"/>
+    <col min="13826" max="13826" width="19.85546875" style="46" customWidth="1"/>
+    <col min="13827" max="13829" width="29.5703125" style="46" customWidth="1"/>
+    <col min="13830" max="13830" width="22.28515625" style="46" customWidth="1"/>
+    <col min="13831" max="13831" width="27.5703125" style="46" customWidth="1"/>
+    <col min="13832" max="13832" width="26.7109375" style="46" customWidth="1"/>
+    <col min="13833" max="13833" width="20.140625" style="46" customWidth="1"/>
+    <col min="13834" max="14081" width="8.7109375" style="46"/>
+    <col min="14082" max="14082" width="19.85546875" style="46" customWidth="1"/>
+    <col min="14083" max="14085" width="29.5703125" style="46" customWidth="1"/>
+    <col min="14086" max="14086" width="22.28515625" style="46" customWidth="1"/>
+    <col min="14087" max="14087" width="27.5703125" style="46" customWidth="1"/>
+    <col min="14088" max="14088" width="26.7109375" style="46" customWidth="1"/>
+    <col min="14089" max="14089" width="20.140625" style="46" customWidth="1"/>
+    <col min="14090" max="14337" width="8.7109375" style="46"/>
+    <col min="14338" max="14338" width="19.85546875" style="46" customWidth="1"/>
+    <col min="14339" max="14341" width="29.5703125" style="46" customWidth="1"/>
+    <col min="14342" max="14342" width="22.28515625" style="46" customWidth="1"/>
+    <col min="14343" max="14343" width="27.5703125" style="46" customWidth="1"/>
+    <col min="14344" max="14344" width="26.7109375" style="46" customWidth="1"/>
+    <col min="14345" max="14345" width="20.140625" style="46" customWidth="1"/>
+    <col min="14346" max="14593" width="8.7109375" style="46"/>
+    <col min="14594" max="14594" width="19.85546875" style="46" customWidth="1"/>
+    <col min="14595" max="14597" width="29.5703125" style="46" customWidth="1"/>
+    <col min="14598" max="14598" width="22.28515625" style="46" customWidth="1"/>
+    <col min="14599" max="14599" width="27.5703125" style="46" customWidth="1"/>
+    <col min="14600" max="14600" width="26.7109375" style="46" customWidth="1"/>
+    <col min="14601" max="14601" width="20.140625" style="46" customWidth="1"/>
+    <col min="14602" max="14849" width="8.7109375" style="46"/>
+    <col min="14850" max="14850" width="19.85546875" style="46" customWidth="1"/>
+    <col min="14851" max="14853" width="29.5703125" style="46" customWidth="1"/>
+    <col min="14854" max="14854" width="22.28515625" style="46" customWidth="1"/>
+    <col min="14855" max="14855" width="27.5703125" style="46" customWidth="1"/>
+    <col min="14856" max="14856" width="26.7109375" style="46" customWidth="1"/>
+    <col min="14857" max="14857" width="20.140625" style="46" customWidth="1"/>
+    <col min="14858" max="15105" width="8.7109375" style="46"/>
+    <col min="15106" max="15106" width="19.85546875" style="46" customWidth="1"/>
+    <col min="15107" max="15109" width="29.5703125" style="46" customWidth="1"/>
+    <col min="15110" max="15110" width="22.28515625" style="46" customWidth="1"/>
+    <col min="15111" max="15111" width="27.5703125" style="46" customWidth="1"/>
+    <col min="15112" max="15112" width="26.7109375" style="46" customWidth="1"/>
+    <col min="15113" max="15113" width="20.140625" style="46" customWidth="1"/>
+    <col min="15114" max="15361" width="8.7109375" style="46"/>
+    <col min="15362" max="15362" width="19.85546875" style="46" customWidth="1"/>
+    <col min="15363" max="15365" width="29.5703125" style="46" customWidth="1"/>
+    <col min="15366" max="15366" width="22.28515625" style="46" customWidth="1"/>
+    <col min="15367" max="15367" width="27.5703125" style="46" customWidth="1"/>
+    <col min="15368" max="15368" width="26.7109375" style="46" customWidth="1"/>
+    <col min="15369" max="15369" width="20.140625" style="46" customWidth="1"/>
+    <col min="15370" max="15617" width="8.7109375" style="46"/>
+    <col min="15618" max="15618" width="19.85546875" style="46" customWidth="1"/>
+    <col min="15619" max="15621" width="29.5703125" style="46" customWidth="1"/>
+    <col min="15622" max="15622" width="22.28515625" style="46" customWidth="1"/>
+    <col min="15623" max="15623" width="27.5703125" style="46" customWidth="1"/>
+    <col min="15624" max="15624" width="26.7109375" style="46" customWidth="1"/>
+    <col min="15625" max="15625" width="20.140625" style="46" customWidth="1"/>
+    <col min="15626" max="15873" width="8.7109375" style="46"/>
+    <col min="15874" max="15874" width="19.85546875" style="46" customWidth="1"/>
+    <col min="15875" max="15877" width="29.5703125" style="46" customWidth="1"/>
+    <col min="15878" max="15878" width="22.28515625" style="46" customWidth="1"/>
+    <col min="15879" max="15879" width="27.5703125" style="46" customWidth="1"/>
+    <col min="15880" max="15880" width="26.7109375" style="46" customWidth="1"/>
+    <col min="15881" max="15881" width="20.140625" style="46" customWidth="1"/>
+    <col min="15882" max="16129" width="8.7109375" style="46"/>
+    <col min="16130" max="16130" width="19.85546875" style="46" customWidth="1"/>
+    <col min="16131" max="16133" width="29.5703125" style="46" customWidth="1"/>
+    <col min="16134" max="16134" width="22.28515625" style="46" customWidth="1"/>
+    <col min="16135" max="16135" width="27.5703125" style="46" customWidth="1"/>
+    <col min="16136" max="16136" width="26.7109375" style="46" customWidth="1"/>
+    <col min="16137" max="16137" width="20.140625" style="46" customWidth="1"/>
+    <col min="16138" max="16384" width="8.7109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>0</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>1</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>2</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>3</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
+        <v>4</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>5</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <v>6</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>7</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="47"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="50">
+        <v>0</v>
+      </c>
+      <c r="C17" s="50">
+        <v>0</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="50">
+        <v>0</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0</v>
+      </c>
+      <c r="D18" s="50">
+        <v>1</v>
+      </c>
+      <c r="E18" s="50" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="50">
+        <v>0</v>
+      </c>
+      <c r="C19" s="50">
+        <v>1</v>
+      </c>
+      <c r="D19" s="50">
+        <v>0</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="50">
+        <v>0</v>
+      </c>
+      <c r="C20" s="50">
+        <v>1</v>
+      </c>
+      <c r="D20" s="50">
+        <v>1</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="50">
+        <v>1</v>
+      </c>
+      <c r="C21" s="50">
+        <v>0</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="50">
+        <v>1</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0</v>
+      </c>
+      <c r="D22" s="50">
+        <v>1</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="50">
+        <v>1</v>
+      </c>
+      <c r="C23" s="50">
+        <v>1</v>
+      </c>
+      <c r="D23" s="50">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="50">
+        <v>1</v>
+      </c>
+      <c r="C24" s="50">
+        <v>1</v>
+      </c>
+      <c r="D24" s="50">
+        <v>1</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="C8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>199</v>
-      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:I2"/>
+  <mergeCells count="3">
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35323,522 +35995,522 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="28" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="11" style="28" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="29" customWidth="1"/>
-    <col min="12" max="12" width="11" style="29" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="28"/>
+    <col min="1" max="1" width="4.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="27" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="28" customWidth="1"/>
+    <col min="12" max="12" width="11" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>409</v>
+      <c r="A1" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>401</v>
+      <c r="C2" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43"/>
+      <c r="J5" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="43"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="43"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="43"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="43"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="F12" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="H12" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="43"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="43"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="43"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="39"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C11" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46" t="s">
-        <v>403</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>395</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="47"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="47"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="47"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
+      <c r="C16" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="47"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="A17" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="39"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="47"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
+      <c r="A18" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="39"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="47"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
+      <c r="A19" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="39"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="E21" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="A21" s="30"/>
+      <c r="E21" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="32" t="s">
-        <v>376</v>
+      <c r="C23" s="31" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="31" t="s">
-        <v>375</v>
+      <c r="C24" s="30" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="30" t="s">
-        <v>374</v>
+      <c r="C25" s="29" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="30" t="s">
-        <v>373</v>
+      <c r="C26" s="29" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="441">
   <si>
     <t>Register Number</t>
   </si>
@@ -1333,6 +1333,18 @@
   </si>
   <si>
     <t>montiming output</t>
+  </si>
+  <si>
+    <t>BF0</t>
+  </si>
+  <si>
+    <t>B54</t>
+  </si>
+  <si>
+    <t>5E8</t>
+  </si>
+  <si>
+    <t>AD0</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1493,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1608,6 +1620,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -1913,9 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13892,8 +13906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H628"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
@@ -33536,8 +33550,8 @@
   </sheetPr>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33646,7 +33660,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O36" si="0">HEX2DEC(N6)</f>
+        <f t="shared" ref="O6:O51" si="0">HEX2DEC(N6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="22">
@@ -34620,6 +34634,13 @@
       <c r="M38" s="14" t="s">
         <v>257</v>
       </c>
+      <c r="N38">
+        <v>400</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -34641,6 +34662,13 @@
       <c r="M39" s="14" t="s">
         <v>273</v>
       </c>
+      <c r="N39">
+        <v>500</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -34662,6 +34690,13 @@
       <c r="M40" s="14" t="s">
         <v>257</v>
       </c>
+      <c r="N40">
+        <v>400</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -34683,6 +34718,13 @@
       <c r="M41" s="14" t="s">
         <v>268</v>
       </c>
+      <c r="N41" t="s">
+        <v>437</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>3056</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -34704,6 +34746,13 @@
       <c r="M42" s="14" t="s">
         <v>257</v>
       </c>
+      <c r="N42">
+        <v>400</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -34725,6 +34774,13 @@
       <c r="M43" s="14" t="s">
         <v>257</v>
       </c>
+      <c r="N43">
+        <v>400</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -34746,6 +34802,13 @@
       <c r="M44" s="14" t="s">
         <v>257</v>
       </c>
+      <c r="N44">
+        <v>400</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -34770,6 +34833,13 @@
       <c r="M45" s="14" t="s">
         <v>260</v>
       </c>
+      <c r="N45">
+        <v>900</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -34791,6 +34861,13 @@
       <c r="M46" s="14" t="s">
         <v>257</v>
       </c>
+      <c r="N46">
+        <v>400</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -34815,6 +34892,13 @@
       <c r="M47" s="14" t="s">
         <v>254</v>
       </c>
+      <c r="N47" t="s">
+        <v>438</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -34836,8 +34920,15 @@
       <c r="M48" s="14" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>600</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -34860,8 +34951,15 @@
       <c r="M49" s="14" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -34881,8 +34979,15 @@
       <c r="M50" s="14" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>600</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -34905,8 +35010,15 @@
       <c r="M51" s="14" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -34915,7 +35027,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -34924,7 +35036,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -34933,7 +35045,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -34942,7 +35054,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -34951,7 +35063,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -34960,7 +35072,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -34969,7 +35081,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -34978,7 +35090,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -34987,7 +35099,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -34996,7 +35108,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -35005,7 +35117,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -35014,7 +35126,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>59</v>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>Region of interest adjust window</t>
   </si>
   <si>
-    <t>Bits 9:0 - a signed number that represents the offset for writing trigger bits to trigger memory.  Use this to adjust if ROI is off by a bit.  Bits 15:10 unused</t>
-  </si>
-  <si>
     <t>Number of window pairs to sample after trigger</t>
   </si>
   <si>
@@ -1263,9 +1260,6 @@
     <t>TIMING_REG &amp; sampling sync bits</t>
   </si>
   <si>
-    <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX</t>
-  </si>
-  <si>
     <t>new name</t>
   </si>
   <si>
@@ -1345,6 +1339,12 @@
   </si>
   <si>
     <t>AD0</t>
+  </si>
+  <si>
+    <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX, bits 9:8 row select for MONTIMING2, bits 11:10 col select for MONTIMING2</t>
+  </si>
+  <si>
+    <t>Bits 8:0 - a signed number that represents the offset for writing trigger bits to trigger memory.  Use this to adjust if ROI is off by a bit.  Bits 15:9 unused</t>
   </si>
 </sst>
 </file>
@@ -1927,9 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>31</v>
@@ -2011,10 +2011,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>7</v>
@@ -2038,10 +2038,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>7</v>
@@ -2065,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>7</v>
@@ -2095,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>9</v>
@@ -2122,7 +2122,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>30</v>
@@ -2146,10 +2146,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -2176,7 +2176,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>30</v>
@@ -2203,7 +2203,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>30</v>
@@ -2230,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>30</v>
@@ -2257,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>30</v>
@@ -2284,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>30</v>
@@ -2308,10 +2308,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>30</v>
@@ -2338,7 +2338,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>30</v>
@@ -2365,7 +2365,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>30</v>
@@ -2392,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>30</v>
@@ -2419,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>30</v>
@@ -2446,7 +2446,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>30</v>
@@ -2473,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>30</v>
@@ -2527,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>30</v>
@@ -2554,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>30</v>
@@ -2581,7 +2581,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>30</v>
@@ -2608,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>30</v>
@@ -2635,7 +2635,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>30</v>
@@ -2662,7 +2662,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>30</v>
@@ -2689,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>30</v>
@@ -2716,7 +2716,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>30</v>
@@ -2743,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>30</v>
@@ -2770,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>30</v>
@@ -2797,7 +2797,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>30</v>
@@ -2824,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>30</v>
@@ -2851,7 +2851,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>30</v>
@@ -2878,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>30</v>
@@ -2905,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>30</v>
@@ -2932,7 +2932,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>30</v>
@@ -2959,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>30</v>
@@ -2986,7 +2986,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>30</v>
@@ -3013,7 +3013,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>30</v>
@@ -3040,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>30</v>
@@ -3067,7 +3067,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>30</v>
@@ -3094,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>30</v>
@@ -3121,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>30</v>
@@ -3148,7 +3148,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>30</v>
@@ -3175,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>30</v>
@@ -3202,7 +3202,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>30</v>
@@ -3229,7 +3229,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>30</v>
@@ -3256,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>30</v>
@@ -3283,7 +3283,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>30</v>
@@ -3310,7 +3310,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>30</v>
@@ -3337,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>30</v>
@@ -3364,7 +3364,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>30</v>
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>30</v>
@@ -3418,7 +3418,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>30</v>
@@ -3445,7 +3445,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>30</v>
@@ -3472,7 +3472,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>30</v>
@@ -3499,7 +3499,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>30</v>
@@ -3526,7 +3526,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>30</v>
@@ -3553,7 +3553,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>30</v>
@@ -3580,7 +3580,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>30</v>
@@ -3607,7 +3607,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>30</v>
@@ -3634,7 +3634,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>30</v>
@@ -3661,7 +3661,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>30</v>
@@ -3688,7 +3688,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>30</v>
@@ -3715,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>30</v>
@@ -3742,7 +3742,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>30</v>
@@ -3769,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>30</v>
@@ -3796,7 +3796,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>30</v>
@@ -3823,7 +3823,7 @@
         <v>20</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
         <v>20</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>30</v>
@@ -3877,7 +3877,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>30</v>
@@ -3904,7 +3904,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>30</v>
@@ -3931,7 +3931,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>30</v>
@@ -3958,7 +3958,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>30</v>
@@ -3985,7 +3985,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>30</v>
@@ -4012,7 +4012,7 @@
         <v>20</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>30</v>
@@ -4039,7 +4039,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>30</v>
@@ -4066,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>30</v>
@@ -4093,7 +4093,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>30</v>
@@ -4120,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>30</v>
@@ -4147,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>30</v>
@@ -4174,7 +4174,7 @@
         <v>20</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>30</v>
@@ -4201,7 +4201,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>30</v>
@@ -4228,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>30</v>
@@ -4255,7 +4255,7 @@
         <v>20</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>30</v>
@@ -4282,7 +4282,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>30</v>
@@ -4309,7 +4309,7 @@
         <v>20</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>30</v>
@@ -4336,7 +4336,7 @@
         <v>20</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>30</v>
@@ -4363,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>30</v>
@@ -4390,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>30</v>
@@ -4417,7 +4417,7 @@
         <v>20</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>30</v>
@@ -4444,7 +4444,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>30</v>
@@ -4471,7 +4471,7 @@
         <v>20</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>30</v>
@@ -4498,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>30</v>
@@ -4525,7 +4525,7 @@
         <v>20</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>30</v>
@@ -4552,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>30</v>
@@ -4579,7 +4579,7 @@
         <v>20</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>30</v>
@@ -4606,7 +4606,7 @@
         <v>20</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>30</v>
@@ -4633,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>30</v>
@@ -4660,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>30</v>
@@ -4687,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>30</v>
@@ -4714,7 +4714,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>30</v>
@@ -4741,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>30</v>
@@ -4768,7 +4768,7 @@
         <v>20</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>30</v>
@@ -4795,7 +4795,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>30</v>
@@ -4822,7 +4822,7 @@
         <v>20</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>30</v>
@@ -4849,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>30</v>
@@ -4876,7 +4876,7 @@
         <v>20</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>30</v>
@@ -4903,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>30</v>
@@ -4930,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>30</v>
@@ -4957,7 +4957,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>30</v>
@@ -4984,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>30</v>
@@ -5011,7 +5011,7 @@
         <v>20</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>30</v>
@@ -5038,7 +5038,7 @@
         <v>20</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>30</v>
@@ -5065,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>30</v>
@@ -5092,7 +5092,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>30</v>
@@ -5119,7 +5119,7 @@
         <v>20</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>30</v>
@@ -5146,7 +5146,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>30</v>
@@ -5173,7 +5173,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>30</v>
@@ -5200,7 +5200,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>30</v>
@@ -5227,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>30</v>
@@ -5254,7 +5254,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>30</v>
@@ -5281,7 +5281,7 @@
         <v>20</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>30</v>
@@ -5308,7 +5308,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>30</v>
@@ -5335,7 +5335,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>30</v>
@@ -5362,7 +5362,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>30</v>
@@ -5389,7 +5389,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>30</v>
@@ -5416,7 +5416,7 @@
         <v>20</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>30</v>
@@ -5443,7 +5443,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>30</v>
@@ -5470,7 +5470,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>30</v>
@@ -5497,7 +5497,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>30</v>
@@ -5524,7 +5524,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>30</v>
@@ -5551,7 +5551,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>30</v>
@@ -5578,7 +5578,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>30</v>
@@ -5605,7 +5605,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>30</v>
@@ -5632,7 +5632,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>30</v>
@@ -5659,7 +5659,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>30</v>
@@ -5686,7 +5686,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>30</v>
@@ -5713,7 +5713,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>30</v>
@@ -5740,7 +5740,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>30</v>
@@ -5767,7 +5767,7 @@
         <v>20</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>30</v>
@@ -5794,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>26</v>
@@ -5821,7 +5821,7 @@
         <v>27</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>26</v>
@@ -5848,7 +5848,7 @@
         <v>28</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>26</v>
@@ -6175,7 +6175,7 @@
         <v>68</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6199,10 +6199,10 @@
         <v>69</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6226,10 +6226,10 @@
         <v>70</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6709,7 +6709,7 @@
         <v>85</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>86</v>
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6730,10 +6730,10 @@
         <v>5</v>
       </c>
       <c r="F190" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H190" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="H190" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6886,10 +6886,10 @@
         <v>5</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>30</v>
@@ -6913,10 +6913,10 @@
         <v>5</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>30</v>
@@ -6940,10 +6940,10 @@
         <v>5</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>30</v>
@@ -6970,7 +6970,7 @@
         <v>12</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>30</v>
@@ -6997,7 +6997,7 @@
         <v>12</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>30</v>
@@ -7024,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>30</v>
@@ -7051,7 +7051,7 @@
         <v>12</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H208" s="5" t="s">
         <v>30</v>
@@ -7078,7 +7078,7 @@
         <v>12</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>30</v>
@@ -7105,7 +7105,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>30</v>
@@ -7132,7 +7132,7 @@
         <v>12</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>30</v>
@@ -7159,7 +7159,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>30</v>
@@ -7186,7 +7186,7 @@
         <v>12</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>30</v>
@@ -7213,7 +7213,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>30</v>
@@ -7240,7 +7240,7 @@
         <v>12</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>30</v>
@@ -7267,7 +7267,7 @@
         <v>12</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>30</v>
@@ -7294,7 +7294,7 @@
         <v>12</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>30</v>
@@ -7321,7 +7321,7 @@
         <v>12</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>30</v>
@@ -7348,7 +7348,7 @@
         <v>12</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>30</v>
@@ -7375,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>30</v>
@@ -7399,10 +7399,10 @@
         <v>5</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>30</v>
@@ -7426,10 +7426,10 @@
         <v>5</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>30</v>
@@ -7453,10 +7453,10 @@
         <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>30</v>
@@ -7480,10 +7480,10 @@
         <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>30</v>
@@ -7507,10 +7507,10 @@
         <v>5</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>30</v>
@@ -7534,10 +7534,10 @@
         <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>30</v>
@@ -7561,10 +7561,10 @@
         <v>5</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>30</v>
@@ -7588,10 +7588,10 @@
         <v>5</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>30</v>
@@ -7615,10 +7615,10 @@
         <v>5</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>30</v>
@@ -7642,10 +7642,10 @@
         <v>5</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H230" s="5" t="s">
         <v>30</v>
@@ -7669,10 +7669,10 @@
         <v>5</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H231" s="5" t="s">
         <v>30</v>
@@ -7696,10 +7696,10 @@
         <v>5</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>30</v>
@@ -7723,10 +7723,10 @@
         <v>5</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>30</v>
@@ -7750,10 +7750,10 @@
         <v>5</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>30</v>
@@ -7777,10 +7777,10 @@
         <v>5</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>30</v>
@@ -7804,10 +7804,10 @@
         <v>5</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>30</v>
@@ -7834,7 +7834,7 @@
         <v>25</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>30</v>
@@ -7861,7 +7861,7 @@
         <v>25</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>30</v>
@@ -7888,7 +7888,7 @@
         <v>25</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>30</v>
@@ -7915,7 +7915,7 @@
         <v>25</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H240" s="5" t="s">
         <v>30</v>
@@ -7942,7 +7942,7 @@
         <v>25</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>30</v>
@@ -7969,7 +7969,7 @@
         <v>25</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H242" s="5" t="s">
         <v>30</v>
@@ -7996,7 +7996,7 @@
         <v>25</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H243" s="5" t="s">
         <v>30</v>
@@ -8023,7 +8023,7 @@
         <v>25</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>30</v>
@@ -8050,7 +8050,7 @@
         <v>25</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>30</v>
@@ -8077,7 +8077,7 @@
         <v>25</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>30</v>
@@ -8104,7 +8104,7 @@
         <v>25</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>30</v>
@@ -8131,7 +8131,7 @@
         <v>25</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>30</v>
@@ -8158,7 +8158,7 @@
         <v>25</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>30</v>
@@ -8185,7 +8185,7 @@
         <v>25</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>30</v>
@@ -8212,7 +8212,7 @@
         <v>25</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>30</v>
@@ -8239,7 +8239,7 @@
         <v>25</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>30</v>
@@ -8266,7 +8266,7 @@
         <v>23</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>30</v>
@@ -8293,7 +8293,7 @@
         <v>23</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>30</v>
@@ -8320,7 +8320,7 @@
         <v>23</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>30</v>
@@ -8347,7 +8347,7 @@
         <v>23</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>30</v>
@@ -8374,7 +8374,7 @@
         <v>23</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>30</v>
@@ -8401,7 +8401,7 @@
         <v>23</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>30</v>
@@ -8428,7 +8428,7 @@
         <v>23</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>30</v>
@@ -8455,7 +8455,7 @@
         <v>23</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>30</v>
@@ -8482,7 +8482,7 @@
         <v>23</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>30</v>
@@ -8509,7 +8509,7 @@
         <v>23</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H262" s="5" t="s">
         <v>30</v>
@@ -8536,7 +8536,7 @@
         <v>23</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>30</v>
@@ -8563,7 +8563,7 @@
         <v>23</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>30</v>
@@ -8590,7 +8590,7 @@
         <v>23</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>30</v>
@@ -8617,7 +8617,7 @@
         <v>23</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>30</v>
@@ -8644,7 +8644,7 @@
         <v>23</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H267" s="5" t="s">
         <v>30</v>
@@ -8671,7 +8671,7 @@
         <v>23</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H268" s="5" t="s">
         <v>30</v>
@@ -8698,7 +8698,7 @@
         <v>24</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H269" s="5" t="s">
         <v>30</v>
@@ -8725,7 +8725,7 @@
         <v>24</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>30</v>
@@ -8752,7 +8752,7 @@
         <v>24</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H271" s="5" t="s">
         <v>30</v>
@@ -8779,7 +8779,7 @@
         <v>24</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>30</v>
@@ -8806,7 +8806,7 @@
         <v>24</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H273" s="5" t="s">
         <v>30</v>
@@ -8833,7 +8833,7 @@
         <v>24</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H274" s="5" t="s">
         <v>30</v>
@@ -8860,7 +8860,7 @@
         <v>24</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H275" s="5" t="s">
         <v>30</v>
@@ -8887,7 +8887,7 @@
         <v>24</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H276" s="5" t="s">
         <v>30</v>
@@ -8914,7 +8914,7 @@
         <v>24</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H277" s="5" t="s">
         <v>30</v>
@@ -8941,7 +8941,7 @@
         <v>24</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H278" s="5" t="s">
         <v>30</v>
@@ -8968,7 +8968,7 @@
         <v>24</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H279" s="5" t="s">
         <v>30</v>
@@ -8995,7 +8995,7 @@
         <v>24</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H280" s="5" t="s">
         <v>30</v>
@@ -9022,7 +9022,7 @@
         <v>24</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>30</v>
@@ -9049,7 +9049,7 @@
         <v>24</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H282" s="5" t="s">
         <v>30</v>
@@ -9076,7 +9076,7 @@
         <v>24</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>30</v>
@@ -9103,7 +9103,7 @@
         <v>24</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>30</v>
@@ -9130,7 +9130,7 @@
         <v>22</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>30</v>
@@ -9157,7 +9157,7 @@
         <v>22</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H286" s="5" t="s">
         <v>30</v>
@@ -9184,7 +9184,7 @@
         <v>22</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>30</v>
@@ -9211,7 +9211,7 @@
         <v>22</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>30</v>
@@ -9238,7 +9238,7 @@
         <v>22</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>30</v>
@@ -9265,7 +9265,7 @@
         <v>22</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>30</v>
@@ -9292,7 +9292,7 @@
         <v>22</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>30</v>
@@ -9319,7 +9319,7 @@
         <v>22</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H292" s="5" t="s">
         <v>30</v>
@@ -9346,7 +9346,7 @@
         <v>22</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H293" s="5" t="s">
         <v>30</v>
@@ -9373,7 +9373,7 @@
         <v>22</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H294" s="5" t="s">
         <v>30</v>
@@ -9400,7 +9400,7 @@
         <v>22</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>30</v>
@@ -9427,7 +9427,7 @@
         <v>22</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>30</v>
@@ -9454,7 +9454,7 @@
         <v>22</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>30</v>
@@ -9481,7 +9481,7 @@
         <v>22</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H298" s="5" t="s">
         <v>30</v>
@@ -9508,7 +9508,7 @@
         <v>22</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H299" s="5" t="s">
         <v>30</v>
@@ -9535,7 +9535,7 @@
         <v>22</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>30</v>
@@ -9559,13 +9559,13 @@
         <v>5</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9586,13 +9586,13 @@
         <v>5</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9613,13 +9613,13 @@
         <v>5</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="304" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9640,13 +9640,13 @@
         <v>5</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9667,13 +9667,13 @@
         <v>5</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9694,13 +9694,13 @@
         <v>5</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9721,13 +9721,13 @@
         <v>5</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9748,13 +9748,13 @@
         <v>5</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9775,13 +9775,13 @@
         <v>5</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9802,13 +9802,13 @@
         <v>5</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="311" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9829,13 +9829,13 @@
         <v>5</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9856,13 +9856,13 @@
         <v>5</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9883,13 +9883,13 @@
         <v>5</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="314" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9910,13 +9910,13 @@
         <v>5</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="315" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9937,13 +9937,13 @@
         <v>5</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9964,13 +9964,13 @@
         <v>5</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9991,13 +9991,13 @@
         <v>5</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10018,13 +10018,13 @@
         <v>5</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10045,13 +10045,13 @@
         <v>5</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10072,13 +10072,13 @@
         <v>5</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10099,13 +10099,13 @@
         <v>5</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="322" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10126,13 +10126,13 @@
         <v>5</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="323" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10153,13 +10153,13 @@
         <v>5</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="324" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10180,13 +10180,13 @@
         <v>5</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10207,13 +10207,13 @@
         <v>5</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="326" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10234,13 +10234,13 @@
         <v>5</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="327" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10261,13 +10261,13 @@
         <v>5</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="328" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10288,13 +10288,13 @@
         <v>5</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="329" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10315,13 +10315,13 @@
         <v>5</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="330" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10342,13 +10342,13 @@
         <v>5</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="331" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10369,13 +10369,13 @@
         <v>5</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="332" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10396,13 +10396,13 @@
         <v>5</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="333" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10423,13 +10423,13 @@
         <v>5</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H333" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="334" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10450,13 +10450,13 @@
         <v>5</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="335" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10477,13 +10477,13 @@
         <v>5</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H335" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="336" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10504,13 +10504,13 @@
         <v>5</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H336" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="337" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10531,13 +10531,13 @@
         <v>5</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H337" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="338" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10558,13 +10558,13 @@
         <v>5</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H338" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="339" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10585,13 +10585,13 @@
         <v>5</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H339" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="340" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10612,13 +10612,13 @@
         <v>5</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H340" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="341" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10639,13 +10639,13 @@
         <v>5</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H341" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="342" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10666,13 +10666,13 @@
         <v>5</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="343" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10693,13 +10693,13 @@
         <v>5</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="344" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10720,13 +10720,13 @@
         <v>5</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="345" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10747,13 +10747,13 @@
         <v>5</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="346" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10774,13 +10774,13 @@
         <v>5</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="347" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10801,13 +10801,13 @@
         <v>5</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="348" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10828,13 +10828,13 @@
         <v>5</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="349" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10855,13 +10855,13 @@
         <v>5</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G349" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H349" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="350" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10882,13 +10882,13 @@
         <v>5</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G350" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H350" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H350" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="351" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10909,13 +10909,13 @@
         <v>5</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G351" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H351" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H351" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="352" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10936,13 +10936,13 @@
         <v>5</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G352" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H352" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H352" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="353" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10963,13 +10963,13 @@
         <v>5</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G353" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H353" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H353" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="354" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10990,13 +10990,13 @@
         <v>5</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H354" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="355" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11017,13 +11017,13 @@
         <v>5</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G355" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H355" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H355" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="356" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11044,13 +11044,13 @@
         <v>5</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G356" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H356" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H356" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="357" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11071,13 +11071,13 @@
         <v>5</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G357" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H357" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H357" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="358" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11098,13 +11098,13 @@
         <v>5</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G358" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H358" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H358" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="359" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11125,13 +11125,13 @@
         <v>5</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G359" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H359" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H359" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="360" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11152,13 +11152,13 @@
         <v>5</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G360" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H360" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H360" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11179,13 +11179,13 @@
         <v>5</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G361" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H361" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H361" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="362" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11206,13 +11206,13 @@
         <v>5</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G362" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H362" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H362" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="363" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11233,13 +11233,13 @@
         <v>5</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G363" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H363" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H363" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="364" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11260,13 +11260,13 @@
         <v>5</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G364" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H364" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H364" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="365" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11287,13 +11287,13 @@
         <v>5</v>
       </c>
       <c r="F365" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G365" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G365" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="H365" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="366" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11314,13 +11314,13 @@
         <v>5</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H366" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="367" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11341,13 +11341,13 @@
         <v>5</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H367" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="368" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11368,13 +11368,13 @@
         <v>5</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H368" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="369" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11395,13 +11395,13 @@
         <v>5</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H369" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="370" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11422,13 +11422,13 @@
         <v>5</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H370" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="371" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11449,13 +11449,13 @@
         <v>5</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H371" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="372" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11476,13 +11476,13 @@
         <v>5</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H372" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="373" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11503,13 +11503,13 @@
         <v>5</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H373" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="374" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11530,13 +11530,13 @@
         <v>5</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="375" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11557,13 +11557,13 @@
         <v>5</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="376" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11584,13 +11584,13 @@
         <v>5</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="377" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11611,13 +11611,13 @@
         <v>5</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="378" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11638,13 +11638,13 @@
         <v>5</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="379" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11665,13 +11665,13 @@
         <v>5</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="380" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11692,13 +11692,13 @@
         <v>5</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="381" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11719,13 +11719,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11746,13 +11746,13 @@
         <v>10</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -11809,13 +11809,13 @@
         <v>5</v>
       </c>
       <c r="F386" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G386" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G386" s="5" t="s">
+      <c r="H386" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H386" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="387" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11836,13 +11836,13 @@
         <v>5</v>
       </c>
       <c r="F387" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G387" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G387" s="5" t="s">
+      <c r="H387" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H387" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="388" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11863,13 +11863,13 @@
         <v>5</v>
       </c>
       <c r="F388" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G388" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G388" s="5" t="s">
+      <c r="H388" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H388" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="389" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11890,13 +11890,13 @@
         <v>5</v>
       </c>
       <c r="F389" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G389" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G389" s="5" t="s">
+      <c r="H389" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H389" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11917,13 +11917,13 @@
         <v>5</v>
       </c>
       <c r="F390" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G390" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G390" s="5" t="s">
+      <c r="H390" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H390" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="391" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11944,13 +11944,13 @@
         <v>5</v>
       </c>
       <c r="F391" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G391" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G391" s="5" t="s">
+      <c r="H391" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11971,13 +11971,13 @@
         <v>5</v>
       </c>
       <c r="F392" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G392" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G392" s="5" t="s">
+      <c r="H392" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H392" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="393" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11998,13 +11998,13 @@
         <v>5</v>
       </c>
       <c r="F393" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G393" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G393" s="5" t="s">
+      <c r="H393" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H393" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="394" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12025,13 +12025,13 @@
         <v>5</v>
       </c>
       <c r="F394" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G394" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G394" s="5" t="s">
+      <c r="H394" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H394" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="395" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12052,13 +12052,13 @@
         <v>5</v>
       </c>
       <c r="F395" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G395" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G395" s="5" t="s">
+      <c r="H395" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H395" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="396" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12079,13 +12079,13 @@
         <v>5</v>
       </c>
       <c r="F396" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G396" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G396" s="5" t="s">
+      <c r="H396" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H396" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="397" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12106,13 +12106,13 @@
         <v>5</v>
       </c>
       <c r="F397" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G397" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G397" s="5" t="s">
+      <c r="H397" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H397" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="398" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12133,13 +12133,13 @@
         <v>5</v>
       </c>
       <c r="F398" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G398" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G398" s="5" t="s">
+      <c r="H398" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H398" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="399" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12160,13 +12160,13 @@
         <v>5</v>
       </c>
       <c r="F399" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G399" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G399" s="5" t="s">
+      <c r="H399" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H399" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="400" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12187,13 +12187,13 @@
         <v>5</v>
       </c>
       <c r="F400" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G400" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G400" s="5" t="s">
+      <c r="H400" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H400" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="401" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12214,13 +12214,13 @@
         <v>5</v>
       </c>
       <c r="F401" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G401" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G401" s="5" t="s">
+      <c r="H401" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H401" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="402" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12241,13 +12241,13 @@
         <v>5</v>
       </c>
       <c r="F402" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G402" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G402" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H402" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="403" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12268,13 +12268,13 @@
         <v>5</v>
       </c>
       <c r="F403" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G403" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G403" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H403" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="404" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12295,13 +12295,13 @@
         <v>5</v>
       </c>
       <c r="F404" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G404" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G404" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H404" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="405" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12322,13 +12322,13 @@
         <v>5</v>
       </c>
       <c r="F405" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G405" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G405" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H405" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="406" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12349,13 +12349,13 @@
         <v>5</v>
       </c>
       <c r="F406" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G406" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G406" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H406" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="407" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12376,13 +12376,13 @@
         <v>5</v>
       </c>
       <c r="F407" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G407" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G407" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H407" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="408" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12403,13 +12403,13 @@
         <v>5</v>
       </c>
       <c r="F408" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G408" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G408" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H408" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="409" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12430,13 +12430,13 @@
         <v>5</v>
       </c>
       <c r="F409" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G409" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G409" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H409" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="410" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12457,13 +12457,13 @@
         <v>5</v>
       </c>
       <c r="F410" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G410" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G410" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H410" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="411" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12484,13 +12484,13 @@
         <v>5</v>
       </c>
       <c r="F411" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G411" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G411" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H411" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="412" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12511,13 +12511,13 @@
         <v>5</v>
       </c>
       <c r="F412" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G412" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G412" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H412" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="413" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12538,13 +12538,13 @@
         <v>5</v>
       </c>
       <c r="F413" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G413" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G413" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H413" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="414" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12565,13 +12565,13 @@
         <v>5</v>
       </c>
       <c r="F414" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G414" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G414" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H414" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="415" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12592,13 +12592,13 @@
         <v>5</v>
       </c>
       <c r="F415" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G415" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G415" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H415" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="416" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12619,13 +12619,13 @@
         <v>5</v>
       </c>
       <c r="F416" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G416" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G416" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H416" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="417" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12646,13 +12646,13 @@
         <v>5</v>
       </c>
       <c r="F417" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G417" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G417" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H417" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="418" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12673,13 +12673,13 @@
         <v>5</v>
       </c>
       <c r="F418" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G418" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G418" s="5" t="s">
+      <c r="H418" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="H418" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -13687,7 +13687,7 @@
         <v>01F4</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>19</v>
@@ -13696,10 +13696,10 @@
         <v>10</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H502" s="5" t="s">
         <v>7</v>
@@ -13714,7 +13714,7 @@
         <v>01F5</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D503" s="5" t="s">
         <v>21</v>
@@ -13723,10 +13723,10 @@
         <v>10</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H503" s="5" t="s">
         <v>7</v>
@@ -13741,7 +13741,7 @@
         <v>01F6</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D504" s="5" t="s">
         <v>19</v>
@@ -13750,10 +13750,10 @@
         <v>10</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H504" s="5" t="s">
         <v>7</v>
@@ -13768,7 +13768,7 @@
         <v>01F7</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D505" s="5" t="s">
         <v>21</v>
@@ -13777,10 +13777,10 @@
         <v>10</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H505" s="5" t="s">
         <v>7</v>
@@ -13804,10 +13804,10 @@
         <v>10</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H506" s="5" t="s">
         <v>7</v>
@@ -13908,7 +13908,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13939,10 +13939,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14362,7 +14362,7 @@
         <v>G</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>'SCROD Write Registers'!G14</f>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="H189" s="8" t="str">
         <f>'SCROD Write Registers'!H189</f>
-        <v>Bits 9:0 - a signed number that represents the offset for writing trigger bits to trigger memory.  Use this to adjust if ROI is off by a bit.  Bits 15:10 unused</v>
+        <v>Bits 8:0 - a signed number that represents the offset for writing trigger bits to trigger memory.  Use this to adjust if ROI is off by a bit.  Bits 15:9 unused</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -26514,7 +26514,7 @@
       </c>
       <c r="H382" s="8" t="str">
         <f>'SCROD Write Registers'!H382</f>
-        <v>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX</v>
+        <v>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX, bits 9:8 row select for MONTIMING2, bits 11:10 col select for MONTIMING2</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -30858,10 +30858,10 @@
         <v>10</v>
       </c>
       <c r="F514" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H514" s="10" t="s">
         <v>32</v>
@@ -30885,10 +30885,10 @@
         <v>10</v>
       </c>
       <c r="F515" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H515" s="5" t="s">
         <v>32</v>
@@ -30912,10 +30912,10 @@
         <v>10</v>
       </c>
       <c r="F516" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H516" s="5" t="s">
         <v>32</v>
@@ -30939,10 +30939,10 @@
         <v>10</v>
       </c>
       <c r="F517" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>32</v>
@@ -30966,10 +30966,10 @@
         <v>10</v>
       </c>
       <c r="F518" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>32</v>
@@ -30993,10 +30993,10 @@
         <v>10</v>
       </c>
       <c r="F519" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H519" s="5" t="s">
         <v>32</v>
@@ -31020,10 +31020,10 @@
         <v>10</v>
       </c>
       <c r="F520" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H520" s="5" t="s">
         <v>32</v>
@@ -31047,10 +31047,10 @@
         <v>10</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G521" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H521" s="5" t="s">
         <v>32</v>
@@ -31077,7 +31077,7 @@
         <v>35</v>
       </c>
       <c r="H522" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="523" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31101,7 +31101,7 @@
         <v>35</v>
       </c>
       <c r="H523" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="524" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31125,7 +31125,7 @@
         <v>35</v>
       </c>
       <c r="H524" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="525" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31149,7 +31149,7 @@
         <v>35</v>
       </c>
       <c r="H525" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="526" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31173,7 +31173,7 @@
         <v>35</v>
       </c>
       <c r="H526" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="527" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31197,7 +31197,7 @@
         <v>35</v>
       </c>
       <c r="H527" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="528" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31221,7 +31221,7 @@
         <v>35</v>
       </c>
       <c r="H528" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="529" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31245,7 +31245,7 @@
         <v>35</v>
       </c>
       <c r="H529" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="530" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31266,13 +31266,13 @@
         <v>10</v>
       </c>
       <c r="F530" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G530" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="H530" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="531" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31293,13 +31293,13 @@
         <v>10</v>
       </c>
       <c r="F531" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H531" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="532" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31320,13 +31320,13 @@
         <v>10</v>
       </c>
       <c r="F532" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G532" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H532" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="533" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31347,13 +31347,13 @@
         <v>10</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H533" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="534" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31374,13 +31374,13 @@
         <v>10</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H534" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="535" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31401,13 +31401,13 @@
         <v>10</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H535" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="536" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31428,13 +31428,13 @@
         <v>10</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H536" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="537" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31455,13 +31455,13 @@
         <v>10</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H537" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="538" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31482,13 +31482,13 @@
         <v>10</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H538" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="539" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31509,13 +31509,13 @@
         <v>10</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H539" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="540" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31536,13 +31536,13 @@
         <v>10</v>
       </c>
       <c r="F540" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H540" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="541" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31563,13 +31563,13 @@
         <v>10</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H541" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="542" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31590,13 +31590,13 @@
         <v>10</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G542" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H542" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="543" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31617,13 +31617,13 @@
         <v>10</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G543" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H543" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="544" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31644,13 +31644,13 @@
         <v>10</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G544" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H544" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="545" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31671,13 +31671,13 @@
         <v>10</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G545" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H545" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31698,10 +31698,10 @@
         <v>10</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G546" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H546" s="5" t="s">
         <v>30</v>
@@ -31725,10 +31725,10 @@
         <v>10</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G547" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H547" s="5" t="s">
         <v>30</v>
@@ -31752,10 +31752,10 @@
         <v>10</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G548" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H548" s="5" t="s">
         <v>30</v>
@@ -31779,10 +31779,10 @@
         <v>10</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G549" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H549" s="5" t="s">
         <v>30</v>
@@ -31806,10 +31806,10 @@
         <v>10</v>
       </c>
       <c r="F550" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G550" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H550" s="5" t="s">
         <v>30</v>
@@ -31833,10 +31833,10 @@
         <v>10</v>
       </c>
       <c r="F551" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H551" s="5" t="s">
         <v>30</v>
@@ -31860,10 +31860,10 @@
         <v>10</v>
       </c>
       <c r="F552" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H552" s="5" t="s">
         <v>30</v>
@@ -31887,10 +31887,10 @@
         <v>10</v>
       </c>
       <c r="F553" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G553" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H553" s="5" t="s">
         <v>30</v>
@@ -31914,10 +31914,10 @@
         <v>10</v>
       </c>
       <c r="F554" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G554" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H554" s="5" t="s">
         <v>30</v>
@@ -31941,10 +31941,10 @@
         <v>10</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G555" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H555" s="5" t="s">
         <v>30</v>
@@ -31968,10 +31968,10 @@
         <v>10</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G556" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H556" s="5" t="s">
         <v>30</v>
@@ -31995,10 +31995,10 @@
         <v>10</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G557" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H557" s="5" t="s">
         <v>30</v>
@@ -32022,10 +32022,10 @@
         <v>10</v>
       </c>
       <c r="F558" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G558" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H558" s="5" t="s">
         <v>30</v>
@@ -32049,10 +32049,10 @@
         <v>10</v>
       </c>
       <c r="F559" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G559" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H559" s="5" t="s">
         <v>30</v>
@@ -32076,10 +32076,10 @@
         <v>10</v>
       </c>
       <c r="F560" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G560" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H560" s="5" t="s">
         <v>30</v>
@@ -32103,10 +32103,10 @@
         <v>10</v>
       </c>
       <c r="F561" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G561" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H561" s="5" t="s">
         <v>30</v>
@@ -32130,13 +32130,13 @@
         <v>10</v>
       </c>
       <c r="F562" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G562" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G562" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H562" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32157,13 +32157,13 @@
         <v>10</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H563" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="564" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32184,13 +32184,13 @@
         <v>10</v>
       </c>
       <c r="F564" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G564" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H564" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="565" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32211,13 +32211,13 @@
         <v>10</v>
       </c>
       <c r="F565" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H565" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32238,13 +32238,13 @@
         <v>10</v>
       </c>
       <c r="F566" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G566" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H566" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="567" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32265,13 +32265,13 @@
         <v>10</v>
       </c>
       <c r="F567" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G567" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H567" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="568" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32292,13 +32292,13 @@
         <v>10</v>
       </c>
       <c r="F568" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G568" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H568" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32319,13 +32319,13 @@
         <v>10</v>
       </c>
       <c r="F569" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G569" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H569" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32346,13 +32346,13 @@
         <v>10</v>
       </c>
       <c r="F570" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G570" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H570" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="571" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32373,13 +32373,13 @@
         <v>10</v>
       </c>
       <c r="F571" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G571" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H571" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="572" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32400,13 +32400,13 @@
         <v>10</v>
       </c>
       <c r="F572" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G572" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H572" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="573" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32427,13 +32427,13 @@
         <v>10</v>
       </c>
       <c r="F573" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G573" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H573" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="574" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32454,13 +32454,13 @@
         <v>10</v>
       </c>
       <c r="F574" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G574" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H574" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="575" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32481,13 +32481,13 @@
         <v>10</v>
       </c>
       <c r="F575" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G575" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H575" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="576" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32508,13 +32508,13 @@
         <v>10</v>
       </c>
       <c r="F576" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G576" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H576" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="577" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32535,13 +32535,13 @@
         <v>10</v>
       </c>
       <c r="F577" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G577" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H577" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="578" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32562,7 +32562,7 @@
         <v>10</v>
       </c>
       <c r="F578" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G578" s="5" t="s">
         <v>36</v>
@@ -32589,10 +32589,10 @@
         <v>10</v>
       </c>
       <c r="F579" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G579" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G579" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H579" s="5" t="s">
         <v>30</v>
@@ -32616,10 +32616,10 @@
         <v>10</v>
       </c>
       <c r="F580" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G580" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G580" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H580" s="5" t="s">
         <v>30</v>
@@ -32643,10 +32643,10 @@
         <v>10</v>
       </c>
       <c r="F581" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G581" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G581" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H581" s="5" t="s">
         <v>30</v>
@@ -32670,10 +32670,10 @@
         <v>10</v>
       </c>
       <c r="F582" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G582" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G582" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H582" s="5" t="s">
         <v>30</v>
@@ -32697,10 +32697,10 @@
         <v>10</v>
       </c>
       <c r="F583" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G583" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G583" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H583" s="5" t="s">
         <v>30</v>
@@ -32724,10 +32724,10 @@
         <v>10</v>
       </c>
       <c r="F584" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G584" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G584" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H584" s="5" t="s">
         <v>30</v>
@@ -32751,10 +32751,10 @@
         <v>10</v>
       </c>
       <c r="F585" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G585" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G585" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H585" s="5" t="s">
         <v>30</v>
@@ -32778,10 +32778,10 @@
         <v>10</v>
       </c>
       <c r="F586" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G586" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G586" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H586" s="5" t="s">
         <v>30</v>
@@ -32805,10 +32805,10 @@
         <v>10</v>
       </c>
       <c r="F587" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G587" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G587" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H587" s="5" t="s">
         <v>30</v>
@@ -32832,10 +32832,10 @@
         <v>10</v>
       </c>
       <c r="F588" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G588" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G588" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H588" s="5" t="s">
         <v>30</v>
@@ -32859,10 +32859,10 @@
         <v>10</v>
       </c>
       <c r="F589" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G589" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G589" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H589" s="5" t="s">
         <v>30</v>
@@ -32886,10 +32886,10 @@
         <v>10</v>
       </c>
       <c r="F590" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G590" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G590" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H590" s="5" t="s">
         <v>30</v>
@@ -32913,10 +32913,10 @@
         <v>10</v>
       </c>
       <c r="F591" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G591" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G591" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H591" s="5" t="s">
         <v>30</v>
@@ -32940,10 +32940,10 @@
         <v>10</v>
       </c>
       <c r="F592" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G592" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G592" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H592" s="5" t="s">
         <v>30</v>
@@ -32967,10 +32967,10 @@
         <v>10</v>
       </c>
       <c r="F593" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G593" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G593" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H593" s="5" t="s">
         <v>30</v>
@@ -32994,7 +32994,7 @@
         <v>10</v>
       </c>
       <c r="F594" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G594" s="5" t="s">
         <v>36</v>
@@ -33021,10 +33021,10 @@
         <v>10</v>
       </c>
       <c r="F595" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G595" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G595" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H595" s="5" t="s">
         <v>30</v>
@@ -33048,10 +33048,10 @@
         <v>10</v>
       </c>
       <c r="F596" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G596" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G596" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H596" s="5" t="s">
         <v>30</v>
@@ -33075,10 +33075,10 @@
         <v>10</v>
       </c>
       <c r="F597" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G597" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G597" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H597" s="5" t="s">
         <v>30</v>
@@ -33102,10 +33102,10 @@
         <v>10</v>
       </c>
       <c r="F598" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G598" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G598" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H598" s="5" t="s">
         <v>30</v>
@@ -33129,10 +33129,10 @@
         <v>10</v>
       </c>
       <c r="F599" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G599" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G599" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H599" s="5" t="s">
         <v>30</v>
@@ -33156,10 +33156,10 @@
         <v>10</v>
       </c>
       <c r="F600" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G600" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G600" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H600" s="5" t="s">
         <v>30</v>
@@ -33183,10 +33183,10 @@
         <v>10</v>
       </c>
       <c r="F601" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G601" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G601" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H601" s="5" t="s">
         <v>30</v>
@@ -33210,10 +33210,10 @@
         <v>10</v>
       </c>
       <c r="F602" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G602" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G602" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H602" s="5" t="s">
         <v>30</v>
@@ -33237,10 +33237,10 @@
         <v>10</v>
       </c>
       <c r="F603" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G603" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G603" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H603" s="5" t="s">
         <v>30</v>
@@ -33264,10 +33264,10 @@
         <v>10</v>
       </c>
       <c r="F604" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G604" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G604" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H604" s="5" t="s">
         <v>30</v>
@@ -33291,10 +33291,10 @@
         <v>10</v>
       </c>
       <c r="F605" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G605" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G605" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H605" s="5" t="s">
         <v>30</v>
@@ -33318,10 +33318,10 @@
         <v>10</v>
       </c>
       <c r="F606" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G606" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G606" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H606" s="5" t="s">
         <v>30</v>
@@ -33345,10 +33345,10 @@
         <v>10</v>
       </c>
       <c r="F607" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G607" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G607" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H607" s="5" t="s">
         <v>30</v>
@@ -33372,10 +33372,10 @@
         <v>10</v>
       </c>
       <c r="F608" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G608" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G608" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H608" s="5" t="s">
         <v>30</v>
@@ -33399,10 +33399,10 @@
         <v>10</v>
       </c>
       <c r="F609" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G609" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G609" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H609" s="5" t="s">
         <v>30</v>
@@ -33426,13 +33426,13 @@
         <v>10</v>
       </c>
       <c r="F610" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G610" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H610" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="611" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -33453,13 +33453,13 @@
         <v>10</v>
       </c>
       <c r="F611" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G611" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H611" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="612" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -33480,13 +33480,13 @@
         <v>10</v>
       </c>
       <c r="F612" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G612" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G612" s="5" t="s">
+      <c r="H612" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="H612" s="5" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
@@ -33550,8 +33550,8 @@
   </sheetPr>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33563,17 +33563,17 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E1" s="26">
         <f ca="1">+TODAY()</f>
-        <v>41360</v>
+        <v>41362</v>
       </c>
       <c r="P1">
         <v>2500</v>
       </c>
       <c r="Q1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -33582,12 +33582,12 @@
         <v>4096</v>
       </c>
       <c r="Q2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="26"/>
       <c r="P3">
@@ -33595,41 +33595,41 @@
         <v>0.6103515625</v>
       </c>
       <c r="Q3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N4" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -33637,16 +33637,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="24">
         <v>12</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -33673,10 +33673,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7" s="24">
         <v>12</v>
@@ -33707,10 +33707,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D8" s="24">
         <v>12</v>
@@ -33741,10 +33741,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="24">
         <v>12</v>
@@ -33775,10 +33775,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="24">
         <v>12</v>
@@ -33809,10 +33809,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" s="24">
         <v>12</v>
@@ -33843,10 +33843,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D12" s="24">
         <v>12</v>
@@ -33877,10 +33877,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D13" s="23">
         <v>12</v>
@@ -33911,19 +33911,19 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N14" s="21">
         <v>400</v>
@@ -33942,19 +33942,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N15" s="21">
         <v>380</v>
@@ -33973,19 +33973,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N16" s="21">
         <v>370</v>
@@ -34004,16 +34004,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N17" s="21">
         <v>0</v>
@@ -34032,19 +34032,19 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N18" s="21">
         <v>400</v>
@@ -34063,19 +34063,19 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N19" s="21">
         <v>370</v>
@@ -34094,19 +34094,19 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N20" s="21">
         <v>400</v>
@@ -34125,19 +34125,19 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N21" s="21">
         <v>350</v>
@@ -34156,19 +34156,19 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N22" s="21">
         <v>400</v>
@@ -34187,22 +34187,22 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N23" s="21">
         <v>400</v>
@@ -34221,19 +34221,19 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D24">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N24" s="21">
         <v>400</v>
@@ -34252,19 +34252,19 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N25" s="21">
         <v>350</v>
@@ -34283,19 +34283,19 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N26" s="21">
         <v>800</v>
@@ -34314,20 +34314,20 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F27" s="36"/>
       <c r="M27" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N27" s="21">
         <v>60</v>
@@ -34343,10 +34343,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -34354,7 +34354,7 @@
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="M28" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N28" s="21">
         <v>10</v>
@@ -34370,20 +34370,20 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F29" s="36"/>
       <c r="M29" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N29" s="21">
         <v>28</v>
@@ -34399,10 +34399,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -34410,7 +34410,7 @@
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="M30" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N30" s="21">
         <v>58</v>
@@ -34426,20 +34426,20 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F31" s="36"/>
       <c r="M31" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N31" s="21">
         <v>68</v>
@@ -34455,10 +34455,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -34466,7 +34466,7 @@
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="M32" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N32" s="21">
         <v>18</v>
@@ -34482,20 +34482,20 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F33" s="36"/>
       <c r="M33" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N33" s="21">
         <v>18</v>
@@ -34511,10 +34511,10 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -34522,7 +34522,7 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="M34" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N34" s="21">
         <v>30</v>
@@ -34538,24 +34538,24 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N35" s="21">
         <v>40</v>
@@ -34571,10 +34571,10 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -34583,7 +34583,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
       <c r="M36" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N36" s="21">
         <v>70</v>
@@ -34599,19 +34599,19 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -34620,19 +34620,19 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N38">
         <v>400</v>
@@ -34648,19 +34648,19 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N39">
         <v>500</v>
@@ -34676,19 +34676,19 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N40">
         <v>400</v>
@@ -34704,22 +34704,22 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D41">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N41" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O41">
         <f t="shared" si="0"/>
@@ -34732,19 +34732,19 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N42">
         <v>400</v>
@@ -34760,19 +34760,19 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N43">
         <v>400</v>
@@ -34788,19 +34788,19 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N44">
         <v>400</v>
@@ -34819,19 +34819,19 @@
         <v>14</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D45">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N45">
         <v>900</v>
@@ -34847,19 +34847,19 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N46">
         <v>400</v>
@@ -34875,25 +34875,25 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D47">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
@@ -34906,19 +34906,19 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N48">
         <v>600</v>
@@ -34934,25 +34934,25 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N49" s="54" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
@@ -34965,19 +34965,19 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N50">
         <v>600</v>
@@ -34993,25 +34993,25 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N51" s="55" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
@@ -35024,7 +35024,7 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -35033,7 +35033,7 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -35042,7 +35042,7 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -35051,7 +35051,7 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -35060,7 +35060,7 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -35069,7 +35069,7 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -35078,7 +35078,7 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -35087,7 +35087,7 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -35096,7 +35096,7 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -35105,7 +35105,7 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -35114,7 +35114,7 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -35123,7 +35123,7 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -35132,7 +35132,7 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -35141,16 +35141,16 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -35159,16 +35159,16 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -35177,16 +35177,16 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -35195,16 +35195,16 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -35213,16 +35213,16 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -35244,7 +35244,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35702,7 +35702,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
@@ -35717,19 +35717,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="E3" s="46" t="s">
         <v>415</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>417</v>
       </c>
       <c r="F3" s="47"/>
       <c r="H3" s="47"/>
@@ -35744,16 +35744,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4"/>
@@ -35769,12 +35769,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5"/>
@@ -35790,12 +35790,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6"/>
@@ -35811,16 +35811,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>423</v>
-      </c>
       <c r="E7" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="47"/>
@@ -35835,16 +35835,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="47"/>
@@ -35859,16 +35859,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>428</v>
-      </c>
       <c r="E9" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="47"/>
@@ -35883,16 +35883,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>431</v>
-      </c>
       <c r="E10" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="47"/>
@@ -35907,16 +35907,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>434</v>
-      </c>
       <c r="E11" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11"/>
       <c r="K11" s="47"/>
@@ -35945,16 +35945,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="47"/>
@@ -35970,7 +35970,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
@@ -35986,7 +35986,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
@@ -36002,7 +36002,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
@@ -36018,7 +36018,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
@@ -36034,7 +36034,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -36050,7 +36050,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
@@ -36066,7 +36066,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -36082,7 +36082,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
@@ -36102,7 +36102,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G15"/>
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -36122,82 +36122,82 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G2" s="45"/>
       <c r="H2" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>382</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>383</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -36211,13 +36211,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -36225,7 +36225,7 @@
       <c r="G5" s="44"/>
       <c r="H5" s="43"/>
       <c r="J5" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -36234,13 +36234,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -36254,28 +36254,28 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>376</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>377</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -36284,13 +36284,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="41"/>
@@ -36305,13 +36305,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="41"/>
@@ -36326,13 +36326,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="41"/>
@@ -36347,19 +36347,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -36368,28 +36368,28 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -36398,13 +36398,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -36418,13 +36418,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -36438,13 +36438,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -36458,28 +36458,28 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>373</v>
-      </c>
       <c r="F16" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
@@ -36488,13 +36488,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
@@ -36508,13 +36508,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>372</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>373</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
@@ -36528,13 +36528,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
@@ -36555,19 +36555,19 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="E21" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
@@ -36575,22 +36575,22 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C24" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C26" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="443">
   <si>
     <t>Register Number</t>
   </si>
@@ -1239,9 +1239,6 @@
     <t>row</t>
   </si>
   <si>
-    <t>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases</t>
-  </si>
-  <si>
     <t>Seconds SST PLL locked</t>
   </si>
   <si>
@@ -1345,6 +1342,15 @@
   </si>
   <si>
     <t>Bits 8:0 - a signed number that represents the offset for writing trigger bits to trigger memory.  Use this to adjust if ROI is off by a bit.  Bits 15:9 unused</t>
+  </si>
+  <si>
+    <t>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases, Bit 11: toggle between two possible choices for WR_ADDR LSB phase</t>
+  </si>
+  <si>
+    <t>Firmware revision</t>
+  </si>
+  <si>
+    <t>Should match the repository revision number</t>
   </si>
 </sst>
 </file>
@@ -1927,9 +1933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H190" sqref="H190"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F383" sqref="F383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6709,7 +6715,7 @@
         <v>85</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11719,13 +11725,13 @@
         <v>5</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>188</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
     </row>
     <row r="382" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11746,13 +11752,13 @@
         <v>10</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -13906,9 +13912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H628"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G613" sqref="G613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26481,7 +26487,7 @@
       </c>
       <c r="H381" s="8" t="str">
         <f>'SCROD Write Registers'!H381</f>
-        <v>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases</v>
+        <v>Bits 7:0 timing reg (ASIC register), Bit 8: Signal for the sampling block to perform the sync  - set to one after all taps/biases are programmed, Bits 10:9 Choose which phase to use among 4 PHAB phases, Bit 11: toggle between two possible choices for WR_ADDR LSB phase</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -33480,17 +33486,41 @@
         <v>10</v>
       </c>
       <c r="F612" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G612" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G612" s="5" t="s">
+      <c r="H612" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H612" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B613" s="3"/>
+    </row>
+    <row r="613" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="5">
+        <v>611</v>
+      </c>
+      <c r="B613" s="6" t="str">
+        <f t="shared" ref="B613" si="13">DEC2HEX(A613,4)</f>
+        <v>0263</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D613" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E613" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F613" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G613" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H613" s="5" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B614" s="3"/>
@@ -34719,7 +34749,7 @@
         <v>267</v>
       </c>
       <c r="N41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O41">
         <f t="shared" si="0"/>
@@ -34893,7 +34923,7 @@
         <v>253</v>
       </c>
       <c r="N47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
@@ -34952,7 +34982,7 @@
         <v>247</v>
       </c>
       <c r="N49" s="54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
@@ -35011,7 +35041,7 @@
         <v>240</v>
       </c>
       <c r="N51" s="55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
@@ -35720,16 +35750,16 @@
         <v>171</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="D3" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="E3" s="46" t="s">
         <v>414</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>415</v>
       </c>
       <c r="F3" s="47"/>
       <c r="H3" s="47"/>
@@ -35744,7 +35774,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>173</v>
@@ -35769,7 +35799,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -35790,7 +35820,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -35811,13 +35841,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>420</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>421</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>179</v>
@@ -35835,13 +35865,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>423</v>
-      </c>
       <c r="D8" s="46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>181</v>
@@ -35859,13 +35889,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="46" t="s">
         <v>425</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>426</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>182</v>
@@ -35883,13 +35913,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="D10" s="46" t="s">
         <v>428</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>429</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>184</v>
@@ -35907,13 +35937,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="D11" s="46" t="s">
         <v>431</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>432</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>186</v>
@@ -35945,16 +35975,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D16" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>433</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>434</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="47"/>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="466">
   <si>
     <t>Register Number</t>
   </si>
@@ -1338,9 +1338,6 @@
     <t>AD0</t>
   </si>
   <si>
-    <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX, bits 9:8 row select for MONTIMING2, bits 11:10 col select for MONTIMING2</t>
-  </si>
-  <si>
     <t>Bits 8:0 - a signed number that represents the offset for writing trigger bits to trigger memory.  Use this to adjust if ROI is off by a bit.  Bits 15:9 unused</t>
   </si>
   <si>
@@ -1351,6 +1348,78 @@
   </si>
   <si>
     <t>Should match the repository revision number</t>
+  </si>
+  <si>
+    <t>TRIG_WIDTH_COUNTER</t>
+  </si>
+  <si>
+    <t>WBIAS_FB</t>
+  </si>
+  <si>
+    <t>Feedback DAC value of WBIAS</t>
+  </si>
+  <si>
+    <t>see reg 628</t>
+  </si>
+  <si>
+    <t>see reg 612</t>
+  </si>
+  <si>
+    <t>Trigger width counter</t>
+  </si>
+  <si>
+    <t>Target count rate value for trigger-width counter feedback loop</t>
+  </si>
+  <si>
+    <t>TRIG_WIDTH_TARGET</t>
+  </si>
+  <si>
+    <t>17 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>18 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>19 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>20 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>21 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>22 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>23 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>24 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>25 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>26 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>27 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>28 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>29 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>30 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>31 bit unsigned counter</t>
+  </si>
+  <si>
+    <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX, bits 9:8 row select for MONTIMING2, bits 11:10 col select for MONTIMING2, bit 12: when '0' put MONTIMING for second ASIC on MON2, when '1' put WR_ADDR on MON2; bits15:13 choose which WR_ADDR bit to put on MON2</t>
   </si>
 </sst>
 </file>
@@ -1933,9 +2002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F383" sqref="F383"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H383" sqref="H383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,7 +6784,7 @@
         <v>85</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11731,7 +11800,7 @@
         <v>188</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="382" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11758,7 +11827,7 @@
         <v>408</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -12688,199 +12757,439 @@
         <v>222</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row r="419" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="5">
         <v>417</v>
       </c>
-      <c r="B419" s="4" t="str">
+      <c r="B419" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A1</v>
       </c>
-      <c r="F419" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="C419" s="5">
+        <v>0</v>
+      </c>
+      <c r="D419" s="5">
+        <v>0</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H419" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="5">
         <v>418</v>
       </c>
-      <c r="B420" s="4" t="str">
+      <c r="B420" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A2</v>
       </c>
-      <c r="F420" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="C420" s="5">
+        <v>0</v>
+      </c>
+      <c r="D420" s="5">
+        <v>1</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="5">
         <v>419</v>
       </c>
-      <c r="B421" s="4" t="str">
+      <c r="B421" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A3</v>
       </c>
-      <c r="F421" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="C421" s="5">
+        <v>0</v>
+      </c>
+      <c r="D421" s="5">
+        <v>2</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H421" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="5">
         <v>420</v>
       </c>
-      <c r="B422" s="4" t="str">
+      <c r="B422" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A4</v>
       </c>
-      <c r="F422" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="C422" s="5">
+        <v>0</v>
+      </c>
+      <c r="D422" s="5">
+        <v>3</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H422" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="5">
         <v>421</v>
       </c>
-      <c r="B423" s="4" t="str">
+      <c r="B423" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A5</v>
       </c>
-      <c r="F423" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="C423" s="5">
+        <v>1</v>
+      </c>
+      <c r="D423" s="5">
+        <v>0</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H423" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="5">
         <v>422</v>
       </c>
-      <c r="B424" s="4" t="str">
+      <c r="B424" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A6</v>
       </c>
-      <c r="F424" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="C424" s="5">
+        <v>1</v>
+      </c>
+      <c r="D424" s="5">
+        <v>1</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H424" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="5">
         <v>423</v>
       </c>
-      <c r="B425" s="4" t="str">
+      <c r="B425" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A7</v>
       </c>
-      <c r="F425" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="C425" s="5">
+        <v>1</v>
+      </c>
+      <c r="D425" s="5">
+        <v>2</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G425" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H425" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="5">
         <v>424</v>
       </c>
-      <c r="B426" s="4" t="str">
+      <c r="B426" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A8</v>
       </c>
-      <c r="F426" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="C426" s="5">
+        <v>1</v>
+      </c>
+      <c r="D426" s="5">
+        <v>3</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="5">
         <v>425</v>
       </c>
-      <c r="B427" s="4" t="str">
+      <c r="B427" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01A9</v>
       </c>
-      <c r="F427" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="C427" s="5">
+        <v>2</v>
+      </c>
+      <c r="D427" s="5">
+        <v>0</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H427" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="5">
         <v>426</v>
       </c>
-      <c r="B428" s="4" t="str">
+      <c r="B428" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01AA</v>
       </c>
-      <c r="F428" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="C428" s="5">
+        <v>2</v>
+      </c>
+      <c r="D428" s="5">
+        <v>1</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H428" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="5">
         <v>427</v>
       </c>
-      <c r="B429" s="4" t="str">
+      <c r="B429" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01AB</v>
       </c>
-      <c r="F429" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="C429" s="5">
+        <v>2</v>
+      </c>
+      <c r="D429" s="5">
+        <v>2</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G429" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H429" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="5">
         <v>428</v>
       </c>
-      <c r="B430" s="4" t="str">
+      <c r="B430" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01AC</v>
       </c>
-      <c r="F430" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="C430" s="5">
+        <v>2</v>
+      </c>
+      <c r="D430" s="5">
+        <v>3</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="5">
         <v>429</v>
       </c>
-      <c r="B431" s="4" t="str">
+      <c r="B431" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01AD</v>
       </c>
-      <c r="F431" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="C431" s="5">
+        <v>3</v>
+      </c>
+      <c r="D431" s="5">
+        <v>0</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G431" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H431" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="5">
         <v>430</v>
       </c>
-      <c r="B432" s="4" t="str">
+      <c r="B432" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01AE</v>
       </c>
-      <c r="F432" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="C432" s="5">
+        <v>3</v>
+      </c>
+      <c r="D432" s="5">
+        <v>1</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G432" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H432" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="5">
         <v>431</v>
       </c>
-      <c r="B433" s="4" t="str">
+      <c r="B433" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01AF</v>
       </c>
-      <c r="F433" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="C433" s="5">
+        <v>3</v>
+      </c>
+      <c r="D433" s="5">
+        <v>2</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G433" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H433" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="5">
         <v>432</v>
       </c>
-      <c r="B434" s="4" t="str">
+      <c r="B434" s="7" t="str">
         <f t="shared" si="8"/>
         <v>01B0</v>
       </c>
-      <c r="F434" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C434" s="5">
+        <v>3</v>
+      </c>
+      <c r="D434" s="5">
+        <v>3</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -12892,7 +13201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -12904,7 +13213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -12916,7 +13225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -12928,7 +13237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -12940,7 +13249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -12952,7 +13261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -12964,7 +13273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -12976,7 +13285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -12988,7 +13297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -13000,7 +13309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -13012,7 +13321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -13024,7 +13333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -13036,7 +13345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -13910,11 +14219,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H628"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G613" sqref="G613"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F527" sqref="F527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26520,7 +26829,7 @@
       </c>
       <c r="H382" s="8" t="str">
         <f>'SCROD Write Registers'!H382</f>
-        <v>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX, bits 9:8 row select for MONTIMING2, bits 11:10 col select for MONTIMING2</v>
+        <v>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX, bits 9:8 row select for MONTIMING2, bits 11:10 col select for MONTIMING2, bit 12: when '0' put MONTIMING for second ASIC on MON2, when '1' put WR_ADDR on MON2; bits15:13 choose which WR_ADDR bit to put on MON2</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -27727,21 +28036,21 @@
         <f>'SCROD Write Registers'!D419</f>
         <v>0</v>
       </c>
-      <c r="E419">
+      <c r="E419" t="str">
         <f>'SCROD Write Registers'!E419</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F419" t="str">
         <f>'SCROD Write Registers'!F419</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G419" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G419" s="8" t="str">
         <f>'SCROD Write Registers'!G419</f>
-        <v>0</v>
-      </c>
-      <c r="H419" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H419" s="8" t="str">
         <f>'SCROD Write Registers'!H419</f>
-        <v>0</v>
+        <v>16 bit unsigned counter</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -27758,23 +28067,23 @@
       </c>
       <c r="D420">
         <f>'SCROD Write Registers'!D420</f>
-        <v>0</v>
-      </c>
-      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="E420" t="str">
         <f>'SCROD Write Registers'!E420</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F420" t="str">
         <f>'SCROD Write Registers'!F420</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G420" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G420" s="8" t="str">
         <f>'SCROD Write Registers'!G420</f>
-        <v>0</v>
-      </c>
-      <c r="H420" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H420" s="8" t="str">
         <f>'SCROD Write Registers'!H420</f>
-        <v>0</v>
+        <v>17 bit unsigned counter</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -27791,23 +28100,23 @@
       </c>
       <c r="D421">
         <f>'SCROD Write Registers'!D421</f>
-        <v>0</v>
-      </c>
-      <c r="E421">
+        <v>2</v>
+      </c>
+      <c r="E421" t="str">
         <f>'SCROD Write Registers'!E421</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F421" t="str">
         <f>'SCROD Write Registers'!F421</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G421" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G421" s="8" t="str">
         <f>'SCROD Write Registers'!G421</f>
-        <v>0</v>
-      </c>
-      <c r="H421" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H421" s="8" t="str">
         <f>'SCROD Write Registers'!H421</f>
-        <v>0</v>
+        <v>18 bit unsigned counter</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -27824,23 +28133,23 @@
       </c>
       <c r="D422">
         <f>'SCROD Write Registers'!D422</f>
-        <v>0</v>
-      </c>
-      <c r="E422">
+        <v>3</v>
+      </c>
+      <c r="E422" t="str">
         <f>'SCROD Write Registers'!E422</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F422" t="str">
         <f>'SCROD Write Registers'!F422</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G422" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G422" s="8" t="str">
         <f>'SCROD Write Registers'!G422</f>
-        <v>0</v>
-      </c>
-      <c r="H422" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H422" s="8" t="str">
         <f>'SCROD Write Registers'!H422</f>
-        <v>0</v>
+        <v>19 bit unsigned counter</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -27853,27 +28162,27 @@
       </c>
       <c r="C423">
         <f>'SCROD Write Registers'!C423</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D423">
         <f>'SCROD Write Registers'!D423</f>
         <v>0</v>
       </c>
-      <c r="E423">
+      <c r="E423" t="str">
         <f>'SCROD Write Registers'!E423</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F423" t="str">
         <f>'SCROD Write Registers'!F423</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G423" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G423" s="8" t="str">
         <f>'SCROD Write Registers'!G423</f>
-        <v>0</v>
-      </c>
-      <c r="H423" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H423" s="8" t="str">
         <f>'SCROD Write Registers'!H423</f>
-        <v>0</v>
+        <v>20 bit unsigned counter</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -27886,27 +28195,27 @@
       </c>
       <c r="C424">
         <f>'SCROD Write Registers'!C424</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424">
         <f>'SCROD Write Registers'!D424</f>
-        <v>0</v>
-      </c>
-      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="E424" t="str">
         <f>'SCROD Write Registers'!E424</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F424" t="str">
         <f>'SCROD Write Registers'!F424</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G424" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G424" s="8" t="str">
         <f>'SCROD Write Registers'!G424</f>
-        <v>0</v>
-      </c>
-      <c r="H424" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H424" s="8" t="str">
         <f>'SCROD Write Registers'!H424</f>
-        <v>0</v>
+        <v>21 bit unsigned counter</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -27919,27 +28228,27 @@
       </c>
       <c r="C425">
         <f>'SCROD Write Registers'!C425</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D425">
         <f>'SCROD Write Registers'!D425</f>
-        <v>0</v>
-      </c>
-      <c r="E425">
+        <v>2</v>
+      </c>
+      <c r="E425" t="str">
         <f>'SCROD Write Registers'!E425</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F425" t="str">
         <f>'SCROD Write Registers'!F425</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G425" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G425" s="8" t="str">
         <f>'SCROD Write Registers'!G425</f>
-        <v>0</v>
-      </c>
-      <c r="H425" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H425" s="8" t="str">
         <f>'SCROD Write Registers'!H425</f>
-        <v>0</v>
+        <v>22 bit unsigned counter</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -27952,27 +28261,27 @@
       </c>
       <c r="C426">
         <f>'SCROD Write Registers'!C426</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D426">
         <f>'SCROD Write Registers'!D426</f>
-        <v>0</v>
-      </c>
-      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="E426" t="str">
         <f>'SCROD Write Registers'!E426</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F426" t="str">
         <f>'SCROD Write Registers'!F426</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G426" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G426" s="8" t="str">
         <f>'SCROD Write Registers'!G426</f>
-        <v>0</v>
-      </c>
-      <c r="H426" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H426" s="8" t="str">
         <f>'SCROD Write Registers'!H426</f>
-        <v>0</v>
+        <v>23 bit unsigned counter</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -27985,27 +28294,27 @@
       </c>
       <c r="C427">
         <f>'SCROD Write Registers'!C427</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D427">
         <f>'SCROD Write Registers'!D427</f>
         <v>0</v>
       </c>
-      <c r="E427">
+      <c r="E427" t="str">
         <f>'SCROD Write Registers'!E427</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F427" t="str">
         <f>'SCROD Write Registers'!F427</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G427" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G427" s="8" t="str">
         <f>'SCROD Write Registers'!G427</f>
-        <v>0</v>
-      </c>
-      <c r="H427" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H427" s="8" t="str">
         <f>'SCROD Write Registers'!H427</f>
-        <v>0</v>
+        <v>24 bit unsigned counter</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -28018,27 +28327,27 @@
       </c>
       <c r="C428">
         <f>'SCROD Write Registers'!C428</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D428">
         <f>'SCROD Write Registers'!D428</f>
-        <v>0</v>
-      </c>
-      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="E428" t="str">
         <f>'SCROD Write Registers'!E428</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F428" t="str">
         <f>'SCROD Write Registers'!F428</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G428" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G428" s="8" t="str">
         <f>'SCROD Write Registers'!G428</f>
-        <v>0</v>
-      </c>
-      <c r="H428" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H428" s="8" t="str">
         <f>'SCROD Write Registers'!H428</f>
-        <v>0</v>
+        <v>25 bit unsigned counter</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -28051,27 +28360,27 @@
       </c>
       <c r="C429">
         <f>'SCROD Write Registers'!C429</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D429">
         <f>'SCROD Write Registers'!D429</f>
-        <v>0</v>
-      </c>
-      <c r="E429">
+        <v>2</v>
+      </c>
+      <c r="E429" t="str">
         <f>'SCROD Write Registers'!E429</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F429" t="str">
         <f>'SCROD Write Registers'!F429</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G429" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G429" s="8" t="str">
         <f>'SCROD Write Registers'!G429</f>
-        <v>0</v>
-      </c>
-      <c r="H429" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H429" s="8" t="str">
         <f>'SCROD Write Registers'!H429</f>
-        <v>0</v>
+        <v>26 bit unsigned counter</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -28084,27 +28393,27 @@
       </c>
       <c r="C430">
         <f>'SCROD Write Registers'!C430</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D430">
         <f>'SCROD Write Registers'!D430</f>
-        <v>0</v>
-      </c>
-      <c r="E430">
+        <v>3</v>
+      </c>
+      <c r="E430" t="str">
         <f>'SCROD Write Registers'!E430</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F430" t="str">
         <f>'SCROD Write Registers'!F430</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G430" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G430" s="8" t="str">
         <f>'SCROD Write Registers'!G430</f>
-        <v>0</v>
-      </c>
-      <c r="H430" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H430" s="8" t="str">
         <f>'SCROD Write Registers'!H430</f>
-        <v>0</v>
+        <v>27 bit unsigned counter</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -28117,27 +28426,27 @@
       </c>
       <c r="C431">
         <f>'SCROD Write Registers'!C431</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D431">
         <f>'SCROD Write Registers'!D431</f>
         <v>0</v>
       </c>
-      <c r="E431">
+      <c r="E431" t="str">
         <f>'SCROD Write Registers'!E431</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F431" t="str">
         <f>'SCROD Write Registers'!F431</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G431" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G431" s="8" t="str">
         <f>'SCROD Write Registers'!G431</f>
-        <v>0</v>
-      </c>
-      <c r="H431" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H431" s="8" t="str">
         <f>'SCROD Write Registers'!H431</f>
-        <v>0</v>
+        <v>28 bit unsigned counter</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -28150,27 +28459,27 @@
       </c>
       <c r="C432">
         <f>'SCROD Write Registers'!C432</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D432">
         <f>'SCROD Write Registers'!D432</f>
-        <v>0</v>
-      </c>
-      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="E432" t="str">
         <f>'SCROD Write Registers'!E432</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F432" t="str">
         <f>'SCROD Write Registers'!F432</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G432" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G432" s="8" t="str">
         <f>'SCROD Write Registers'!G432</f>
-        <v>0</v>
-      </c>
-      <c r="H432" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H432" s="8" t="str">
         <f>'SCROD Write Registers'!H432</f>
-        <v>0</v>
+        <v>29 bit unsigned counter</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -28183,27 +28492,27 @@
       </c>
       <c r="C433">
         <f>'SCROD Write Registers'!C433</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D433">
         <f>'SCROD Write Registers'!D433</f>
-        <v>0</v>
-      </c>
-      <c r="E433">
+        <v>2</v>
+      </c>
+      <c r="E433" t="str">
         <f>'SCROD Write Registers'!E433</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F433" t="str">
         <f>'SCROD Write Registers'!F433</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G433" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G433" s="8" t="str">
         <f>'SCROD Write Registers'!G433</f>
-        <v>0</v>
-      </c>
-      <c r="H433" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H433" s="8" t="str">
         <f>'SCROD Write Registers'!H433</f>
-        <v>0</v>
+        <v>30 bit unsigned counter</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -28216,27 +28525,27 @@
       </c>
       <c r="C434">
         <f>'SCROD Write Registers'!C434</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D434">
         <f>'SCROD Write Registers'!D434</f>
-        <v>0</v>
-      </c>
-      <c r="E434">
+        <v>3</v>
+      </c>
+      <c r="E434" t="str">
         <f>'SCROD Write Registers'!E434</f>
-        <v>0</v>
+        <v>G</v>
       </c>
       <c r="F434" t="str">
         <f>'SCROD Write Registers'!F434</f>
-        <v>Reserved (but not yet used)</v>
-      </c>
-      <c r="G434" s="8">
+        <v>TRIG_WIDTH_TARGET</v>
+      </c>
+      <c r="G434" s="8" t="str">
         <f>'SCROD Write Registers'!G434</f>
-        <v>0</v>
-      </c>
-      <c r="H434" s="8">
+        <v>Target count rate value for trigger-width counter feedback loop</v>
+      </c>
+      <c r="H434" s="8" t="str">
         <f>'SCROD Write Registers'!H434</f>
-        <v>0</v>
+        <v>31 bit unsigned counter</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -33500,7 +33809,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="6" t="str">
-        <f t="shared" ref="B613" si="13">DEC2HEX(A613,4)</f>
+        <f t="shared" ref="B613:B649" si="13">DEC2HEX(A613,4)</f>
         <v>0263</v>
       </c>
       <c r="C613" s="5" t="s">
@@ -33513,59 +33822,851 @@
         <v>10</v>
       </c>
       <c r="F613" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G613" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="G613" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="H613" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B614" s="3"/>
-    </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B615" s="3"/>
-    </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B616" s="3"/>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B617" s="3"/>
-    </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B618" s="3"/>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B619" s="3"/>
-    </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B620" s="3"/>
-    </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B621" s="3"/>
-    </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B622" s="3"/>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B623" s="3"/>
-    </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B624" s="3"/>
-    </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B625" s="3"/>
-    </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B626" s="3"/>
-    </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B627" s="3"/>
-    </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B628" s="3"/>
+    <row r="614" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="5">
+        <v>612</v>
+      </c>
+      <c r="B614" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0264</v>
+      </c>
+      <c r="C614" s="5">
+        <v>0</v>
+      </c>
+      <c r="D614" s="5">
+        <v>0</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H614" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="5">
+        <v>613</v>
+      </c>
+      <c r="B615" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0265</v>
+      </c>
+      <c r="C615" s="5">
+        <v>0</v>
+      </c>
+      <c r="D615" s="5">
+        <v>1</v>
+      </c>
+      <c r="E615" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F615" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G615" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H615" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="5">
+        <v>614</v>
+      </c>
+      <c r="B616" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0266</v>
+      </c>
+      <c r="C616" s="5">
+        <v>0</v>
+      </c>
+      <c r="D616" s="5">
+        <v>2</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F616" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G616" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H616" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="5">
+        <v>615</v>
+      </c>
+      <c r="B617" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0267</v>
+      </c>
+      <c r="C617" s="5">
+        <v>0</v>
+      </c>
+      <c r="D617" s="5">
+        <v>3</v>
+      </c>
+      <c r="E617" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F617" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H617" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="5">
+        <v>616</v>
+      </c>
+      <c r="B618" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0268</v>
+      </c>
+      <c r="C618" s="5">
+        <v>1</v>
+      </c>
+      <c r="D618" s="5">
+        <v>0</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H618" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="5">
+        <v>617</v>
+      </c>
+      <c r="B619" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0269</v>
+      </c>
+      <c r="C619" s="5">
+        <v>1</v>
+      </c>
+      <c r="D619" s="5">
+        <v>1</v>
+      </c>
+      <c r="E619" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F619" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H619" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="5">
+        <v>618</v>
+      </c>
+      <c r="B620" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>026A</v>
+      </c>
+      <c r="C620" s="5">
+        <v>1</v>
+      </c>
+      <c r="D620" s="5">
+        <v>2</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H620" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="5">
+        <v>619</v>
+      </c>
+      <c r="B621" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>026B</v>
+      </c>
+      <c r="C621" s="5">
+        <v>1</v>
+      </c>
+      <c r="D621" s="5">
+        <v>3</v>
+      </c>
+      <c r="E621" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F621" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H621" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="5">
+        <v>620</v>
+      </c>
+      <c r="B622" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>026C</v>
+      </c>
+      <c r="C622" s="5">
+        <v>2</v>
+      </c>
+      <c r="D622" s="5">
+        <v>0</v>
+      </c>
+      <c r="E622" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H622" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="5">
+        <v>621</v>
+      </c>
+      <c r="B623" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>026D</v>
+      </c>
+      <c r="C623" s="5">
+        <v>2</v>
+      </c>
+      <c r="D623" s="5">
+        <v>1</v>
+      </c>
+      <c r="E623" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F623" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H623" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="5">
+        <v>622</v>
+      </c>
+      <c r="B624" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>026E</v>
+      </c>
+      <c r="C624" s="5">
+        <v>2</v>
+      </c>
+      <c r="D624" s="5">
+        <v>2</v>
+      </c>
+      <c r="E624" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H624" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="5">
+        <v>623</v>
+      </c>
+      <c r="B625" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>026F</v>
+      </c>
+      <c r="C625" s="5">
+        <v>2</v>
+      </c>
+      <c r="D625" s="5">
+        <v>3</v>
+      </c>
+      <c r="E625" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F625" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H625" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="5">
+        <v>624</v>
+      </c>
+      <c r="B626" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0270</v>
+      </c>
+      <c r="C626" s="5">
+        <v>3</v>
+      </c>
+      <c r="D626" s="5">
+        <v>0</v>
+      </c>
+      <c r="E626" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F626" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H626" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="5">
+        <v>625</v>
+      </c>
+      <c r="B627" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0271</v>
+      </c>
+      <c r="C627" s="5">
+        <v>3</v>
+      </c>
+      <c r="D627" s="5">
+        <v>1</v>
+      </c>
+      <c r="E627" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F627" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H627" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="5">
+        <v>626</v>
+      </c>
+      <c r="B628" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0272</v>
+      </c>
+      <c r="C628" s="5">
+        <v>3</v>
+      </c>
+      <c r="D628" s="5">
+        <v>2</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F628" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H628" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="5">
+        <v>627</v>
+      </c>
+      <c r="B629" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0273</v>
+      </c>
+      <c r="C629" s="5">
+        <v>3</v>
+      </c>
+      <c r="D629" s="5">
+        <v>3</v>
+      </c>
+      <c r="E629" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F629" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H629" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="5">
+        <v>628</v>
+      </c>
+      <c r="B630" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0274</v>
+      </c>
+      <c r="C630" s="5">
+        <v>0</v>
+      </c>
+      <c r="D630" s="5">
+        <v>0</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F630" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G630" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="H630" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="5">
+        <v>629</v>
+      </c>
+      <c r="B631" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0275</v>
+      </c>
+      <c r="C631" s="5">
+        <v>0</v>
+      </c>
+      <c r="D631" s="5">
+        <v>1</v>
+      </c>
+      <c r="E631" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F631" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G631" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H631" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="5">
+        <v>630</v>
+      </c>
+      <c r="B632" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0276</v>
+      </c>
+      <c r="C632" s="5">
+        <v>0</v>
+      </c>
+      <c r="D632" s="5">
+        <v>0</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G632" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H632" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="5">
+        <v>631</v>
+      </c>
+      <c r="B633" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0277</v>
+      </c>
+      <c r="C633" s="5">
+        <v>0</v>
+      </c>
+      <c r="D633" s="5">
+        <v>1</v>
+      </c>
+      <c r="E633" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F633" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G633" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H633" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="5">
+        <v>632</v>
+      </c>
+      <c r="B634" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0278</v>
+      </c>
+      <c r="C634" s="5">
+        <v>0</v>
+      </c>
+      <c r="D634" s="5">
+        <v>2</v>
+      </c>
+      <c r="E634" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F634" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G634" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H634" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="5">
+        <v>633</v>
+      </c>
+      <c r="B635" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0279</v>
+      </c>
+      <c r="C635" s="5">
+        <v>0</v>
+      </c>
+      <c r="D635" s="5">
+        <v>3</v>
+      </c>
+      <c r="E635" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F635" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G635" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H635" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="5">
+        <v>634</v>
+      </c>
+      <c r="B636" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>027A</v>
+      </c>
+      <c r="C636" s="5">
+        <v>1</v>
+      </c>
+      <c r="D636" s="5">
+        <v>0</v>
+      </c>
+      <c r="E636" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F636" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G636" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H636" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="5">
+        <v>635</v>
+      </c>
+      <c r="B637" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>027B</v>
+      </c>
+      <c r="C637" s="5">
+        <v>1</v>
+      </c>
+      <c r="D637" s="5">
+        <v>1</v>
+      </c>
+      <c r="E637" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G637" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H637" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="5">
+        <v>636</v>
+      </c>
+      <c r="B638" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>027C</v>
+      </c>
+      <c r="C638" s="5">
+        <v>1</v>
+      </c>
+      <c r="D638" s="5">
+        <v>2</v>
+      </c>
+      <c r="E638" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F638" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G638" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H638" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="5">
+        <v>637</v>
+      </c>
+      <c r="B639" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>027D</v>
+      </c>
+      <c r="C639" s="5">
+        <v>1</v>
+      </c>
+      <c r="D639" s="5">
+        <v>3</v>
+      </c>
+      <c r="E639" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F639" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G639" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H639" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="5">
+        <v>638</v>
+      </c>
+      <c r="B640" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>027E</v>
+      </c>
+      <c r="C640" s="5">
+        <v>2</v>
+      </c>
+      <c r="D640" s="5">
+        <v>0</v>
+      </c>
+      <c r="E640" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F640" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G640" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H640" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="5">
+        <v>639</v>
+      </c>
+      <c r="B641" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>027F</v>
+      </c>
+      <c r="C641" s="5">
+        <v>2</v>
+      </c>
+      <c r="D641" s="5">
+        <v>1</v>
+      </c>
+      <c r="E641" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F641" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G641" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H641" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="5">
+        <v>640</v>
+      </c>
+      <c r="B642" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0280</v>
+      </c>
+      <c r="C642" s="5">
+        <v>2</v>
+      </c>
+      <c r="D642" s="5">
+        <v>2</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F642" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G642" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H642" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="5">
+        <v>641</v>
+      </c>
+      <c r="B643" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0281</v>
+      </c>
+      <c r="C643" s="5">
+        <v>2</v>
+      </c>
+      <c r="D643" s="5">
+        <v>3</v>
+      </c>
+      <c r="E643" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F643" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G643" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H643" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="5">
+        <v>642</v>
+      </c>
+      <c r="B644" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0282</v>
+      </c>
+      <c r="C644" s="5">
+        <v>3</v>
+      </c>
+      <c r="D644" s="5">
+        <v>0</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F644" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G644" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H644" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="5">
+        <v>643</v>
+      </c>
+      <c r="B645" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0283</v>
+      </c>
+      <c r="C645" s="5">
+        <v>3</v>
+      </c>
+      <c r="D645" s="5">
+        <v>1</v>
+      </c>
+      <c r="E645" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F645" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G645" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H645" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B646" s="16"/>
+    </row>
+    <row r="647" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B647" s="16"/>
+    </row>
+    <row r="648" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B648" s="16"/>
+    </row>
+    <row r="649" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B649" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33597,7 +34698,7 @@
       </c>
       <c r="E1" s="26">
         <f ca="1">+TODAY()</f>
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="P1">
         <v>2500</v>

--- a/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
+++ b/SCROD-boardstack/iTOP/IRS3B_CRT/contrib/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="11280" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SCROD Write Registers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="453">
   <si>
     <t>Register Number</t>
   </si>
@@ -1375,6 +1375,12 @@
   </si>
   <si>
     <t>Bits 1:0 row select for MONTIMING/RCOSSX, bits 3:2 col select for MONTIMING/RCOSSX, bit 4: choose between MONTIMING and RCOSSX, bit 7  internal_MON2_OR_CAL_SELECT               &lt;= internal_OUTPUT_REGISTERS(380)(7);            -- bit      7 choose between MON_HEADER2 signal ('0') or CAL_PULSE ('1'); bits 9:8 row select for MONTIMING2, bits 11:10 col select for MONTIMING2, bit 12: when '0' put MONTIMING for second ASIC on MON2, when '1' put WR_ADDR on MON2; bits15:13 choose which WR_ADDR bit to put on MON2</t>
+  </si>
+  <si>
+    <t>Seconds FTSW locked</t>
+  </si>
+  <si>
+    <t>Number of seconds the FTSW stable signal has been high</t>
   </si>
 </sst>
 </file>
@@ -1600,41 +1606,8 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1645,13 +1618,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -1957,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H383" sqref="H383"/>
     </sheetView>
   </sheetViews>
@@ -14176,9 +14182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H649"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A517" sqref="A517"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A617" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F631" sqref="F631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33764,7 +33770,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="6" t="str">
-        <f t="shared" ref="B613:B649" si="13">DEC2HEX(A613,4)</f>
+        <f t="shared" ref="B613:B646" si="13">DEC2HEX(A613,4)</f>
         <v>0263</v>
       </c>
       <c r="C613" s="5" t="s">
@@ -34611,8 +34617,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="646" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B646" s="16"/>
+    <row r="646" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="5">
+        <v>644</v>
+      </c>
+      <c r="B646" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0284</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D646" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E646" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F646" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G646" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="H646" s="5" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="647" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B647" s="16"/>
@@ -34653,7 +34683,7 @@
       </c>
       <c r="E1" s="26">
         <f ca="1">+TODAY()</f>
-        <v>41367</v>
+        <v>41371</v>
       </c>
       <c r="P1">
         <v>2500</v>
@@ -34731,7 +34761,7 @@
       <c r="D6" s="24">
         <v>12</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="45" t="s">
         <v>343</v>
       </c>
       <c r="F6" s="24"/>
@@ -34767,7 +34797,7 @@
       <c r="D7" s="24">
         <v>12</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -34801,7 +34831,7 @@
       <c r="D8" s="24">
         <v>12</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -34835,7 +34865,7 @@
       <c r="D9" s="24">
         <v>12</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -34869,7 +34899,7 @@
       <c r="D10" s="24">
         <v>12</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -34903,7 +34933,7 @@
       <c r="D11" s="24">
         <v>12</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
@@ -34937,7 +34967,7 @@
       <c r="D12" s="24">
         <v>12</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
@@ -34971,7 +35001,7 @@
       <c r="D13" s="23">
         <v>12</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -35408,10 +35438,10 @@
       <c r="D27">
         <v>8</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="44"/>
       <c r="M27" s="14" t="s">
         <v>300</v>
       </c>
@@ -35437,8 +35467,8 @@
       <c r="D28">
         <v>8</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
       <c r="M28" s="14" t="s">
         <v>298</v>
       </c>
@@ -35464,10 +35494,10 @@
       <c r="D29">
         <v>8</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="44"/>
       <c r="M29" s="14" t="s">
         <v>295</v>
       </c>
@@ -35493,8 +35523,8 @@
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
       <c r="M30" s="14" t="s">
         <v>293</v>
       </c>
@@ -35520,10 +35550,10 @@
       <c r="D31">
         <v>8</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="44"/>
       <c r="M31" s="14" t="s">
         <v>290</v>
       </c>
@@ -35549,8 +35579,8 @@
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
       <c r="M32" s="14" t="s">
         <v>286</v>
       </c>
@@ -35576,10 +35606,10 @@
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="44"/>
       <c r="M33" s="14" t="s">
         <v>286</v>
       </c>
@@ -35605,8 +35635,8 @@
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
       <c r="M34" s="14" t="s">
         <v>284</v>
       </c>
@@ -35632,11 +35662,11 @@
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="17" t="s">
         <v>281</v>
       </c>
@@ -35665,9 +35695,9 @@
       <c r="D36">
         <v>8</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
       <c r="M36" s="14" t="s">
         <v>278</v>
       </c>
@@ -36037,7 +36067,7 @@
       <c r="M49" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="N49" s="54" t="s">
+      <c r="N49" s="42" t="s">
         <v>434</v>
       </c>
       <c r="O49">
@@ -36096,7 +36126,7 @@
       <c r="M51" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="N51" s="55" t="s">
+      <c r="N51" s="43" t="s">
         <v>435</v>
       </c>
       <c r="O51">
@@ -36335,843 +36365,843 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="46"/>
-    <col min="2" max="2" width="19.85546875" style="46" customWidth="1"/>
-    <col min="3" max="5" width="29.5703125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="46" customWidth="1"/>
-    <col min="10" max="257" width="8.7109375" style="46"/>
-    <col min="258" max="258" width="19.85546875" style="46" customWidth="1"/>
-    <col min="259" max="261" width="29.5703125" style="46" customWidth="1"/>
-    <col min="262" max="262" width="22.28515625" style="46" customWidth="1"/>
-    <col min="263" max="263" width="27.5703125" style="46" customWidth="1"/>
-    <col min="264" max="264" width="26.7109375" style="46" customWidth="1"/>
-    <col min="265" max="265" width="20.140625" style="46" customWidth="1"/>
-    <col min="266" max="513" width="8.7109375" style="46"/>
-    <col min="514" max="514" width="19.85546875" style="46" customWidth="1"/>
-    <col min="515" max="517" width="29.5703125" style="46" customWidth="1"/>
-    <col min="518" max="518" width="22.28515625" style="46" customWidth="1"/>
-    <col min="519" max="519" width="27.5703125" style="46" customWidth="1"/>
-    <col min="520" max="520" width="26.7109375" style="46" customWidth="1"/>
-    <col min="521" max="521" width="20.140625" style="46" customWidth="1"/>
-    <col min="522" max="769" width="8.7109375" style="46"/>
-    <col min="770" max="770" width="19.85546875" style="46" customWidth="1"/>
-    <col min="771" max="773" width="29.5703125" style="46" customWidth="1"/>
-    <col min="774" max="774" width="22.28515625" style="46" customWidth="1"/>
-    <col min="775" max="775" width="27.5703125" style="46" customWidth="1"/>
-    <col min="776" max="776" width="26.7109375" style="46" customWidth="1"/>
-    <col min="777" max="777" width="20.140625" style="46" customWidth="1"/>
-    <col min="778" max="1025" width="8.7109375" style="46"/>
-    <col min="1026" max="1026" width="19.85546875" style="46" customWidth="1"/>
-    <col min="1027" max="1029" width="29.5703125" style="46" customWidth="1"/>
-    <col min="1030" max="1030" width="22.28515625" style="46" customWidth="1"/>
-    <col min="1031" max="1031" width="27.5703125" style="46" customWidth="1"/>
-    <col min="1032" max="1032" width="26.7109375" style="46" customWidth="1"/>
-    <col min="1033" max="1033" width="20.140625" style="46" customWidth="1"/>
-    <col min="1034" max="1281" width="8.7109375" style="46"/>
-    <col min="1282" max="1282" width="19.85546875" style="46" customWidth="1"/>
-    <col min="1283" max="1285" width="29.5703125" style="46" customWidth="1"/>
-    <col min="1286" max="1286" width="22.28515625" style="46" customWidth="1"/>
-    <col min="1287" max="1287" width="27.5703125" style="46" customWidth="1"/>
-    <col min="1288" max="1288" width="26.7109375" style="46" customWidth="1"/>
-    <col min="1289" max="1289" width="20.140625" style="46" customWidth="1"/>
-    <col min="1290" max="1537" width="8.7109375" style="46"/>
-    <col min="1538" max="1538" width="19.85546875" style="46" customWidth="1"/>
-    <col min="1539" max="1541" width="29.5703125" style="46" customWidth="1"/>
-    <col min="1542" max="1542" width="22.28515625" style="46" customWidth="1"/>
-    <col min="1543" max="1543" width="27.5703125" style="46" customWidth="1"/>
-    <col min="1544" max="1544" width="26.7109375" style="46" customWidth="1"/>
-    <col min="1545" max="1545" width="20.140625" style="46" customWidth="1"/>
-    <col min="1546" max="1793" width="8.7109375" style="46"/>
-    <col min="1794" max="1794" width="19.85546875" style="46" customWidth="1"/>
-    <col min="1795" max="1797" width="29.5703125" style="46" customWidth="1"/>
-    <col min="1798" max="1798" width="22.28515625" style="46" customWidth="1"/>
-    <col min="1799" max="1799" width="27.5703125" style="46" customWidth="1"/>
-    <col min="1800" max="1800" width="26.7109375" style="46" customWidth="1"/>
-    <col min="1801" max="1801" width="20.140625" style="46" customWidth="1"/>
-    <col min="1802" max="2049" width="8.7109375" style="46"/>
-    <col min="2050" max="2050" width="19.85546875" style="46" customWidth="1"/>
-    <col min="2051" max="2053" width="29.5703125" style="46" customWidth="1"/>
-    <col min="2054" max="2054" width="22.28515625" style="46" customWidth="1"/>
-    <col min="2055" max="2055" width="27.5703125" style="46" customWidth="1"/>
-    <col min="2056" max="2056" width="26.7109375" style="46" customWidth="1"/>
-    <col min="2057" max="2057" width="20.140625" style="46" customWidth="1"/>
-    <col min="2058" max="2305" width="8.7109375" style="46"/>
-    <col min="2306" max="2306" width="19.85546875" style="46" customWidth="1"/>
-    <col min="2307" max="2309" width="29.5703125" style="46" customWidth="1"/>
-    <col min="2310" max="2310" width="22.28515625" style="46" customWidth="1"/>
-    <col min="2311" max="2311" width="27.5703125" style="46" customWidth="1"/>
-    <col min="2312" max="2312" width="26.7109375" style="46" customWidth="1"/>
-    <col min="2313" max="2313" width="20.140625" style="46" customWidth="1"/>
-    <col min="2314" max="2561" width="8.7109375" style="46"/>
-    <col min="2562" max="2562" width="19.85546875" style="46" customWidth="1"/>
-    <col min="2563" max="2565" width="29.5703125" style="46" customWidth="1"/>
-    <col min="2566" max="2566" width="22.28515625" style="46" customWidth="1"/>
-    <col min="2567" max="2567" width="27.5703125" style="46" customWidth="1"/>
-    <col min="2568" max="2568" width="26.7109375" style="46" customWidth="1"/>
-    <col min="2569" max="2569" width="20.140625" style="46" customWidth="1"/>
-    <col min="2570" max="2817" width="8.7109375" style="46"/>
-    <col min="2818" max="2818" width="19.85546875" style="46" customWidth="1"/>
-    <col min="2819" max="2821" width="29.5703125" style="46" customWidth="1"/>
-    <col min="2822" max="2822" width="22.28515625" style="46" customWidth="1"/>
-    <col min="2823" max="2823" width="27.5703125" style="46" customWidth="1"/>
-    <col min="2824" max="2824" width="26.7109375" style="46" customWidth="1"/>
-    <col min="2825" max="2825" width="20.140625" style="46" customWidth="1"/>
-    <col min="2826" max="3073" width="8.7109375" style="46"/>
-    <col min="3074" max="3074" width="19.85546875" style="46" customWidth="1"/>
-    <col min="3075" max="3077" width="29.5703125" style="46" customWidth="1"/>
-    <col min="3078" max="3078" width="22.28515625" style="46" customWidth="1"/>
-    <col min="3079" max="3079" width="27.5703125" style="46" customWidth="1"/>
-    <col min="3080" max="3080" width="26.7109375" style="46" customWidth="1"/>
-    <col min="3081" max="3081" width="20.140625" style="46" customWidth="1"/>
-    <col min="3082" max="3329" width="8.7109375" style="46"/>
-    <col min="3330" max="3330" width="19.85546875" style="46" customWidth="1"/>
-    <col min="3331" max="3333" width="29.5703125" style="46" customWidth="1"/>
-    <col min="3334" max="3334" width="22.28515625" style="46" customWidth="1"/>
-    <col min="3335" max="3335" width="27.5703125" style="46" customWidth="1"/>
-    <col min="3336" max="3336" width="26.7109375" style="46" customWidth="1"/>
-    <col min="3337" max="3337" width="20.140625" style="46" customWidth="1"/>
-    <col min="3338" max="3585" width="8.7109375" style="46"/>
-    <col min="3586" max="3586" width="19.85546875" style="46" customWidth="1"/>
-    <col min="3587" max="3589" width="29.5703125" style="46" customWidth="1"/>
-    <col min="3590" max="3590" width="22.28515625" style="46" customWidth="1"/>
-    <col min="3591" max="3591" width="27.5703125" style="46" customWidth="1"/>
-    <col min="3592" max="3592" width="26.7109375" style="46" customWidth="1"/>
-    <col min="3593" max="3593" width="20.140625" style="46" customWidth="1"/>
-    <col min="3594" max="3841" width="8.7109375" style="46"/>
-    <col min="3842" max="3842" width="19.85546875" style="46" customWidth="1"/>
-    <col min="3843" max="3845" width="29.5703125" style="46" customWidth="1"/>
-    <col min="3846" max="3846" width="22.28515625" style="46" customWidth="1"/>
-    <col min="3847" max="3847" width="27.5703125" style="46" customWidth="1"/>
-    <col min="3848" max="3848" width="26.7109375" style="46" customWidth="1"/>
-    <col min="3849" max="3849" width="20.140625" style="46" customWidth="1"/>
-    <col min="3850" max="4097" width="8.7109375" style="46"/>
-    <col min="4098" max="4098" width="19.85546875" style="46" customWidth="1"/>
-    <col min="4099" max="4101" width="29.5703125" style="46" customWidth="1"/>
-    <col min="4102" max="4102" width="22.28515625" style="46" customWidth="1"/>
-    <col min="4103" max="4103" width="27.5703125" style="46" customWidth="1"/>
-    <col min="4104" max="4104" width="26.7109375" style="46" customWidth="1"/>
-    <col min="4105" max="4105" width="20.140625" style="46" customWidth="1"/>
-    <col min="4106" max="4353" width="8.7109375" style="46"/>
-    <col min="4354" max="4354" width="19.85546875" style="46" customWidth="1"/>
-    <col min="4355" max="4357" width="29.5703125" style="46" customWidth="1"/>
-    <col min="4358" max="4358" width="22.28515625" style="46" customWidth="1"/>
-    <col min="4359" max="4359" width="27.5703125" style="46" customWidth="1"/>
-    <col min="4360" max="4360" width="26.7109375" style="46" customWidth="1"/>
-    <col min="4361" max="4361" width="20.140625" style="46" customWidth="1"/>
-    <col min="4362" max="4609" width="8.7109375" style="46"/>
-    <col min="4610" max="4610" width="19.85546875" style="46" customWidth="1"/>
-    <col min="4611" max="4613" width="29.5703125" style="46" customWidth="1"/>
-    <col min="4614" max="4614" width="22.28515625" style="46" customWidth="1"/>
-    <col min="4615" max="4615" width="27.5703125" style="46" customWidth="1"/>
-    <col min="4616" max="4616" width="26.7109375" style="46" customWidth="1"/>
-    <col min="4617" max="4617" width="20.140625" style="46" customWidth="1"/>
-    <col min="4618" max="4865" width="8.7109375" style="46"/>
-    <col min="4866" max="4866" width="19.85546875" style="46" customWidth="1"/>
-    <col min="4867" max="4869" width="29.5703125" style="46" customWidth="1"/>
-    <col min="4870" max="4870" width="22.28515625" style="46" customWidth="1"/>
-    <col min="4871" max="4871" width="27.5703125" style="46" customWidth="1"/>
-    <col min="4872" max="4872" width="26.7109375" style="46" customWidth="1"/>
-    <col min="4873" max="4873" width="20.140625" style="46" customWidth="1"/>
-    <col min="4874" max="5121" width="8.7109375" style="46"/>
-    <col min="5122" max="5122" width="19.85546875" style="46" customWidth="1"/>
-    <col min="5123" max="5125" width="29.5703125" style="46" customWidth="1"/>
-    <col min="5126" max="5126" width="22.28515625" style="46" customWidth="1"/>
-    <col min="5127" max="5127" width="27.5703125" style="46" customWidth="1"/>
-    <col min="5128" max="5128" width="26.7109375" style="46" customWidth="1"/>
-    <col min="5129" max="5129" width="20.140625" style="46" customWidth="1"/>
-    <col min="5130" max="5377" width="8.7109375" style="46"/>
-    <col min="5378" max="5378" width="19.85546875" style="46" customWidth="1"/>
-    <col min="5379" max="5381" width="29.5703125" style="46" customWidth="1"/>
-    <col min="5382" max="5382" width="22.28515625" style="46" customWidth="1"/>
-    <col min="5383" max="5383" width="27.5703125" style="46" customWidth="1"/>
-    <col min="5384" max="5384" width="26.7109375" style="46" customWidth="1"/>
-    <col min="5385" max="5385" width="20.140625" style="46" customWidth="1"/>
-    <col min="5386" max="5633" width="8.7109375" style="46"/>
-    <col min="5634" max="5634" width="19.85546875" style="46" customWidth="1"/>
-    <col min="5635" max="5637" width="29.5703125" style="46" customWidth="1"/>
-    <col min="5638" max="5638" width="22.28515625" style="46" customWidth="1"/>
-    <col min="5639" max="5639" width="27.5703125" style="46" customWidth="1"/>
-    <col min="5640" max="5640" width="26.7109375" style="46" customWidth="1"/>
-    <col min="5641" max="5641" width="20.140625" style="46" customWidth="1"/>
-    <col min="5642" max="5889" width="8.7109375" style="46"/>
-    <col min="5890" max="5890" width="19.85546875" style="46" customWidth="1"/>
-    <col min="5891" max="5893" width="29.5703125" style="46" customWidth="1"/>
-    <col min="5894" max="5894" width="22.28515625" style="46" customWidth="1"/>
-    <col min="5895" max="5895" width="27.5703125" style="46" customWidth="1"/>
-    <col min="5896" max="5896" width="26.7109375" style="46" customWidth="1"/>
-    <col min="5897" max="5897" width="20.140625" style="46" customWidth="1"/>
-    <col min="5898" max="6145" width="8.7109375" style="46"/>
-    <col min="6146" max="6146" width="19.85546875" style="46" customWidth="1"/>
-    <col min="6147" max="6149" width="29.5703125" style="46" customWidth="1"/>
-    <col min="6150" max="6150" width="22.28515625" style="46" customWidth="1"/>
-    <col min="6151" max="6151" width="27.5703125" style="46" customWidth="1"/>
-    <col min="6152" max="6152" width="26.7109375" style="46" customWidth="1"/>
-    <col min="6153" max="6153" width="20.140625" style="46" customWidth="1"/>
-    <col min="6154" max="6401" width="8.7109375" style="46"/>
-    <col min="6402" max="6402" width="19.85546875" style="46" customWidth="1"/>
-    <col min="6403" max="6405" width="29.5703125" style="46" customWidth="1"/>
-    <col min="6406" max="6406" width="22.28515625" style="46" customWidth="1"/>
-    <col min="6407" max="6407" width="27.5703125" style="46" customWidth="1"/>
-    <col min="6408" max="6408" width="26.7109375" style="46" customWidth="1"/>
-    <col min="6409" max="6409" width="20.140625" style="46" customWidth="1"/>
-    <col min="6410" max="6657" width="8.7109375" style="46"/>
-    <col min="6658" max="6658" width="19.85546875" style="46" customWidth="1"/>
-    <col min="6659" max="6661" width="29.5703125" style="46" customWidth="1"/>
-    <col min="6662" max="6662" width="22.28515625" style="46" customWidth="1"/>
-    <col min="6663" max="6663" width="27.5703125" style="46" customWidth="1"/>
-    <col min="6664" max="6664" width="26.7109375" style="46" customWidth="1"/>
-    <col min="6665" max="6665" width="20.140625" style="46" customWidth="1"/>
-    <col min="6666" max="6913" width="8.7109375" style="46"/>
-    <col min="6914" max="6914" width="19.85546875" style="46" customWidth="1"/>
-    <col min="6915" max="6917" width="29.5703125" style="46" customWidth="1"/>
-    <col min="6918" max="6918" width="22.28515625" style="46" customWidth="1"/>
-    <col min="6919" max="6919" width="27.5703125" style="46" customWidth="1"/>
-    <col min="6920" max="6920" width="26.7109375" style="46" customWidth="1"/>
-    <col min="6921" max="6921" width="20.140625" style="46" customWidth="1"/>
-    <col min="6922" max="7169" width="8.7109375" style="46"/>
-    <col min="7170" max="7170" width="19.85546875" style="46" customWidth="1"/>
-    <col min="7171" max="7173" width="29.5703125" style="46" customWidth="1"/>
-    <col min="7174" max="7174" width="22.28515625" style="46" customWidth="1"/>
-    <col min="7175" max="7175" width="27.5703125" style="46" customWidth="1"/>
-    <col min="7176" max="7176" width="26.7109375" style="46" customWidth="1"/>
-    <col min="7177" max="7177" width="20.140625" style="46" customWidth="1"/>
-    <col min="7178" max="7425" width="8.7109375" style="46"/>
-    <col min="7426" max="7426" width="19.85546875" style="46" customWidth="1"/>
-    <col min="7427" max="7429" width="29.5703125" style="46" customWidth="1"/>
-    <col min="7430" max="7430" width="22.28515625" style="46" customWidth="1"/>
-    <col min="7431" max="7431" width="27.5703125" style="46" customWidth="1"/>
-    <col min="7432" max="7432" width="26.7109375" style="46" customWidth="1"/>
-    <col min="7433" max="7433" width="20.140625" style="46" customWidth="1"/>
-    <col min="7434" max="7681" width="8.7109375" style="46"/>
-    <col min="7682" max="7682" width="19.85546875" style="46" customWidth="1"/>
-    <col min="7683" max="7685" width="29.5703125" style="46" customWidth="1"/>
-    <col min="7686" max="7686" width="22.28515625" style="46" customWidth="1"/>
-    <col min="7687" max="7687" width="27.5703125" style="46" customWidth="1"/>
-    <col min="7688" max="7688" width="26.7109375" style="46" customWidth="1"/>
-    <col min="7689" max="7689" width="20.140625" style="46" customWidth="1"/>
-    <col min="7690" max="7937" width="8.7109375" style="46"/>
-    <col min="7938" max="7938" width="19.85546875" style="46" customWidth="1"/>
-    <col min="7939" max="7941" width="29.5703125" style="46" customWidth="1"/>
-    <col min="7942" max="7942" width="22.28515625" style="46" customWidth="1"/>
-    <col min="7943" max="7943" width="27.5703125" style="46" customWidth="1"/>
-    <col min="7944" max="7944" width="26.7109375" style="46" customWidth="1"/>
-    <col min="7945" max="7945" width="20.140625" style="46" customWidth="1"/>
-    <col min="7946" max="8193" width="8.7109375" style="46"/>
-    <col min="8194" max="8194" width="19.85546875" style="46" customWidth="1"/>
-    <col min="8195" max="8197" width="29.5703125" style="46" customWidth="1"/>
-    <col min="8198" max="8198" width="22.28515625" style="46" customWidth="1"/>
-    <col min="8199" max="8199" width="27.5703125" style="46" customWidth="1"/>
-    <col min="8200" max="8200" width="26.7109375" style="46" customWidth="1"/>
-    <col min="8201" max="8201" width="20.140625" style="46" customWidth="1"/>
-    <col min="8202" max="8449" width="8.7109375" style="46"/>
-    <col min="8450" max="8450" width="19.85546875" style="46" customWidth="1"/>
-    <col min="8451" max="8453" width="29.5703125" style="46" customWidth="1"/>
-    <col min="8454" max="8454" width="22.28515625" style="46" customWidth="1"/>
-    <col min="8455" max="8455" width="27.5703125" style="46" customWidth="1"/>
-    <col min="8456" max="8456" width="26.7109375" style="46" customWidth="1"/>
-    <col min="8457" max="8457" width="20.140625" style="46" customWidth="1"/>
-    <col min="8458" max="8705" width="8.7109375" style="46"/>
-    <col min="8706" max="8706" width="19.85546875" style="46" customWidth="1"/>
-    <col min="8707" max="8709" width="29.5703125" style="46" customWidth="1"/>
-    <col min="8710" max="8710" width="22.28515625" style="46" customWidth="1"/>
-    <col min="8711" max="8711" width="27.5703125" style="46" customWidth="1"/>
-    <col min="8712" max="8712" width="26.7109375" style="46" customWidth="1"/>
-    <col min="8713" max="8713" width="20.140625" style="46" customWidth="1"/>
-    <col min="8714" max="8961" width="8.7109375" style="46"/>
-    <col min="8962" max="8962" width="19.85546875" style="46" customWidth="1"/>
-    <col min="8963" max="8965" width="29.5703125" style="46" customWidth="1"/>
-    <col min="8966" max="8966" width="22.28515625" style="46" customWidth="1"/>
-    <col min="8967" max="8967" width="27.5703125" style="46" customWidth="1"/>
-    <col min="8968" max="8968" width="26.7109375" style="46" customWidth="1"/>
-    <col min="8969" max="8969" width="20.140625" style="46" customWidth="1"/>
-    <col min="8970" max="9217" width="8.7109375" style="46"/>
-    <col min="9218" max="9218" width="19.85546875" style="46" customWidth="1"/>
-    <col min="9219" max="9221" width="29.5703125" style="46" customWidth="1"/>
-    <col min="9222" max="9222" width="22.28515625" style="46" customWidth="1"/>
-    <col min="9223" max="9223" width="27.5703125" style="46" customWidth="1"/>
-    <col min="9224" max="9224" width="26.7109375" style="46" customWidth="1"/>
-    <col min="9225" max="9225" width="20.140625" style="46" customWidth="1"/>
-    <col min="9226" max="9473" width="8.7109375" style="46"/>
-    <col min="9474" max="9474" width="19.85546875" style="46" customWidth="1"/>
-    <col min="9475" max="9477" width="29.5703125" style="46" customWidth="1"/>
-    <col min="9478" max="9478" width="22.28515625" style="46" customWidth="1"/>
-    <col min="9479" max="9479" width="27.5703125" style="46" customWidth="1"/>
-    <col min="9480" max="9480" width="26.7109375" style="46" customWidth="1"/>
-    <col min="9481" max="9481" width="20.140625" style="46" customWidth="1"/>
-    <col min="9482" max="9729" width="8.7109375" style="46"/>
-    <col min="9730" max="9730" width="19.85546875" style="46" customWidth="1"/>
-    <col min="9731" max="9733" width="29.5703125" style="46" customWidth="1"/>
-    <col min="9734" max="9734" width="22.28515625" style="46" customWidth="1"/>
-    <col min="9735" max="9735" width="27.5703125" style="46" customWidth="1"/>
-    <col min="9736" max="9736" width="26.7109375" style="46" customWidth="1"/>
-    <col min="9737" max="9737" width="20.140625" style="46" customWidth="1"/>
-    <col min="9738" max="9985" width="8.7109375" style="46"/>
-    <col min="9986" max="9986" width="19.85546875" style="46" customWidth="1"/>
-    <col min="9987" max="9989" width="29.5703125" style="46" customWidth="1"/>
-    <col min="9990" max="9990" width="22.28515625" style="46" customWidth="1"/>
-    <col min="9991" max="9991" width="27.5703125" style="46" customWidth="1"/>
-    <col min="9992" max="9992" width="26.7109375" style="46" customWidth="1"/>
-    <col min="9993" max="9993" width="20.140625" style="46" customWidth="1"/>
-    <col min="9994" max="10241" width="8.7109375" style="46"/>
-    <col min="10242" max="10242" width="19.85546875" style="46" customWidth="1"/>
-    <col min="10243" max="10245" width="29.5703125" style="46" customWidth="1"/>
-    <col min="10246" max="10246" width="22.28515625" style="46" customWidth="1"/>
-    <col min="10247" max="10247" width="27.5703125" style="46" customWidth="1"/>
-    <col min="10248" max="10248" width="26.7109375" style="46" customWidth="1"/>
-    <col min="10249" max="10249" width="20.140625" style="46" customWidth="1"/>
-    <col min="10250" max="10497" width="8.7109375" style="46"/>
-    <col min="10498" max="10498" width="19.85546875" style="46" customWidth="1"/>
-    <col min="10499" max="10501" width="29.5703125" style="46" customWidth="1"/>
-    <col min="10502" max="10502" width="22.28515625" style="46" customWidth="1"/>
-    <col min="10503" max="10503" width="27.5703125" style="46" customWidth="1"/>
-    <col min="10504" max="10504" width="26.7109375" style="46" customWidth="1"/>
-    <col min="10505" max="10505" width="20.140625" style="46" customWidth="1"/>
-    <col min="10506" max="10753" width="8.7109375" style="46"/>
-    <col min="10754" max="10754" width="19.85546875" style="46" customWidth="1"/>
-    <col min="10755" max="10757" width="29.5703125" style="46" customWidth="1"/>
-    <col min="10758" max="10758" width="22.28515625" style="46" customWidth="1"/>
-    <col min="10759" max="10759" width="27.5703125" style="46" customWidth="1"/>
-    <col min="10760" max="10760" width="26.7109375" style="46" customWidth="1"/>
-    <col min="10761" max="10761" width="20.140625" style="46" customWidth="1"/>
-    <col min="10762" max="11009" width="8.7109375" style="46"/>
-    <col min="11010" max="11010" width="19.85546875" style="46" customWidth="1"/>
-    <col min="11011" max="11013" width="29.5703125" style="46" customWidth="1"/>
-    <col min="11014" max="11014" width="22.28515625" style="46" customWidth="1"/>
-    <col min="11015" max="11015" width="27.5703125" style="46" customWidth="1"/>
-    <col min="11016" max="11016" width="26.7109375" style="46" customWidth="1"/>
-    <col min="11017" max="11017" width="20.140625" style="46" customWidth="1"/>
-    <col min="11018" max="11265" width="8.7109375" style="46"/>
-    <col min="11266" max="11266" width="19.85546875" style="46" customWidth="1"/>
-    <col min="11267" max="11269" width="29.5703125" style="46" customWidth="1"/>
-    <col min="11270" max="11270" width="22.28515625" style="46" customWidth="1"/>
-    <col min="11271" max="11271" width="27.5703125" style="46" customWidth="1"/>
-    <col min="11272" max="11272" width="26.7109375" style="46" customWidth="1"/>
-    <col min="11273" max="11273" width="20.140625" style="46" customWidth="1"/>
-    <col min="11274" max="11521" width="8.7109375" style="46"/>
-    <col min="11522" max="11522" width="19.85546875" style="46" customWidth="1"/>
-    <col min="11523" max="11525" width="29.5703125" style="46" customWidth="1"/>
-    <col min="11526" max="11526" width="22.28515625" style="46" customWidth="1"/>
-    <col min="11527" max="11527" width="27.5703125" style="46" customWidth="1"/>
-    <col min="11528" max="11528" width="26.7109375" style="46" customWidth="1"/>
-    <col min="11529" max="11529" width="20.140625" style="46" customWidth="1"/>
-    <col min="11530" max="11777" width="8.7109375" style="46"/>
-    <col min="11778" max="11778" width="19.85546875" style="46" customWidth="1"/>
-    <col min="11779" max="11781" width="29.5703125" style="46" customWidth="1"/>
-    <col min="11782" max="11782" width="22.28515625" style="46" customWidth="1"/>
-    <col min="11783" max="11783" width="27.5703125" style="46" customWidth="1"/>
-    <col min="11784" max="11784" width="26.7109375" style="46" customWidth="1"/>
-    <col min="11785" max="11785" width="20.140625" style="46" customWidth="1"/>
-    <col min="11786" max="12033" width="8.7109375" style="46"/>
-    <col min="12034" max="12034" width="19.85546875" style="46" customWidth="1"/>
-    <col min="12035" max="12037" width="29.5703125" style="46" customWidth="1"/>
-    <col min="12038" max="12038" width="22.28515625" style="46" customWidth="1"/>
-    <col min="12039" max="12039" width="27.5703125" style="46" customWidth="1"/>
-    <col min="12040" max="12040" width="26.7109375" style="46" customWidth="1"/>
-    <col min="12041" max="12041" width="20.140625" style="46" customWidth="1"/>
-    <col min="12042" max="12289" width="8.7109375" style="46"/>
-    <col min="12290" max="12290" width="19.85546875" style="46" customWidth="1"/>
-    <col min="12291" max="12293" width="29.5703125" style="46" customWidth="1"/>
-    <col min="12294" max="12294" width="22.28515625" style="46" customWidth="1"/>
-    <col min="12295" max="12295" width="27.5703125" style="46" customWidth="1"/>
-    <col min="12296" max="12296" width="26.7109375" style="46" customWidth="1"/>
-    <col min="12297" max="12297" width="20.140625" style="46" customWidth="1"/>
-    <col min="12298" max="12545" width="8.7109375" style="46"/>
-    <col min="12546" max="12546" width="19.85546875" style="46" customWidth="1"/>
-    <col min="12547" max="12549" width="29.5703125" style="46" customWidth="1"/>
-    <col min="12550" max="12550" width="22.28515625" style="46" customWidth="1"/>
-    <col min="12551" max="12551" width="27.5703125" style="46" customWidth="1"/>
-    <col min="12552" max="12552" width="26.7109375" style="46" customWidth="1"/>
-    <col min="12553" max="12553" width="20.140625" style="46" customWidth="1"/>
-    <col min="12554" max="12801" width="8.7109375" style="46"/>
-    <col min="12802" max="12802" width="19.85546875" style="46" customWidth="1"/>
-    <col min="12803" max="12805" width="29.5703125" style="46" customWidth="1"/>
-    <col min="12806" max="12806" width="22.28515625" style="46" customWidth="1"/>
-    <col min="12807" max="12807" width="27.5703125" style="46" customWidth="1"/>
-    <col min="12808" max="12808" width="26.7109375" style="46" customWidth="1"/>
-    <col min="12809" max="12809" width="20.140625" style="46" customWidth="1"/>
-    <col min="12810" max="13057" width="8.7109375" style="46"/>
-    <col min="13058" max="13058" width="19.85546875" style="46" customWidth="1"/>
-    <col min="13059" max="13061" width="29.5703125" style="46" customWidth="1"/>
-    <col min="13062" max="13062" width="22.28515625" style="46" customWidth="1"/>
-    <col min="13063" max="13063" width="27.5703125" style="46" customWidth="1"/>
-    <col min="13064" max="13064" width="26.7109375" style="46" customWidth="1"/>
-    <col min="13065" max="13065" width="20.140625" style="46" customWidth="1"/>
-    <col min="13066" max="13313" width="8.7109375" style="46"/>
-    <col min="13314" max="13314" width="19.85546875" style="46" customWidth="1"/>
-    <col min="13315" max="13317" width="29.5703125" style="46" customWidth="1"/>
-    <col min="13318" max="13318" width="22.28515625" style="46" customWidth="1"/>
-    <col min="13319" max="13319" width="27.5703125" style="46" customWidth="1"/>
-    <col min="13320" max="13320" width="26.7109375" style="46" customWidth="1"/>
-    <col min="13321" max="13321" width="20.140625" style="46" customWidth="1"/>
-    <col min="13322" max="13569" width="8.7109375" style="46"/>
-    <col min="13570" max="13570" width="19.85546875" style="46" customWidth="1"/>
-    <col min="13571" max="13573" width="29.5703125" style="46" customWidth="1"/>
-    <col min="13574" max="13574" width="22.28515625" style="46" customWidth="1"/>
-    <col min="13575" max="13575" width="27.5703125" style="46" customWidth="1"/>
-    <col min="13576" max="13576" width="26.7109375" style="46" customWidth="1"/>
-    <col min="13577" max="13577" width="20.140625" style="46" customWidth="1"/>
-    <col min="13578" max="13825" width="8.7109375" style="46"/>
-    <col min="13826" max="13826" width="19.85546875" style="46" customWidth="1"/>
-    <col min="13827" max="13829" width="29.5703125" style="46" customWidth="1"/>
-    <col min="13830" max="13830" width="22.28515625" style="46" customWidth="1"/>
-    <col min="13831" max="13831" width="27.5703125" style="46" customWidth="1"/>
-    <col min="13832" max="13832" width="26.7109375" style="46" customWidth="1"/>
-    <col min="13833" max="13833" width="20.140625" style="46" customWidth="1"/>
-    <col min="13834" max="14081" width="8.7109375" style="46"/>
-    <col min="14082" max="14082" width="19.85546875" style="46" customWidth="1"/>
-    <col min="14083" max="14085" width="29.5703125" style="46" customWidth="1"/>
-    <col min="14086" max="14086" width="22.28515625" style="46" customWidth="1"/>
-    <col min="14087" max="14087" width="27.5703125" style="46" customWidth="1"/>
-    <col min="14088" max="14088" width="26.7109375" style="46" customWidth="1"/>
-    <col min="14089" max="14089" width="20.140625" style="46" customWidth="1"/>
-    <col min="14090" max="14337" width="8.7109375" style="46"/>
-    <col min="14338" max="14338" width="19.85546875" style="46" customWidth="1"/>
-    <col min="14339" max="14341" width="29.5703125" style="46" customWidth="1"/>
-    <col min="14342" max="14342" width="22.28515625" style="46" customWidth="1"/>
-    <col min="14343" max="14343" width="27.5703125" style="46" customWidth="1"/>
-    <col min="14344" max="14344" width="26.7109375" style="46" customWidth="1"/>
-    <col min="14345" max="14345" width="20.140625" style="46" customWidth="1"/>
-    <col min="14346" max="14593" width="8.7109375" style="46"/>
-    <col min="14594" max="14594" width="19.85546875" style="46" customWidth="1"/>
-    <col min="14595" max="14597" width="29.5703125" style="46" customWidth="1"/>
-    <col min="14598" max="14598" width="22.28515625" style="46" customWidth="1"/>
-    <col min="14599" max="14599" width="27.5703125" style="46" customWidth="1"/>
-    <col min="14600" max="14600" width="26.7109375" style="46" customWidth="1"/>
-    <col min="14601" max="14601" width="20.140625" style="46" customWidth="1"/>
-    <col min="14602" max="14849" width="8.7109375" style="46"/>
-    <col min="14850" max="14850" width="19.85546875" style="46" customWidth="1"/>
-    <col min="14851" max="14853" width="29.5703125" style="46" customWidth="1"/>
-    <col min="14854" max="14854" width="22.28515625" style="46" customWidth="1"/>
-    <col min="14855" max="14855" width="27.5703125" style="46" customWidth="1"/>
-    <col min="14856" max="14856" width="26.7109375" style="46" customWidth="1"/>
-    <col min="14857" max="14857" width="20.140625" style="46" customWidth="1"/>
-    <col min="14858" max="15105" width="8.7109375" style="46"/>
-    <col min="15106" max="15106" width="19.85546875" style="46" customWidth="1"/>
-    <col min="15107" max="15109" width="29.5703125" style="46" customWidth="1"/>
-    <col min="15110" max="15110" width="22.28515625" style="46" customWidth="1"/>
-    <col min="15111" max="15111" width="27.5703125" style="46" customWidth="1"/>
-    <col min="15112" max="15112" width="26.7109375" style="46" customWidth="1"/>
-    <col min="15113" max="15113" width="20.140625" style="46" customWidth="1"/>
-    <col min="15114" max="15361" width="8.7109375" style="46"/>
-    <col min="15362" max="15362" width="19.85546875" style="46" customWidth="1"/>
-    <col min="15363" max="15365" width="29.5703125" style="46" customWidth="1"/>
-    <col min="15366" max="15366" width="22.28515625" style="46" customWidth="1"/>
-    <col min="15367" max="15367" width="27.5703125" style="46" customWidth="1"/>
-    <col min="15368" max="15368" width="26.7109375" style="46" customWidth="1"/>
-    <col min="15369" max="15369" width="20.140625" style="46" customWidth="1"/>
-    <col min="15370" max="15617" width="8.7109375" style="46"/>
-    <col min="15618" max="15618" width="19.85546875" style="46" customWidth="1"/>
-    <col min="15619" max="15621" width="29.5703125" style="46" customWidth="1"/>
-    <col min="15622" max="15622" width="22.28515625" style="46" customWidth="1"/>
-    <col min="15623" max="15623" width="27.5703125" style="46" customWidth="1"/>
-    <col min="15624" max="15624" width="26.7109375" style="46" customWidth="1"/>
-    <col min="15625" max="15625" width="20.140625" style="46" customWidth="1"/>
-    <col min="15626" max="15873" width="8.7109375" style="46"/>
-    <col min="15874" max="15874" width="19.85546875" style="46" customWidth="1"/>
-    <col min="15875" max="15877" width="29.5703125" style="46" customWidth="1"/>
-    <col min="15878" max="15878" width="22.28515625" style="46" customWidth="1"/>
-    <col min="15879" max="15879" width="27.5703125" style="46" customWidth="1"/>
-    <col min="15880" max="15880" width="26.7109375" style="46" customWidth="1"/>
-    <col min="15881" max="15881" width="20.140625" style="46" customWidth="1"/>
-    <col min="15882" max="16129" width="8.7109375" style="46"/>
-    <col min="16130" max="16130" width="19.85546875" style="46" customWidth="1"/>
-    <col min="16131" max="16133" width="29.5703125" style="46" customWidth="1"/>
-    <col min="16134" max="16134" width="22.28515625" style="46" customWidth="1"/>
-    <col min="16135" max="16135" width="27.5703125" style="46" customWidth="1"/>
-    <col min="16136" max="16136" width="26.7109375" style="46" customWidth="1"/>
-    <col min="16137" max="16137" width="20.140625" style="46" customWidth="1"/>
-    <col min="16138" max="16384" width="8.7109375" style="46"/>
+    <col min="1" max="1" width="8.7109375" style="36"/>
+    <col min="2" max="2" width="19.85546875" style="36" customWidth="1"/>
+    <col min="3" max="5" width="29.5703125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="36" customWidth="1"/>
+    <col min="10" max="257" width="8.7109375" style="36"/>
+    <col min="258" max="258" width="19.85546875" style="36" customWidth="1"/>
+    <col min="259" max="261" width="29.5703125" style="36" customWidth="1"/>
+    <col min="262" max="262" width="22.28515625" style="36" customWidth="1"/>
+    <col min="263" max="263" width="27.5703125" style="36" customWidth="1"/>
+    <col min="264" max="264" width="26.7109375" style="36" customWidth="1"/>
+    <col min="265" max="265" width="20.140625" style="36" customWidth="1"/>
+    <col min="266" max="513" width="8.7109375" style="36"/>
+    <col min="514" max="514" width="19.85546875" style="36" customWidth="1"/>
+    <col min="515" max="517" width="29.5703125" style="36" customWidth="1"/>
+    <col min="518" max="518" width="22.28515625" style="36" customWidth="1"/>
+    <col min="519" max="519" width="27.5703125" style="36" customWidth="1"/>
+    <col min="520" max="520" width="26.7109375" style="36" customWidth="1"/>
+    <col min="521" max="521" width="20.140625" style="36" customWidth="1"/>
+    <col min="522" max="769" width="8.7109375" style="36"/>
+    <col min="770" max="770" width="19.85546875" style="36" customWidth="1"/>
+    <col min="771" max="773" width="29.5703125" style="36" customWidth="1"/>
+    <col min="774" max="774" width="22.28515625" style="36" customWidth="1"/>
+    <col min="775" max="775" width="27.5703125" style="36" customWidth="1"/>
+    <col min="776" max="776" width="26.7109375" style="36" customWidth="1"/>
+    <col min="777" max="777" width="20.140625" style="36" customWidth="1"/>
+    <col min="778" max="1025" width="8.7109375" style="36"/>
+    <col min="1026" max="1026" width="19.85546875" style="36" customWidth="1"/>
+    <col min="1027" max="1029" width="29.5703125" style="36" customWidth="1"/>
+    <col min="1030" max="1030" width="22.28515625" style="36" customWidth="1"/>
+    <col min="1031" max="1031" width="27.5703125" style="36" customWidth="1"/>
+    <col min="1032" max="1032" width="26.7109375" style="36" customWidth="1"/>
+    <col min="1033" max="1033" width="20.140625" style="36" customWidth="1"/>
+    <col min="1034" max="1281" width="8.7109375" style="36"/>
+    <col min="1282" max="1282" width="19.85546875" style="36" customWidth="1"/>
+    <col min="1283" max="1285" width="29.5703125" style="36" customWidth="1"/>
+    <col min="1286" max="1286" width="22.28515625" style="36" customWidth="1"/>
+    <col min="1287" max="1287" width="27.5703125" style="36" customWidth="1"/>
+    <col min="1288" max="1288" width="26.7109375" style="36" customWidth="1"/>
+    <col min="1289" max="1289" width="20.140625" style="36" customWidth="1"/>
+    <col min="1290" max="1537" width="8.7109375" style="36"/>
+    <col min="1538" max="1538" width="19.85546875" style="36" customWidth="1"/>
+    <col min="1539" max="1541" width="29.5703125" style="36" customWidth="1"/>
+    <col min="1542" max="1542" width="22.28515625" style="36" customWidth="1"/>
+    <col min="1543" max="1543" width="27.5703125" style="36" customWidth="1"/>
+    <col min="1544" max="1544" width="26.7109375" style="36" customWidth="1"/>
+    <col min="1545" max="1545" width="20.140625" style="36" customWidth="1"/>
+    <col min="1546" max="1793" width="8.7109375" style="36"/>
+    <col min="1794" max="1794" width="19.85546875" style="36" customWidth="1"/>
+    <col min="1795" max="1797" width="29.5703125" style="36" customWidth="1"/>
+    <col min="1798" max="1798" width="22.28515625" style="36" customWidth="1"/>
+    <col min="1799" max="1799" width="27.5703125" style="36" customWidth="1"/>
+    <col min="1800" max="1800" width="26.7109375" style="36" customWidth="1"/>
+    <col min="1801" max="1801" width="20.140625" style="36" customWidth="1"/>
+    <col min="1802" max="2049" width="8.7109375" style="36"/>
+    <col min="2050" max="2050" width="19.85546875" style="36" customWidth="1"/>
+    <col min="2051" max="2053" width="29.5703125" style="36" customWidth="1"/>
+    <col min="2054" max="2054" width="22.28515625" style="36" customWidth="1"/>
+    <col min="2055" max="2055" width="27.5703125" style="36" customWidth="1"/>
+    <col min="2056" max="2056" width="26.7109375" style="36" customWidth="1"/>
+    <col min="2057" max="2057" width="20.140625" style="36" customWidth="1"/>
+    <col min="2058" max="2305" width="8.7109375" style="36"/>
+    <col min="2306" max="2306" width="19.85546875" style="36" customWidth="1"/>
+    <col min="2307" max="2309" width="29.5703125" style="36" customWidth="1"/>
+    <col min="2310" max="2310" width="22.28515625" style="36" customWidth="1"/>
+    <col min="2311" max="2311" width="27.5703125" style="36" customWidth="1"/>
+    <col min="2312" max="2312" width="26.7109375" style="36" customWidth="1"/>
+    <col min="2313" max="2313" width="20.140625" style="36" customWidth="1"/>
+    <col min="2314" max="2561" width="8.7109375" style="36"/>
+    <col min="2562" max="2562" width="19.85546875" style="36" customWidth="1"/>
+    <col min="2563" max="2565" width="29.5703125" style="36" customWidth="1"/>
+    <col min="2566" max="2566" width="22.28515625" style="36" customWidth="1"/>
+    <col min="2567" max="2567" width="27.5703125" style="36" customWidth="1"/>
+    <col min="2568" max="2568" width="26.7109375" style="36" customWidth="1"/>
+    <col min="2569" max="2569" width="20.140625" style="36" customWidth="1"/>
+    <col min="2570" max="2817" width="8.7109375" style="36"/>
+    <col min="2818" max="2818" width="19.85546875" style="36" customWidth="1"/>
+    <col min="2819" max="2821" width="29.5703125" style="36" customWidth="1"/>
+    <col min="2822" max="2822" width="22.28515625" style="36" customWidth="1"/>
+    <col min="2823" max="2823" width="27.5703125" style="36" customWidth="1"/>
+    <col min="2824" max="2824" width="26.7109375" style="36" customWidth="1"/>
+    <col min="2825" max="2825" width="20.140625" style="36" customWidth="1"/>
+    <col min="2826" max="3073" width="8.7109375" style="36"/>
+    <col min="3074" max="3074" width="19.85546875" style="36" customWidth="1"/>
+    <col min="3075" max="3077" width="29.5703125" style="36" customWidth="1"/>
+    <col min="3078" max="3078" width="22.28515625" style="36" customWidth="1"/>
+    <col min="3079" max="3079" width="27.5703125" style="36" customWidth="1"/>
+    <col min="3080" max="3080" width="26.7109375" style="36" customWidth="1"/>
+    <col min="3081" max="3081" width="20.140625" style="36" customWidth="1"/>
+    <col min="3082" max="3329" width="8.7109375" style="36"/>
+    <col min="3330" max="3330" width="19.85546875" style="36" customWidth="1"/>
+    <col min="3331" max="3333" width="29.5703125" style="36" customWidth="1"/>
+    <col min="3334" max="3334" width="22.28515625" style="36" customWidth="1"/>
+    <col min="3335" max="3335" width="27.5703125" style="36" customWidth="1"/>
+    <col min="3336" max="3336" width="26.7109375" style="36" customWidth="1"/>
+    <col min="3337" max="3337" width="20.140625" style="36" customWidth="1"/>
+    <col min="3338" max="3585" width="8.7109375" style="36"/>
+    <col min="3586" max="3586" width="19.85546875" style="36" customWidth="1"/>
+    <col min="3587" max="3589" width="29.5703125" style="36" customWidth="1"/>
+    <col min="3590" max="3590" width="22.28515625" style="36" customWidth="1"/>
+    <col min="3591" max="3591" width="27.5703125" style="36" customWidth="1"/>
+    <col min="3592" max="3592" width="26.7109375" style="36" customWidth="1"/>
+    <col min="3593" max="3593" width="20.140625" style="36" customWidth="1"/>
+    <col min="3594" max="3841" width="8.7109375" style="36"/>
+    <col min="3842" max="3842" width="19.85546875" style="36" customWidth="1"/>
+    <col min="3843" max="3845" width="29.5703125" style="36" customWidth="1"/>
+    <col min="3846" max="3846" width="22.28515625" style="36" customWidth="1"/>
+    <col min="3847" max="3847" width="27.5703125" style="36" customWidth="1"/>
+    <col min="3848" max="3848" width="26.7109375" style="36" customWidth="1"/>
+    <col min="3849" max="3849" width="20.140625" style="36" customWidth="1"/>
+    <col min="3850" max="4097" width="8.7109375" style="36"/>
+    <col min="4098" max="4098" width="19.85546875" style="36" customWidth="1"/>
+    <col min="4099" max="4101" width="29.5703125" style="36" customWidth="1"/>
+    <col min="4102" max="4102" width="22.28515625" style="36" customWidth="1"/>
+    <col min="4103" max="4103" width="27.5703125" style="36" customWidth="1"/>
+    <col min="4104" max="4104" width="26.7109375" style="36" customWidth="1"/>
+    <col min="4105" max="4105" width="20.140625" style="36" customWidth="1"/>
+    <col min="4106" max="4353" width="8.7109375" style="36"/>
+    <col min="4354" max="4354" width="19.85546875" style="36" customWidth="1"/>
+    <col min="4355" max="4357" width="29.5703125" style="36" customWidth="1"/>
+    <col min="4358" max="4358" width="22.28515625" style="36" customWidth="1"/>
+    <col min="4359" max="4359" width="27.5703125" style="36" customWidth="1"/>
+    <col min="4360" max="4360" width="26.7109375" style="36" customWidth="1"/>
+    <col min="4361" max="4361" width="20.140625" style="36" customWidth="1"/>
+    <col min="4362" max="4609" width="8.7109375" style="36"/>
+    <col min="4610" max="4610" width="19.85546875" style="36" customWidth="1"/>
+    <col min="4611" max="4613" width="29.5703125" style="36" customWidth="1"/>
+    <col min="4614" max="4614" width="22.28515625" style="36" customWidth="1"/>
+    <col min="4615" max="4615" width="27.5703125" style="36" customWidth="1"/>
+    <col min="4616" max="4616" width="26.7109375" style="36" customWidth="1"/>
+    <col min="4617" max="4617" width="20.140625" style="36" customWidth="1"/>
+    <col min="4618" max="4865" width="8.7109375" style="36"/>
+    <col min="4866" max="4866" width="19.85546875" style="36" customWidth="1"/>
+    <col min="4867" max="4869" width="29.5703125" style="36" customWidth="1"/>
+    <col min="4870" max="4870" width="22.28515625" style="36" customWidth="1"/>
+    <col min="4871" max="4871" width="27.5703125" style="36" customWidth="1"/>
+    <col min="4872" max="4872" width="26.7109375" style="36" customWidth="1"/>
+    <col min="4873" max="4873" width="20.140625" style="36" customWidth="1"/>
+    <col min="4874" max="5121" width="8.7109375" style="36"/>
+    <col min="5122" max="5122" width="19.85546875" style="36" customWidth="1"/>
+    <col min="5123" max="5125" width="29.5703125" style="36" customWidth="1"/>
+    <col min="5126" max="5126" width="22.28515625" style="36" customWidth="1"/>
+    <col min="5127" max="5127" width="27.5703125" style="36" customWidth="1"/>
+    <col min="5128" max="5128" width="26.7109375" style="36" customWidth="1"/>
+    <col min="5129" max="5129" width="20.140625" style="36" customWidth="1"/>
+    <col min="5130" max="5377" width="8.7109375" style="36"/>
+    <col min="5378" max="5378" width="19.85546875" style="36" customWidth="1"/>
+    <col min="5379" max="5381" width="29.5703125" style="36" customWidth="1"/>
+    <col min="5382" max="5382" width="22.28515625" style="36" customWidth="1"/>
+    <col min="5383" max="5383" width="27.5703125" style="36" customWidth="1"/>
+    <col min="5384" max="5384" width="26.7109375" style="36" customWidth="1"/>
+    <col min="5385" max="5385" width="20.140625" style="36" customWidth="1"/>
+    <col min="5386" max="5633" width="8.7109375" style="36"/>
+    <col min="5634" max="5634" width="19.85546875" style="36" customWidth="1"/>
+    <col min="5635" max="5637" width="29.5703125" style="36" customWidth="1"/>
+    <col min="5638" max="5638" width="22.28515625" style="36" customWidth="1"/>
+    <col min="5639" max="5639" width="27.5703125" style="36" customWidth="1"/>
+    <col min="5640" max="5640" width="26.7109375" style="36" customWidth="1"/>
+    <col min="5641" max="5641" width="20.140625" style="36" customWidth="1"/>
+    <col min="5642" max="5889" width="8.7109375" style="36"/>
+    <col min="5890" max="5890" width="19.85546875" style="36" customWidth="1"/>
+    <col min="5891" max="5893" width="29.5703125" style="36" customWidth="1"/>
+    <col min="5894" max="5894" width="22.28515625" style="36" customWidth="1"/>
+    <col min="5895" max="5895" width="27.5703125" style="36" customWidth="1"/>
+    <col min="5896" max="5896" width="26.7109375" style="36" customWidth="1"/>
+    <col min="5897" max="5897" width="20.140625" style="36" customWidth="1"/>
+    <col min="5898" max="6145" width="8.7109375" style="36"/>
+    <col min="6146" max="6146" width="19.85546875" style="36" customWidth="1"/>
+    <col min="6147" max="6149" width="29.5703125" style="36" customWidth="1"/>
+    <col min="6150" max="6150" width="22.28515625" style="36" customWidth="1"/>
+    <col min="6151" max="6151" width="27.5703125" style="36" customWidth="1"/>
+    <col min="6152" max="6152" width="26.7109375" style="36" customWidth="1"/>
+    <col min="6153" max="6153" width="20.140625" style="36" customWidth="1"/>
+    <col min="6154" max="6401" width="8.7109375" style="36"/>
+    <col min="6402" max="6402" width="19.85546875" style="36" customWidth="1"/>
+    <col min="6403" max="6405" width="29.5703125" style="36" customWidth="1"/>
+    <col min="6406" max="6406" width="22.28515625" style="36" customWidth="1"/>
+    <col min="6407" max="6407" width="27.5703125" style="36" customWidth="1"/>
+    <col min="6408" max="6408" width="26.7109375" style="36" customWidth="1"/>
+    <col min="6409" max="6409" width="20.140625" style="36" customWidth="1"/>
+    <col min="6410" max="6657" width="8.7109375" style="36"/>
+    <col min="6658" max="6658" width="19.85546875" style="36" customWidth="1"/>
+    <col min="6659" max="6661" width="29.5703125" style="36" customWidth="1"/>
+    <col min="6662" max="6662" width="22.28515625" style="36" customWidth="1"/>
+    <col min="6663" max="6663" width="27.5703125" style="36" customWidth="1"/>
+    <col min="6664" max="6664" width="26.7109375" style="36" customWidth="1"/>
+    <col min="6665" max="6665" width="20.140625" style="36" customWidth="1"/>
+    <col min="6666" max="6913" width="8.7109375" style="36"/>
+    <col min="6914" max="6914" width="19.85546875" style="36" customWidth="1"/>
+    <col min="6915" max="6917" width="29.5703125" style="36" customWidth="1"/>
+    <col min="6918" max="6918" width="22.28515625" style="36" customWidth="1"/>
+    <col min="6919" max="6919" width="27.5703125" style="36" customWidth="1"/>
+    <col min="6920" max="6920" width="26.7109375" style="36" customWidth="1"/>
+    <col min="6921" max="6921" width="20.140625" style="36" customWidth="1"/>
+    <col min="6922" max="7169" width="8.7109375" style="36"/>
+    <col min="7170" max="7170" width="19.85546875" style="36" customWidth="1"/>
+    <col min="7171" max="7173" width="29.5703125" style="36" customWidth="1"/>
+    <col min="7174" max="7174" width="22.28515625" style="36" customWidth="1"/>
+    <col min="7175" max="7175" width="27.5703125" style="36" customWidth="1"/>
+    <col min="7176" max="7176" width="26.7109375" style="36" customWidth="1"/>
+    <col min="7177" max="7177" width="20.140625" style="36" customWidth="1"/>
+    <col min="7178" max="7425" width="8.7109375" style="36"/>
+    <col min="7426" max="7426" width="19.85546875" style="36" customWidth="1"/>
+    <col min="7427" max="7429" width="29.5703125" style="36" customWidth="1"/>
+    <col min="7430" max="7430" width="22.28515625" style="36" customWidth="1"/>
+    <col min="7431" max="7431" width="27.5703125" style="36" customWidth="1"/>
+    <col min="7432" max="7432" width="26.7109375" style="36" customWidth="1"/>
+    <col min="7433" max="7433" width="20.140625" style="36" customWidth="1"/>
+    <col min="7434" max="7681" width="8.7109375" style="36"/>
+    <col min="7682" max="7682" width="19.85546875" style="36" customWidth="1"/>
+    <col min="7683" max="7685" width="29.5703125" style="36" customWidth="1"/>
+    <col min="7686" max="7686" width="22.28515625" style="36" customWidth="1"/>
+    <col min="7687" max="7687" width="27.5703125" style="36" customWidth="1"/>
+    <col min="7688" max="7688" width="26.7109375" style="36" customWidth="1"/>
+    <col min="7689" max="7689" width="20.140625" style="36" customWidth="1"/>
+    <col min="7690" max="7937" width="8.7109375" style="36"/>
+    <col min="7938" max="7938" width="19.85546875" style="36" customWidth="1"/>
+    <col min="7939" max="7941" width="29.5703125" style="36" customWidth="1"/>
+    <col min="7942" max="7942" width="22.28515625" style="36" customWidth="1"/>
+    <col min="7943" max="7943" width="27.5703125" style="36" customWidth="1"/>
+    <col min="7944" max="7944" width="26.7109375" style="36" customWidth="1"/>
+    <col min="7945" max="7945" width="20.140625" style="36" customWidth="1"/>
+    <col min="7946" max="8193" width="8.7109375" style="36"/>
+    <col min="8194" max="8194" width="19.85546875" style="36" customWidth="1"/>
+    <col min="8195" max="8197" width="29.5703125" style="36" customWidth="1"/>
+    <col min="8198" max="8198" width="22.28515625" style="36" customWidth="1"/>
+    <col min="8199" max="8199" width="27.5703125" style="36" customWidth="1"/>
+    <col min="8200" max="8200" width="26.7109375" style="36" customWidth="1"/>
+    <col min="8201" max="8201" width="20.140625" style="36" customWidth="1"/>
+    <col min="8202" max="8449" width="8.7109375" style="36"/>
+    <col min="8450" max="8450" width="19.85546875" style="36" customWidth="1"/>
+    <col min="8451" max="8453" width="29.5703125" style="36" customWidth="1"/>
+    <col min="8454" max="8454" width="22.28515625" style="36" customWidth="1"/>
+    <col min="8455" max="8455" width="27.5703125" style="36" customWidth="1"/>
+    <col min="8456" max="8456" width="26.7109375" style="36" customWidth="1"/>
+    <col min="8457" max="8457" width="20.140625" style="36" customWidth="1"/>
+    <col min="8458" max="8705" width="8.7109375" style="36"/>
+    <col min="8706" max="8706" width="19.85546875" style="36" customWidth="1"/>
+    <col min="8707" max="8709" width="29.5703125" style="36" customWidth="1"/>
+    <col min="8710" max="8710" width="22.28515625" style="36" customWidth="1"/>
+    <col min="8711" max="8711" width="27.5703125" style="36" customWidth="1"/>
+    <col min="8712" max="8712" width="26.7109375" style="36" customWidth="1"/>
+    <col min="8713" max="8713" width="20.140625" style="36" customWidth="1"/>
+    <col min="8714" max="8961" width="8.7109375" style="36"/>
+    <col min="8962" max="8962" width="19.85546875" style="36" customWidth="1"/>
+    <col min="8963" max="8965" width="29.5703125" style="36" customWidth="1"/>
+    <col min="8966" max="8966" width="22.28515625" style="36" customWidth="1"/>
+    <col min="8967" max="8967" width="27.5703125" style="36" customWidth="1"/>
+    <col min="8968" max="8968" width="26.7109375" style="36" customWidth="1"/>
+    <col min="8969" max="8969" width="20.140625" style="36" customWidth="1"/>
+    <col min="8970" max="9217" width="8.7109375" style="36"/>
+    <col min="9218" max="9218" width="19.85546875" style="36" customWidth="1"/>
+    <col min="9219" max="9221" width="29.5703125" style="36" customWidth="1"/>
+    <col min="9222" max="9222" width="22.28515625" style="36" customWidth="1"/>
+    <col min="9223" max="9223" width="27.5703125" style="36" customWidth="1"/>
+    <col min="9224" max="9224" width="26.7109375" style="36" customWidth="1"/>
+    <col min="9225" max="9225" width="20.140625" style="36" customWidth="1"/>
+    <col min="9226" max="9473" width="8.7109375" style="36"/>
+    <col min="9474" max="9474" width="19.85546875" style="36" customWidth="1"/>
+    <col min="9475" max="9477" width="29.5703125" style="36" customWidth="1"/>
+    <col min="9478" max="9478" width="22.28515625" style="36" customWidth="1"/>
+    <col min="9479" max="9479" width="27.5703125" style="36" customWidth="1"/>
+    <col min="9480" max="9480" width="26.7109375" style="36" customWidth="1"/>
+    <col min="9481" max="9481" width="20.140625" style="36" customWidth="1"/>
+    <col min="9482" max="9729" width="8.7109375" style="36"/>
+    <col min="9730" max="9730" width="19.85546875" style="36" customWidth="1"/>
+    <col min="9731" max="9733" width="29.5703125" style="36" customWidth="1"/>
+    <col min="9734" max="9734" width="22.28515625" style="36" customWidth="1"/>
+    <col min="9735" max="9735" width="27.5703125" style="36" customWidth="1"/>
+    <col min="9736" max="9736" width="26.7109375" style="36" customWidth="1"/>
+    <col min="9737" max="9737" width="20.140625" style="36" customWidth="1"/>
+    <col min="9738" max="9985" width="8.7109375" style="36"/>
+    <col min="9986" max="9986" width="19.85546875" style="36" customWidth="1"/>
+    <col min="9987" max="9989" width="29.5703125" style="36" customWidth="1"/>
+    <col min="9990" max="9990" width="22.28515625" style="36" customWidth="1"/>
+    <col min="9991" max="9991" width="27.5703125" style="36" customWidth="1"/>
+    <col min="9992" max="9992" width="26.7109375" style="36" customWidth="1"/>
+    <col min="9993" max="9993" width="20.140625" style="36" customWidth="1"/>
+    <col min="9994" max="10241" width="8.7109375" style="36"/>
+    <col min="10242" max="10242" width="19.85546875" style="36" customWidth="1"/>
+    <col min="10243" max="10245" width="29.5703125" style="36" customWidth="1"/>
+    <col min="10246" max="10246" width="22.28515625" style="36" customWidth="1"/>
+    <col min="10247" max="10247" width="27.5703125" style="36" customWidth="1"/>
+    <col min="10248" max="10248" width="26.7109375" style="36" customWidth="1"/>
+    <col min="10249" max="10249" width="20.140625" style="36" customWidth="1"/>
+    <col min="10250" max="10497" width="8.7109375" style="36"/>
+    <col min="10498" max="10498" width="19.85546875" style="36" customWidth="1"/>
+    <col min="10499" max="10501" width="29.5703125" style="36" customWidth="1"/>
+    <col min="10502" max="10502" width="22.28515625" style="36" customWidth="1"/>
+    <col min="10503" max="10503" width="27.5703125" style="36" customWidth="1"/>
+    <col min="10504" max="10504" width="26.7109375" style="36" customWidth="1"/>
+    <col min="10505" max="10505" width="20.140625" style="36" customWidth="1"/>
+    <col min="10506" max="10753" width="8.7109375" style="36"/>
+    <col min="10754" max="10754" width="19.85546875" style="36" customWidth="1"/>
+    <col min="10755" max="10757" width="29.5703125" style="36" customWidth="1"/>
+    <col min="10758" max="10758" width="22.28515625" style="36" customWidth="1"/>
+    <col min="10759" max="10759" width="27.5703125" style="36" customWidth="1"/>
+    <col min="10760" max="10760" width="26.7109375" style="36" customWidth="1"/>
+    <col min="10761" max="10761" width="20.140625" style="36" customWidth="1"/>
+    <col min="10762" max="11009" width="8.7109375" style="36"/>
+    <col min="11010" max="11010" width="19.85546875" style="36" customWidth="1"/>
+    <col min="11011" max="11013" width="29.5703125" style="36" customWidth="1"/>
+    <col min="11014" max="11014" width="22.28515625" style="36" customWidth="1"/>
+    <col min="11015" max="11015" width="27.5703125" style="36" customWidth="1"/>
+    <col min="11016" max="11016" width="26.7109375" style="36" customWidth="1"/>
+    <col min="11017" max="11017" width="20.140625" style="36" customWidth="1"/>
+    <col min="11018" max="11265" width="8.7109375" style="36"/>
+    <col min="11266" max="11266" width="19.85546875" style="36" customWidth="1"/>
+    <col min="11267" max="11269" width="29.5703125" style="36" customWidth="1"/>
+    <col min="11270" max="11270" width="22.28515625" style="36" customWidth="1"/>
+    <col min="11271" max="11271" width="27.5703125" style="36" customWidth="1"/>
+    <col min="11272" max="11272" width="26.7109375" style="36" customWidth="1"/>
+    <col min="11273" max="11273" width="20.140625" style="36" customWidth="1"/>
+    <col min="11274" max="11521" width="8.7109375" style="36"/>
+    <col min="11522" max="11522" width="19.85546875" style="36" customWidth="1"/>
+    <col min="11523" max="11525" width="29.5703125" style="36" customWidth="1"/>
+    <col min="11526" max="11526" width="22.28515625" style="36" customWidth="1"/>
+    <col min="11527" max="11527" width="27.5703125" style="36" customWidth="1"/>
+    <col min="11528" max="11528" width="26.7109375" style="36" customWidth="1"/>
+    <col min="11529" max="11529" width="20.140625" style="36" customWidth="1"/>
+    <col min="11530" max="11777" width="8.7109375" style="36"/>
+    <col min="11778" max="11778" width="19.85546875" style="36" customWidth="1"/>
+    <col min="11779" max="11781" width="29.5703125" style="36" customWidth="1"/>
+    <col min="11782" max="11782" width="22.28515625" style="36" customWidth="1"/>
+    <col min="11783" max="11783" width="27.5703125" style="36" customWidth="1"/>
+    <col min="11784" max="11784" width="26.7109375" style="36" customWidth="1"/>
+    <col min="11785" max="11785" width="20.140625" style="36" customWidth="1"/>
+    <col min="11786" max="12033" width="8.7109375" style="36"/>
+    <col min="12034" max="12034" width="19.85546875" style="36" customWidth="1"/>
+    <col min="12035" max="12037" width="29.5703125" style="36" customWidth="1"/>
+    <col min="12038" max="12038" width="22.28515625" style="36" customWidth="1"/>
+    <col min="12039" max="12039" width="27.5703125" style="36" customWidth="1"/>
+    <col min="12040" max="12040" width="26.7109375" style="36" customWidth="1"/>
+    <col min="12041" max="12041" width="20.140625" style="36" customWidth="1"/>
+    <col min="12042" max="12289" width="8.7109375" style="36"/>
+    <col min="12290" max="12290" width="19.85546875" style="36" customWidth="1"/>
+    <col min="12291" max="12293" width="29.5703125" style="36" customWidth="1"/>
+    <col min="12294" max="12294" width="22.28515625" style="36" customWidth="1"/>
+    <col min="12295" max="12295" width="27.5703125" style="36" customWidth="1"/>
+    <col min="12296" max="12296" width="26.7109375" style="36" customWidth="1"/>
+    <col min="12297" max="12297" width="20.140625" style="36" customWidth="1"/>
+    <col min="12298" max="12545" width="8.7109375" style="36"/>
+    <col min="12546" max="12546" width="19.85546875" style="36" customWidth="1"/>
+    <col min="12547" max="12549" width="29.5703125" style="36" customWidth="1"/>
+    <col min="12550" max="12550" width="22.28515625" style="36" customWidth="1"/>
+    <col min="12551" max="12551" width="27.5703125" style="36" customWidth="1"/>
+    <col min="12552" max="12552" width="26.7109375" style="36" customWidth="1"/>
+    <col min="12553" max="12553" width="20.140625" style="36" customWidth="1"/>
+    <col min="12554" max="12801" width="8.7109375" style="36"/>
+    <col min="12802" max="12802" width="19.85546875" style="36" customWidth="1"/>
+    <col min="12803" max="12805" width="29.5703125" style="36" customWidth="1"/>
+    <col min="12806" max="12806" width="22.28515625" style="36" customWidth="1"/>
+    <col min="12807" max="12807" width="27.5703125" style="36" customWidth="1"/>
+    <col min="12808" max="12808" width="26.7109375" style="36" customWidth="1"/>
+    <col min="12809" max="12809" width="20.140625" style="36" customWidth="1"/>
+    <col min="12810" max="13057" width="8.7109375" style="36"/>
+    <col min="13058" max="13058" width="19.85546875" style="36" customWidth="1"/>
+    <col min="13059" max="13061" width="29.5703125" style="36" customWidth="1"/>
+    <col min="13062" max="13062" width="22.28515625" style="36" customWidth="1"/>
+    <col min="13063" max="13063" width="27.5703125" style="36" customWidth="1"/>
+    <col min="13064" max="13064" width="26.7109375" style="36" customWidth="1"/>
+    <col min="13065" max="13065" width="20.140625" style="36" customWidth="1"/>
+    <col min="13066" max="13313" width="8.7109375" style="36"/>
+    <col min="13314" max="13314" width="19.85546875" style="36" customWidth="1"/>
+    <col min="13315" max="13317" width="29.5703125" style="36" customWidth="1"/>
+    <col min="13318" max="13318" width="22.28515625" style="36" customWidth="1"/>
+    <col min="13319" max="13319" width="27.5703125" style="36" customWidth="1"/>
+    <col min="13320" max="13320" width="26.7109375" style="36" customWidth="1"/>
+    <col min="13321" max="13321" width="20.140625" style="36" customWidth="1"/>
+    <col min="13322" max="13569" width="8.7109375" style="36"/>
+    <col min="13570" max="13570" width="19.85546875" style="36" customWidth="1"/>
+    <col min="13571" max="13573" width="29.5703125" style="36" customWidth="1"/>
+    <col min="13574" max="13574" width="22.28515625" style="36" customWidth="1"/>
+    <col min="13575" max="13575" width="27.5703125" style="36" customWidth="1"/>
+    <col min="13576" max="13576" width="26.7109375" style="36" customWidth="1"/>
+    <col min="13577" max="13577" width="20.140625" style="36" customWidth="1"/>
+    <col min="13578" max="13825" width="8.7109375" style="36"/>
+    <col min="13826" max="13826" width="19.85546875" style="36" customWidth="1"/>
+    <col min="13827" max="13829" width="29.5703125" style="36" customWidth="1"/>
+    <col min="13830" max="13830" width="22.28515625" style="36" customWidth="1"/>
+    <col min="13831" max="13831" width="27.5703125" style="36" customWidth="1"/>
+    <col min="13832" max="13832" width="26.7109375" style="36" customWidth="1"/>
+    <col min="13833" max="13833" width="20.140625" style="36" customWidth="1"/>
+    <col min="13834" max="14081" width="8.7109375" style="36"/>
+    <col min="14082" max="14082" width="19.85546875" style="36" customWidth="1"/>
+    <col min="14083" max="14085" width="29.5703125" style="36" customWidth="1"/>
+    <col min="14086" max="14086" width="22.28515625" style="36" customWidth="1"/>
+    <col min="14087" max="14087" width="27.5703125" style="36" customWidth="1"/>
+    <col min="14088" max="14088" width="26.7109375" style="36" customWidth="1"/>
+    <col min="14089" max="14089" width="20.140625" style="36" customWidth="1"/>
+    <col min="14090" max="14337" width="8.7109375" style="36"/>
+    <col min="14338" max="14338" width="19.85546875" style="36" customWidth="1"/>
+    <col min="14339" max="14341" width="29.5703125" style="36" customWidth="1"/>
+    <col min="14342" max="14342" width="22.28515625" style="36" customWidth="1"/>
+    <col min="14343" max="14343" width="27.5703125" style="36" customWidth="1"/>
+    <col min="14344" max="14344" width="26.7109375" style="36" customWidth="1"/>
+    <col min="14345" max="14345" width="20.140625" style="36" customWidth="1"/>
+    <col min="14346" max="14593" width="8.7109375" style="36"/>
+    <col min="14594" max="14594" width="19.85546875" style="36" customWidth="1"/>
+    <col min="14595" max="14597" width="29.5703125" style="36" customWidth="1"/>
+    <col min="14598" max="14598" width="22.28515625" style="36" customWidth="1"/>
+    <col min="14599" max="14599" width="27.5703125" style="36" customWidth="1"/>
+    <col min="14600" max="14600" width="26.7109375" style="36" customWidth="1"/>
+    <col min="14601" max="14601" width="20.140625" style="36" customWidth="1"/>
+    <col min="14602" max="14849" width="8.7109375" style="36"/>
+    <col min="14850" max="14850" width="19.85546875" style="36" customWidth="1"/>
+    <col min="14851" max="14853" width="29.5703125" style="36" customWidth="1"/>
+    <col min="14854" max="14854" width="22.28515625" style="36" customWidth="1"/>
+    <col min="14855" max="14855" width="27.5703125" style="36" customWidth="1"/>
+    <col min="14856" max="14856" width="26.7109375" style="36" customWidth="1"/>
+    <col min="14857" max="14857" width="20.140625" style="36" customWidth="1"/>
+    <col min="14858" max="15105" width="8.7109375" style="36"/>
+    <col min="15106" max="15106" width="19.85546875" style="36" customWidth="1"/>
+    <col min="15107" max="15109" width="29.5703125" style="36" customWidth="1"/>
+    <col min="15110" max="15110" width="22.28515625" style="36" customWidth="1"/>
+    <col min="15111" max="15111" width="27.5703125" style="36" customWidth="1"/>
+    <col min="15112" max="15112" width="26.7109375" style="36" customWidth="1"/>
+    <col min="15113" max="15113" width="20.140625" style="36" customWidth="1"/>
+    <col min="15114" max="15361" width="8.7109375" style="36"/>
+    <col min="15362" max="15362" width="19.85546875" style="36" customWidth="1"/>
+    <col min="15363" max="15365" width="29.5703125" style="36" customWidth="1"/>
+    <col min="15366" max="15366" width="22.28515625" style="36" customWidth="1"/>
+    <col min="15367" max="15367" width="27.5703125" style="36" customWidth="1"/>
+    <col min="15368" max="15368" width="26.7109375" style="36" customWidth="1"/>
+    <col min="15369" max="15369" width="20.140625" style="36" customWidth="1"/>
+    <col min="15370" max="15617" width="8.7109375" style="36"/>
+    <col min="15618" max="15618" width="19.85546875" style="36" customWidth="1"/>
+    <col min="15619" max="15621" width="29.5703125" style="36" customWidth="1"/>
+    <col min="15622" max="15622" width="22.28515625" style="36" customWidth="1"/>
+    <col min="15623" max="15623" width="27.5703125" style="36" customWidth="1"/>
+    <col min="15624" max="15624" width="26.7109375" style="36" customWidth="1"/>
+    <col min="15625" max="15625" width="20.140625" style="36" customWidth="1"/>
+    <col min="15626" max="15873" width="8.7109375" style="36"/>
+    <col min="15874" max="15874" width="19.85546875" style="36" customWidth="1"/>
+    <col min="15875" max="15877" width="29.5703125" style="36" customWidth="1"/>
+    <col min="15878" max="15878" width="22.28515625" style="36" customWidth="1"/>
+    <col min="15879" max="15879" width="27.5703125" style="36" customWidth="1"/>
+    <col min="15880" max="15880" width="26.7109375" style="36" customWidth="1"/>
+    <col min="15881" max="15881" width="20.140625" style="36" customWidth="1"/>
+    <col min="15882" max="16129" width="8.7109375" style="36"/>
+    <col min="16130" max="16130" width="19.85546875" style="36" customWidth="1"/>
+    <col min="16131" max="16133" width="29.5703125" style="36" customWidth="1"/>
+    <col min="16134" max="16134" width="22.28515625" style="36" customWidth="1"/>
+    <col min="16135" max="16135" width="27.5703125" style="36" customWidth="1"/>
+    <col min="16136" max="16136" width="26.7109375" style="36" customWidth="1"/>
+    <col min="16137" max="16137" width="20.140625" style="36" customWidth="1"/>
+    <col min="16138" max="16384" width="8.7109375" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
-        <v>0</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="36">
+        <v>0</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="38"/>
       <c r="G4"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
-        <v>1</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="38"/>
       <c r="G5"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
-        <v>2</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="38"/>
       <c r="G6"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
-        <v>3</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="36">
+        <v>3</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="36" t="s">
         <v>177</v>
       </c>
       <c r="G7"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="36">
         <v>4</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="36" t="s">
         <v>179</v>
       </c>
       <c r="G8"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="36" t="s">
         <v>180</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
+      <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="36" t="s">
         <v>184</v>
       </c>
       <c r="G11"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="50">
-        <v>0</v>
-      </c>
-      <c r="C17" s="50">
-        <v>0</v>
-      </c>
-      <c r="D17" s="50">
-        <v>0</v>
-      </c>
-      <c r="E17" s="50" t="s">
+      <c r="B17" s="39">
+        <v>0</v>
+      </c>
+      <c r="C17" s="39">
+        <v>0</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="50">
-        <v>0</v>
-      </c>
-      <c r="C18" s="50">
-        <v>0</v>
-      </c>
-      <c r="D18" s="50">
-        <v>1</v>
-      </c>
-      <c r="E18" s="50" t="s">
+      <c r="B18" s="39">
+        <v>0</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="50">
-        <v>0</v>
-      </c>
-      <c r="C19" s="50">
-        <v>1</v>
-      </c>
-      <c r="D19" s="50">
-        <v>0</v>
-      </c>
-      <c r="E19" s="50" t="s">
+      <c r="B19" s="39">
+        <v>0</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="50">
-        <v>0</v>
-      </c>
-      <c r="C20" s="50">
-        <v>1</v>
-      </c>
-      <c r="D20" s="50">
-        <v>1</v>
-      </c>
-      <c r="E20" s="50" t="s">
+      <c r="B20" s="39">
+        <v>0</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="50">
-        <v>1</v>
-      </c>
-      <c r="C21" s="50">
-        <v>0</v>
-      </c>
-      <c r="D21" s="50">
-        <v>0</v>
-      </c>
-      <c r="E21" s="50" t="s">
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>0</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="50">
-        <v>1</v>
-      </c>
-      <c r="C22" s="50">
-        <v>0</v>
-      </c>
-      <c r="D22" s="50">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50" t="s">
+      <c r="B22" s="39">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39">
+        <v>0</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="50">
-        <v>1</v>
-      </c>
-      <c r="C23" s="50">
-        <v>1</v>
-      </c>
-      <c r="D23" s="50">
-        <v>0</v>
-      </c>
-      <c r="E23" s="50" t="s">
+      <c r="B23" s="39">
+        <v>1</v>
+      </c>
+      <c r="C23" s="39">
+        <v>1</v>
+      </c>
+      <c r="D23" s="39">
+        <v>0</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="50">
-        <v>1</v>
-      </c>
-      <c r="C24" s="50">
-        <v>1</v>
-      </c>
-      <c r="D24" s="50">
-        <v>1</v>
-      </c>
-      <c r="E24" s="50" t="s">
+      <c r="B24" s="39">
+        <v>1</v>
+      </c>
+      <c r="C24" s="39">
+        <v>1</v>
+      </c>
+      <c r="D24" s="39">
+        <v>1</v>
+      </c>
+      <c r="E24" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -37233,15 +37263,15 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="35" t="s">
         <v>392</v>
       </c>
@@ -37259,19 +37289,19 @@
       <c r="C3" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="51" t="s">
         <v>381</v>
       </c>
     </row>
@@ -37285,11 +37315,11 @@
       <c r="C4" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="51"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
@@ -37305,11 +37335,11 @@
       <c r="C5" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="51"/>
       <c r="J5" s="28" t="s">
         <v>391</v>
       </c>
@@ -37328,11 +37358,11 @@
       <c r="C6" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -37348,19 +37378,19 @@
       <c r="C7" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="51" t="s">
         <v>374</v>
       </c>
       <c r="K7" s="30"/>
@@ -37378,11 +37408,11 @@
       <c r="C8" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="43"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="51"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -37399,11 +37429,11 @@
       <c r="C9" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="43"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="51"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -37420,11 +37450,11 @@
       <c r="C10" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="43"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="51"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -37432,15 +37462,15 @@
       <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="42" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="33" t="s">
         <v>388</v>
       </c>
@@ -37462,19 +37492,19 @@
       <c r="C12" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="55" t="s">
         <v>381</v>
       </c>
       <c r="K12" s="30"/>
@@ -37492,11 +37522,11 @@
       <c r="C13" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="55"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -37512,11 +37542,11 @@
       <c r="C14" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="55"/>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
@@ -37532,11 +37562,11 @@
       <c r="C15" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="39"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="55"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
@@ -37552,19 +37582,19 @@
       <c r="C16" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="55" t="s">
         <v>374</v>
       </c>
       <c r="K16" s="30"/>
@@ -37582,11 +37612,11 @@
       <c r="C17" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="39"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="55"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
@@ -37602,11 +37632,11 @@
       <c r="C18" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="55"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -37622,11 +37652,11 @@
       <c r="C19" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="39"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="55"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -37685,30 +37715,30 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
